--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21181A-336E-4FF1-97B6-7AC34125DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E988C9BC-6B48-4A25-84BB-61E276124327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="749">
   <si>
     <t>Contact</t>
   </si>
@@ -824,48 +824,6 @@
     <t>N° Département</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>00012</t>
-  </si>
-  <si>
-    <t>00013</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
-    <t>00015</t>
-  </si>
-  <si>
-    <t>00016</t>
-  </si>
-  <si>
-    <t>00017</t>
-  </si>
-  <si>
-    <t>00018</t>
-  </si>
-  <si>
     <t>Photos annonce</t>
   </si>
   <si>
@@ -923,24 +881,6 @@
     <t>2 843 (SS) + 2 870 + 2 871 (R+1) + 44 (mezz)</t>
   </si>
   <si>
-    <t>0.15832132023516807</t>
-  </si>
-  <si>
-    <t>45.64855270188624</t>
-  </si>
-  <si>
-    <t>47.23816107662002</t>
-  </si>
-  <si>
-    <t>6.023317650922776</t>
-  </si>
-  <si>
-    <t>47.58702497719213</t>
-  </si>
-  <si>
-    <t>1.332018754475291</t>
-  </si>
-  <si>
     <t>https://maps.app.goo.gl/YuAJQRM2HM3gYVyJ6</t>
   </si>
   <si>
@@ -1019,45 +959,6 @@
     <t>2.2883596355824607</t>
   </si>
   <si>
-    <t>00005.1</t>
-  </si>
-  <si>
-    <t>00005.2</t>
-  </si>
-  <si>
-    <t>00005.3</t>
-  </si>
-  <si>
-    <t>00005.4</t>
-  </si>
-  <si>
-    <t>00005.5</t>
-  </si>
-  <si>
-    <t>00005.6</t>
-  </si>
-  <si>
-    <t>00005.7</t>
-  </si>
-  <si>
-    <t>00005.8</t>
-  </si>
-  <si>
-    <t>00005.9</t>
-  </si>
-  <si>
-    <t>00005.10</t>
-  </si>
-  <si>
-    <t>00005.11</t>
-  </si>
-  <si>
-    <t>00005.12</t>
-  </si>
-  <si>
-    <t>00005.13</t>
-  </si>
-  <si>
     <t>https://maps.app.goo.gl/yRNFdK1p6sWPThzm8</t>
   </si>
   <si>
@@ -1145,42 +1046,6 @@
     <t>Total (L+C+M)</t>
   </si>
   <si>
-    <t>00006.1</t>
-  </si>
-  <si>
-    <t>00006.2</t>
-  </si>
-  <si>
-    <t>00006.3</t>
-  </si>
-  <si>
-    <t>00006.4</t>
-  </si>
-  <si>
-    <t>00006.5</t>
-  </si>
-  <si>
-    <t>00006.6</t>
-  </si>
-  <si>
-    <t>00006.7</t>
-  </si>
-  <si>
-    <t>00006.8</t>
-  </si>
-  <si>
-    <t>00006.9</t>
-  </si>
-  <si>
-    <t>00006.10</t>
-  </si>
-  <si>
-    <t>00006.11</t>
-  </si>
-  <si>
-    <t>00006.12</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -1607,48 +1472,6 @@
     <t>1.9133525748219058</t>
   </si>
   <si>
-    <t>00007.1</t>
-  </si>
-  <si>
-    <t>00007.2</t>
-  </si>
-  <si>
-    <t>00007.3</t>
-  </si>
-  <si>
-    <t>00007.4</t>
-  </si>
-  <si>
-    <t>00007.5</t>
-  </si>
-  <si>
-    <t>00007.6</t>
-  </si>
-  <si>
-    <t>00007.7</t>
-  </si>
-  <si>
-    <t>00007.8</t>
-  </si>
-  <si>
-    <t>00009.1</t>
-  </si>
-  <si>
-    <t>00009.2</t>
-  </si>
-  <si>
-    <t>00009.3</t>
-  </si>
-  <si>
-    <t>00009.4</t>
-  </si>
-  <si>
-    <t>00009.5</t>
-  </si>
-  <si>
-    <t>00009.6</t>
-  </si>
-  <si>
     <t>Fitness, Esthétique, La Vie Claire, Padel, Bowling, Restaurant, bar</t>
   </si>
   <si>
@@ -1763,12 +1586,6 @@
     <t>2.2368921858206634</t>
   </si>
   <si>
-    <t>00020.1</t>
-  </si>
-  <si>
-    <t>00020.2</t>
-  </si>
-  <si>
     <t>48.90087777754063</t>
   </si>
   <si>
@@ -1790,12 +1607,6 @@
     <t>382 €/m² = 42 000 €</t>
   </si>
   <si>
-    <t>00021.1</t>
-  </si>
-  <si>
-    <t>00021.2</t>
-  </si>
-  <si>
     <t>Logement, bureaux et restaurants</t>
   </si>
   <si>
@@ -1841,21 +1652,6 @@
     <t>2.190588509804789</t>
   </si>
   <si>
-    <t>00023.1</t>
-  </si>
-  <si>
-    <t>00023.2</t>
-  </si>
-  <si>
-    <t>00023.3</t>
-  </si>
-  <si>
-    <t>00023.4</t>
-  </si>
-  <si>
-    <t>00023.5</t>
-  </si>
-  <si>
     <t>Boulangerie, Monoprix</t>
   </si>
   <si>
@@ -1907,21 +1703,6 @@
     <t>225 €/m²</t>
   </si>
   <si>
-    <t>00024.1</t>
-  </si>
-  <si>
-    <t>00024.2</t>
-  </si>
-  <si>
-    <t>00024.3</t>
-  </si>
-  <si>
-    <t>00024.4</t>
-  </si>
-  <si>
-    <t>00024.5</t>
-  </si>
-  <si>
     <t>49.047773402344596</t>
   </si>
   <si>
@@ -2174,145 +1955,343 @@
     <t>Restaurants, Optical Centre, Emjo, Gifi, Basic Fit, Carrefour Market, Lidl, coiffeur</t>
   </si>
   <si>
-    <t>00022.1</t>
-  </si>
-  <si>
-    <t>00022.2</t>
-  </si>
-  <si>
-    <t>00022.3</t>
-  </si>
-  <si>
-    <t>00022.4</t>
-  </si>
-  <si>
-    <t>00022.5</t>
-  </si>
-  <si>
-    <t>00022.6</t>
-  </si>
-  <si>
-    <t>00022.7</t>
-  </si>
-  <si>
     <t>Charges annuelles</t>
   </si>
   <si>
-    <t>00010.1</t>
-  </si>
-  <si>
-    <t>00019.1</t>
-  </si>
-  <si>
-    <t>00019.2</t>
-  </si>
-  <si>
-    <t>00019.3</t>
-  </si>
-  <si>
-    <t>00019.4</t>
-  </si>
-  <si>
-    <t>00019.5</t>
-  </si>
-  <si>
-    <t>00019.6</t>
-  </si>
-  <si>
-    <t>00019.7</t>
-  </si>
-  <si>
-    <t>00019.8</t>
-  </si>
-  <si>
-    <t>00021.3</t>
-  </si>
-  <si>
-    <t>00021.4</t>
-  </si>
-  <si>
-    <t>00021.5</t>
-  </si>
-  <si>
-    <t>00021.6</t>
-  </si>
-  <si>
-    <t>00021.7</t>
-  </si>
-  <si>
-    <t>00021.8</t>
-  </si>
-  <si>
-    <t>00021.9</t>
-  </si>
-  <si>
-    <t>00021.10</t>
-  </si>
-  <si>
-    <t>00021.11</t>
-  </si>
-  <si>
-    <t>00021.12</t>
-  </si>
-  <si>
-    <t>00021.13</t>
-  </si>
-  <si>
-    <t>00021.14</t>
-  </si>
-  <si>
-    <t>00021.15</t>
-  </si>
-  <si>
-    <t>00021.16</t>
-  </si>
-  <si>
-    <t>00021.17</t>
-  </si>
-  <si>
-    <t>00021.18</t>
-  </si>
-  <si>
-    <t>00021.19</t>
-  </si>
-  <si>
-    <t>00021.20</t>
-  </si>
-  <si>
-    <t>00021.21</t>
-  </si>
-  <si>
-    <t>00021.22</t>
-  </si>
-  <si>
-    <t>00021.23</t>
-  </si>
-  <si>
-    <t>00024.6</t>
-  </si>
-  <si>
-    <t>00024.7</t>
-  </si>
-  <si>
-    <t>00024.8</t>
-  </si>
-  <si>
-    <t>00024.9</t>
-  </si>
-  <si>
-    <t>00024.10</t>
-  </si>
-  <si>
-    <t>00024.11</t>
-  </si>
-  <si>
-    <t>00024.12</t>
-  </si>
-  <si>
-    <t>00024.13</t>
-  </si>
-  <si>
-    <t>00024.14</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>19.8</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>21.10</t>
+  </si>
+  <si>
+    <t>21.11</t>
+  </si>
+  <si>
+    <t>21.12</t>
+  </si>
+  <si>
+    <t>21.13</t>
+  </si>
+  <si>
+    <t>21.14</t>
+  </si>
+  <si>
+    <t>21.15</t>
+  </si>
+  <si>
+    <t>21.16</t>
+  </si>
+  <si>
+    <t>21.17</t>
+  </si>
+  <si>
+    <t>21.18</t>
+  </si>
+  <si>
+    <t>21.19</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>21.21</t>
+  </si>
+  <si>
+    <t>21.22</t>
+  </si>
+  <si>
+    <t>21.23</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>24.10</t>
+  </si>
+  <si>
+    <t>24.11</t>
+  </si>
+  <si>
+    <t>24.12</t>
+  </si>
+  <si>
+    <t>24.13</t>
+  </si>
+  <si>
+    <t>24.14</t>
+  </si>
+  <si>
+    <t>45.648526</t>
+  </si>
+  <si>
+    <t>0.158468</t>
+  </si>
+  <si>
+    <t>47.586994</t>
+  </si>
+  <si>
+    <t>1.331958</t>
   </si>
 </sst>
 </file>
@@ -3311,10 +3290,10 @@
   <dimension ref="A1:BD123"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K114"/>
+      <selection pane="bottomRight" activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -3410,19 +3389,19 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>104</v>
@@ -3437,7 +3416,7 @@
         <v>103</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>716</v>
+        <v>636</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>8</v>
@@ -3449,16 +3428,16 @@
         <v>81</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>106</v>
@@ -3485,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>108</v>
@@ -3494,10 +3473,10 @@
         <v>109</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>111</v>
@@ -3565,13 +3544,13 @@
         <v>451</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="P2" s="36">
         <v>423</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="R2" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -3626,31 +3605,31 @@
         <v>105</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>293</v>
+        <v>745</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>292</v>
+        <v>746</v>
       </c>
       <c r="AO2" s="33" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="AP2" s="33"/>
       <c r="AQ2" s="5" t="s">
@@ -3717,7 +3696,7 @@
         <v>325</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="P3" s="36" t="s">
         <v>105</v>
@@ -3778,31 +3757,31 @@
         <v>105</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>295</v>
+        <v>396</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>47.238161699999999</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>6.0234543</v>
       </c>
       <c r="AO3" s="33" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="AP3" s="33"/>
       <c r="AQ3" s="5" t="s">
@@ -3869,13 +3848,13 @@
         <v>264</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P4" s="36">
         <v>244</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="R4" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -3930,31 +3909,31 @@
         <v>105</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>296</v>
+        <v>747</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>297</v>
+        <v>748</v>
       </c>
       <c r="AO4" s="33" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="AP4" s="33"/>
       <c r="AQ4" s="5" t="s">
@@ -4000,7 +3979,7 @@
 25400 - Exincourt</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>48</v>
@@ -4021,13 +4000,13 @@
         <v>9030</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="P5" s="36">
         <v>8628</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="R5" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -4082,31 +4061,31 @@
         <v>105</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM5" s="5" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AO5" s="33" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="AP5" s="33"/>
       <c r="AQ5" s="5" t="s">
@@ -4167,7 +4146,7 @@
         <v>105</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="N6" s="36">
         <v>179</v>
@@ -4234,38 +4213,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="AO6" s="33" t="s">
-        <v>324</v>
+        <v>637</v>
       </c>
       <c r="AP6" s="33"/>
       <c r="AQ6" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS6" s="13" t="s">
         <v>76</v>
@@ -4304,7 +4283,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>48</v>
@@ -4319,7 +4298,7 @@
         <v>105</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="N7" s="36">
         <v>159</v>
@@ -4386,38 +4365,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>325</v>
+        <v>638</v>
       </c>
       <c r="AP7" s="34"/>
       <c r="AQ7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR7" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS7" s="13" t="s">
         <v>76</v>
@@ -4456,7 +4435,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>48</v>
@@ -4471,7 +4450,7 @@
         <v>105</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="N8" s="36">
         <v>125</v>
@@ -4538,38 +4517,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="AO8" s="33" t="s">
-        <v>326</v>
+        <v>639</v>
       </c>
       <c r="AP8" s="34"/>
       <c r="AQ8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR8" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS8" s="13" t="s">
         <v>76</v>
@@ -4608,7 +4587,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>48</v>
@@ -4623,7 +4602,7 @@
         <v>105</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="N9" s="36">
         <v>156</v>
@@ -4690,38 +4669,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM9" s="11" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="AO9" s="33" t="s">
-        <v>327</v>
+        <v>640</v>
       </c>
       <c r="AP9" s="34"/>
       <c r="AQ9" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS9" s="13" t="s">
         <v>76</v>
@@ -4760,7 +4739,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>48</v>
@@ -4775,7 +4754,7 @@
         <v>105</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="N10" s="36">
         <v>178</v>
@@ -4842,38 +4821,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH10" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM10" s="11" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="AN10" s="11" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="AO10" s="33" t="s">
-        <v>328</v>
+        <v>641</v>
       </c>
       <c r="AP10" s="34"/>
       <c r="AQ10" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR10" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS10" s="13" t="s">
         <v>76</v>
@@ -4912,7 +4891,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>48</v>
@@ -4927,7 +4906,7 @@
         <v>105</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="N11" s="36">
         <v>253</v>
@@ -4994,38 +4973,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH11" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="AO11" s="33" t="s">
-        <v>329</v>
+        <v>642</v>
       </c>
       <c r="AP11" s="34"/>
       <c r="AQ11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR11" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS11" s="13" t="s">
         <v>76</v>
@@ -5064,7 +5043,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>48</v>
@@ -5079,7 +5058,7 @@
         <v>105</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="N12" s="36">
         <v>171</v>
@@ -5146,38 +5125,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH12" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ12" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="AN12" s="11" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="AO12" s="33" t="s">
-        <v>330</v>
+        <v>643</v>
       </c>
       <c r="AP12" s="34"/>
       <c r="AQ12" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR12" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS12" s="13" t="s">
         <v>76</v>
@@ -5216,7 +5195,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>48</v>
@@ -5231,7 +5210,7 @@
         <v>105</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="N13" s="36">
         <v>200</v>
@@ -5298,38 +5277,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH13" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="AO13" s="33" t="s">
-        <v>331</v>
+        <v>644</v>
       </c>
       <c r="AP13" s="34"/>
       <c r="AQ13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR13" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS13" s="13" t="s">
         <v>76</v>
@@ -5368,7 +5347,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>48</v>
@@ -5383,7 +5362,7 @@
         <v>105</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="N14" s="36">
         <v>105</v>
@@ -5450,38 +5429,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH14" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="AO14" s="33" t="s">
-        <v>332</v>
+        <v>645</v>
       </c>
       <c r="AP14" s="34"/>
       <c r="AQ14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>76</v>
@@ -5520,7 +5499,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>48</v>
@@ -5535,7 +5514,7 @@
         <v>105</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="N15" s="36">
         <v>51</v>
@@ -5602,38 +5581,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH15" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL15" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="AO15" s="33" t="s">
-        <v>333</v>
+        <v>646</v>
       </c>
       <c r="AP15" s="34"/>
       <c r="AQ15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR15" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS15" s="13" t="s">
         <v>76</v>
@@ -5672,7 +5651,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>48</v>
@@ -5687,7 +5666,7 @@
         <v>105</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="N16" s="36">
         <v>115</v>
@@ -5754,38 +5733,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH16" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ16" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="AN16" s="11" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="AO16" s="33" t="s">
-        <v>334</v>
+        <v>647</v>
       </c>
       <c r="AP16" s="34"/>
       <c r="AQ16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR16" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>76</v>
@@ -5824,7 +5803,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>48</v>
@@ -5839,7 +5818,7 @@
         <v>105</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="N17" s="36">
         <v>210</v>
@@ -5906,38 +5885,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH17" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL17" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM17" s="11" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="AO17" s="33" t="s">
-        <v>335</v>
+        <v>648</v>
       </c>
       <c r="AP17" s="34"/>
       <c r="AQ17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR17" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS17" s="13" t="s">
         <v>76</v>
@@ -5976,7 +5955,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>48</v>
@@ -5991,7 +5970,7 @@
         <v>105</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="N18" s="36">
         <v>30</v>
@@ -6058,38 +6037,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH18" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="AO18" s="33" t="s">
-        <v>336</v>
+        <v>649</v>
       </c>
       <c r="AP18" s="34"/>
       <c r="AQ18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR18" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>76</v>
@@ -6210,38 +6189,38 @@
         <v>105</v>
       </c>
       <c r="AG19" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AN19" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="AH19" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="AI19" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="AN19" s="11" t="s">
-        <v>481</v>
-      </c>
       <c r="AO19" s="33" t="s">
-        <v>366</v>
+        <v>650</v>
       </c>
       <c r="AP19" s="33"/>
       <c r="AQ19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR19" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS19" s="13" t="s">
         <v>76</v>
@@ -6362,38 +6341,38 @@
         <v>105</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL20" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="AO20" s="33" t="s">
-        <v>367</v>
+        <v>651</v>
       </c>
       <c r="AP20" s="34"/>
       <c r="AQ20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR20" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS20" s="13" t="s">
         <v>76</v>
@@ -6514,38 +6493,38 @@
         <v>105</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL21" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="AN21" s="11" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>368</v>
+        <v>652</v>
       </c>
       <c r="AP21" s="34"/>
       <c r="AQ21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS21" s="13" t="s">
         <v>76</v>
@@ -6666,38 +6645,38 @@
         <v>105</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ22" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL22" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM22" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="AM22" s="11" t="s">
-        <v>486</v>
-      </c>
       <c r="AN22" s="11" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="AO22" s="33" t="s">
-        <v>369</v>
+        <v>653</v>
       </c>
       <c r="AP22" s="34"/>
       <c r="AQ22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR22" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS22" s="13" t="s">
         <v>76</v>
@@ -6818,38 +6797,38 @@
         <v>105</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH23" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI23" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM23" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="AJ23" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="AM23" s="11" t="s">
-        <v>488</v>
-      </c>
       <c r="AN23" s="11" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>370</v>
+        <v>654</v>
       </c>
       <c r="AP23" s="34"/>
       <c r="AQ23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR23" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS23" s="13" t="s">
         <v>76</v>
@@ -6970,38 +6949,38 @@
         <v>105</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH24" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL24" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="AN24" s="11" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>371</v>
+        <v>655</v>
       </c>
       <c r="AP24" s="34"/>
       <c r="AQ24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR24" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS24" s="13" t="s">
         <v>76</v>
@@ -7122,38 +7101,38 @@
         <v>105</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH25" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM25" s="11" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>372</v>
+        <v>656</v>
       </c>
       <c r="AP25" s="34"/>
       <c r="AQ25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR25" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS25" s="13" t="s">
         <v>76</v>
@@ -7274,38 +7253,38 @@
         <v>105</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ26" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK26" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL26" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM26" s="11" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="AN26" s="11" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="AO26" s="33" t="s">
-        <v>373</v>
+        <v>657</v>
       </c>
       <c r="AP26" s="34"/>
       <c r="AQ26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR26" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS26" s="13" t="s">
         <v>76</v>
@@ -7426,38 +7405,38 @@
         <v>105</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH27" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ27" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL27" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM27" s="11" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>374</v>
+        <v>658</v>
       </c>
       <c r="AP27" s="34"/>
       <c r="AQ27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS27" s="13" t="s">
         <v>76</v>
@@ -7578,38 +7557,38 @@
         <v>105</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ28" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK28" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL28" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM28" s="11" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="AN28" s="11" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="AO28" s="33" t="s">
-        <v>375</v>
+        <v>659</v>
       </c>
       <c r="AP28" s="34"/>
       <c r="AQ28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR28" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS28" s="13" t="s">
         <v>76</v>
@@ -7730,38 +7709,38 @@
         <v>105</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ29" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK29" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM29" s="11" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="AN29" s="11" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>376</v>
+        <v>660</v>
       </c>
       <c r="AP29" s="34"/>
       <c r="AQ29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR29" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS29" s="13" t="s">
         <v>76</v>
@@ -7882,38 +7861,38 @@
         <v>105</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ30" s="4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="AL30" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM30" s="11" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="AO30" s="33" t="s">
-        <v>377</v>
+        <v>661</v>
       </c>
       <c r="AP30" s="34"/>
       <c r="AQ30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR30" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS30" s="13" t="s">
         <v>76</v>
@@ -7967,7 +7946,7 @@
         <v>105</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="N31" s="36">
         <v>61</v>
@@ -8034,31 +8013,31 @@
         <v>105</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH31" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ31" s="4" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="AK31" s="11" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="AL31" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM31" s="11" t="s">
-        <v>683</v>
+        <v>610</v>
       </c>
       <c r="AN31" s="11" t="s">
-        <v>684</v>
+        <v>611</v>
       </c>
       <c r="AO31" s="33" t="s">
-        <v>520</v>
+        <v>662</v>
       </c>
       <c r="AP31" s="33"/>
       <c r="AQ31" s="5" t="s">
@@ -8119,7 +8098,7 @@
         <v>105</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="N32" s="36">
         <v>227</v>
@@ -8186,38 +8165,38 @@
         <v>105</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH32" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ32" s="4" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="AK32" s="11" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="AL32" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM32" s="11" t="s">
-        <v>685</v>
+        <v>612</v>
       </c>
       <c r="AN32" s="11" t="s">
-        <v>686</v>
+        <v>613</v>
       </c>
       <c r="AO32" s="33" t="s">
-        <v>521</v>
+        <v>663</v>
       </c>
       <c r="AP32" s="34"/>
       <c r="AQ32" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR32" s="11" t="s">
-        <v>701</v>
+        <v>628</v>
       </c>
       <c r="AS32" s="13" t="s">
         <v>40</v>
@@ -8271,7 +8250,7 @@
         <v>105</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="N33" s="36">
         <v>102</v>
@@ -8338,38 +8317,38 @@
         <v>105</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH33" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ33" s="4" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="AK33" s="11" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="AL33" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM33" s="11" t="s">
-        <v>687</v>
+        <v>614</v>
       </c>
       <c r="AN33" s="11" t="s">
-        <v>688</v>
+        <v>615</v>
       </c>
       <c r="AO33" s="33" t="s">
-        <v>522</v>
+        <v>664</v>
       </c>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR33" s="11" t="s">
-        <v>702</v>
+        <v>629</v>
       </c>
       <c r="AS33" s="13" t="s">
         <v>40</v>
@@ -8423,7 +8402,7 @@
         <v>105</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="N34" s="36">
         <v>62</v>
@@ -8490,38 +8469,38 @@
         <v>105</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH34" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ34" s="4" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="AK34" s="11" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="AL34" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM34" s="11" t="s">
-        <v>689</v>
+        <v>616</v>
       </c>
       <c r="AN34" s="11" t="s">
-        <v>690</v>
+        <v>617</v>
       </c>
       <c r="AO34" s="33" t="s">
-        <v>523</v>
+        <v>665</v>
       </c>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR34" s="11" t="s">
-        <v>703</v>
+        <v>630</v>
       </c>
       <c r="AS34" s="13" t="s">
         <v>40</v>
@@ -8575,7 +8554,7 @@
         <v>105</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="N35" s="36">
         <v>22</v>
@@ -8642,38 +8621,38 @@
         <v>105</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH35" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI35" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ35" s="4" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="AL35" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>691</v>
+        <v>618</v>
       </c>
       <c r="AN35" s="11" t="s">
-        <v>692</v>
+        <v>619</v>
       </c>
       <c r="AO35" s="33" t="s">
-        <v>524</v>
+        <v>666</v>
       </c>
       <c r="AP35" s="34"/>
       <c r="AQ35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR35" s="11" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="AS35" s="13" t="s">
         <v>40</v>
@@ -8727,7 +8706,7 @@
         <v>105</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="N36" s="36">
         <v>9</v>
@@ -8794,38 +8773,38 @@
         <v>105</v>
       </c>
       <c r="AG36" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH36" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI36" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ36" s="4" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="AK36" s="11" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM36" s="11" t="s">
-        <v>693</v>
+        <v>620</v>
       </c>
       <c r="AN36" s="11" t="s">
-        <v>694</v>
+        <v>621</v>
       </c>
       <c r="AO36" s="33" t="s">
-        <v>525</v>
+        <v>667</v>
       </c>
       <c r="AP36" s="34"/>
       <c r="AQ36" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR36" s="11" t="s">
-        <v>705</v>
+        <v>632</v>
       </c>
       <c r="AS36" s="13" t="s">
         <v>40</v>
@@ -8879,7 +8858,7 @@
         <v>105</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="N37" s="36">
         <v>71</v>
@@ -8946,38 +8925,38 @@
         <v>105</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH37" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI37" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ37" s="4" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="AL37" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM37" s="11" t="s">
-        <v>695</v>
+        <v>622</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>696</v>
+        <v>623</v>
       </c>
       <c r="AO37" s="33" t="s">
-        <v>526</v>
+        <v>668</v>
       </c>
       <c r="AP37" s="34"/>
       <c r="AQ37" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR37" s="11" t="s">
-        <v>706</v>
+        <v>633</v>
       </c>
       <c r="AS37" s="13" t="s">
         <v>40</v>
@@ -9031,7 +9010,7 @@
         <v>105</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="N38" s="36">
         <v>45</v>
@@ -9098,38 +9077,38 @@
         <v>105</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI38" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ38" s="4" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="AK38" s="11" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM38" s="11" t="s">
-        <v>697</v>
+        <v>624</v>
       </c>
       <c r="AN38" s="11" t="s">
-        <v>698</v>
+        <v>625</v>
       </c>
       <c r="AO38" s="33" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="AP38" s="34"/>
       <c r="AQ38" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR38" s="11" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="AS38" s="13" t="s">
         <v>40</v>
@@ -9250,38 +9229,38 @@
         <v>105</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH39" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM39" s="5" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="AN39" s="5" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="AO39" s="33" t="s">
-        <v>263</v>
+        <v>670</v>
       </c>
       <c r="AP39" s="33"/>
       <c r="AQ39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR39" s="11" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="AS39" s="13" t="s">
         <v>31</v>
@@ -9335,19 +9314,19 @@
         <v>105</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="N40" s="35">
         <v>168</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="P40" s="36">
         <v>156</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="R40" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -9402,31 +9381,31 @@
         <v>105</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH40" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM40" s="5" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="AN40" s="5" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="AO40" s="33" t="s">
-        <v>528</v>
+        <v>671</v>
       </c>
       <c r="AP40" s="33"/>
       <c r="AQ40" s="5" t="s">
@@ -9487,7 +9466,7 @@
         <v>105</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="N41" s="36">
         <v>87</v>
@@ -9550,31 +9529,31 @@
         <v>105</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH41" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM41" s="11" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="AN41" s="11" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="AO41" s="33" t="s">
-        <v>529</v>
+        <v>672</v>
       </c>
       <c r="AP41" s="34"/>
       <c r="AQ41" s="5" t="s">
@@ -9635,7 +9614,7 @@
         <v>105</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="N42" s="36">
         <v>197</v>
@@ -9698,31 +9677,31 @@
         <v>105</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH42" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI42" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ42" s="4" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="AK42" s="5" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="AL42" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM42" s="11" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="AN42" s="11" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="AO42" s="33" t="s">
-        <v>530</v>
+        <v>673</v>
       </c>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="5" t="s">
@@ -9783,7 +9762,7 @@
         <v>105</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="N43" s="36">
         <v>576</v>
@@ -9846,31 +9825,31 @@
         <v>105</v>
       </c>
       <c r="AG43" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI43" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ43" s="4" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="AK43" s="5" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="AL43" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM43" s="11" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="AN43" s="11" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>531</v>
+        <v>674</v>
       </c>
       <c r="AP43" s="34"/>
       <c r="AQ43" s="5" t="s">
@@ -9931,19 +9910,19 @@
         <v>105</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="N44" s="36">
         <v>237</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="P44" s="36">
         <v>221</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="R44" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -9998,31 +9977,31 @@
         <v>105</v>
       </c>
       <c r="AG44" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH44" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI44" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ44" s="4" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="AK44" s="5" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="AL44" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM44" s="11" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="AN44" s="11" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="AO44" s="33" t="s">
-        <v>532</v>
+        <v>675</v>
       </c>
       <c r="AP44" s="34"/>
       <c r="AQ44" s="5" t="s">
@@ -10083,19 +10062,19 @@
         <v>105</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="N45" s="36">
         <v>236</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="P45" s="36">
         <v>218</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="R45" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -10150,31 +10129,31 @@
         <v>105</v>
       </c>
       <c r="AG45" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH45" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI45" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ45" s="4" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="AK45" s="5" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="AL45" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM45" s="11" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="AN45" s="11" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>533</v>
+        <v>676</v>
       </c>
       <c r="AP45" s="34"/>
       <c r="AQ45" s="11" t="s">
@@ -10241,7 +10220,7 @@
         <v>370</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="P46" s="36" t="s">
         <v>105</v>
@@ -10302,31 +10281,31 @@
         <v>105</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH46" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI46" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ46" s="4" t="s">
-        <v>542</v>
+        <v>483</v>
       </c>
       <c r="AK46" s="5" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
       <c r="AL46" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM46" s="5" t="s">
-        <v>535</v>
+        <v>476</v>
       </c>
       <c r="AN46" s="5" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="AO46" s="33" t="s">
-        <v>264</v>
+        <v>677</v>
       </c>
       <c r="AP46" s="33"/>
       <c r="AQ46" s="5" t="s">
@@ -10393,7 +10372,7 @@
         <v>486</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="P47" s="36" t="s">
         <v>105</v>
@@ -10454,31 +10433,31 @@
         <v>105</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI47" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ47" s="4" t="s">
-        <v>542</v>
+        <v>483</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
       <c r="AL47" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM47" s="11" t="s">
-        <v>537</v>
+        <v>478</v>
       </c>
       <c r="AN47" s="11" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="AO47" s="33" t="s">
-        <v>717</v>
+        <v>678</v>
       </c>
       <c r="AP47" s="33"/>
       <c r="AQ47" s="5" t="s">
@@ -10545,7 +10524,7 @@
         <v>681</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="P48" s="36" t="s">
         <v>105</v>
@@ -10606,7 +10585,7 @@
         <v>105</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH48" s="10" t="s">
         <v>54</v>
@@ -10615,29 +10594,29 @@
         <v>105</v>
       </c>
       <c r="AJ48" s="4" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="AK48" s="11" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="AL48" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM48" s="11" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="AN48" s="11" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="AO48" s="33" t="s">
-        <v>265</v>
+        <v>679</v>
       </c>
       <c r="AP48" s="33"/>
       <c r="AQ48" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR48" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS48" s="13" t="s">
         <v>31</v>
@@ -10720,19 +10699,19 @@
         <v>105</v>
       </c>
       <c r="V49" s="12" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="W49" s="12" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="X49" s="12" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="Y49" s="12" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="AA49" s="6">
         <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
@@ -10755,31 +10734,31 @@
         <v>105</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH49" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI49" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ49" s="4" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
       <c r="AK49" s="11" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="AL49" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM49" s="11" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="AN49" s="11" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="AO49" s="33" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="AP49" s="33"/>
       <c r="AQ49" s="5" t="s">
@@ -10825,7 +10804,7 @@
 75009 - Paris</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>46</v>
@@ -10846,7 +10825,7 @@
         <v>115</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="P50" s="36" t="s">
         <v>105</v>
@@ -10907,7 +10886,7 @@
         <v>105</v>
       </c>
       <c r="AG50" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH50" s="10" t="s">
         <v>54</v>
@@ -10922,16 +10901,16 @@
         <v>59</v>
       </c>
       <c r="AL50" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM50" s="11" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="AN50" s="11" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="AO50" s="33" t="s">
-        <v>267</v>
+        <v>680</v>
       </c>
       <c r="AP50" s="33"/>
       <c r="AQ50" s="5" t="s">
@@ -10998,7 +10977,7 @@
         <v>189</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="P51" s="36" t="s">
         <v>105</v>
@@ -11059,38 +11038,38 @@
         <v>105</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH51" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ51" s="4" t="s">
-        <v>549</v>
+        <v>490</v>
       </c>
       <c r="AK51" s="11" t="s">
-        <v>550</v>
+        <v>491</v>
       </c>
       <c r="AL51" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM51" s="11" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="AN51" s="11" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AO51" s="33" t="s">
-        <v>268</v>
+        <v>681</v>
       </c>
       <c r="AP51" s="33"/>
       <c r="AQ51" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR51" s="11" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="AS51" s="13" t="s">
         <v>31</v>
@@ -11150,7 +11129,7 @@
         <v>177</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="P52" s="36" t="s">
         <v>105</v>
@@ -11211,31 +11190,31 @@
         <v>105</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ52" s="4" t="s">
-        <v>551</v>
+        <v>492</v>
       </c>
       <c r="AK52" s="11" t="s">
         <v>65</v>
       </c>
       <c r="AL52" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM52" s="11" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="AN52" s="11" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AO52" s="33" t="s">
-        <v>269</v>
+        <v>682</v>
       </c>
       <c r="AP52" s="33"/>
       <c r="AQ52" s="5" t="s">
@@ -11363,31 +11342,31 @@
         <v>105</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH53" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI53" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ53" s="4" t="s">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="AK53" s="11" t="s">
         <v>53</v>
       </c>
       <c r="AL53" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM53" s="11" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="AN53" s="11" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="AO53" s="33" t="s">
-        <v>270</v>
+        <v>683</v>
       </c>
       <c r="AP53" s="33"/>
       <c r="AQ53" s="5" t="s">
@@ -11433,7 +11412,7 @@
 75016 - Paris</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>46</v>
@@ -11454,7 +11433,7 @@
         <v>26</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="P54" s="36" t="s">
         <v>105</v>
@@ -11515,31 +11494,31 @@
         <v>105</v>
       </c>
       <c r="AG54" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH54" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI54" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ54" s="4" t="s">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="AK54" s="11" t="s">
         <v>74</v>
       </c>
       <c r="AL54" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM54" s="11" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="AN54" s="11" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="AO54" s="33" t="s">
-        <v>271</v>
+        <v>684</v>
       </c>
       <c r="AP54" s="33"/>
       <c r="AQ54" s="5" t="s">
@@ -11585,7 +11564,7 @@
 75016 - Paris</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>46</v>
@@ -11667,31 +11646,31 @@
         <v>105</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI55" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ55" s="4" t="s">
-        <v>554</v>
+        <v>495</v>
       </c>
       <c r="AK55" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AL55" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM55" s="11" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AN55" s="11" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="AO55" s="33" t="s">
-        <v>272</v>
+        <v>685</v>
       </c>
       <c r="AP55" s="33"/>
       <c r="AQ55" s="5" t="s">
@@ -11752,7 +11731,7 @@
         <v>105</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="N56" s="36">
         <v>110</v>
@@ -11819,38 +11798,38 @@
         <v>105</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH56" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI56" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ56" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK56" s="5" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="AL56" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM56" s="5" t="s">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="AN56" s="5" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
       <c r="AO56" s="33" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="AP56" s="33"/>
       <c r="AQ56" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR56" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS56" s="13" t="s">
         <v>38</v>
@@ -11904,7 +11883,7 @@
         <v>105</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="N57" s="36">
         <v>66</v>
@@ -11965,38 +11944,38 @@
         <v>105</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH57" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI57" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ57" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK57" s="5" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="AL57" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM57" s="11" t="s">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="AN57" s="11" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="AO57" s="33" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="AP57" s="34"/>
       <c r="AQ57" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS57" s="13" t="s">
         <v>38</v>
@@ -12050,7 +12029,7 @@
         <v>105</v>
       </c>
       <c r="M58" s="38" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="N58" s="36">
         <v>79</v>
@@ -12111,38 +12090,38 @@
         <v>105</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH58" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI58" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ58" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK58" s="5" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="AL58" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM58" s="11" t="s">
-        <v>560</v>
+        <v>501</v>
       </c>
       <c r="AN58" s="11" t="s">
-        <v>561</v>
+        <v>502</v>
       </c>
       <c r="AO58" s="33" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="AP58" s="34"/>
       <c r="AQ58" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR58" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS58" s="13" t="s">
         <v>38</v>
@@ -12196,7 +12175,7 @@
         <v>105</v>
       </c>
       <c r="M59" s="38" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="N59" s="36">
         <v>47</v>
@@ -12257,38 +12236,38 @@
         <v>105</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH59" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI59" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ59" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK59" s="5" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="AL59" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM59" s="11" t="s">
-        <v>562</v>
+        <v>503</v>
       </c>
       <c r="AN59" s="11" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
       <c r="AO59" s="33" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="AP59" s="34"/>
       <c r="AQ59" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR59" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS59" s="13" t="s">
         <v>38</v>
@@ -12342,7 +12321,7 @@
         <v>105</v>
       </c>
       <c r="M60" s="38" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="N60" s="36">
         <v>60</v>
@@ -12403,38 +12382,38 @@
         <v>105</v>
       </c>
       <c r="AG60" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AH60" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI60" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK60" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL60" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM60" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="AH60" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="AI60" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="AJ60" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK60" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="AL60" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="AM60" s="11" t="s">
-        <v>564</v>
-      </c>
       <c r="AN60" s="11" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="AO60" s="33" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="AP60" s="34"/>
       <c r="AQ60" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR60" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS60" s="13" t="s">
         <v>38</v>
@@ -12488,7 +12467,7 @@
         <v>105</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="N61" s="36">
         <v>81</v>
@@ -12549,38 +12528,38 @@
         <v>105</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH61" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI61" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ61" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK61" s="5" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="AL61" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM61" s="11" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="AN61" s="11" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="AO61" s="33" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="AP61" s="34"/>
       <c r="AQ61" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR61" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS61" s="13" t="s">
         <v>38</v>
@@ -12634,7 +12613,7 @@
         <v>105</v>
       </c>
       <c r="M62" s="38" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="N62" s="36">
         <v>45</v>
@@ -12695,38 +12674,38 @@
         <v>105</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH62" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI62" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ62" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK62" s="5" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="AL62" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM62" s="11" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="AN62" s="11" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="AO62" s="33" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="AP62" s="34"/>
       <c r="AQ62" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR62" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS62" s="13" t="s">
         <v>38</v>
@@ -12780,7 +12759,7 @@
         <v>105</v>
       </c>
       <c r="M63" s="38" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="N63" s="36">
         <v>73</v>
@@ -12841,38 +12820,38 @@
         <v>105</v>
       </c>
       <c r="AG63" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH63" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI63" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ63" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK63" s="5" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="AL63" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM63" s="11" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="AN63" s="11" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="AO63" s="33" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="AP63" s="34"/>
       <c r="AQ63" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR63" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS63" s="13" t="s">
         <v>38</v>
@@ -12926,7 +12905,7 @@
         <v>105</v>
       </c>
       <c r="M64" s="37" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="N64" s="36">
         <v>80</v>
@@ -12993,38 +12972,38 @@
         <v>105</v>
       </c>
       <c r="AG64" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH64" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI64" s="4" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ64" s="4" t="s">
-        <v>583</v>
+        <v>520</v>
       </c>
       <c r="AK64" s="5" t="s">
-        <v>578</v>
+        <v>517</v>
       </c>
       <c r="AL64" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM64" s="5" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
       <c r="AN64" s="5" t="s">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="AO64" s="33" t="s">
-        <v>572</v>
+        <v>694</v>
       </c>
       <c r="AP64" s="33"/>
       <c r="AQ64" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR64" s="11" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="AS64" s="13" t="s">
         <v>31</v>
@@ -13078,7 +13057,7 @@
         <v>105</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="N65" s="36">
         <v>110</v>
@@ -13139,38 +13118,38 @@
         <v>105</v>
       </c>
       <c r="AG65" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH65" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI65" s="10" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ65" s="4" t="s">
-        <v>583</v>
+        <v>520</v>
       </c>
       <c r="AK65" s="5" t="s">
-        <v>578</v>
+        <v>517</v>
       </c>
       <c r="AL65" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM65" s="11" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="AN65" s="11" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
       <c r="AO65" s="33" t="s">
-        <v>573</v>
+        <v>695</v>
       </c>
       <c r="AP65" s="34"/>
       <c r="AQ65" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR65" s="11" t="s">
-        <v>580</v>
+        <v>519</v>
       </c>
       <c r="AS65" s="13" t="s">
         <v>31</v>
@@ -13224,7 +13203,7 @@
         <v>105</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="N66" s="36">
         <v>321</v>
@@ -13291,7 +13270,7 @@
         <v>105</v>
       </c>
       <c r="AG66" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH66" s="10" t="s">
         <v>77</v>
@@ -13300,29 +13279,29 @@
         <v>105</v>
       </c>
       <c r="AJ66" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK66" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL66" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM66" s="5" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="AN66" s="5" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="AO66" s="33" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="AP66" s="33"/>
       <c r="AQ66" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR66" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS66" s="13" t="s">
         <v>38</v>
@@ -13376,7 +13355,7 @@
         <v>105</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="N67" s="36">
         <v>159</v>
@@ -13435,30 +13414,30 @@
         <v>105</v>
       </c>
       <c r="AG67" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
       <c r="AJ67" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK67" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL67" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM67" s="11"/>
       <c r="AN67" s="11"/>
       <c r="AO67" s="33" t="s">
-        <v>582</v>
+        <v>697</v>
       </c>
       <c r="AP67" s="34"/>
       <c r="AQ67" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR67" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS67" s="13" t="s">
         <v>38</v>
@@ -13512,7 +13491,7 @@
         <v>105</v>
       </c>
       <c r="M68" s="38" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="N68" s="36">
         <v>281</v>
@@ -13571,30 +13550,30 @@
         <v>105</v>
       </c>
       <c r="AG68" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
       <c r="AJ68" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK68" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL68" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM68" s="11"/>
       <c r="AN68" s="11"/>
       <c r="AO68" s="33" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="AP68" s="34"/>
       <c r="AQ68" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR68" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS68" s="13" t="s">
         <v>38</v>
@@ -13648,7 +13627,7 @@
         <v>105</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="N69" s="36">
         <v>168</v>
@@ -13707,30 +13686,30 @@
         <v>105</v>
       </c>
       <c r="AG69" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH69" s="10"/>
       <c r="AI69" s="10"/>
       <c r="AJ69" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK69" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL69" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM69" s="11"/>
       <c r="AN69" s="11"/>
       <c r="AO69" s="33" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="AP69" s="34"/>
       <c r="AQ69" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR69" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS69" s="13" t="s">
         <v>38</v>
@@ -13784,7 +13763,7 @@
         <v>105</v>
       </c>
       <c r="M70" s="38" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="N70" s="36">
         <v>228</v>
@@ -13843,30 +13822,30 @@
         <v>105</v>
       </c>
       <c r="AG70" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH70" s="10"/>
       <c r="AI70" s="10"/>
       <c r="AJ70" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK70" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL70" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM70" s="11"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="33" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="AP70" s="34"/>
       <c r="AQ70" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR70" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS70" s="13" t="s">
         <v>38</v>
@@ -13920,7 +13899,7 @@
         <v>105</v>
       </c>
       <c r="M71" s="38" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="N71" s="36">
         <v>133</v>
@@ -13979,30 +13958,30 @@
         <v>105</v>
       </c>
       <c r="AG71" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH71" s="10"/>
       <c r="AI71" s="10"/>
       <c r="AJ71" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK71" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL71" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="33" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="AP71" s="34"/>
       <c r="AQ71" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR71" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS71" s="13" t="s">
         <v>38</v>
@@ -14056,7 +14035,7 @@
         <v>105</v>
       </c>
       <c r="M72" s="38" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="N72" s="36">
         <v>341</v>
@@ -14115,30 +14094,30 @@
         <v>105</v>
       </c>
       <c r="AG72" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH72" s="10"/>
       <c r="AI72" s="10"/>
       <c r="AJ72" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK72" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL72" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
       <c r="AO72" s="33" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="AP72" s="34"/>
       <c r="AQ72" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR72" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS72" s="13" t="s">
         <v>38</v>
@@ -14192,7 +14171,7 @@
         <v>105</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="N73" s="36">
         <v>444</v>
@@ -14251,30 +14230,30 @@
         <v>105</v>
       </c>
       <c r="AG73" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH73" s="10"/>
       <c r="AI73" s="10"/>
       <c r="AJ73" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK73" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL73" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
       <c r="AO73" s="33" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="AP73" s="34"/>
       <c r="AQ73" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR73" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS73" s="13" t="s">
         <v>38</v>
@@ -14328,7 +14307,7 @@
         <v>105</v>
       </c>
       <c r="M74" s="38" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="N74" s="36">
         <v>206</v>
@@ -14387,30 +14366,30 @@
         <v>105</v>
       </c>
       <c r="AG74" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH74" s="10"/>
       <c r="AI74" s="10"/>
       <c r="AJ74" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK74" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL74" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
       <c r="AO74" s="33" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="AP74" s="34"/>
       <c r="AQ74" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR74" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS74" s="13" t="s">
         <v>38</v>
@@ -14464,7 +14443,7 @@
         <v>105</v>
       </c>
       <c r="M75" s="38" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="N75" s="36">
         <v>231</v>
@@ -14523,30 +14502,30 @@
         <v>105</v>
       </c>
       <c r="AG75" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH75" s="10"/>
       <c r="AI75" s="10"/>
       <c r="AJ75" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK75" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL75" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="33" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="AP75" s="34"/>
       <c r="AQ75" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR75" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS75" s="13" t="s">
         <v>38</v>
@@ -14600,7 +14579,7 @@
         <v>105</v>
       </c>
       <c r="M76" s="38" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="N76" s="36">
         <v>235</v>
@@ -14659,30 +14638,30 @@
         <v>105</v>
       </c>
       <c r="AG76" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH76" s="10"/>
       <c r="AI76" s="10"/>
       <c r="AJ76" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK76" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL76" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM76" s="11"/>
       <c r="AN76" s="11"/>
       <c r="AO76" s="33" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="AP76" s="34"/>
       <c r="AQ76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR76" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS76" s="13" t="s">
         <v>38</v>
@@ -14736,7 +14715,7 @@
         <v>105</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="N77" s="36">
         <v>333</v>
@@ -14795,30 +14774,30 @@
         <v>105</v>
       </c>
       <c r="AG77" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH77" s="10"/>
       <c r="AI77" s="10"/>
       <c r="AJ77" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK77" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL77" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM77" s="11"/>
       <c r="AN77" s="11"/>
       <c r="AO77" s="33" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="AP77" s="34"/>
       <c r="AQ77" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR77" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS77" s="13" t="s">
         <v>38</v>
@@ -14872,7 +14851,7 @@
         <v>105</v>
       </c>
       <c r="M78" s="38" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="N78" s="36">
         <v>177</v>
@@ -14931,30 +14910,30 @@
         <v>105</v>
       </c>
       <c r="AG78" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH78" s="10"/>
       <c r="AI78" s="10"/>
       <c r="AJ78" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK78" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL78" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM78" s="11"/>
       <c r="AN78" s="11"/>
       <c r="AO78" s="33" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="AP78" s="34"/>
       <c r="AQ78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR78" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS78" s="13" t="s">
         <v>38</v>
@@ -15008,7 +14987,7 @@
         <v>105</v>
       </c>
       <c r="M79" s="38" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="N79" s="36">
         <v>99</v>
@@ -15067,30 +15046,30 @@
         <v>105</v>
       </c>
       <c r="AG79" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH79" s="10"/>
       <c r="AI79" s="10"/>
       <c r="AJ79" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK79" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL79" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM79" s="11"/>
       <c r="AN79" s="11"/>
       <c r="AO79" s="33" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="AP79" s="34"/>
       <c r="AQ79" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR79" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS79" s="13" t="s">
         <v>38</v>
@@ -15144,7 +15123,7 @@
         <v>105</v>
       </c>
       <c r="M80" s="38" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="N80" s="36">
         <v>169</v>
@@ -15203,30 +15182,30 @@
         <v>105</v>
       </c>
       <c r="AG80" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH80" s="10"/>
       <c r="AI80" s="10"/>
       <c r="AJ80" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK80" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL80" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM80" s="11"/>
       <c r="AN80" s="11"/>
       <c r="AO80" s="33" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="AP80" s="34"/>
       <c r="AQ80" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR80" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS80" s="13" t="s">
         <v>38</v>
@@ -15280,7 +15259,7 @@
         <v>105</v>
       </c>
       <c r="M81" s="38" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="N81" s="36">
         <v>196</v>
@@ -15339,30 +15318,30 @@
         <v>105</v>
       </c>
       <c r="AG81" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH81" s="10"/>
       <c r="AI81" s="10"/>
       <c r="AJ81" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK81" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL81" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM81" s="11"/>
       <c r="AN81" s="11"/>
       <c r="AO81" s="33" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="AP81" s="34"/>
       <c r="AQ81" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR81" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS81" s="13" t="s">
         <v>38</v>
@@ -15416,7 +15395,7 @@
         <v>105</v>
       </c>
       <c r="M82" s="38" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="N82" s="36">
         <v>195</v>
@@ -15475,30 +15454,30 @@
         <v>105</v>
       </c>
       <c r="AG82" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH82" s="10"/>
       <c r="AI82" s="10"/>
       <c r="AJ82" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK82" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL82" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM82" s="11"/>
       <c r="AN82" s="11"/>
       <c r="AO82" s="33" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="AP82" s="34"/>
       <c r="AQ82" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR82" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS82" s="13" t="s">
         <v>38</v>
@@ -15552,7 +15531,7 @@
         <v>105</v>
       </c>
       <c r="M83" s="38" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="N83" s="36">
         <v>181</v>
@@ -15611,30 +15590,30 @@
         <v>105</v>
       </c>
       <c r="AG83" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH83" s="10"/>
       <c r="AI83" s="10"/>
       <c r="AJ83" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK83" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL83" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM83" s="11"/>
       <c r="AN83" s="11"/>
       <c r="AO83" s="33" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="AP83" s="34"/>
       <c r="AQ83" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR83" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS83" s="13" t="s">
         <v>38</v>
@@ -15688,7 +15667,7 @@
         <v>105</v>
       </c>
       <c r="M84" s="38" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="N84" s="36">
         <v>277</v>
@@ -15747,30 +15726,30 @@
         <v>105</v>
       </c>
       <c r="AG84" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH84" s="10"/>
       <c r="AI84" s="10"/>
       <c r="AJ84" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK84" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL84" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM84" s="11"/>
       <c r="AN84" s="11"/>
       <c r="AO84" s="33" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="AP84" s="34"/>
       <c r="AQ84" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR84" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS84" s="13" t="s">
         <v>38</v>
@@ -15824,7 +15803,7 @@
         <v>105</v>
       </c>
       <c r="M85" s="38" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="N85" s="36">
         <v>142</v>
@@ -15883,30 +15862,30 @@
         <v>105</v>
       </c>
       <c r="AG85" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH85" s="10"/>
       <c r="AI85" s="10"/>
       <c r="AJ85" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK85" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL85" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM85" s="11"/>
       <c r="AN85" s="11"/>
       <c r="AO85" s="33" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="AP85" s="34"/>
       <c r="AQ85" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR85" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS85" s="13" t="s">
         <v>38</v>
@@ -15960,7 +15939,7 @@
         <v>105</v>
       </c>
       <c r="M86" s="38" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="N86" s="36">
         <v>114</v>
@@ -16019,30 +15998,30 @@
         <v>105</v>
       </c>
       <c r="AG86" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH86" s="10"/>
       <c r="AI86" s="10"/>
       <c r="AJ86" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK86" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL86" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM86" s="11"/>
       <c r="AN86" s="11"/>
       <c r="AO86" s="33" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="AP86" s="34"/>
       <c r="AQ86" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR86" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>38</v>
@@ -16096,7 +16075,7 @@
         <v>105</v>
       </c>
       <c r="M87" s="38" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="N87" s="36">
         <v>167</v>
@@ -16155,30 +16134,30 @@
         <v>105</v>
       </c>
       <c r="AG87" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH87" s="10"/>
       <c r="AI87" s="10"/>
       <c r="AJ87" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK87" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL87" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM87" s="11"/>
       <c r="AN87" s="11"/>
       <c r="AO87" s="33" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="AP87" s="34"/>
       <c r="AQ87" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR87" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS87" s="13" t="s">
         <v>38</v>
@@ -16232,7 +16211,7 @@
         <v>105</v>
       </c>
       <c r="M88" s="38" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="N88" s="36">
         <v>88</v>
@@ -16291,30 +16270,30 @@
         <v>105</v>
       </c>
       <c r="AG88" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH88" s="10"/>
       <c r="AI88" s="10"/>
       <c r="AJ88" s="4" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AK88" s="5" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AL88" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM88" s="11"/>
       <c r="AN88" s="11"/>
       <c r="AO88" s="33" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="AP88" s="34"/>
       <c r="AQ88" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR88" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AS88" s="13" t="s">
         <v>38</v>
@@ -16368,7 +16347,7 @@
         <v>105</v>
       </c>
       <c r="M89" s="37" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="N89" s="36">
         <v>372</v>
@@ -16435,38 +16414,38 @@
         <v>105</v>
       </c>
       <c r="AG89" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH89" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI89" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ89" s="4" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="AK89" s="5" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AL89" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM89" s="5" t="s">
-        <v>584</v>
+        <v>521</v>
       </c>
       <c r="AN89" s="5" t="s">
-        <v>585</v>
+        <v>522</v>
       </c>
       <c r="AO89" s="33" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="AP89" s="33"/>
       <c r="AQ89" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR89" s="11" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="AS89" s="13" t="s">
         <v>31</v>
@@ -16520,7 +16499,7 @@
         <v>105</v>
       </c>
       <c r="M90" s="38" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="N90" s="36">
         <v>106</v>
@@ -16587,38 +16566,38 @@
         <v>105</v>
       </c>
       <c r="AG90" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH90" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI90" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ90" s="4" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="AK90" s="5" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AL90" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM90" s="11" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
       <c r="AN90" s="11" t="s">
-        <v>587</v>
+        <v>524</v>
       </c>
       <c r="AO90" s="33" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="AP90" s="34"/>
       <c r="AQ90" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR90" s="11" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="AS90" s="13" t="s">
         <v>31</v>
@@ -16672,7 +16651,7 @@
         <v>105</v>
       </c>
       <c r="M91" s="38" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="N91" s="36">
         <v>108</v>
@@ -16739,38 +16718,38 @@
         <v>105</v>
       </c>
       <c r="AG91" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH91" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI91" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ91" s="4" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="AK91" s="5" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AL91" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM91" s="11" t="s">
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="AN91" s="11" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
       <c r="AO91" s="33" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="AP91" s="34"/>
       <c r="AQ91" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR91" s="11" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="AS91" s="13" t="s">
         <v>31</v>
@@ -16824,7 +16803,7 @@
         <v>105</v>
       </c>
       <c r="M92" s="38" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="N92" s="36">
         <v>424</v>
@@ -16891,38 +16870,38 @@
         <v>105</v>
       </c>
       <c r="AG92" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH92" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI92" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ92" s="4" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="AK92" s="5" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AL92" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM92" s="11" t="s">
-        <v>590</v>
+        <v>527</v>
       </c>
       <c r="AN92" s="11" t="s">
-        <v>591</v>
+        <v>528</v>
       </c>
       <c r="AO92" s="33" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="AP92" s="34"/>
       <c r="AQ92" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR92" s="11" t="s">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="AS92" s="13" t="s">
         <v>31</v>
@@ -16976,7 +16955,7 @@
         <v>105</v>
       </c>
       <c r="M93" s="38" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="N93" s="36">
         <v>258</v>
@@ -17043,38 +17022,38 @@
         <v>105</v>
       </c>
       <c r="AG93" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH93" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI93" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ93" s="4" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="AK93" s="5" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AL93" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM93" s="11" t="s">
-        <v>592</v>
+        <v>529</v>
       </c>
       <c r="AN93" s="11" t="s">
-        <v>593</v>
+        <v>530</v>
       </c>
       <c r="AO93" s="33" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="AP93" s="34"/>
       <c r="AQ93" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR93" s="11" t="s">
-        <v>609</v>
+        <v>541</v>
       </c>
       <c r="AS93" s="13" t="s">
         <v>31</v>
@@ -17128,7 +17107,7 @@
         <v>105</v>
       </c>
       <c r="M94" s="38" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="N94" s="36">
         <v>152</v>
@@ -17195,38 +17174,38 @@
         <v>105</v>
       </c>
       <c r="AG94" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH94" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI94" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ94" s="4" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="AK94" s="5" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AL94" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM94" s="11" t="s">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="AN94" s="11" t="s">
-        <v>595</v>
+        <v>532</v>
       </c>
       <c r="AO94" s="33" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="AP94" s="34"/>
       <c r="AQ94" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR94" s="11" t="s">
-        <v>610</v>
+        <v>542</v>
       </c>
       <c r="AS94" s="13" t="s">
         <v>31</v>
@@ -17280,7 +17259,7 @@
         <v>105</v>
       </c>
       <c r="M95" s="38" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="N95" s="36">
         <v>105</v>
@@ -17347,38 +17326,38 @@
         <v>105</v>
       </c>
       <c r="AG95" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH95" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI95" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ95" s="4" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="AK95" s="5" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AL95" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM95" s="11" t="s">
-        <v>596</v>
+        <v>533</v>
       </c>
       <c r="AN95" s="11" t="s">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="AO95" s="33" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="AP95" s="34"/>
       <c r="AQ95" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR95" s="11" t="s">
-        <v>611</v>
+        <v>543</v>
       </c>
       <c r="AS95" s="13" t="s">
         <v>31</v>
@@ -17417,7 +17396,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>642</v>
+        <v>569</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>46</v>
@@ -17432,7 +17411,7 @@
         <v>105</v>
       </c>
       <c r="M96" s="37" t="s">
-        <v>612</v>
+        <v>544</v>
       </c>
       <c r="N96" s="36">
         <v>286</v>
@@ -17499,38 +17478,38 @@
         <v>105</v>
       </c>
       <c r="AG96" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH96" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI96" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ96" s="4" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
       <c r="AK96" s="5" t="s">
-        <v>635</v>
+        <v>562</v>
       </c>
       <c r="AL96" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM96" s="5" t="s">
-        <v>633</v>
+        <v>560</v>
       </c>
       <c r="AN96" s="5" t="s">
-        <v>634</v>
+        <v>561</v>
       </c>
       <c r="AO96" s="33" t="s">
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="AP96" s="33"/>
       <c r="AQ96" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR96" s="11" t="s">
-        <v>617</v>
+        <v>549</v>
       </c>
       <c r="AS96" s="13" t="s">
         <v>38</v>
@@ -17569,7 +17548,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>640</v>
+        <v>567</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>46</v>
@@ -17584,7 +17563,7 @@
         <v>105</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>614</v>
+        <v>546</v>
       </c>
       <c r="N97" s="36">
         <v>84</v>
@@ -17651,38 +17630,38 @@
         <v>105</v>
       </c>
       <c r="AG97" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH97" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI97" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ97" s="4" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
       <c r="AK97" s="5" t="s">
-        <v>635</v>
+        <v>562</v>
       </c>
       <c r="AL97" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM97" s="11" t="s">
-        <v>631</v>
+        <v>558</v>
       </c>
       <c r="AN97" s="11" t="s">
-        <v>632</v>
+        <v>559</v>
       </c>
       <c r="AO97" s="33" t="s">
-        <v>599</v>
+        <v>727</v>
       </c>
       <c r="AP97" s="34"/>
       <c r="AQ97" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR97" s="11" t="s">
-        <v>618</v>
+        <v>550</v>
       </c>
       <c r="AS97" s="13" t="s">
         <v>38</v>
@@ -17721,7 +17700,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>46</v>
@@ -17736,7 +17715,7 @@
         <v>105</v>
       </c>
       <c r="M98" s="38" t="s">
-        <v>613</v>
+        <v>545</v>
       </c>
       <c r="N98" s="36">
         <v>272</v>
@@ -17803,38 +17782,38 @@
         <v>105</v>
       </c>
       <c r="AG98" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH98" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI98" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ98" s="4" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
       <c r="AK98" s="5" t="s">
-        <v>637</v>
+        <v>564</v>
       </c>
       <c r="AL98" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM98" s="11" t="s">
-        <v>625</v>
+        <v>552</v>
       </c>
       <c r="AN98" s="11" t="s">
-        <v>626</v>
+        <v>553</v>
       </c>
       <c r="AO98" s="33" t="s">
-        <v>600</v>
+        <v>728</v>
       </c>
       <c r="AP98" s="34"/>
       <c r="AQ98" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR98" s="11" t="s">
-        <v>619</v>
+        <v>551</v>
       </c>
       <c r="AS98" s="13" t="s">
         <v>38</v>
@@ -17873,7 +17852,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>639</v>
+        <v>566</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>46</v>
@@ -17888,7 +17867,7 @@
         <v>105</v>
       </c>
       <c r="M99" s="38" t="s">
-        <v>615</v>
+        <v>547</v>
       </c>
       <c r="N99" s="36">
         <v>162</v>
@@ -17955,38 +17934,38 @@
         <v>105</v>
       </c>
       <c r="AG99" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH99" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI99" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ99" s="4" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
       <c r="AK99" s="5" t="s">
-        <v>635</v>
+        <v>562</v>
       </c>
       <c r="AL99" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM99" s="11" t="s">
-        <v>627</v>
+        <v>554</v>
       </c>
       <c r="AN99" s="11" t="s">
-        <v>628</v>
+        <v>555</v>
       </c>
       <c r="AO99" s="33" t="s">
-        <v>601</v>
+        <v>729</v>
       </c>
       <c r="AP99" s="34"/>
       <c r="AQ99" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR99" s="11" t="s">
-        <v>617</v>
+        <v>549</v>
       </c>
       <c r="AS99" s="13" t="s">
         <v>38</v>
@@ -18025,7 +18004,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>641</v>
+        <v>568</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>46</v>
@@ -18040,7 +18019,7 @@
         <v>105</v>
       </c>
       <c r="M100" s="38" t="s">
-        <v>616</v>
+        <v>548</v>
       </c>
       <c r="N100" s="36">
         <v>271</v>
@@ -18107,38 +18086,38 @@
         <v>105</v>
       </c>
       <c r="AG100" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AH100" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI100" s="4" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ100" s="4" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
       <c r="AK100" s="5" t="s">
-        <v>635</v>
+        <v>562</v>
       </c>
       <c r="AL100" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM100" s="11" t="s">
-        <v>629</v>
+        <v>556</v>
       </c>
       <c r="AN100" s="11" t="s">
-        <v>630</v>
+        <v>557</v>
       </c>
       <c r="AO100" s="33" t="s">
-        <v>602</v>
+        <v>730</v>
       </c>
       <c r="AP100" s="34"/>
       <c r="AQ100" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR100" s="11" t="s">
-        <v>617</v>
+        <v>549</v>
       </c>
       <c r="AS100" s="13" t="s">
         <v>38</v>
@@ -18192,7 +18171,7 @@
         <v>105</v>
       </c>
       <c r="M101" s="37" t="s">
-        <v>643</v>
+        <v>570</v>
       </c>
       <c r="N101" s="36">
         <v>144</v>
@@ -18259,31 +18238,31 @@
         <v>105</v>
       </c>
       <c r="AG101" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH101" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI101" s="10" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ101" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK101" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL101" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>653</v>
+        <v>580</v>
       </c>
       <c r="AN101" s="11" t="s">
-        <v>654</v>
+        <v>581</v>
       </c>
       <c r="AO101" s="33" t="s">
-        <v>620</v>
+        <v>731</v>
       </c>
       <c r="AP101" s="33"/>
       <c r="AQ101" s="5" t="s">
@@ -18344,7 +18323,7 @@
         <v>105</v>
       </c>
       <c r="M102" s="38" t="s">
-        <v>644</v>
+        <v>571</v>
       </c>
       <c r="N102" s="36">
         <v>133</v>
@@ -18411,31 +18390,31 @@
         <v>105</v>
       </c>
       <c r="AG102" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH102" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI102" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ102" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK102" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL102" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM102" s="11" t="s">
-        <v>655</v>
+        <v>582</v>
       </c>
       <c r="AN102" s="11" t="s">
-        <v>656</v>
+        <v>583</v>
       </c>
       <c r="AO102" s="33" t="s">
-        <v>621</v>
+        <v>732</v>
       </c>
       <c r="AP102" s="34"/>
       <c r="AQ102" s="5" t="s">
@@ -18498,7 +18477,7 @@
         <v>105</v>
       </c>
       <c r="M103" s="38" t="s">
-        <v>645</v>
+        <v>572</v>
       </c>
       <c r="N103" s="36">
         <v>114</v>
@@ -18565,31 +18544,31 @@
         <v>105</v>
       </c>
       <c r="AG103" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH103" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI103" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ103" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK103" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL103" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM103" s="11" t="s">
-        <v>657</v>
+        <v>584</v>
       </c>
       <c r="AN103" s="11" t="s">
-        <v>658</v>
+        <v>585</v>
       </c>
       <c r="AO103" s="33" t="s">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="AP103" s="34"/>
       <c r="AQ103" s="5" t="s">
@@ -18711,31 +18690,31 @@
         <v>105</v>
       </c>
       <c r="AG104" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH104" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI104" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ104" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK104" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL104" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM104" s="11" t="s">
-        <v>659</v>
+        <v>586</v>
       </c>
       <c r="AN104" s="11" t="s">
-        <v>660</v>
+        <v>587</v>
       </c>
       <c r="AO104" s="33" t="s">
-        <v>623</v>
+        <v>734</v>
       </c>
       <c r="AP104" s="34"/>
       <c r="AQ104" s="5" t="s">
@@ -18792,7 +18771,7 @@
         <v>105</v>
       </c>
       <c r="M105" s="38" t="s">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="N105" s="36">
         <v>60</v>
@@ -18859,31 +18838,31 @@
         <v>105</v>
       </c>
       <c r="AG105" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH105" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI105" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ105" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK105" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL105" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM105" s="11" t="s">
-        <v>661</v>
+        <v>588</v>
       </c>
       <c r="AN105" s="11" t="s">
-        <v>662</v>
+        <v>589</v>
       </c>
       <c r="AO105" s="33" t="s">
-        <v>624</v>
+        <v>735</v>
       </c>
       <c r="AP105" s="34"/>
       <c r="AQ105" s="5" t="s">
@@ -18940,7 +18919,7 @@
         <v>105</v>
       </c>
       <c r="M106" s="38" t="s">
-        <v>647</v>
+        <v>574</v>
       </c>
       <c r="N106" s="36">
         <v>60</v>
@@ -19007,31 +18986,31 @@
         <v>105</v>
       </c>
       <c r="AG106" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH106" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI106" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ106" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK106" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL106" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM106" s="11" t="s">
-        <v>663</v>
+        <v>590</v>
       </c>
       <c r="AN106" s="11" t="s">
-        <v>664</v>
+        <v>591</v>
       </c>
       <c r="AO106" s="33" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="AP106" s="34"/>
       <c r="AQ106" s="5" t="s">
@@ -19088,7 +19067,7 @@
         <v>105</v>
       </c>
       <c r="M107" s="38" t="s">
-        <v>648</v>
+        <v>575</v>
       </c>
       <c r="N107" s="36">
         <v>96</v>
@@ -19155,31 +19134,31 @@
         <v>105</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH107" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI107" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ107" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK107" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL107" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM107" s="11" t="s">
-        <v>665</v>
+        <v>592</v>
       </c>
       <c r="AN107" s="11" t="s">
-        <v>666</v>
+        <v>593</v>
       </c>
       <c r="AO107" s="33" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="AP107" s="34"/>
       <c r="AQ107" s="5" t="s">
@@ -19236,7 +19215,7 @@
         <v>105</v>
       </c>
       <c r="M108" s="38" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="N108" s="36">
         <v>265</v>
@@ -19303,31 +19282,31 @@
         <v>105</v>
       </c>
       <c r="AG108" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH108" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI108" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ108" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK108" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL108" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM108" s="11" t="s">
-        <v>667</v>
+        <v>594</v>
       </c>
       <c r="AN108" s="11" t="s">
-        <v>668</v>
+        <v>595</v>
       </c>
       <c r="AO108" s="33" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="AP108" s="34"/>
       <c r="AQ108" s="5" t="s">
@@ -19384,7 +19363,7 @@
         <v>105</v>
       </c>
       <c r="M109" s="38" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="N109" s="36">
         <v>63</v>
@@ -19451,31 +19430,31 @@
         <v>105</v>
       </c>
       <c r="AG109" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH109" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI109" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ109" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK109" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL109" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM109" s="11" t="s">
-        <v>669</v>
+        <v>596</v>
       </c>
       <c r="AN109" s="11" t="s">
-        <v>670</v>
+        <v>597</v>
       </c>
       <c r="AO109" s="33" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="AP109" s="34"/>
       <c r="AQ109" s="5" t="s">
@@ -19532,7 +19511,7 @@
         <v>105</v>
       </c>
       <c r="M110" s="38" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="N110" s="36">
         <v>120</v>
@@ -19599,31 +19578,31 @@
         <v>105</v>
       </c>
       <c r="AG110" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH110" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI110" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ110" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK110" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL110" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM110" s="11" t="s">
-        <v>671</v>
+        <v>598</v>
       </c>
       <c r="AN110" s="11" t="s">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="AO110" s="33" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="AP110" s="34"/>
       <c r="AQ110" s="5" t="s">
@@ -19683,7 +19662,7 @@
         <v>105</v>
       </c>
       <c r="M111" s="38" t="s">
-        <v>649</v>
+        <v>576</v>
       </c>
       <c r="N111" s="36">
         <v>176</v>
@@ -19750,31 +19729,31 @@
         <v>105</v>
       </c>
       <c r="AG111" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI111" s="10" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="AJ111" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK111" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL111" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM111" s="11" t="s">
-        <v>673</v>
+        <v>600</v>
       </c>
       <c r="AN111" s="11" t="s">
-        <v>674</v>
+        <v>601</v>
       </c>
       <c r="AO111" s="33" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="AP111" s="34"/>
       <c r="AQ111" s="5" t="s">
@@ -19834,7 +19813,7 @@
         <v>105</v>
       </c>
       <c r="M112" s="38" t="s">
-        <v>650</v>
+        <v>577</v>
       </c>
       <c r="N112" s="36">
         <v>86</v>
@@ -19901,31 +19880,31 @@
         <v>105</v>
       </c>
       <c r="AG112" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH112" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI112" s="10" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ112" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK112" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL112" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM112" s="11" t="s">
-        <v>675</v>
+        <v>602</v>
       </c>
       <c r="AN112" s="11" t="s">
-        <v>676</v>
+        <v>603</v>
       </c>
       <c r="AO112" s="33" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="AP112" s="34"/>
       <c r="AQ112" s="5" t="s">
@@ -19985,7 +19964,7 @@
         <v>105</v>
       </c>
       <c r="M113" s="38" t="s">
-        <v>651</v>
+        <v>578</v>
       </c>
       <c r="N113" s="36">
         <v>86</v>
@@ -20052,31 +20031,31 @@
         <v>105</v>
       </c>
       <c r="AG113" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH113" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI113" s="10" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ113" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK113" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL113" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM113" s="11" t="s">
-        <v>677</v>
+        <v>604</v>
       </c>
       <c r="AN113" s="11" t="s">
-        <v>678</v>
+        <v>605</v>
       </c>
       <c r="AO113" s="33" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="AP113" s="34"/>
       <c r="AQ113" s="5" t="s">
@@ -20136,7 +20115,7 @@
         <v>105</v>
       </c>
       <c r="M114" s="38" t="s">
-        <v>652</v>
+        <v>579</v>
       </c>
       <c r="N114" s="36">
         <v>90</v>
@@ -20203,31 +20182,31 @@
         <v>105</v>
       </c>
       <c r="AG114" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AH114" s="10" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="AI114" s="10" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AJ114" s="4" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="AK114" s="11" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AL114" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="AM114" s="11" t="s">
-        <v>679</v>
+        <v>606</v>
       </c>
       <c r="AN114" s="11" t="s">
-        <v>680</v>
+        <v>607</v>
       </c>
       <c r="AO114" s="33" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="AP114" s="34"/>
       <c r="AQ114" s="5" t="s">

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E988C9BC-6B48-4A25-84BB-61E276124327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36666D7-7115-42AD-9800-F77755F81405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -884,12 +884,6 @@
     <t>https://maps.app.goo.gl/YuAJQRM2HM3gYVyJ6</t>
   </si>
   <si>
-    <t>47.50526955157828</t>
-  </si>
-  <si>
-    <t>6.844776893254944</t>
-  </si>
-  <si>
     <t>45.753681218897846</t>
   </si>
   <si>
@@ -1262,48 +1256,6 @@
     <t>Basic Fit, Normal, Micromania, Okaïdi, Marionnaud, Promod, Rougegorge, Mcdonald's</t>
   </si>
   <si>
-    <t>49.20566684476754</t>
-  </si>
-  <si>
-    <t>-0.32835398934326593</t>
-  </si>
-  <si>
-    <t>49.20582171491501</t>
-  </si>
-  <si>
-    <t>-0.32850208393969277</t>
-  </si>
-  <si>
-    <t>49.206026048455804</t>
-  </si>
-  <si>
-    <t>-0.3286392975863524</t>
-  </si>
-  <si>
-    <t>49.2061440682712</t>
-  </si>
-  <si>
-    <t>-0.32839844337404067</t>
-  </si>
-  <si>
-    <t>49.20610866235774</t>
-  </si>
-  <si>
-    <t>-0.3281688791868094</t>
-  </si>
-  <si>
-    <t>49.2062650382889</t>
-  </si>
-  <si>
-    <t>-0.3279716798016147</t>
-  </si>
-  <si>
-    <t>49.20616029597461</t>
-  </si>
-  <si>
-    <t>-0.32791673493474743</t>
-  </si>
-  <si>
     <t>49.2063092955417</t>
   </si>
   <si>
@@ -2292,6 +2244,54 @@
   </si>
   <si>
     <t>1.331958</t>
+  </si>
+  <si>
+    <t>47.505019</t>
+  </si>
+  <si>
+    <t>6.844836</t>
+  </si>
+  <si>
+    <t>49.205819</t>
+  </si>
+  <si>
+    <t>-0.328482</t>
+  </si>
+  <si>
+    <t>49.205645</t>
+  </si>
+  <si>
+    <t>-0.328361</t>
+  </si>
+  <si>
+    <t>49.206029</t>
+  </si>
+  <si>
+    <t>-0.328616</t>
+  </si>
+  <si>
+    <t>49.206122</t>
+  </si>
+  <si>
+    <t>-0.328394</t>
+  </si>
+  <si>
+    <t>49.206071</t>
+  </si>
+  <si>
+    <t>-0.328211</t>
+  </si>
+  <si>
+    <t>49.206257</t>
+  </si>
+  <si>
+    <t>-0.327930</t>
+  </si>
+  <si>
+    <t>49.206164</t>
+  </si>
+  <si>
+    <t>-0.327884</t>
   </si>
 </sst>
 </file>
@@ -3290,10 +3290,10 @@
   <dimension ref="A1:BD123"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL8" sqref="AL8"/>
+      <selection pane="bottomRight" activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -3389,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>19</v>
@@ -3416,7 +3416,7 @@
         <v>103</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>8</v>
@@ -3428,16 +3428,16 @@
         <v>81</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>106</v>
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>108</v>
@@ -3605,31 +3605,31 @@
         <v>105</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI2" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>400</v>
-      </c>
       <c r="AK2" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="AO2" s="33" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AP2" s="33"/>
       <c r="AQ2" s="5" t="s">
@@ -3757,22 +3757,22 @@
         <v>105</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM3" s="5">
         <v>47.238161699999999</v>
@@ -3781,7 +3781,7 @@
         <v>6.0234543</v>
       </c>
       <c r="AO3" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AP3" s="33"/>
       <c r="AQ3" s="5" t="s">
@@ -3909,31 +3909,31 @@
         <v>105</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="AO4" s="33" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AP4" s="33"/>
       <c r="AQ4" s="5" t="s">
@@ -4061,31 +4061,31 @@
         <v>105</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AK5" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL5" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="AL5" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="AM5" s="5" t="s">
-        <v>279</v>
+        <v>733</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>280</v>
+        <v>734</v>
       </c>
       <c r="AO5" s="33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AP5" s="33"/>
       <c r="AQ5" s="5" t="s">
@@ -4146,7 +4146,7 @@
         <v>105</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N6" s="36">
         <v>179</v>
@@ -4213,38 +4213,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI6" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK6" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ6" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK6" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL6" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>407</v>
+        <v>735</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>408</v>
+        <v>736</v>
       </c>
       <c r="AO6" s="33" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="AP6" s="33"/>
       <c r="AQ6" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS6" s="13" t="s">
         <v>76</v>
@@ -4283,7 +4283,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>48</v>
@@ -4298,7 +4298,7 @@
         <v>105</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N7" s="36">
         <v>159</v>
@@ -4365,38 +4365,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI7" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK7" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ7" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK7" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL7" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>405</v>
+        <v>737</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>406</v>
+        <v>738</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AP7" s="34"/>
       <c r="AQ7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR7" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS7" s="13" t="s">
         <v>76</v>
@@ -4435,7 +4435,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>48</v>
@@ -4450,7 +4450,7 @@
         <v>105</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N8" s="36">
         <v>125</v>
@@ -4517,38 +4517,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI8" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK8" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ8" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK8" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL8" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>409</v>
+        <v>739</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="AO8" s="33" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AP8" s="34"/>
       <c r="AQ8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR8" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS8" s="13" t="s">
         <v>76</v>
@@ -4587,7 +4587,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>48</v>
@@ -4602,7 +4602,7 @@
         <v>105</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N9" s="36">
         <v>156</v>
@@ -4669,38 +4669,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI9" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK9" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ9" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL9" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM9" s="11" t="s">
-        <v>411</v>
+        <v>741</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>412</v>
+        <v>742</v>
       </c>
       <c r="AO9" s="33" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AP9" s="34"/>
       <c r="AQ9" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS9" s="13" t="s">
         <v>76</v>
@@ -4739,7 +4739,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>48</v>
@@ -4754,7 +4754,7 @@
         <v>105</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N10" s="36">
         <v>178</v>
@@ -4821,38 +4821,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH10" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI10" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK10" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ10" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL10" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM10" s="11" t="s">
-        <v>413</v>
+        <v>743</v>
       </c>
       <c r="AN10" s="11" t="s">
-        <v>414</v>
+        <v>744</v>
       </c>
       <c r="AO10" s="33" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AP10" s="34"/>
       <c r="AQ10" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR10" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS10" s="13" t="s">
         <v>76</v>
@@ -4891,7 +4891,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>48</v>
@@ -4906,7 +4906,7 @@
         <v>105</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N11" s="36">
         <v>253</v>
@@ -4973,38 +4973,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH11" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK11" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ11" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL11" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>415</v>
+        <v>745</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>416</v>
+        <v>746</v>
       </c>
       <c r="AO11" s="33" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AP11" s="34"/>
       <c r="AQ11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR11" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS11" s="13" t="s">
         <v>76</v>
@@ -5043,7 +5043,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>48</v>
@@ -5058,7 +5058,7 @@
         <v>105</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N12" s="36">
         <v>171</v>
@@ -5125,38 +5125,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH12" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI12" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK12" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ12" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK12" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL12" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>417</v>
+        <v>747</v>
       </c>
       <c r="AN12" s="11" t="s">
-        <v>418</v>
+        <v>748</v>
       </c>
       <c r="AO12" s="33" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AP12" s="34"/>
       <c r="AQ12" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR12" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS12" s="13" t="s">
         <v>76</v>
@@ -5195,7 +5195,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>48</v>
@@ -5210,7 +5210,7 @@
         <v>105</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N13" s="36">
         <v>200</v>
@@ -5277,38 +5277,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH13" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI13" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK13" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AL13" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM13" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="AN13" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="AK13" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM13" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="AN13" s="11" t="s">
-        <v>420</v>
-      </c>
       <c r="AO13" s="33" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="AP13" s="34"/>
       <c r="AQ13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR13" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS13" s="13" t="s">
         <v>76</v>
@@ -5347,7 +5347,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>48</v>
@@ -5362,7 +5362,7 @@
         <v>105</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N14" s="36">
         <v>105</v>
@@ -5429,38 +5429,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH14" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI14" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK14" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ14" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK14" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL14" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="AO14" s="33" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AP14" s="34"/>
       <c r="AQ14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>76</v>
@@ -5499,7 +5499,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>48</v>
@@ -5514,7 +5514,7 @@
         <v>105</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N15" s="36">
         <v>51</v>
@@ -5581,38 +5581,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH15" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI15" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK15" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ15" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL15" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AO15" s="33" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="AP15" s="34"/>
       <c r="AQ15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR15" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS15" s="13" t="s">
         <v>76</v>
@@ -5651,7 +5651,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>48</v>
@@ -5666,7 +5666,7 @@
         <v>105</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N16" s="36">
         <v>115</v>
@@ -5733,38 +5733,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH16" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI16" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK16" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ16" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL16" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="AN16" s="11" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="AO16" s="33" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="AP16" s="34"/>
       <c r="AQ16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR16" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>76</v>
@@ -5803,7 +5803,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>48</v>
@@ -5818,7 +5818,7 @@
         <v>105</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N17" s="36">
         <v>210</v>
@@ -5885,38 +5885,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH17" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI17" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK17" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AJ17" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AL17" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM17" s="11" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="AO17" s="33" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AP17" s="34"/>
       <c r="AQ17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR17" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS17" s="13" t="s">
         <v>76</v>
@@ -5955,7 +5955,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>48</v>
@@ -5970,7 +5970,7 @@
         <v>105</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N18" s="36">
         <v>30</v>
@@ -6037,38 +6037,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH18" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AO18" s="33" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="AP18" s="34"/>
       <c r="AQ18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR18" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>76</v>
@@ -6189,38 +6189,38 @@
         <v>105</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ19" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="AP19" s="33"/>
       <c r="AQ19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR19" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS19" s="13" t="s">
         <v>76</v>
@@ -6341,38 +6341,38 @@
         <v>105</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL20" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AO20" s="33" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="AP20" s="34"/>
       <c r="AQ20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR20" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS20" s="13" t="s">
         <v>76</v>
@@ -6493,38 +6493,38 @@
         <v>105</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL21" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AN21" s="11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AP21" s="34"/>
       <c r="AQ21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS21" s="13" t="s">
         <v>76</v>
@@ -6645,38 +6645,38 @@
         <v>105</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ22" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL22" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="AN22" s="11" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="AO22" s="33" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="AP22" s="34"/>
       <c r="AQ22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR22" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS22" s="13" t="s">
         <v>76</v>
@@ -6797,38 +6797,38 @@
         <v>105</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH23" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ23" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL23" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="AN23" s="11" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="AP23" s="34"/>
       <c r="AQ23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR23" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS23" s="13" t="s">
         <v>76</v>
@@ -6949,38 +6949,38 @@
         <v>105</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH24" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL24" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="AN24" s="11" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="AP24" s="34"/>
       <c r="AQ24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR24" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS24" s="13" t="s">
         <v>76</v>
@@ -7101,38 +7101,38 @@
         <v>105</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH25" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK25" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM25" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="AI25" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="AJ25" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK25" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM25" s="11" t="s">
-        <v>447</v>
-      </c>
       <c r="AN25" s="11" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="AP25" s="34"/>
       <c r="AQ25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR25" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS25" s="13" t="s">
         <v>76</v>
@@ -7253,38 +7253,38 @@
         <v>105</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ26" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM26" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN26" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="AK26" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM26" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="AN26" s="11" t="s">
-        <v>450</v>
-      </c>
       <c r="AO26" s="33" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="AP26" s="34"/>
       <c r="AQ26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR26" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS26" s="13" t="s">
         <v>76</v>
@@ -7405,38 +7405,38 @@
         <v>105</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH27" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ27" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL27" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM27" s="11" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="AP27" s="34"/>
       <c r="AQ27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS27" s="13" t="s">
         <v>76</v>
@@ -7557,38 +7557,38 @@
         <v>105</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ28" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK28" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL28" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM28" s="11" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AN28" s="11" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AO28" s="33" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="AP28" s="34"/>
       <c r="AQ28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR28" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS28" s="13" t="s">
         <v>76</v>
@@ -7709,38 +7709,38 @@
         <v>105</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ29" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK29" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM29" s="11" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AN29" s="11" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="AP29" s="34"/>
       <c r="AQ29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR29" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS29" s="13" t="s">
         <v>76</v>
@@ -7861,38 +7861,38 @@
         <v>105</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ30" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL30" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM30" s="11" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="AO30" s="33" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="AP30" s="34"/>
       <c r="AQ30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR30" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS30" s="13" t="s">
         <v>76</v>
@@ -7946,7 +7946,7 @@
         <v>105</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N31" s="36">
         <v>61</v>
@@ -8013,31 +8013,31 @@
         <v>105</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH31" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ31" s="4" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AK31" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AL31" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM31" s="11" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="AN31" s="11" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="AO31" s="33" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="AP31" s="33"/>
       <c r="AQ31" s="5" t="s">
@@ -8098,7 +8098,7 @@
         <v>105</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N32" s="36">
         <v>227</v>
@@ -8165,38 +8165,38 @@
         <v>105</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH32" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ32" s="4" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AK32" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AL32" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM32" s="11" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="AN32" s="11" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="AO32" s="33" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="AP32" s="34"/>
       <c r="AQ32" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR32" s="11" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="AS32" s="13" t="s">
         <v>40</v>
@@ -8250,7 +8250,7 @@
         <v>105</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N33" s="36">
         <v>102</v>
@@ -8317,38 +8317,38 @@
         <v>105</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH33" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ33" s="4" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AK33" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AL33" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM33" s="11" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="AN33" s="11" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="AO33" s="33" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR33" s="11" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="AS33" s="13" t="s">
         <v>40</v>
@@ -8402,7 +8402,7 @@
         <v>105</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N34" s="36">
         <v>62</v>
@@ -8469,38 +8469,38 @@
         <v>105</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH34" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ34" s="4" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AK34" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AL34" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM34" s="11" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="AN34" s="11" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="AO34" s="33" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR34" s="11" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="AS34" s="13" t="s">
         <v>40</v>
@@ -8554,7 +8554,7 @@
         <v>105</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N35" s="36">
         <v>22</v>
@@ -8621,38 +8621,38 @@
         <v>105</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH35" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI35" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ35" s="4" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AL35" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="AN35" s="11" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="AO35" s="33" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="AP35" s="34"/>
       <c r="AQ35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR35" s="11" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="AS35" s="13" t="s">
         <v>40</v>
@@ -8706,7 +8706,7 @@
         <v>105</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N36" s="36">
         <v>9</v>
@@ -8773,38 +8773,38 @@
         <v>105</v>
       </c>
       <c r="AG36" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH36" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI36" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ36" s="4" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AK36" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM36" s="11" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AN36" s="11" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AO36" s="33" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="AP36" s="34"/>
       <c r="AQ36" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR36" s="11" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="AS36" s="13" t="s">
         <v>40</v>
@@ -8858,7 +8858,7 @@
         <v>105</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N37" s="36">
         <v>71</v>
@@ -8925,38 +8925,38 @@
         <v>105</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH37" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI37" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ37" s="4" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AL37" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM37" s="11" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AO37" s="33" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="AP37" s="34"/>
       <c r="AQ37" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR37" s="11" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="AS37" s="13" t="s">
         <v>40</v>
@@ -9010,7 +9010,7 @@
         <v>105</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N38" s="36">
         <v>45</v>
@@ -9077,38 +9077,38 @@
         <v>105</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI38" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ38" s="4" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AK38" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM38" s="11" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="AN38" s="11" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="AO38" s="33" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="AP38" s="34"/>
       <c r="AQ38" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR38" s="11" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="AS38" s="13" t="s">
         <v>40</v>
@@ -9229,38 +9229,38 @@
         <v>105</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH39" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM39" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AN39" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AO39" s="33" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="AP39" s="33"/>
       <c r="AQ39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR39" s="11" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AS39" s="13" t="s">
         <v>31</v>
@@ -9314,19 +9314,19 @@
         <v>105</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N40" s="35">
         <v>168</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P40" s="36">
         <v>156</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R40" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -9381,31 +9381,31 @@
         <v>105</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH40" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM40" s="5" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AN40" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AO40" s="33" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="AP40" s="33"/>
       <c r="AQ40" s="5" t="s">
@@ -9466,7 +9466,7 @@
         <v>105</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N41" s="36">
         <v>87</v>
@@ -9529,31 +9529,31 @@
         <v>105</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH41" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM41" s="11" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AN41" s="11" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AO41" s="33" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="AP41" s="34"/>
       <c r="AQ41" s="5" t="s">
@@ -9614,7 +9614,7 @@
         <v>105</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N42" s="36">
         <v>197</v>
@@ -9677,31 +9677,31 @@
         <v>105</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH42" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI42" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ42" s="4" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AK42" s="5" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AL42" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM42" s="11" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AN42" s="11" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AO42" s="33" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="5" t="s">
@@ -9762,7 +9762,7 @@
         <v>105</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N43" s="36">
         <v>576</v>
@@ -9825,31 +9825,31 @@
         <v>105</v>
       </c>
       <c r="AG43" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI43" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ43" s="4" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AK43" s="5" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AL43" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM43" s="11" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AN43" s="11" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="AP43" s="34"/>
       <c r="AQ43" s="5" t="s">
@@ -9910,19 +9910,19 @@
         <v>105</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N44" s="36">
         <v>237</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P44" s="36">
         <v>221</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R44" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -9977,31 +9977,31 @@
         <v>105</v>
       </c>
       <c r="AG44" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH44" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI44" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ44" s="4" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AK44" s="5" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AL44" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM44" s="11" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AN44" s="11" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AO44" s="33" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="AP44" s="34"/>
       <c r="AQ44" s="5" t="s">
@@ -10062,19 +10062,19 @@
         <v>105</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N45" s="36">
         <v>236</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P45" s="36">
         <v>218</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R45" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -10129,31 +10129,31 @@
         <v>105</v>
       </c>
       <c r="AG45" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH45" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI45" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ45" s="4" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AK45" s="5" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AL45" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM45" s="11" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AN45" s="11" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="AP45" s="34"/>
       <c r="AQ45" s="11" t="s">
@@ -10281,31 +10281,31 @@
         <v>105</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH46" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI46" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ46" s="4" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AK46" s="5" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AL46" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM46" s="5" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="AN46" s="5" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AO46" s="33" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="AP46" s="33"/>
       <c r="AQ46" s="5" t="s">
@@ -10433,31 +10433,31 @@
         <v>105</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI47" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ47" s="4" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AL47" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM47" s="11" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AN47" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AO47" s="33" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="AP47" s="33"/>
       <c r="AQ47" s="5" t="s">
@@ -10585,7 +10585,7 @@
         <v>105</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH48" s="10" t="s">
         <v>54</v>
@@ -10594,29 +10594,29 @@
         <v>105</v>
       </c>
       <c r="AJ48" s="4" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AK48" s="11" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AL48" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM48" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AN48" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AO48" s="33" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="AP48" s="33"/>
       <c r="AQ48" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR48" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS48" s="13" t="s">
         <v>31</v>
@@ -10699,19 +10699,19 @@
         <v>105</v>
       </c>
       <c r="V49" s="12" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="W49" s="12" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="X49" s="12" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="Y49" s="12" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AA49" s="6">
         <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
@@ -10734,31 +10734,31 @@
         <v>105</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH49" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI49" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ49" s="4" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AK49" s="11" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AL49" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM49" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AN49" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AO49" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AP49" s="33"/>
       <c r="AQ49" s="5" t="s">
@@ -10804,7 +10804,7 @@
 75009 - Paris</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>46</v>
@@ -10886,7 +10886,7 @@
         <v>105</v>
       </c>
       <c r="AG50" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH50" s="10" t="s">
         <v>54</v>
@@ -10901,16 +10901,16 @@
         <v>59</v>
       </c>
       <c r="AL50" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM50" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AN50" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AO50" s="33" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="AP50" s="33"/>
       <c r="AQ50" s="5" t="s">
@@ -11038,38 +11038,38 @@
         <v>105</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH51" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ51" s="4" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="AK51" s="11" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="AL51" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM51" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN51" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO51" s="33" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AP51" s="33"/>
       <c r="AQ51" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR51" s="11" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="AS51" s="13" t="s">
         <v>31</v>
@@ -11190,31 +11190,31 @@
         <v>105</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ52" s="4" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="AK52" s="11" t="s">
         <v>65</v>
       </c>
       <c r="AL52" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM52" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN52" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AO52" s="33" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="AP52" s="33"/>
       <c r="AQ52" s="5" t="s">
@@ -11342,31 +11342,31 @@
         <v>105</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH53" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI53" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ53" s="4" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="AK53" s="11" t="s">
         <v>53</v>
       </c>
       <c r="AL53" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM53" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN53" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AO53" s="33" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="AP53" s="33"/>
       <c r="AQ53" s="5" t="s">
@@ -11412,7 +11412,7 @@
 75016 - Paris</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>46</v>
@@ -11494,31 +11494,31 @@
         <v>105</v>
       </c>
       <c r="AG54" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH54" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI54" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ54" s="4" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="AK54" s="11" t="s">
         <v>74</v>
       </c>
       <c r="AL54" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM54" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AN54" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AO54" s="33" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="AP54" s="33"/>
       <c r="AQ54" s="5" t="s">
@@ -11564,7 +11564,7 @@
 75016 - Paris</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>46</v>
@@ -11646,31 +11646,31 @@
         <v>105</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI55" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ55" s="4" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AK55" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AL55" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM55" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AN55" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AO55" s="33" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AP55" s="33"/>
       <c r="AQ55" s="5" t="s">
@@ -11731,7 +11731,7 @@
         <v>105</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N56" s="36">
         <v>110</v>
@@ -11798,38 +11798,38 @@
         <v>105</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH56" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI56" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ56" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK56" s="5" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AL56" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM56" s="5" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN56" s="5" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO56" s="33" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="AP56" s="33"/>
       <c r="AQ56" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR56" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS56" s="13" t="s">
         <v>38</v>
@@ -11883,7 +11883,7 @@
         <v>105</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N57" s="36">
         <v>66</v>
@@ -11944,38 +11944,38 @@
         <v>105</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH57" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI57" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ57" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK57" s="5" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AL57" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM57" s="11" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AN57" s="11" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO57" s="33" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="AP57" s="34"/>
       <c r="AQ57" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS57" s="13" t="s">
         <v>38</v>
@@ -12029,7 +12029,7 @@
         <v>105</v>
       </c>
       <c r="M58" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N58" s="36">
         <v>79</v>
@@ -12090,38 +12090,38 @@
         <v>105</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH58" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI58" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ58" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK58" s="5" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AL58" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM58" s="11" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="AN58" s="11" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="AO58" s="33" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="AP58" s="34"/>
       <c r="AQ58" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR58" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS58" s="13" t="s">
         <v>38</v>
@@ -12175,7 +12175,7 @@
         <v>105</v>
       </c>
       <c r="M59" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N59" s="36">
         <v>47</v>
@@ -12236,38 +12236,38 @@
         <v>105</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH59" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI59" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ59" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK59" s="5" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AL59" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM59" s="11" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="AN59" s="11" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="AO59" s="33" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="AP59" s="34"/>
       <c r="AQ59" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR59" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS59" s="13" t="s">
         <v>38</v>
@@ -12321,7 +12321,7 @@
         <v>105</v>
       </c>
       <c r="M60" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N60" s="36">
         <v>60</v>
@@ -12382,38 +12382,38 @@
         <v>105</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH60" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI60" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ60" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK60" s="5" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AL60" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM60" s="11" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="AN60" s="11" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AO60" s="33" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="AP60" s="34"/>
       <c r="AQ60" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR60" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS60" s="13" t="s">
         <v>38</v>
@@ -12467,7 +12467,7 @@
         <v>105</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N61" s="36">
         <v>81</v>
@@ -12528,38 +12528,38 @@
         <v>105</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH61" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI61" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ61" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK61" s="5" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AL61" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM61" s="11" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AN61" s="11" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AO61" s="33" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="AP61" s="34"/>
       <c r="AQ61" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR61" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS61" s="13" t="s">
         <v>38</v>
@@ -12613,7 +12613,7 @@
         <v>105</v>
       </c>
       <c r="M62" s="38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N62" s="36">
         <v>45</v>
@@ -12674,38 +12674,38 @@
         <v>105</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH62" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI62" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ62" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK62" s="5" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AL62" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM62" s="11" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="AN62" s="11" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="AO62" s="33" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="AP62" s="34"/>
       <c r="AQ62" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR62" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS62" s="13" t="s">
         <v>38</v>
@@ -12759,7 +12759,7 @@
         <v>105</v>
       </c>
       <c r="M63" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N63" s="36">
         <v>73</v>
@@ -12820,38 +12820,38 @@
         <v>105</v>
       </c>
       <c r="AG63" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH63" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI63" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ63" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK63" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="AL63" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM63" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AN63" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="AL63" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM63" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="AN63" s="11" t="s">
-        <v>512</v>
-      </c>
       <c r="AO63" s="33" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="AP63" s="34"/>
       <c r="AQ63" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR63" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS63" s="13" t="s">
         <v>38</v>
@@ -12905,7 +12905,7 @@
         <v>105</v>
       </c>
       <c r="M64" s="37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N64" s="36">
         <v>80</v>
@@ -12972,38 +12972,38 @@
         <v>105</v>
       </c>
       <c r="AG64" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH64" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI64" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ64" s="4" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="AK64" s="5" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AL64" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM64" s="5" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="AN64" s="5" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AO64" s="33" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="AP64" s="33"/>
       <c r="AQ64" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR64" s="11" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="AS64" s="13" t="s">
         <v>31</v>
@@ -13057,7 +13057,7 @@
         <v>105</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N65" s="36">
         <v>110</v>
@@ -13118,38 +13118,38 @@
         <v>105</v>
       </c>
       <c r="AG65" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH65" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI65" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ65" s="4" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="AK65" s="5" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AL65" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM65" s="11" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AN65" s="11" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AO65" s="33" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="AP65" s="34"/>
       <c r="AQ65" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR65" s="11" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="AS65" s="13" t="s">
         <v>31</v>
@@ -13203,7 +13203,7 @@
         <v>105</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N66" s="36">
         <v>321</v>
@@ -13270,7 +13270,7 @@
         <v>105</v>
       </c>
       <c r="AG66" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH66" s="10" t="s">
         <v>77</v>
@@ -13279,29 +13279,29 @@
         <v>105</v>
       </c>
       <c r="AJ66" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK66" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL66" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM66" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AN66" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AO66" s="33" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="AP66" s="33"/>
       <c r="AQ66" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR66" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS66" s="13" t="s">
         <v>38</v>
@@ -13355,7 +13355,7 @@
         <v>105</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N67" s="36">
         <v>159</v>
@@ -13414,30 +13414,30 @@
         <v>105</v>
       </c>
       <c r="AG67" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
       <c r="AJ67" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK67" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL67" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM67" s="11"/>
       <c r="AN67" s="11"/>
       <c r="AO67" s="33" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="AP67" s="34"/>
       <c r="AQ67" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR67" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS67" s="13" t="s">
         <v>38</v>
@@ -13491,7 +13491,7 @@
         <v>105</v>
       </c>
       <c r="M68" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N68" s="36">
         <v>281</v>
@@ -13550,30 +13550,30 @@
         <v>105</v>
       </c>
       <c r="AG68" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
       <c r="AJ68" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK68" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL68" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM68" s="11"/>
       <c r="AN68" s="11"/>
       <c r="AO68" s="33" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="AP68" s="34"/>
       <c r="AQ68" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR68" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS68" s="13" t="s">
         <v>38</v>
@@ -13627,7 +13627,7 @@
         <v>105</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N69" s="36">
         <v>168</v>
@@ -13686,30 +13686,30 @@
         <v>105</v>
       </c>
       <c r="AG69" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH69" s="10"/>
       <c r="AI69" s="10"/>
       <c r="AJ69" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK69" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL69" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM69" s="11"/>
       <c r="AN69" s="11"/>
       <c r="AO69" s="33" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="AP69" s="34"/>
       <c r="AQ69" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR69" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS69" s="13" t="s">
         <v>38</v>
@@ -13763,7 +13763,7 @@
         <v>105</v>
       </c>
       <c r="M70" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N70" s="36">
         <v>228</v>
@@ -13822,30 +13822,30 @@
         <v>105</v>
       </c>
       <c r="AG70" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH70" s="10"/>
       <c r="AI70" s="10"/>
       <c r="AJ70" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK70" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL70" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM70" s="11"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="33" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="AP70" s="34"/>
       <c r="AQ70" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR70" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS70" s="13" t="s">
         <v>38</v>
@@ -13899,7 +13899,7 @@
         <v>105</v>
       </c>
       <c r="M71" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N71" s="36">
         <v>133</v>
@@ -13958,30 +13958,30 @@
         <v>105</v>
       </c>
       <c r="AG71" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH71" s="10"/>
       <c r="AI71" s="10"/>
       <c r="AJ71" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK71" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL71" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="33" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="AP71" s="34"/>
       <c r="AQ71" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR71" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS71" s="13" t="s">
         <v>38</v>
@@ -14035,7 +14035,7 @@
         <v>105</v>
       </c>
       <c r="M72" s="38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N72" s="36">
         <v>341</v>
@@ -14094,30 +14094,30 @@
         <v>105</v>
       </c>
       <c r="AG72" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH72" s="10"/>
       <c r="AI72" s="10"/>
       <c r="AJ72" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK72" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL72" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
       <c r="AO72" s="33" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="AP72" s="34"/>
       <c r="AQ72" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR72" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS72" s="13" t="s">
         <v>38</v>
@@ -14171,7 +14171,7 @@
         <v>105</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N73" s="36">
         <v>444</v>
@@ -14230,30 +14230,30 @@
         <v>105</v>
       </c>
       <c r="AG73" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH73" s="10"/>
       <c r="AI73" s="10"/>
       <c r="AJ73" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK73" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL73" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
       <c r="AO73" s="33" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="AP73" s="34"/>
       <c r="AQ73" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR73" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS73" s="13" t="s">
         <v>38</v>
@@ -14307,7 +14307,7 @@
         <v>105</v>
       </c>
       <c r="M74" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N74" s="36">
         <v>206</v>
@@ -14366,30 +14366,30 @@
         <v>105</v>
       </c>
       <c r="AG74" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH74" s="10"/>
       <c r="AI74" s="10"/>
       <c r="AJ74" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK74" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL74" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
       <c r="AO74" s="33" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="AP74" s="34"/>
       <c r="AQ74" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR74" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS74" s="13" t="s">
         <v>38</v>
@@ -14443,7 +14443,7 @@
         <v>105</v>
       </c>
       <c r="M75" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N75" s="36">
         <v>231</v>
@@ -14502,30 +14502,30 @@
         <v>105</v>
       </c>
       <c r="AG75" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH75" s="10"/>
       <c r="AI75" s="10"/>
       <c r="AJ75" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK75" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL75" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="33" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="AP75" s="34"/>
       <c r="AQ75" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR75" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS75" s="13" t="s">
         <v>38</v>
@@ -14579,7 +14579,7 @@
         <v>105</v>
       </c>
       <c r="M76" s="38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N76" s="36">
         <v>235</v>
@@ -14638,30 +14638,30 @@
         <v>105</v>
       </c>
       <c r="AG76" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH76" s="10"/>
       <c r="AI76" s="10"/>
       <c r="AJ76" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK76" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL76" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM76" s="11"/>
       <c r="AN76" s="11"/>
       <c r="AO76" s="33" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="AP76" s="34"/>
       <c r="AQ76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR76" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS76" s="13" t="s">
         <v>38</v>
@@ -14715,7 +14715,7 @@
         <v>105</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N77" s="36">
         <v>333</v>
@@ -14774,30 +14774,30 @@
         <v>105</v>
       </c>
       <c r="AG77" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH77" s="10"/>
       <c r="AI77" s="10"/>
       <c r="AJ77" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK77" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL77" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM77" s="11"/>
       <c r="AN77" s="11"/>
       <c r="AO77" s="33" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="AP77" s="34"/>
       <c r="AQ77" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR77" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS77" s="13" t="s">
         <v>38</v>
@@ -14851,7 +14851,7 @@
         <v>105</v>
       </c>
       <c r="M78" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N78" s="36">
         <v>177</v>
@@ -14910,30 +14910,30 @@
         <v>105</v>
       </c>
       <c r="AG78" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH78" s="10"/>
       <c r="AI78" s="10"/>
       <c r="AJ78" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK78" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL78" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM78" s="11"/>
       <c r="AN78" s="11"/>
       <c r="AO78" s="33" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="AP78" s="34"/>
       <c r="AQ78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR78" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS78" s="13" t="s">
         <v>38</v>
@@ -14987,7 +14987,7 @@
         <v>105</v>
       </c>
       <c r="M79" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N79" s="36">
         <v>99</v>
@@ -15046,30 +15046,30 @@
         <v>105</v>
       </c>
       <c r="AG79" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH79" s="10"/>
       <c r="AI79" s="10"/>
       <c r="AJ79" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK79" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL79" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM79" s="11"/>
       <c r="AN79" s="11"/>
       <c r="AO79" s="33" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="AP79" s="34"/>
       <c r="AQ79" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR79" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS79" s="13" t="s">
         <v>38</v>
@@ -15123,7 +15123,7 @@
         <v>105</v>
       </c>
       <c r="M80" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N80" s="36">
         <v>169</v>
@@ -15182,30 +15182,30 @@
         <v>105</v>
       </c>
       <c r="AG80" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH80" s="10"/>
       <c r="AI80" s="10"/>
       <c r="AJ80" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK80" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL80" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM80" s="11"/>
       <c r="AN80" s="11"/>
       <c r="AO80" s="33" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="AP80" s="34"/>
       <c r="AQ80" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR80" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS80" s="13" t="s">
         <v>38</v>
@@ -15259,7 +15259,7 @@
         <v>105</v>
       </c>
       <c r="M81" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N81" s="36">
         <v>196</v>
@@ -15318,30 +15318,30 @@
         <v>105</v>
       </c>
       <c r="AG81" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH81" s="10"/>
       <c r="AI81" s="10"/>
       <c r="AJ81" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK81" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL81" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM81" s="11"/>
       <c r="AN81" s="11"/>
       <c r="AO81" s="33" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="AP81" s="34"/>
       <c r="AQ81" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR81" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS81" s="13" t="s">
         <v>38</v>
@@ -15395,7 +15395,7 @@
         <v>105</v>
       </c>
       <c r="M82" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N82" s="36">
         <v>195</v>
@@ -15454,30 +15454,30 @@
         <v>105</v>
       </c>
       <c r="AG82" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH82" s="10"/>
       <c r="AI82" s="10"/>
       <c r="AJ82" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK82" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL82" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM82" s="11"/>
       <c r="AN82" s="11"/>
       <c r="AO82" s="33" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="AP82" s="34"/>
       <c r="AQ82" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR82" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS82" s="13" t="s">
         <v>38</v>
@@ -15531,7 +15531,7 @@
         <v>105</v>
       </c>
       <c r="M83" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N83" s="36">
         <v>181</v>
@@ -15590,30 +15590,30 @@
         <v>105</v>
       </c>
       <c r="AG83" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH83" s="10"/>
       <c r="AI83" s="10"/>
       <c r="AJ83" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK83" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL83" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM83" s="11"/>
       <c r="AN83" s="11"/>
       <c r="AO83" s="33" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="AP83" s="34"/>
       <c r="AQ83" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR83" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS83" s="13" t="s">
         <v>38</v>
@@ -15667,7 +15667,7 @@
         <v>105</v>
       </c>
       <c r="M84" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N84" s="36">
         <v>277</v>
@@ -15726,30 +15726,30 @@
         <v>105</v>
       </c>
       <c r="AG84" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH84" s="10"/>
       <c r="AI84" s="10"/>
       <c r="AJ84" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK84" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL84" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM84" s="11"/>
       <c r="AN84" s="11"/>
       <c r="AO84" s="33" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="AP84" s="34"/>
       <c r="AQ84" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR84" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS84" s="13" t="s">
         <v>38</v>
@@ -15803,7 +15803,7 @@
         <v>105</v>
       </c>
       <c r="M85" s="38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N85" s="36">
         <v>142</v>
@@ -15862,30 +15862,30 @@
         <v>105</v>
       </c>
       <c r="AG85" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH85" s="10"/>
       <c r="AI85" s="10"/>
       <c r="AJ85" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK85" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL85" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM85" s="11"/>
       <c r="AN85" s="11"/>
       <c r="AO85" s="33" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="AP85" s="34"/>
       <c r="AQ85" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR85" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS85" s="13" t="s">
         <v>38</v>
@@ -15939,7 +15939,7 @@
         <v>105</v>
       </c>
       <c r="M86" s="38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N86" s="36">
         <v>114</v>
@@ -15998,30 +15998,30 @@
         <v>105</v>
       </c>
       <c r="AG86" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH86" s="10"/>
       <c r="AI86" s="10"/>
       <c r="AJ86" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK86" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL86" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM86" s="11"/>
       <c r="AN86" s="11"/>
       <c r="AO86" s="33" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="AP86" s="34"/>
       <c r="AQ86" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR86" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>38</v>
@@ -16075,7 +16075,7 @@
         <v>105</v>
       </c>
       <c r="M87" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N87" s="36">
         <v>167</v>
@@ -16134,30 +16134,30 @@
         <v>105</v>
       </c>
       <c r="AG87" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH87" s="10"/>
       <c r="AI87" s="10"/>
       <c r="AJ87" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK87" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL87" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM87" s="11"/>
       <c r="AN87" s="11"/>
       <c r="AO87" s="33" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="AP87" s="34"/>
       <c r="AQ87" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR87" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS87" s="13" t="s">
         <v>38</v>
@@ -16211,7 +16211,7 @@
         <v>105</v>
       </c>
       <c r="M88" s="38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N88" s="36">
         <v>88</v>
@@ -16270,30 +16270,30 @@
         <v>105</v>
       </c>
       <c r="AG88" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH88" s="10"/>
       <c r="AI88" s="10"/>
       <c r="AJ88" s="4" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AK88" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL88" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM88" s="11"/>
       <c r="AN88" s="11"/>
       <c r="AO88" s="33" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="AP88" s="34"/>
       <c r="AQ88" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR88" s="11" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AS88" s="13" t="s">
         <v>38</v>
@@ -16347,7 +16347,7 @@
         <v>105</v>
       </c>
       <c r="M89" s="37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N89" s="36">
         <v>372</v>
@@ -16414,38 +16414,38 @@
         <v>105</v>
       </c>
       <c r="AG89" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH89" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI89" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ89" s="4" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AK89" s="5" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AL89" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM89" s="5" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="AN89" s="5" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="AO89" s="33" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="AP89" s="33"/>
       <c r="AQ89" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR89" s="11" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="AS89" s="13" t="s">
         <v>31</v>
@@ -16499,7 +16499,7 @@
         <v>105</v>
       </c>
       <c r="M90" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N90" s="36">
         <v>106</v>
@@ -16566,38 +16566,38 @@
         <v>105</v>
       </c>
       <c r="AG90" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH90" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI90" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ90" s="4" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AK90" s="5" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AL90" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM90" s="11" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="AN90" s="11" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="AO90" s="33" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="AP90" s="34"/>
       <c r="AQ90" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR90" s="11" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="AS90" s="13" t="s">
         <v>31</v>
@@ -16651,7 +16651,7 @@
         <v>105</v>
       </c>
       <c r="M91" s="38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N91" s="36">
         <v>108</v>
@@ -16718,38 +16718,38 @@
         <v>105</v>
       </c>
       <c r="AG91" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH91" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI91" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ91" s="4" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AK91" s="5" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AL91" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM91" s="11" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AN91" s="11" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AO91" s="33" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="AP91" s="34"/>
       <c r="AQ91" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR91" s="11" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="AS91" s="13" t="s">
         <v>31</v>
@@ -16803,7 +16803,7 @@
         <v>105</v>
       </c>
       <c r="M92" s="38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N92" s="36">
         <v>424</v>
@@ -16870,38 +16870,38 @@
         <v>105</v>
       </c>
       <c r="AG92" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH92" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI92" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ92" s="4" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AK92" s="5" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AL92" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM92" s="11" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AN92" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AO92" s="33" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="AP92" s="34"/>
       <c r="AQ92" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR92" s="11" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="AS92" s="13" t="s">
         <v>31</v>
@@ -16955,7 +16955,7 @@
         <v>105</v>
       </c>
       <c r="M93" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N93" s="36">
         <v>258</v>
@@ -17022,38 +17022,38 @@
         <v>105</v>
       </c>
       <c r="AG93" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH93" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI93" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ93" s="4" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AK93" s="5" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AL93" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM93" s="11" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="AN93" s="11" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="AO93" s="33" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="AP93" s="34"/>
       <c r="AQ93" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR93" s="11" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="AS93" s="13" t="s">
         <v>31</v>
@@ -17107,7 +17107,7 @@
         <v>105</v>
       </c>
       <c r="M94" s="38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N94" s="36">
         <v>152</v>
@@ -17174,38 +17174,38 @@
         <v>105</v>
       </c>
       <c r="AG94" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH94" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI94" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ94" s="4" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AK94" s="5" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AL94" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM94" s="11" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="AN94" s="11" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="AO94" s="33" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="AP94" s="34"/>
       <c r="AQ94" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR94" s="11" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="AS94" s="13" t="s">
         <v>31</v>
@@ -17259,7 +17259,7 @@
         <v>105</v>
       </c>
       <c r="M95" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N95" s="36">
         <v>105</v>
@@ -17326,38 +17326,38 @@
         <v>105</v>
       </c>
       <c r="AG95" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH95" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI95" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ95" s="4" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AK95" s="5" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AL95" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM95" s="11" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AN95" s="11" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AO95" s="33" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AP95" s="34"/>
       <c r="AQ95" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR95" s="11" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="AS95" s="13" t="s">
         <v>31</v>
@@ -17396,7 +17396,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>46</v>
@@ -17411,7 +17411,7 @@
         <v>105</v>
       </c>
       <c r="M96" s="37" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="N96" s="36">
         <v>286</v>
@@ -17478,38 +17478,38 @@
         <v>105</v>
       </c>
       <c r="AG96" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH96" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI96" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ96" s="4" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AK96" s="5" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AL96" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM96" s="5" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="AN96" s="5" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AO96" s="33" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="AP96" s="33"/>
       <c r="AQ96" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR96" s="11" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="AS96" s="13" t="s">
         <v>38</v>
@@ -17548,7 +17548,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>46</v>
@@ -17563,7 +17563,7 @@
         <v>105</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="N97" s="36">
         <v>84</v>
@@ -17630,38 +17630,38 @@
         <v>105</v>
       </c>
       <c r="AG97" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH97" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI97" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ97" s="4" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AK97" s="5" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AL97" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM97" s="11" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="AN97" s="11" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="AO97" s="33" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="AP97" s="34"/>
       <c r="AQ97" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR97" s="11" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="AS97" s="13" t="s">
         <v>38</v>
@@ -17700,7 +17700,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>46</v>
@@ -17715,7 +17715,7 @@
         <v>105</v>
       </c>
       <c r="M98" s="38" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="N98" s="36">
         <v>272</v>
@@ -17782,38 +17782,38 @@
         <v>105</v>
       </c>
       <c r="AG98" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH98" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI98" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ98" s="4" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AK98" s="5" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="AL98" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM98" s="11" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AN98" s="11" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AO98" s="33" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="AP98" s="34"/>
       <c r="AQ98" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR98" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="AS98" s="13" t="s">
         <v>38</v>
@@ -17852,7 +17852,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>46</v>
@@ -17867,7 +17867,7 @@
         <v>105</v>
       </c>
       <c r="M99" s="38" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="N99" s="36">
         <v>162</v>
@@ -17934,38 +17934,38 @@
         <v>105</v>
       </c>
       <c r="AG99" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH99" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI99" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ99" s="4" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AK99" s="5" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AL99" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM99" s="11" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AN99" s="11" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="AO99" s="33" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="AP99" s="34"/>
       <c r="AQ99" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR99" s="11" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="AS99" s="13" t="s">
         <v>38</v>
@@ -18004,7 +18004,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>46</v>
@@ -18019,7 +18019,7 @@
         <v>105</v>
       </c>
       <c r="M100" s="38" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="N100" s="36">
         <v>271</v>
@@ -18086,38 +18086,38 @@
         <v>105</v>
       </c>
       <c r="AG100" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AH100" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI100" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ100" s="4" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AK100" s="5" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AL100" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM100" s="11" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="AN100" s="11" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="AO100" s="33" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="AP100" s="34"/>
       <c r="AQ100" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR100" s="11" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="AS100" s="13" t="s">
         <v>38</v>
@@ -18171,7 +18171,7 @@
         <v>105</v>
       </c>
       <c r="M101" s="37" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="N101" s="36">
         <v>144</v>
@@ -18238,31 +18238,31 @@
         <v>105</v>
       </c>
       <c r="AG101" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH101" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI101" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ101" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK101" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL101" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AN101" s="11" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AO101" s="33" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="AP101" s="33"/>
       <c r="AQ101" s="5" t="s">
@@ -18323,7 +18323,7 @@
         <v>105</v>
       </c>
       <c r="M102" s="38" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="N102" s="36">
         <v>133</v>
@@ -18390,31 +18390,31 @@
         <v>105</v>
       </c>
       <c r="AG102" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH102" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI102" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ102" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK102" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL102" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM102" s="11" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AN102" s="11" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="AO102" s="33" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="AP102" s="34"/>
       <c r="AQ102" s="5" t="s">
@@ -18477,7 +18477,7 @@
         <v>105</v>
       </c>
       <c r="M103" s="38" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="N103" s="36">
         <v>114</v>
@@ -18544,31 +18544,31 @@
         <v>105</v>
       </c>
       <c r="AG103" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH103" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI103" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ103" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK103" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL103" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM103" s="11" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="AN103" s="11" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="AO103" s="33" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="AP103" s="34"/>
       <c r="AQ103" s="5" t="s">
@@ -18690,31 +18690,31 @@
         <v>105</v>
       </c>
       <c r="AG104" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH104" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI104" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ104" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK104" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL104" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM104" s="11" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="AN104" s="11" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="AO104" s="33" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="AP104" s="34"/>
       <c r="AQ104" s="5" t="s">
@@ -18771,7 +18771,7 @@
         <v>105</v>
       </c>
       <c r="M105" s="38" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="N105" s="36">
         <v>60</v>
@@ -18838,31 +18838,31 @@
         <v>105</v>
       </c>
       <c r="AG105" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH105" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI105" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ105" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK105" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL105" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM105" s="11" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="AN105" s="11" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="AO105" s="33" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="AP105" s="34"/>
       <c r="AQ105" s="5" t="s">
@@ -18919,7 +18919,7 @@
         <v>105</v>
       </c>
       <c r="M106" s="38" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="N106" s="36">
         <v>60</v>
@@ -18986,31 +18986,31 @@
         <v>105</v>
       </c>
       <c r="AG106" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH106" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI106" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ106" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK106" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL106" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM106" s="11" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="AN106" s="11" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="AO106" s="33" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="AP106" s="34"/>
       <c r="AQ106" s="5" t="s">
@@ -19067,7 +19067,7 @@
         <v>105</v>
       </c>
       <c r="M107" s="38" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="N107" s="36">
         <v>96</v>
@@ -19134,31 +19134,31 @@
         <v>105</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH107" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI107" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ107" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK107" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL107" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM107" s="11" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="AN107" s="11" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="AO107" s="33" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="AP107" s="34"/>
       <c r="AQ107" s="5" t="s">
@@ -19215,7 +19215,7 @@
         <v>105</v>
       </c>
       <c r="M108" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N108" s="36">
         <v>265</v>
@@ -19282,31 +19282,31 @@
         <v>105</v>
       </c>
       <c r="AG108" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH108" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI108" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ108" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK108" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL108" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM108" s="11" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="AN108" s="11" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="AO108" s="33" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="AP108" s="34"/>
       <c r="AQ108" s="5" t="s">
@@ -19363,7 +19363,7 @@
         <v>105</v>
       </c>
       <c r="M109" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N109" s="36">
         <v>63</v>
@@ -19430,31 +19430,31 @@
         <v>105</v>
       </c>
       <c r="AG109" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH109" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI109" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ109" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK109" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL109" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM109" s="11" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="AN109" s="11" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="AO109" s="33" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="AP109" s="34"/>
       <c r="AQ109" s="5" t="s">
@@ -19511,7 +19511,7 @@
         <v>105</v>
       </c>
       <c r="M110" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N110" s="36">
         <v>120</v>
@@ -19578,31 +19578,31 @@
         <v>105</v>
       </c>
       <c r="AG110" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH110" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI110" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ110" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK110" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL110" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM110" s="11" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AN110" s="11" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="AO110" s="33" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="AP110" s="34"/>
       <c r="AQ110" s="5" t="s">
@@ -19662,7 +19662,7 @@
         <v>105</v>
       </c>
       <c r="M111" s="38" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="N111" s="36">
         <v>176</v>
@@ -19729,31 +19729,31 @@
         <v>105</v>
       </c>
       <c r="AG111" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI111" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ111" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK111" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL111" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM111" s="11" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="AN111" s="11" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="AO111" s="33" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="AP111" s="34"/>
       <c r="AQ111" s="5" t="s">
@@ -19813,7 +19813,7 @@
         <v>105</v>
       </c>
       <c r="M112" s="38" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="N112" s="36">
         <v>86</v>
@@ -19880,31 +19880,31 @@
         <v>105</v>
       </c>
       <c r="AG112" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH112" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI112" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ112" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK112" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL112" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM112" s="11" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="AN112" s="11" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="AO112" s="33" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="AP112" s="34"/>
       <c r="AQ112" s="5" t="s">
@@ -19964,7 +19964,7 @@
         <v>105</v>
       </c>
       <c r="M113" s="38" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="N113" s="36">
         <v>86</v>
@@ -20031,31 +20031,31 @@
         <v>105</v>
       </c>
       <c r="AG113" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH113" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI113" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ113" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK113" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL113" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM113" s="11" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN113" s="11" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AO113" s="33" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="AP113" s="34"/>
       <c r="AQ113" s="5" t="s">
@@ -20115,7 +20115,7 @@
         <v>105</v>
       </c>
       <c r="M114" s="38" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="N114" s="36">
         <v>90</v>
@@ -20182,31 +20182,31 @@
         <v>105</v>
       </c>
       <c r="AG114" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH114" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AI114" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AJ114" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AK114" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AL114" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM114" s="11" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN114" s="11" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AO114" s="33" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="AP114" s="34"/>
       <c r="AQ114" s="5" t="s">

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36666D7-7115-42AD-9800-F77755F81405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85580F9-44AC-47EA-9D6C-0775733AF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="748">
   <si>
     <t>Contact</t>
   </si>
@@ -1256,42 +1256,6 @@
     <t>Basic Fit, Normal, Micromania, Okaïdi, Marionnaud, Promod, Rougegorge, Mcdonald's</t>
   </si>
   <si>
-    <t>49.2063092955417</t>
-  </si>
-  <si>
-    <t>-0.3276811493505675</t>
-  </si>
-  <si>
-    <t>49.206235041689915</t>
-  </si>
-  <si>
-    <t>-0.32765631126006584</t>
-  </si>
-  <si>
-    <t>49.206106203612336</t>
-  </si>
-  <si>
-    <t>-0.3275065300305682</t>
-  </si>
-  <si>
-    <t>49.20607669866272</t>
-  </si>
-  <si>
-    <t>-0.3275840549797097</t>
-  </si>
-  <si>
-    <t>49.205987200204724</t>
-  </si>
-  <si>
-    <t>-0.327982217143126</t>
-  </si>
-  <si>
-    <t>49.20568034712577</t>
-  </si>
-  <si>
-    <t>-0.32814103039706655</t>
-  </si>
-  <si>
     <t>A étudier</t>
   </si>
   <si>
@@ -1304,78 +1268,6 @@
     <t>Cash Piscine, Lyre, Kraft, Vib's, Cache Cache, Grain de Malice, Bréal, Canadian Store</t>
   </si>
   <si>
-    <t>48.19752190792015</t>
-  </si>
-  <si>
-    <t>-1.7259755683652593</t>
-  </si>
-  <si>
-    <t>48.19774807046898</t>
-  </si>
-  <si>
-    <t>-1.7261422916134719</t>
-  </si>
-  <si>
-    <t>48.19807147919867</t>
-  </si>
-  <si>
-    <t>-1.7264312600707086</t>
-  </si>
-  <si>
-    <t>48.19819885419333</t>
-  </si>
-  <si>
-    <t>-1.7265679164429901</t>
-  </si>
-  <si>
-    <t>48.1983256510846</t>
-  </si>
-  <si>
-    <t>-1.7266916944069663</t>
-  </si>
-  <si>
-    <t>48.19840207645366</t>
-  </si>
-  <si>
-    <t>-1.7267920196874926</t>
-  </si>
-  <si>
-    <t>48.19854363678117</t>
-  </si>
-  <si>
-    <t>-1.7269105859475737</t>
-  </si>
-  <si>
-    <t>48.19879201776634</t>
-  </si>
-  <si>
-    <t>-1.726805048919688</t>
-  </si>
-  <si>
-    <t>48.198858020900026</t>
-  </si>
-  <si>
-    <t>-1.7266500007588743</t>
-  </si>
-  <si>
-    <t>48.19890926011624</t>
-  </si>
-  <si>
-    <t>-1.7265405549983002</t>
-  </si>
-  <si>
-    <t>48.199033449870626</t>
-  </si>
-  <si>
-    <t>-1.726210914758006</t>
-  </si>
-  <si>
-    <t>48.199108137268865</t>
-  </si>
-  <si>
-    <t>-1.7260037495683476</t>
-  </si>
-  <si>
     <t>231 €/m² = 55 000 €</t>
   </si>
   <si>
@@ -2292,6 +2184,111 @@
   </si>
   <si>
     <t>-0.327884</t>
+  </si>
+  <si>
+    <t>49.206310</t>
+  </si>
+  <si>
+    <t>-0.327702</t>
+  </si>
+  <si>
+    <t>49.206238</t>
+  </si>
+  <si>
+    <t>-0.327648</t>
+  </si>
+  <si>
+    <t>49.206083</t>
+  </si>
+  <si>
+    <t>-0.327479</t>
+  </si>
+  <si>
+    <t>-0.327589</t>
+  </si>
+  <si>
+    <t>49.205982</t>
+  </si>
+  <si>
+    <t>-0.327975</t>
+  </si>
+  <si>
+    <t>49.205712</t>
+  </si>
+  <si>
+    <t>-0.328139</t>
+  </si>
+  <si>
+    <t>48.197608</t>
+  </si>
+  <si>
+    <t>-1.725854</t>
+  </si>
+  <si>
+    <t>48.197772</t>
+  </si>
+  <si>
+    <t>-1.725999</t>
+  </si>
+  <si>
+    <t>48.198039</t>
+  </si>
+  <si>
+    <t>-1.726240</t>
+  </si>
+  <si>
+    <t>48.198166</t>
+  </si>
+  <si>
+    <t>-1.726390</t>
+  </si>
+  <si>
+    <t>48.198348</t>
+  </si>
+  <si>
+    <t>-1.726557</t>
+  </si>
+  <si>
+    <t>48.198452</t>
+  </si>
+  <si>
+    <t>-1.726667</t>
+  </si>
+  <si>
+    <t>48.198584</t>
+  </si>
+  <si>
+    <t>-1.726814</t>
+  </si>
+  <si>
+    <t>48.198731</t>
+  </si>
+  <si>
+    <t>-1.726769</t>
+  </si>
+  <si>
+    <t>48.198775</t>
+  </si>
+  <si>
+    <t>-1.726648</t>
+  </si>
+  <si>
+    <t>48.198827</t>
+  </si>
+  <si>
+    <t>-1.726519</t>
+  </si>
+  <si>
+    <t>48.199004</t>
+  </si>
+  <si>
+    <t>-1.726162</t>
+  </si>
+  <si>
+    <t>48.199088</t>
+  </si>
+  <si>
+    <t>-1.725948</t>
   </si>
 </sst>
 </file>
@@ -3290,10 +3287,10 @@
   <dimension ref="A1:BD123"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AK12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM11" sqref="AM11"/>
+      <selection pane="bottomRight" activeCell="AM19" sqref="AM19:AN30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -3416,7 +3413,7 @@
         <v>103</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>8</v>
@@ -3608,7 +3605,7 @@
         <v>389</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>396</v>
@@ -3623,10 +3620,10 @@
         <v>394</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="AO2" s="33" t="s">
         <v>358</v>
@@ -3927,10 +3924,10 @@
         <v>394</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="AO4" s="33" t="s">
         <v>383</v>
@@ -4064,7 +4061,7 @@
         <v>389</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI5" s="4" t="s">
         <v>396</v>
@@ -4079,10 +4076,10 @@
         <v>394</v>
       </c>
       <c r="AM5" s="5" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="AO5" s="33" t="s">
         <v>384</v>
@@ -4231,20 +4228,20 @@
         <v>394</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="AO6" s="33" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="AP6" s="33"/>
       <c r="AQ6" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS6" s="13" t="s">
         <v>76</v>
@@ -4383,20 +4380,20 @@
         <v>394</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="AP7" s="34"/>
       <c r="AQ7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR7" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS7" s="13" t="s">
         <v>76</v>
@@ -4535,20 +4532,20 @@
         <v>394</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>739</v>
+        <v>703</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>740</v>
+        <v>704</v>
       </c>
       <c r="AO8" s="33" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="AP8" s="34"/>
       <c r="AQ8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR8" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS8" s="13" t="s">
         <v>76</v>
@@ -4687,20 +4684,20 @@
         <v>394</v>
       </c>
       <c r="AM9" s="11" t="s">
-        <v>741</v>
+        <v>705</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
       <c r="AO9" s="33" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="AP9" s="34"/>
       <c r="AQ9" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS9" s="13" t="s">
         <v>76</v>
@@ -4839,20 +4836,20 @@
         <v>394</v>
       </c>
       <c r="AM10" s="11" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
       <c r="AN10" s="11" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
       <c r="AO10" s="33" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="AP10" s="34"/>
       <c r="AQ10" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR10" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS10" s="13" t="s">
         <v>76</v>
@@ -4991,20 +4988,20 @@
         <v>394</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
       <c r="AO11" s="33" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="AP11" s="34"/>
       <c r="AQ11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR11" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS11" s="13" t="s">
         <v>76</v>
@@ -5143,20 +5140,20 @@
         <v>394</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
       <c r="AN12" s="11" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="AO12" s="33" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="AP12" s="34"/>
       <c r="AQ12" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR12" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS12" s="13" t="s">
         <v>76</v>
@@ -5295,20 +5292,20 @@
         <v>394</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>403</v>
+        <v>713</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>404</v>
+        <v>714</v>
       </c>
       <c r="AO13" s="33" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="AP13" s="34"/>
       <c r="AQ13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR13" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS13" s="13" t="s">
         <v>76</v>
@@ -5447,20 +5444,20 @@
         <v>394</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>405</v>
+        <v>715</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>406</v>
+        <v>716</v>
       </c>
       <c r="AO14" s="33" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="AP14" s="34"/>
       <c r="AQ14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>76</v>
@@ -5599,20 +5596,20 @@
         <v>394</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>407</v>
+        <v>717</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>408</v>
+        <v>718</v>
       </c>
       <c r="AO15" s="33" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="AP15" s="34"/>
       <c r="AQ15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR15" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS15" s="13" t="s">
         <v>76</v>
@@ -5751,20 +5748,20 @@
         <v>394</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>409</v>
+        <v>717</v>
       </c>
       <c r="AN16" s="11" t="s">
-        <v>410</v>
+        <v>719</v>
       </c>
       <c r="AO16" s="33" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="AP16" s="34"/>
       <c r="AQ16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR16" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>76</v>
@@ -5903,20 +5900,20 @@
         <v>394</v>
       </c>
       <c r="AM17" s="11" t="s">
-        <v>411</v>
+        <v>720</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>412</v>
+        <v>721</v>
       </c>
       <c r="AO17" s="33" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="AP17" s="34"/>
       <c r="AQ17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR17" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS17" s="13" t="s">
         <v>76</v>
@@ -6055,20 +6052,20 @@
         <v>394</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>413</v>
+        <v>722</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>414</v>
+        <v>723</v>
       </c>
       <c r="AO18" s="33" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="AP18" s="34"/>
       <c r="AQ18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR18" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>76</v>
@@ -6192,35 +6189,35 @@
         <v>389</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI19" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ19" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>419</v>
+        <v>724</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>420</v>
+        <v>725</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="AP19" s="33"/>
       <c r="AQ19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR19" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS19" s="13" t="s">
         <v>76</v>
@@ -6344,35 +6341,35 @@
         <v>389</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI20" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL20" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>421</v>
+        <v>726</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>422</v>
+        <v>727</v>
       </c>
       <c r="AO20" s="33" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="AP20" s="34"/>
       <c r="AQ20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR20" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS20" s="13" t="s">
         <v>76</v>
@@ -6496,35 +6493,35 @@
         <v>389</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI21" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL21" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>423</v>
+        <v>728</v>
       </c>
       <c r="AN21" s="11" t="s">
-        <v>424</v>
+        <v>729</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="AP21" s="34"/>
       <c r="AQ21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS21" s="13" t="s">
         <v>76</v>
@@ -6648,35 +6645,35 @@
         <v>389</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI22" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ22" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>425</v>
+        <v>730</v>
       </c>
       <c r="AN22" s="11" t="s">
-        <v>426</v>
+        <v>731</v>
       </c>
       <c r="AO22" s="33" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="AP22" s="34"/>
       <c r="AQ22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR22" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS22" s="13" t="s">
         <v>76</v>
@@ -6800,35 +6797,35 @@
         <v>389</v>
       </c>
       <c r="AH23" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI23" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ23" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL23" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>427</v>
+        <v>732</v>
       </c>
       <c r="AN23" s="11" t="s">
-        <v>428</v>
+        <v>733</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="AP23" s="34"/>
       <c r="AQ23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR23" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS23" s="13" t="s">
         <v>76</v>
@@ -6952,35 +6949,35 @@
         <v>389</v>
       </c>
       <c r="AH24" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI24" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL24" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>429</v>
+        <v>734</v>
       </c>
       <c r="AN24" s="11" t="s">
-        <v>430</v>
+        <v>735</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="AP24" s="34"/>
       <c r="AQ24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR24" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS24" s="13" t="s">
         <v>76</v>
@@ -7104,35 +7101,35 @@
         <v>389</v>
       </c>
       <c r="AH25" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI25" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL25" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM25" s="11" t="s">
-        <v>431</v>
+        <v>736</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>432</v>
+        <v>737</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="AP25" s="34"/>
       <c r="AQ25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR25" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS25" s="13" t="s">
         <v>76</v>
@@ -7256,35 +7253,35 @@
         <v>389</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI26" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ26" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK26" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL26" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM26" s="11" t="s">
-        <v>433</v>
+        <v>738</v>
       </c>
       <c r="AN26" s="11" t="s">
-        <v>434</v>
+        <v>739</v>
       </c>
       <c r="AO26" s="33" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="AP26" s="34"/>
       <c r="AQ26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR26" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS26" s="13" t="s">
         <v>76</v>
@@ -7408,35 +7405,35 @@
         <v>389</v>
       </c>
       <c r="AH27" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI27" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ27" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL27" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM27" s="11" t="s">
-        <v>435</v>
+        <v>740</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>436</v>
+        <v>741</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="AP27" s="34"/>
       <c r="AQ27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS27" s="13" t="s">
         <v>76</v>
@@ -7560,35 +7557,35 @@
         <v>389</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI28" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ28" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK28" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM28" s="11" t="s">
-        <v>437</v>
+        <v>742</v>
       </c>
       <c r="AN28" s="11" t="s">
-        <v>438</v>
+        <v>743</v>
       </c>
       <c r="AO28" s="33" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="AP28" s="34"/>
       <c r="AQ28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR28" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS28" s="13" t="s">
         <v>76</v>
@@ -7712,35 +7709,35 @@
         <v>389</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI29" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ29" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK29" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL29" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM29" s="11" t="s">
-        <v>439</v>
+        <v>744</v>
       </c>
       <c r="AN29" s="11" t="s">
-        <v>440</v>
+        <v>745</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="AP29" s="34"/>
       <c r="AQ29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR29" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS29" s="13" t="s">
         <v>76</v>
@@ -7864,35 +7861,35 @@
         <v>389</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI30" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ30" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AL30" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM30" s="11" t="s">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>442</v>
+        <v>747</v>
       </c>
       <c r="AO30" s="33" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="AP30" s="34"/>
       <c r="AQ30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR30" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS30" s="13" t="s">
         <v>76</v>
@@ -8022,22 +8019,22 @@
         <v>395</v>
       </c>
       <c r="AJ31" s="4" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="AK31" s="11" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AL31" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM31" s="11" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="AN31" s="11" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="AO31" s="33" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="AP31" s="33"/>
       <c r="AQ31" s="5" t="s">
@@ -8174,29 +8171,29 @@
         <v>395</v>
       </c>
       <c r="AJ32" s="4" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="AK32" s="11" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AL32" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM32" s="11" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="AN32" s="11" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="AO32" s="33" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="AP32" s="34"/>
       <c r="AQ32" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR32" s="11" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="AS32" s="13" t="s">
         <v>40</v>
@@ -8326,29 +8323,29 @@
         <v>395</v>
       </c>
       <c r="AJ33" s="4" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="AK33" s="11" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AL33" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM33" s="11" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="AN33" s="11" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="AO33" s="33" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR33" s="11" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="AS33" s="13" t="s">
         <v>40</v>
@@ -8478,29 +8475,29 @@
         <v>395</v>
       </c>
       <c r="AJ34" s="4" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="AK34" s="11" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AL34" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM34" s="11" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="AN34" s="11" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="AO34" s="33" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR34" s="11" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="AS34" s="13" t="s">
         <v>40</v>
@@ -8630,29 +8627,29 @@
         <v>395</v>
       </c>
       <c r="AJ35" s="4" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AL35" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="AN35" s="11" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="AO35" s="33" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="AP35" s="34"/>
       <c r="AQ35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR35" s="11" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="AS35" s="13" t="s">
         <v>40</v>
@@ -8782,29 +8779,29 @@
         <v>395</v>
       </c>
       <c r="AJ36" s="4" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="AK36" s="11" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AL36" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM36" s="11" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="AN36" s="11" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="AO36" s="33" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="AP36" s="34"/>
       <c r="AQ36" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR36" s="11" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="AS36" s="13" t="s">
         <v>40</v>
@@ -8934,29 +8931,29 @@
         <v>395</v>
       </c>
       <c r="AJ37" s="4" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AL37" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM37" s="11" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="AO37" s="33" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="AP37" s="34"/>
       <c r="AQ37" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR37" s="11" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="AS37" s="13" t="s">
         <v>40</v>
@@ -9086,29 +9083,29 @@
         <v>395</v>
       </c>
       <c r="AJ38" s="4" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="AK38" s="11" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AL38" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM38" s="11" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="AN38" s="11" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
       <c r="AO38" s="33" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="AP38" s="34"/>
       <c r="AQ38" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR38" s="11" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="AS38" s="13" t="s">
         <v>40</v>
@@ -9229,7 +9226,7 @@
         <v>105</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH39" s="10" t="s">
         <v>77</v>
@@ -9238,10 +9235,10 @@
         <v>396</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="AL39" s="5" t="s">
         <v>394</v>
@@ -9253,14 +9250,14 @@
         <v>280</v>
       </c>
       <c r="AO39" s="33" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="AP39" s="33"/>
       <c r="AQ39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR39" s="11" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="AS39" s="13" t="s">
         <v>31</v>
@@ -9390,22 +9387,22 @@
         <v>396</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="AL40" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM40" s="5" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AN40" s="5" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="AO40" s="33" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="AP40" s="33"/>
       <c r="AQ40" s="5" t="s">
@@ -9532,28 +9529,28 @@
         <v>389</v>
       </c>
       <c r="AH41" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI41" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="AL41" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM41" s="11" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="AN41" s="11" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="AO41" s="33" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="AP41" s="34"/>
       <c r="AQ41" s="5" t="s">
@@ -9680,28 +9677,28 @@
         <v>389</v>
       </c>
       <c r="AH42" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI42" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ42" s="4" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="AK42" s="5" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="AL42" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM42" s="11" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="AN42" s="11" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="AO42" s="33" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="5" t="s">
@@ -9834,22 +9831,22 @@
         <v>396</v>
       </c>
       <c r="AJ43" s="4" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="AK43" s="5" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="AL43" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM43" s="11" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="AN43" s="11" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="AP43" s="34"/>
       <c r="AQ43" s="5" t="s">
@@ -9986,22 +9983,22 @@
         <v>396</v>
       </c>
       <c r="AJ44" s="4" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="AK44" s="5" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="AL44" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM44" s="11" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="AN44" s="11" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="AO44" s="33" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="AP44" s="34"/>
       <c r="AQ44" s="5" t="s">
@@ -10138,22 +10135,22 @@
         <v>396</v>
       </c>
       <c r="AJ45" s="4" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="AK45" s="5" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="AL45" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM45" s="11" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="AN45" s="11" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="AP45" s="34"/>
       <c r="AQ45" s="11" t="s">
@@ -10290,22 +10287,22 @@
         <v>395</v>
       </c>
       <c r="AJ46" s="4" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="AK46" s="5" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="AL46" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM46" s="5" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="AN46" s="5" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="AO46" s="33" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="AP46" s="33"/>
       <c r="AQ46" s="5" t="s">
@@ -10442,22 +10439,22 @@
         <v>395</v>
       </c>
       <c r="AJ47" s="4" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="AL47" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM47" s="11" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="AN47" s="11" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="AO47" s="33" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="AP47" s="33"/>
       <c r="AQ47" s="5" t="s">
@@ -10585,7 +10582,7 @@
         <v>105</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH48" s="10" t="s">
         <v>54</v>
@@ -10594,10 +10591,10 @@
         <v>105</v>
       </c>
       <c r="AJ48" s="4" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="AK48" s="11" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="AL48" s="5" t="s">
         <v>394</v>
@@ -10609,14 +10606,14 @@
         <v>282</v>
       </c>
       <c r="AO48" s="33" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="AP48" s="33"/>
       <c r="AQ48" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR48" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS48" s="13" t="s">
         <v>31</v>
@@ -10699,19 +10696,19 @@
         <v>105</v>
       </c>
       <c r="V49" s="12" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="W49" s="12" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="X49" s="12" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="Y49" s="12" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="AA49" s="6">
         <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
@@ -10743,10 +10740,10 @@
         <v>396</v>
       </c>
       <c r="AJ49" s="4" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="AK49" s="11" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="AL49" s="5" t="s">
         <v>394</v>
@@ -10910,7 +10907,7 @@
         <v>286</v>
       </c>
       <c r="AO50" s="33" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="AP50" s="33"/>
       <c r="AQ50" s="5" t="s">
@@ -11047,10 +11044,10 @@
         <v>395</v>
       </c>
       <c r="AJ51" s="4" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="AK51" s="11" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="AL51" s="5" t="s">
         <v>394</v>
@@ -11062,14 +11059,14 @@
         <v>288</v>
       </c>
       <c r="AO51" s="33" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="AP51" s="33"/>
       <c r="AQ51" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR51" s="11" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="AS51" s="13" t="s">
         <v>31</v>
@@ -11199,7 +11196,7 @@
         <v>395</v>
       </c>
       <c r="AJ52" s="4" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="AK52" s="11" t="s">
         <v>65</v>
@@ -11214,7 +11211,7 @@
         <v>291</v>
       </c>
       <c r="AO52" s="33" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="AP52" s="33"/>
       <c r="AQ52" s="5" t="s">
@@ -11345,13 +11342,13 @@
         <v>389</v>
       </c>
       <c r="AH53" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ53" s="4" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="AK53" s="11" t="s">
         <v>53</v>
@@ -11366,7 +11363,7 @@
         <v>293</v>
       </c>
       <c r="AO53" s="33" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="AP53" s="33"/>
       <c r="AQ53" s="5" t="s">
@@ -11503,7 +11500,7 @@
         <v>395</v>
       </c>
       <c r="AJ54" s="4" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="AK54" s="11" t="s">
         <v>74</v>
@@ -11518,7 +11515,7 @@
         <v>296</v>
       </c>
       <c r="AO54" s="33" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="AP54" s="33"/>
       <c r="AQ54" s="5" t="s">
@@ -11655,7 +11652,7 @@
         <v>395</v>
       </c>
       <c r="AJ55" s="4" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="AK55" s="11" t="s">
         <v>63</v>
@@ -11670,7 +11667,7 @@
         <v>299</v>
       </c>
       <c r="AO55" s="33" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="AP55" s="33"/>
       <c r="AQ55" s="5" t="s">
@@ -11798,10 +11795,10 @@
         <v>105</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH56" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI56" s="4" t="s">
         <v>396</v>
@@ -11810,26 +11807,26 @@
         <v>105</v>
       </c>
       <c r="AK56" s="5" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AL56" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM56" s="5" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="AN56" s="5" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="AO56" s="33" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="AP56" s="33"/>
       <c r="AQ56" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR56" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS56" s="13" t="s">
         <v>38</v>
@@ -11944,10 +11941,10 @@
         <v>105</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH57" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI57" s="4" t="s">
         <v>396</v>
@@ -11956,26 +11953,26 @@
         <v>105</v>
       </c>
       <c r="AK57" s="5" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AL57" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM57" s="11" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="AN57" s="11" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="AO57" s="33" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
       <c r="AP57" s="34"/>
       <c r="AQ57" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS57" s="13" t="s">
         <v>38</v>
@@ -12090,10 +12087,10 @@
         <v>105</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH58" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI58" s="4" t="s">
         <v>396</v>
@@ -12102,26 +12099,26 @@
         <v>105</v>
       </c>
       <c r="AK58" s="5" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AL58" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM58" s="11" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="AN58" s="11" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="AO58" s="33" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="AP58" s="34"/>
       <c r="AQ58" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR58" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS58" s="13" t="s">
         <v>38</v>
@@ -12236,10 +12233,10 @@
         <v>105</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH59" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI59" s="4" t="s">
         <v>396</v>
@@ -12248,26 +12245,26 @@
         <v>105</v>
       </c>
       <c r="AK59" s="5" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AL59" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM59" s="11" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="AN59" s="11" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="AO59" s="33" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="AP59" s="34"/>
       <c r="AQ59" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR59" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS59" s="13" t="s">
         <v>38</v>
@@ -12382,10 +12379,10 @@
         <v>105</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH60" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI60" s="4" t="s">
         <v>396</v>
@@ -12394,26 +12391,26 @@
         <v>105</v>
       </c>
       <c r="AK60" s="5" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AL60" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM60" s="11" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="AN60" s="11" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="AO60" s="33" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="AP60" s="34"/>
       <c r="AQ60" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR60" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS60" s="13" t="s">
         <v>38</v>
@@ -12528,10 +12525,10 @@
         <v>105</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH61" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI61" s="4" t="s">
         <v>396</v>
@@ -12540,26 +12537,26 @@
         <v>105</v>
       </c>
       <c r="AK61" s="5" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AL61" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM61" s="11" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="AN61" s="11" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="AO61" s="33" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="AP61" s="34"/>
       <c r="AQ61" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR61" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS61" s="13" t="s">
         <v>38</v>
@@ -12674,10 +12671,10 @@
         <v>105</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH62" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI62" s="4" t="s">
         <v>396</v>
@@ -12686,26 +12683,26 @@
         <v>105</v>
       </c>
       <c r="AK62" s="5" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AL62" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM62" s="11" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="AN62" s="11" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="AO62" s="33" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="AP62" s="34"/>
       <c r="AQ62" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR62" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS62" s="13" t="s">
         <v>38</v>
@@ -12820,10 +12817,10 @@
         <v>105</v>
       </c>
       <c r="AG63" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH63" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI63" s="4" t="s">
         <v>396</v>
@@ -12832,26 +12829,26 @@
         <v>105</v>
       </c>
       <c r="AK63" s="5" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AL63" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM63" s="11" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="AN63" s="11" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="AO63" s="33" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="AP63" s="34"/>
       <c r="AQ63" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR63" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS63" s="13" t="s">
         <v>38</v>
@@ -12972,7 +12969,7 @@
         <v>105</v>
       </c>
       <c r="AG64" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH64" s="10" t="s">
         <v>54</v>
@@ -12981,29 +12978,29 @@
         <v>395</v>
       </c>
       <c r="AJ64" s="4" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="AK64" s="5" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="AL64" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM64" s="5" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="AN64" s="5" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="AO64" s="33" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="AP64" s="33"/>
       <c r="AQ64" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR64" s="11" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="AS64" s="13" t="s">
         <v>31</v>
@@ -13118,7 +13115,7 @@
         <v>105</v>
       </c>
       <c r="AG65" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH65" s="10" t="s">
         <v>77</v>
@@ -13127,29 +13124,29 @@
         <v>396</v>
       </c>
       <c r="AJ65" s="4" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="AK65" s="5" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="AL65" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM65" s="11" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="AN65" s="11" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="AO65" s="33" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="AP65" s="34"/>
       <c r="AQ65" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR65" s="11" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="AS65" s="13" t="s">
         <v>31</v>
@@ -13270,7 +13267,7 @@
         <v>105</v>
       </c>
       <c r="AG66" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH66" s="10" t="s">
         <v>77</v>
@@ -13279,7 +13276,7 @@
         <v>105</v>
       </c>
       <c r="AJ66" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK66" s="5" t="s">
         <v>382</v>
@@ -13294,14 +13291,14 @@
         <v>301</v>
       </c>
       <c r="AO66" s="33" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="AP66" s="33"/>
       <c r="AQ66" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR66" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS66" s="13" t="s">
         <v>38</v>
@@ -13414,12 +13411,12 @@
         <v>105</v>
       </c>
       <c r="AG67" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
       <c r="AJ67" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK67" s="5" t="s">
         <v>382</v>
@@ -13430,14 +13427,14 @@
       <c r="AM67" s="11"/>
       <c r="AN67" s="11"/>
       <c r="AO67" s="33" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="AP67" s="34"/>
       <c r="AQ67" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR67" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS67" s="13" t="s">
         <v>38</v>
@@ -13550,12 +13547,12 @@
         <v>105</v>
       </c>
       <c r="AG68" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
       <c r="AJ68" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK68" s="5" t="s">
         <v>382</v>
@@ -13566,14 +13563,14 @@
       <c r="AM68" s="11"/>
       <c r="AN68" s="11"/>
       <c r="AO68" s="33" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="AP68" s="34"/>
       <c r="AQ68" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR68" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS68" s="13" t="s">
         <v>38</v>
@@ -13686,12 +13683,12 @@
         <v>105</v>
       </c>
       <c r="AG69" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH69" s="10"/>
       <c r="AI69" s="10"/>
       <c r="AJ69" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK69" s="5" t="s">
         <v>382</v>
@@ -13702,14 +13699,14 @@
       <c r="AM69" s="11"/>
       <c r="AN69" s="11"/>
       <c r="AO69" s="33" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
       <c r="AP69" s="34"/>
       <c r="AQ69" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR69" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS69" s="13" t="s">
         <v>38</v>
@@ -13822,12 +13819,12 @@
         <v>105</v>
       </c>
       <c r="AG70" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH70" s="10"/>
       <c r="AI70" s="10"/>
       <c r="AJ70" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK70" s="5" t="s">
         <v>382</v>
@@ -13838,14 +13835,14 @@
       <c r="AM70" s="11"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="33" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="AP70" s="34"/>
       <c r="AQ70" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR70" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS70" s="13" t="s">
         <v>38</v>
@@ -13958,12 +13955,12 @@
         <v>105</v>
       </c>
       <c r="AG71" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH71" s="10"/>
       <c r="AI71" s="10"/>
       <c r="AJ71" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK71" s="5" t="s">
         <v>382</v>
@@ -13974,14 +13971,14 @@
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="33" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="AP71" s="34"/>
       <c r="AQ71" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR71" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS71" s="13" t="s">
         <v>38</v>
@@ -14094,12 +14091,12 @@
         <v>105</v>
       </c>
       <c r="AG72" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH72" s="10"/>
       <c r="AI72" s="10"/>
       <c r="AJ72" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK72" s="5" t="s">
         <v>382</v>
@@ -14110,14 +14107,14 @@
       <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
       <c r="AO72" s="33" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="AP72" s="34"/>
       <c r="AQ72" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR72" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS72" s="13" t="s">
         <v>38</v>
@@ -14230,12 +14227,12 @@
         <v>105</v>
       </c>
       <c r="AG73" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH73" s="10"/>
       <c r="AI73" s="10"/>
       <c r="AJ73" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK73" s="5" t="s">
         <v>382</v>
@@ -14246,14 +14243,14 @@
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
       <c r="AO73" s="33" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="AP73" s="34"/>
       <c r="AQ73" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR73" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS73" s="13" t="s">
         <v>38</v>
@@ -14366,12 +14363,12 @@
         <v>105</v>
       </c>
       <c r="AG74" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH74" s="10"/>
       <c r="AI74" s="10"/>
       <c r="AJ74" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK74" s="5" t="s">
         <v>382</v>
@@ -14382,14 +14379,14 @@
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
       <c r="AO74" s="33" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="AP74" s="34"/>
       <c r="AQ74" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR74" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS74" s="13" t="s">
         <v>38</v>
@@ -14502,12 +14499,12 @@
         <v>105</v>
       </c>
       <c r="AG75" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH75" s="10"/>
       <c r="AI75" s="10"/>
       <c r="AJ75" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK75" s="5" t="s">
         <v>382</v>
@@ -14518,14 +14515,14 @@
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="33" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="AP75" s="34"/>
       <c r="AQ75" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR75" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS75" s="13" t="s">
         <v>38</v>
@@ -14638,12 +14635,12 @@
         <v>105</v>
       </c>
       <c r="AG76" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH76" s="10"/>
       <c r="AI76" s="10"/>
       <c r="AJ76" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK76" s="5" t="s">
         <v>382</v>
@@ -14654,14 +14651,14 @@
       <c r="AM76" s="11"/>
       <c r="AN76" s="11"/>
       <c r="AO76" s="33" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="AP76" s="34"/>
       <c r="AQ76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR76" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS76" s="13" t="s">
         <v>38</v>
@@ -14774,12 +14771,12 @@
         <v>105</v>
       </c>
       <c r="AG77" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH77" s="10"/>
       <c r="AI77" s="10"/>
       <c r="AJ77" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK77" s="5" t="s">
         <v>382</v>
@@ -14790,14 +14787,14 @@
       <c r="AM77" s="11"/>
       <c r="AN77" s="11"/>
       <c r="AO77" s="33" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="AP77" s="34"/>
       <c r="AQ77" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR77" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS77" s="13" t="s">
         <v>38</v>
@@ -14910,12 +14907,12 @@
         <v>105</v>
       </c>
       <c r="AG78" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH78" s="10"/>
       <c r="AI78" s="10"/>
       <c r="AJ78" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK78" s="5" t="s">
         <v>382</v>
@@ -14926,14 +14923,14 @@
       <c r="AM78" s="11"/>
       <c r="AN78" s="11"/>
       <c r="AO78" s="33" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="AP78" s="34"/>
       <c r="AQ78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR78" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS78" s="13" t="s">
         <v>38</v>
@@ -15046,12 +15043,12 @@
         <v>105</v>
       </c>
       <c r="AG79" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH79" s="10"/>
       <c r="AI79" s="10"/>
       <c r="AJ79" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK79" s="5" t="s">
         <v>382</v>
@@ -15062,14 +15059,14 @@
       <c r="AM79" s="11"/>
       <c r="AN79" s="11"/>
       <c r="AO79" s="33" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="AP79" s="34"/>
       <c r="AQ79" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR79" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS79" s="13" t="s">
         <v>38</v>
@@ -15182,12 +15179,12 @@
         <v>105</v>
       </c>
       <c r="AG80" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH80" s="10"/>
       <c r="AI80" s="10"/>
       <c r="AJ80" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK80" s="5" t="s">
         <v>382</v>
@@ -15198,14 +15195,14 @@
       <c r="AM80" s="11"/>
       <c r="AN80" s="11"/>
       <c r="AO80" s="33" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="AP80" s="34"/>
       <c r="AQ80" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR80" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS80" s="13" t="s">
         <v>38</v>
@@ -15318,12 +15315,12 @@
         <v>105</v>
       </c>
       <c r="AG81" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH81" s="10"/>
       <c r="AI81" s="10"/>
       <c r="AJ81" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK81" s="5" t="s">
         <v>382</v>
@@ -15334,14 +15331,14 @@
       <c r="AM81" s="11"/>
       <c r="AN81" s="11"/>
       <c r="AO81" s="33" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
       <c r="AP81" s="34"/>
       <c r="AQ81" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR81" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS81" s="13" t="s">
         <v>38</v>
@@ -15454,12 +15451,12 @@
         <v>105</v>
       </c>
       <c r="AG82" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH82" s="10"/>
       <c r="AI82" s="10"/>
       <c r="AJ82" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK82" s="5" t="s">
         <v>382</v>
@@ -15470,14 +15467,14 @@
       <c r="AM82" s="11"/>
       <c r="AN82" s="11"/>
       <c r="AO82" s="33" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="AP82" s="34"/>
       <c r="AQ82" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR82" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS82" s="13" t="s">
         <v>38</v>
@@ -15590,12 +15587,12 @@
         <v>105</v>
       </c>
       <c r="AG83" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH83" s="10"/>
       <c r="AI83" s="10"/>
       <c r="AJ83" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK83" s="5" t="s">
         <v>382</v>
@@ -15606,14 +15603,14 @@
       <c r="AM83" s="11"/>
       <c r="AN83" s="11"/>
       <c r="AO83" s="33" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="AP83" s="34"/>
       <c r="AQ83" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR83" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS83" s="13" t="s">
         <v>38</v>
@@ -15726,12 +15723,12 @@
         <v>105</v>
       </c>
       <c r="AG84" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH84" s="10"/>
       <c r="AI84" s="10"/>
       <c r="AJ84" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK84" s="5" t="s">
         <v>382</v>
@@ -15742,14 +15739,14 @@
       <c r="AM84" s="11"/>
       <c r="AN84" s="11"/>
       <c r="AO84" s="33" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
       <c r="AP84" s="34"/>
       <c r="AQ84" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR84" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS84" s="13" t="s">
         <v>38</v>
@@ -15862,12 +15859,12 @@
         <v>105</v>
       </c>
       <c r="AG85" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH85" s="10"/>
       <c r="AI85" s="10"/>
       <c r="AJ85" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK85" s="5" t="s">
         <v>382</v>
@@ -15878,14 +15875,14 @@
       <c r="AM85" s="11"/>
       <c r="AN85" s="11"/>
       <c r="AO85" s="33" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="AP85" s="34"/>
       <c r="AQ85" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR85" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS85" s="13" t="s">
         <v>38</v>
@@ -15998,12 +15995,12 @@
         <v>105</v>
       </c>
       <c r="AG86" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH86" s="10"/>
       <c r="AI86" s="10"/>
       <c r="AJ86" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK86" s="5" t="s">
         <v>382</v>
@@ -16014,14 +16011,14 @@
       <c r="AM86" s="11"/>
       <c r="AN86" s="11"/>
       <c r="AO86" s="33" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="AP86" s="34"/>
       <c r="AQ86" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR86" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>38</v>
@@ -16134,12 +16131,12 @@
         <v>105</v>
       </c>
       <c r="AG87" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH87" s="10"/>
       <c r="AI87" s="10"/>
       <c r="AJ87" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK87" s="5" t="s">
         <v>382</v>
@@ -16150,14 +16147,14 @@
       <c r="AM87" s="11"/>
       <c r="AN87" s="11"/>
       <c r="AO87" s="33" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="AP87" s="34"/>
       <c r="AQ87" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR87" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS87" s="13" t="s">
         <v>38</v>
@@ -16270,12 +16267,12 @@
         <v>105</v>
       </c>
       <c r="AG88" s="12" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH88" s="10"/>
       <c r="AI88" s="10"/>
       <c r="AJ88" s="4" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AK88" s="5" t="s">
         <v>382</v>
@@ -16286,14 +16283,14 @@
       <c r="AM88" s="11"/>
       <c r="AN88" s="11"/>
       <c r="AO88" s="33" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
       <c r="AP88" s="34"/>
       <c r="AQ88" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR88" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AS88" s="13" t="s">
         <v>38</v>
@@ -16414,7 +16411,7 @@
         <v>105</v>
       </c>
       <c r="AG89" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH89" s="10" t="s">
         <v>77</v>
@@ -16423,29 +16420,29 @@
         <v>396</v>
       </c>
       <c r="AJ89" s="4" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="AK89" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="AL89" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM89" s="5" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="AN89" s="5" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="AO89" s="33" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="AP89" s="33"/>
       <c r="AQ89" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR89" s="11" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="AS89" s="13" t="s">
         <v>31</v>
@@ -16566,7 +16563,7 @@
         <v>105</v>
       </c>
       <c r="AG90" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH90" s="10" t="s">
         <v>54</v>
@@ -16575,29 +16572,29 @@
         <v>395</v>
       </c>
       <c r="AJ90" s="4" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="AK90" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="AL90" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM90" s="11" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="AN90" s="11" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="AO90" s="33" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="AP90" s="34"/>
       <c r="AQ90" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR90" s="11" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="AS90" s="13" t="s">
         <v>31</v>
@@ -16718,7 +16715,7 @@
         <v>105</v>
       </c>
       <c r="AG91" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH91" s="10" t="s">
         <v>54</v>
@@ -16727,29 +16724,29 @@
         <v>395</v>
       </c>
       <c r="AJ91" s="4" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="AK91" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="AL91" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM91" s="11" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="AN91" s="11" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="AO91" s="33" t="s">
-        <v>705</v>
+        <v>669</v>
       </c>
       <c r="AP91" s="34"/>
       <c r="AQ91" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR91" s="11" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="AS91" s="13" t="s">
         <v>31</v>
@@ -16870,7 +16867,7 @@
         <v>105</v>
       </c>
       <c r="AG92" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH92" s="10" t="s">
         <v>54</v>
@@ -16879,29 +16876,29 @@
         <v>395</v>
       </c>
       <c r="AJ92" s="4" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="AK92" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="AL92" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM92" s="11" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="AN92" s="11" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="AO92" s="33" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="AP92" s="34"/>
       <c r="AQ92" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR92" s="11" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="AS92" s="13" t="s">
         <v>31</v>
@@ -17022,7 +17019,7 @@
         <v>105</v>
       </c>
       <c r="AG93" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH93" s="10" t="s">
         <v>54</v>
@@ -17031,29 +17028,29 @@
         <v>395</v>
       </c>
       <c r="AJ93" s="4" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="AK93" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="AL93" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM93" s="11" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="AN93" s="11" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="AO93" s="33" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
       <c r="AP93" s="34"/>
       <c r="AQ93" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR93" s="11" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="AS93" s="13" t="s">
         <v>31</v>
@@ -17174,7 +17171,7 @@
         <v>105</v>
       </c>
       <c r="AG94" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH94" s="10" t="s">
         <v>54</v>
@@ -17183,29 +17180,29 @@
         <v>395</v>
       </c>
       <c r="AJ94" s="4" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="AK94" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="AL94" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM94" s="11" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="AN94" s="11" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="AO94" s="33" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="AP94" s="34"/>
       <c r="AQ94" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR94" s="11" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="AS94" s="13" t="s">
         <v>31</v>
@@ -17326,7 +17323,7 @@
         <v>105</v>
       </c>
       <c r="AG95" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH95" s="10" t="s">
         <v>54</v>
@@ -17335,29 +17332,29 @@
         <v>395</v>
       </c>
       <c r="AJ95" s="4" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="AK95" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="AL95" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM95" s="11" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="AN95" s="11" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="AO95" s="33" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="AP95" s="34"/>
       <c r="AQ95" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR95" s="11" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="AS95" s="13" t="s">
         <v>31</v>
@@ -17396,7 +17393,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>46</v>
@@ -17411,7 +17408,7 @@
         <v>105</v>
       </c>
       <c r="M96" s="37" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="N96" s="36">
         <v>286</v>
@@ -17478,38 +17475,38 @@
         <v>105</v>
       </c>
       <c r="AG96" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH96" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI96" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ96" s="4" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="AK96" s="5" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="AL96" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM96" s="5" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="AN96" s="5" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="AO96" s="33" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="AP96" s="33"/>
       <c r="AQ96" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR96" s="11" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="AS96" s="13" t="s">
         <v>38</v>
@@ -17548,7 +17545,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>46</v>
@@ -17563,7 +17560,7 @@
         <v>105</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="N97" s="36">
         <v>84</v>
@@ -17630,38 +17627,38 @@
         <v>105</v>
       </c>
       <c r="AG97" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH97" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI97" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ97" s="4" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="AK97" s="5" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="AL97" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM97" s="11" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="AN97" s="11" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="AO97" s="33" t="s">
-        <v>711</v>
+        <v>675</v>
       </c>
       <c r="AP97" s="34"/>
       <c r="AQ97" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR97" s="11" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="AS97" s="13" t="s">
         <v>38</v>
@@ -17700,7 +17697,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>46</v>
@@ -17715,7 +17712,7 @@
         <v>105</v>
       </c>
       <c r="M98" s="38" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="N98" s="36">
         <v>272</v>
@@ -17782,38 +17779,38 @@
         <v>105</v>
       </c>
       <c r="AG98" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH98" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI98" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ98" s="4" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="AK98" s="5" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="AL98" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM98" s="11" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="AN98" s="11" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="AO98" s="33" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="AP98" s="34"/>
       <c r="AQ98" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR98" s="11" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="AS98" s="13" t="s">
         <v>38</v>
@@ -17852,7 +17849,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>46</v>
@@ -17867,7 +17864,7 @@
         <v>105</v>
       </c>
       <c r="M99" s="38" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="N99" s="36">
         <v>162</v>
@@ -17934,38 +17931,38 @@
         <v>105</v>
       </c>
       <c r="AG99" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH99" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI99" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ99" s="4" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="AK99" s="5" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="AL99" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM99" s="11" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="AN99" s="11" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="AO99" s="33" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="AP99" s="34"/>
       <c r="AQ99" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR99" s="11" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="AS99" s="13" t="s">
         <v>38</v>
@@ -18004,7 +18001,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>46</v>
@@ -18019,7 +18016,7 @@
         <v>105</v>
       </c>
       <c r="M100" s="38" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="N100" s="36">
         <v>271</v>
@@ -18086,38 +18083,38 @@
         <v>105</v>
       </c>
       <c r="AG100" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="AH100" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI100" s="4" t="s">
         <v>396</v>
       </c>
       <c r="AJ100" s="4" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="AK100" s="5" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="AL100" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM100" s="11" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="AN100" s="11" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="AO100" s="33" t="s">
-        <v>714</v>
+        <v>678</v>
       </c>
       <c r="AP100" s="34"/>
       <c r="AQ100" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR100" s="11" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="AS100" s="13" t="s">
         <v>38</v>
@@ -18171,7 +18168,7 @@
         <v>105</v>
       </c>
       <c r="M101" s="37" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="N101" s="36">
         <v>144</v>
@@ -18241,28 +18238,28 @@
         <v>389</v>
       </c>
       <c r="AH101" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI101" s="10" t="s">
         <v>396</v>
       </c>
       <c r="AJ101" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK101" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL101" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="AN101" s="11" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="AO101" s="33" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="AP101" s="33"/>
       <c r="AQ101" s="5" t="s">
@@ -18323,7 +18320,7 @@
         <v>105</v>
       </c>
       <c r="M102" s="38" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="N102" s="36">
         <v>133</v>
@@ -18399,22 +18396,22 @@
         <v>395</v>
       </c>
       <c r="AJ102" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK102" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL102" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM102" s="11" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="AN102" s="11" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="AO102" s="33" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="AP102" s="34"/>
       <c r="AQ102" s="5" t="s">
@@ -18477,7 +18474,7 @@
         <v>105</v>
       </c>
       <c r="M103" s="38" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="N103" s="36">
         <v>114</v>
@@ -18553,22 +18550,22 @@
         <v>395</v>
       </c>
       <c r="AJ103" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK103" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL103" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM103" s="11" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="AN103" s="11" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="AO103" s="33" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
       <c r="AP103" s="34"/>
       <c r="AQ103" s="5" t="s">
@@ -18699,22 +18696,22 @@
         <v>395</v>
       </c>
       <c r="AJ104" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK104" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL104" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM104" s="11" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="AN104" s="11" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="AO104" s="33" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="AP104" s="34"/>
       <c r="AQ104" s="5" t="s">
@@ -18771,7 +18768,7 @@
         <v>105</v>
       </c>
       <c r="M105" s="38" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="N105" s="36">
         <v>60</v>
@@ -18847,22 +18844,22 @@
         <v>395</v>
       </c>
       <c r="AJ105" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK105" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL105" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM105" s="11" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="AN105" s="11" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="AO105" s="33" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="AP105" s="34"/>
       <c r="AQ105" s="5" t="s">
@@ -18919,7 +18916,7 @@
         <v>105</v>
       </c>
       <c r="M106" s="38" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="N106" s="36">
         <v>60</v>
@@ -18995,22 +18992,22 @@
         <v>395</v>
       </c>
       <c r="AJ106" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK106" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL106" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM106" s="11" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="AN106" s="11" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="AO106" s="33" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
       <c r="AP106" s="34"/>
       <c r="AQ106" s="5" t="s">
@@ -19067,7 +19064,7 @@
         <v>105</v>
       </c>
       <c r="M107" s="38" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="N107" s="36">
         <v>96</v>
@@ -19143,22 +19140,22 @@
         <v>395</v>
       </c>
       <c r="AJ107" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK107" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL107" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM107" s="11" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="AN107" s="11" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="AO107" s="33" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
       <c r="AP107" s="34"/>
       <c r="AQ107" s="5" t="s">
@@ -19291,22 +19288,22 @@
         <v>395</v>
       </c>
       <c r="AJ108" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK108" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL108" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM108" s="11" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="AN108" s="11" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="AO108" s="33" t="s">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="AP108" s="34"/>
       <c r="AQ108" s="5" t="s">
@@ -19439,22 +19436,22 @@
         <v>395</v>
       </c>
       <c r="AJ109" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK109" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL109" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM109" s="11" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="AN109" s="11" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="AO109" s="33" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
       <c r="AP109" s="34"/>
       <c r="AQ109" s="5" t="s">
@@ -19587,22 +19584,22 @@
         <v>395</v>
       </c>
       <c r="AJ110" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK110" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL110" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM110" s="11" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="AN110" s="11" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="AO110" s="33" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="AP110" s="34"/>
       <c r="AQ110" s="5" t="s">
@@ -19662,7 +19659,7 @@
         <v>105</v>
       </c>
       <c r="M111" s="38" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="N111" s="36">
         <v>176</v>
@@ -19738,22 +19735,22 @@
         <v>395</v>
       </c>
       <c r="AJ111" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK111" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL111" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM111" s="11" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="AN111" s="11" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="AO111" s="33" t="s">
-        <v>725</v>
+        <v>689</v>
       </c>
       <c r="AP111" s="34"/>
       <c r="AQ111" s="5" t="s">
@@ -19813,7 +19810,7 @@
         <v>105</v>
       </c>
       <c r="M112" s="38" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="N112" s="36">
         <v>86</v>
@@ -19883,28 +19880,28 @@
         <v>389</v>
       </c>
       <c r="AH112" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI112" s="10" t="s">
         <v>396</v>
       </c>
       <c r="AJ112" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK112" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL112" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM112" s="11" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="AN112" s="11" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="AO112" s="33" t="s">
-        <v>726</v>
+        <v>690</v>
       </c>
       <c r="AP112" s="34"/>
       <c r="AQ112" s="5" t="s">
@@ -19964,7 +19961,7 @@
         <v>105</v>
       </c>
       <c r="M113" s="38" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="N113" s="36">
         <v>86</v>
@@ -20034,28 +20031,28 @@
         <v>389</v>
       </c>
       <c r="AH113" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI113" s="10" t="s">
         <v>396</v>
       </c>
       <c r="AJ113" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK113" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL113" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM113" s="11" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="AN113" s="11" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="AO113" s="33" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
       <c r="AP113" s="34"/>
       <c r="AQ113" s="5" t="s">
@@ -20115,7 +20112,7 @@
         <v>105</v>
       </c>
       <c r="M114" s="38" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="N114" s="36">
         <v>90</v>
@@ -20185,28 +20182,28 @@
         <v>389</v>
       </c>
       <c r="AH114" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AI114" s="10" t="s">
         <v>396</v>
       </c>
       <c r="AJ114" s="4" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="AK114" s="11" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AL114" s="5" t="s">
         <v>394</v>
       </c>
       <c r="AM114" s="11" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="AN114" s="11" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="AO114" s="33" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="AP114" s="34"/>
       <c r="AQ114" s="5" t="s">

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A038F299-3734-4965-9B35-95089576553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B276C8-4790-4835-BABB-44F9BB920B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="763">
   <si>
     <t>Contact</t>
   </si>
@@ -2325,6 +2325,15 @@
   </si>
   <si>
     <t>3.942464</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/3.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/ANGOULEME%207%20-%20RC%20SEPHORA.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/ANGOULEME%207%20-%201er%20Etage%2053-55%20rue%20herg%C3%A9.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/ANGOULEME%207%20-%202e%20Etage%2053-55%20rue%20herg%C3%A9.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/ANGOULEME%207%20-%203e%20Etage%2053-55%20rue%20herg%C3%A9.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/BLOIS%2090%20RUE%20DU%20COMMERCE%20plan%20Rez-de-chauss%C3%A9e.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/BLOIS%2090%20RUE%20DU%20COMMERCE%20plan%201er%20Etage.jpg</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2537,9 +2546,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2570,6 +2576,16 @@
   </cellStyles>
   <dxfs count="46">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2599,16 +2615,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2991,12 +2997,12 @@
     <tableColumn id="40" xr3:uid="{5463AA4C-3D9C-45CF-B81C-A3755D028F2B}" name="Honoraires" dataDxfId="8" dataCellStyle="Normal 2"/>
     <tableColumn id="36" xr3:uid="{EBABBF90-FEC0-4C48-8EB4-A8DB85141CEF}" name="Latitude" dataDxfId="7" dataCellStyle="Normal 2"/>
     <tableColumn id="35" xr3:uid="{FDA62BB3-971D-4771-BFF4-42A78D749576}" name="Longitude" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="3" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3323,10 +3329,10 @@
   <dimension ref="A1:BD125"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AL92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ108" sqref="AQ108"/>
+      <selection pane="bottomRight" activeCell="AP5" sqref="AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -3368,7 +3374,7 @@
     <col min="39" max="39" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.5" style="1" customWidth="1"/>
     <col min="43" max="43" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="13.375" style="1" bestFit="1" customWidth="1"/>
@@ -3547,7 +3553,7 @@
       <c r="E2" s="26">
         <v>16000</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="5" t="str">
@@ -3570,16 +3576,16 @@
       <c r="L2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="35">
+      <c r="M2" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="34">
         <v>451</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="35">
         <v>423</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -3664,7 +3670,9 @@
       <c r="AO2" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="AP2" s="33"/>
+      <c r="AP2" s="36" t="s">
+        <v>761</v>
+      </c>
       <c r="AQ2" s="5" t="s">
         <v>77</v>
       </c>
@@ -3699,7 +3707,7 @@
       <c r="E3" s="26">
         <v>25000</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="5" t="str">
@@ -3722,16 +3730,16 @@
       <c r="L3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="35">
+      <c r="M3" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="34">
         <v>325</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -3816,7 +3824,9 @@
       <c r="AO3" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="AP3" s="33"/>
+      <c r="AP3" s="36" t="s">
+        <v>760</v>
+      </c>
       <c r="AQ3" s="5" t="s">
         <v>77</v>
       </c>
@@ -3851,7 +3861,7 @@
       <c r="E4" s="26">
         <v>41000</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>86</v>
       </c>
       <c r="G4" s="5" t="str">
@@ -3874,16 +3884,16 @@
       <c r="L4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" s="35">
+      <c r="M4" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="34">
         <v>264</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <v>244</v>
       </c>
       <c r="Q4" s="4" t="s">
@@ -3968,7 +3978,9 @@
       <c r="AO4" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="AP4" s="33"/>
+      <c r="AP4" s="36" t="s">
+        <v>762</v>
+      </c>
       <c r="AQ4" s="5" t="s">
         <v>77</v>
       </c>
@@ -4003,7 +4015,7 @@
       <c r="E5" s="26">
         <v>25400</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>87</v>
       </c>
       <c r="G5" s="5" t="str">
@@ -4026,16 +4038,16 @@
       <c r="L5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" s="35">
+      <c r="M5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="34">
         <v>9030</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="35">
         <v>8628</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -4120,7 +4132,7 @@
       <c r="AO5" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="AP5" s="33"/>
+      <c r="AP5" s="36"/>
       <c r="AQ5" s="5" t="s">
         <v>77</v>
       </c>
@@ -4155,7 +4167,7 @@
       <c r="E6" s="27">
         <v>14200</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G6" s="5" t="str">
@@ -4178,16 +4190,16 @@
       <c r="L6" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <v>179</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q6" s="6" t="s">
@@ -4242,7 +4254,7 @@
       <c r="AE6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF6" s="39">
+      <c r="AF6" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG6" s="6" t="s">
@@ -4272,7 +4284,7 @@
       <c r="AO6" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="AP6" s="33"/>
+      <c r="AP6" s="36"/>
       <c r="AQ6" s="5" t="s">
         <v>77</v>
       </c>
@@ -4307,7 +4319,7 @@
       <c r="E7" s="27">
         <v>14200</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G7" s="5" t="str">
@@ -4330,16 +4342,16 @@
       <c r="L7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="35">
         <v>159</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q7" s="6" t="s">
@@ -4394,7 +4406,7 @@
       <c r="AE7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF7" s="39">
+      <c r="AF7" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG7" s="6" t="s">
@@ -4424,7 +4436,7 @@
       <c r="AO7" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="AP7" s="34"/>
+      <c r="AP7" s="37"/>
       <c r="AQ7" s="5" t="s">
         <v>77</v>
       </c>
@@ -4459,7 +4471,7 @@
       <c r="E8" s="27">
         <v>14200</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="5" t="str">
@@ -4482,16 +4494,16 @@
       <c r="L8" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="35">
         <v>125</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q8" s="6" t="s">
@@ -4546,7 +4558,7 @@
       <c r="AE8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF8" s="39">
+      <c r="AF8" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG8" s="6" t="s">
@@ -4576,7 +4588,7 @@
       <c r="AO8" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AP8" s="34"/>
+      <c r="AP8" s="37"/>
       <c r="AQ8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4611,7 +4623,7 @@
       <c r="E9" s="27">
         <v>14200</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G9" s="5" t="str">
@@ -4634,16 +4646,16 @@
       <c r="L9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="35">
         <v>156</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -4698,7 +4710,7 @@
       <c r="AE9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF9" s="39">
+      <c r="AF9" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG9" s="6" t="s">
@@ -4728,7 +4740,7 @@
       <c r="AO9" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="AP9" s="34"/>
+      <c r="AP9" s="37"/>
       <c r="AQ9" s="5" t="s">
         <v>77</v>
       </c>
@@ -4763,7 +4775,7 @@
       <c r="E10" s="27">
         <v>14200</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="5" t="str">
@@ -4786,16 +4798,16 @@
       <c r="L10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <v>178</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="36" t="s">
+      <c r="P10" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -4850,7 +4862,7 @@
       <c r="AE10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF10" s="39">
+      <c r="AF10" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG10" s="6" t="s">
@@ -4880,7 +4892,7 @@
       <c r="AO10" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="AP10" s="34"/>
+      <c r="AP10" s="37"/>
       <c r="AQ10" s="5" t="s">
         <v>77</v>
       </c>
@@ -4915,7 +4927,7 @@
       <c r="E11" s="27">
         <v>14200</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="5" t="str">
@@ -4938,16 +4950,16 @@
       <c r="L11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <v>253</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="P11" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q11" s="6" t="s">
@@ -5002,7 +5014,7 @@
       <c r="AE11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF11" s="39">
+      <c r="AF11" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG11" s="6" t="s">
@@ -5032,7 +5044,7 @@
       <c r="AO11" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="AP11" s="34"/>
+      <c r="AP11" s="37"/>
       <c r="AQ11" s="5" t="s">
         <v>77</v>
       </c>
@@ -5067,7 +5079,7 @@
       <c r="E12" s="27">
         <v>14200</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="5" t="str">
@@ -5090,16 +5102,16 @@
       <c r="L12" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="35">
         <v>171</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="P12" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q12" s="6" t="s">
@@ -5154,7 +5166,7 @@
       <c r="AE12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF12" s="39">
+      <c r="AF12" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG12" s="6" t="s">
@@ -5184,7 +5196,7 @@
       <c r="AO12" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="AP12" s="34"/>
+      <c r="AP12" s="37"/>
       <c r="AQ12" s="5" t="s">
         <v>77</v>
       </c>
@@ -5219,7 +5231,7 @@
       <c r="E13" s="27">
         <v>14200</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="5" t="str">
@@ -5242,16 +5254,16 @@
       <c r="L13" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M13" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="35">
         <v>200</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="36" t="s">
+      <c r="P13" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q13" s="6" t="s">
@@ -5306,7 +5318,7 @@
       <c r="AE13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF13" s="39">
+      <c r="AF13" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG13" s="6" t="s">
@@ -5336,7 +5348,7 @@
       <c r="AO13" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="AP13" s="34"/>
+      <c r="AP13" s="37"/>
       <c r="AQ13" s="5" t="s">
         <v>77</v>
       </c>
@@ -5371,7 +5383,7 @@
       <c r="E14" s="27">
         <v>14200</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G14" s="5" t="str">
@@ -5394,16 +5406,16 @@
       <c r="L14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="35">
         <v>105</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P14" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q14" s="6" t="s">
@@ -5458,7 +5470,7 @@
       <c r="AE14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF14" s="39">
+      <c r="AF14" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG14" s="6" t="s">
@@ -5488,7 +5500,7 @@
       <c r="AO14" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="AP14" s="34"/>
+      <c r="AP14" s="37"/>
       <c r="AQ14" s="5" t="s">
         <v>77</v>
       </c>
@@ -5523,7 +5535,7 @@
       <c r="E15" s="27">
         <v>14200</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="5" t="str">
@@ -5546,16 +5558,16 @@
       <c r="L15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="35">
         <v>51</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="P15" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q15" s="6" t="s">
@@ -5610,7 +5622,7 @@
       <c r="AE15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF15" s="39">
+      <c r="AF15" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG15" s="6" t="s">
@@ -5640,7 +5652,7 @@
       <c r="AO15" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="AP15" s="34"/>
+      <c r="AP15" s="37"/>
       <c r="AQ15" s="5" t="s">
         <v>77</v>
       </c>
@@ -5675,7 +5687,7 @@
       <c r="E16" s="27">
         <v>14200</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G16" s="5" t="str">
@@ -5698,16 +5710,16 @@
       <c r="L16" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="35">
         <v>115</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="36" t="s">
+      <c r="P16" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q16" s="6" t="s">
@@ -5762,7 +5774,7 @@
       <c r="AE16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF16" s="39">
+      <c r="AF16" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG16" s="6" t="s">
@@ -5792,7 +5804,7 @@
       <c r="AO16" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="AP16" s="34"/>
+      <c r="AP16" s="37"/>
       <c r="AQ16" s="5" t="s">
         <v>77</v>
       </c>
@@ -5827,7 +5839,7 @@
       <c r="E17" s="27">
         <v>14200</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G17" s="5" t="str">
@@ -5850,16 +5862,16 @@
       <c r="L17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="35">
         <v>210</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q17" s="6" t="s">
@@ -5914,7 +5926,7 @@
       <c r="AE17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF17" s="39">
+      <c r="AF17" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG17" s="6" t="s">
@@ -5944,7 +5956,7 @@
       <c r="AO17" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="AP17" s="34"/>
+      <c r="AP17" s="37"/>
       <c r="AQ17" s="5" t="s">
         <v>77</v>
       </c>
@@ -5979,7 +5991,7 @@
       <c r="E18" s="27">
         <v>14200</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G18" s="5" t="str">
@@ -6002,16 +6014,16 @@
       <c r="L18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="35">
         <v>30</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="36" t="s">
+      <c r="P18" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q18" s="6" t="s">
@@ -6066,7 +6078,7 @@
       <c r="AE18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF18" s="39">
+      <c r="AF18" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG18" s="6" t="s">
@@ -6096,7 +6108,7 @@
       <c r="AO18" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="AP18" s="34"/>
+      <c r="AP18" s="37"/>
       <c r="AQ18" s="5" t="s">
         <v>77</v>
       </c>
@@ -6131,7 +6143,7 @@
       <c r="E19" s="27">
         <v>35520</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G19" s="5" t="str">
@@ -6154,16 +6166,16 @@
       <c r="L19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="37">
         <v>1</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="35">
         <v>1200</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P19" s="36" t="s">
+      <c r="P19" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q19" s="6" t="s">
@@ -6248,7 +6260,7 @@
       <c r="AO19" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="AP19" s="33"/>
+      <c r="AP19" s="36"/>
       <c r="AQ19" s="5" t="s">
         <v>77</v>
       </c>
@@ -6283,7 +6295,7 @@
       <c r="E20" s="27">
         <v>35520</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G20" s="5" t="str">
@@ -6306,16 +6318,16 @@
       <c r="L20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="37">
         <v>2</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="35">
         <v>1200</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="36" t="s">
+      <c r="P20" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q20" s="6" t="s">
@@ -6400,7 +6412,7 @@
       <c r="AO20" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="AP20" s="34"/>
+      <c r="AP20" s="37"/>
       <c r="AQ20" s="5" t="s">
         <v>77</v>
       </c>
@@ -6435,7 +6447,7 @@
       <c r="E21" s="27">
         <v>35520</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G21" s="5" t="str">
@@ -6458,16 +6470,16 @@
       <c r="L21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="37">
         <v>3</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="35">
         <v>549</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="36" t="s">
+      <c r="P21" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q21" s="6" t="s">
@@ -6552,7 +6564,7 @@
       <c r="AO21" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="AP21" s="34"/>
+      <c r="AP21" s="37"/>
       <c r="AQ21" s="5" t="s">
         <v>77</v>
       </c>
@@ -6587,7 +6599,7 @@
       <c r="E22" s="27">
         <v>35520</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G22" s="5" t="str">
@@ -6610,16 +6622,16 @@
       <c r="L22" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="37">
         <v>4</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="35">
         <v>502</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="36" t="s">
+      <c r="P22" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q22" s="6" t="s">
@@ -6704,7 +6716,7 @@
       <c r="AO22" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="AP22" s="34"/>
+      <c r="AP22" s="37"/>
       <c r="AQ22" s="5" t="s">
         <v>77</v>
       </c>
@@ -6739,7 +6751,7 @@
       <c r="E23" s="27">
         <v>35520</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G23" s="5" t="str">
@@ -6762,16 +6774,16 @@
       <c r="L23" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="37">
         <v>5</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="35">
         <v>250</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="36" t="s">
+      <c r="P23" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q23" s="6" t="s">
@@ -6856,7 +6868,7 @@
       <c r="AO23" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="AP23" s="34"/>
+      <c r="AP23" s="37"/>
       <c r="AQ23" s="5" t="s">
         <v>77</v>
       </c>
@@ -6891,7 +6903,7 @@
       <c r="E24" s="27">
         <v>35520</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="5" t="str">
@@ -6914,16 +6926,16 @@
       <c r="L24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="37">
         <v>6</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="35">
         <v>264</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="36" t="s">
+      <c r="P24" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q24" s="6" t="s">
@@ -7008,7 +7020,7 @@
       <c r="AO24" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="AP24" s="34"/>
+      <c r="AP24" s="37"/>
       <c r="AQ24" s="5" t="s">
         <v>77</v>
       </c>
@@ -7043,7 +7055,7 @@
       <c r="E25" s="27">
         <v>35520</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G25" s="5" t="str">
@@ -7066,16 +7078,16 @@
       <c r="L25" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="37">
         <v>7</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="35">
         <v>486</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="36" t="s">
+      <c r="P25" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q25" s="6" t="s">
@@ -7160,7 +7172,7 @@
       <c r="AO25" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="AP25" s="34"/>
+      <c r="AP25" s="37"/>
       <c r="AQ25" s="5" t="s">
         <v>77</v>
       </c>
@@ -7195,7 +7207,7 @@
       <c r="E26" s="27">
         <v>35520</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G26" s="5" t="str">
@@ -7218,16 +7230,16 @@
       <c r="L26" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="37">
         <v>8</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="35">
         <v>267</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="36" t="s">
+      <c r="P26" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q26" s="6" t="s">
@@ -7312,7 +7324,7 @@
       <c r="AO26" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="AP26" s="34"/>
+      <c r="AP26" s="37"/>
       <c r="AQ26" s="5" t="s">
         <v>77</v>
       </c>
@@ -7347,7 +7359,7 @@
       <c r="E27" s="27">
         <v>35520</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G27" s="5" t="str">
@@ -7370,16 +7382,16 @@
       <c r="L27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="37">
         <v>9</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="35">
         <v>321</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="36" t="s">
+      <c r="P27" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q27" s="6" t="s">
@@ -7464,7 +7476,7 @@
       <c r="AO27" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="AP27" s="34"/>
+      <c r="AP27" s="37"/>
       <c r="AQ27" s="5" t="s">
         <v>77</v>
       </c>
@@ -7499,7 +7511,7 @@
       <c r="E28" s="27">
         <v>35520</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="5" t="str">
@@ -7522,16 +7534,16 @@
       <c r="L28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="37">
         <v>10</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="35">
         <v>472</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="36" t="s">
+      <c r="P28" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q28" s="6" t="s">
@@ -7616,7 +7628,7 @@
       <c r="AO28" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="AP28" s="34"/>
+      <c r="AP28" s="37"/>
       <c r="AQ28" s="5" t="s">
         <v>77</v>
       </c>
@@ -7651,7 +7663,7 @@
       <c r="E29" s="27">
         <v>35520</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G29" s="5" t="str">
@@ -7674,16 +7686,16 @@
       <c r="L29" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="37">
         <v>11</v>
       </c>
-      <c r="N29" s="36">
+      <c r="N29" s="35">
         <v>1195</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P29" s="36" t="s">
+      <c r="P29" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q29" s="6" t="s">
@@ -7768,7 +7780,7 @@
       <c r="AO29" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="AP29" s="34"/>
+      <c r="AP29" s="37"/>
       <c r="AQ29" s="5" t="s">
         <v>77</v>
       </c>
@@ -7803,7 +7815,7 @@
       <c r="E30" s="27">
         <v>35520</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G30" s="5" t="str">
@@ -7826,16 +7838,16 @@
       <c r="L30" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="37">
         <v>12</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="35">
         <v>170</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P30" s="36" t="s">
+      <c r="P30" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q30" s="6" t="s">
@@ -7920,7 +7932,7 @@
       <c r="AO30" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="AP30" s="34"/>
+      <c r="AP30" s="37"/>
       <c r="AQ30" s="5" t="s">
         <v>77</v>
       </c>
@@ -7955,7 +7967,7 @@
       <c r="E31" s="27">
         <v>72100</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G31" s="5" t="str">
@@ -7978,16 +7990,16 @@
       <c r="L31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="35">
         <v>61</v>
       </c>
       <c r="O31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P31" s="36" t="s">
+      <c r="P31" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q31" s="6" t="s">
@@ -8072,7 +8084,7 @@
       <c r="AO31" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="AP31" s="33"/>
+      <c r="AP31" s="36"/>
       <c r="AQ31" s="5" t="s">
         <v>77</v>
       </c>
@@ -8107,7 +8119,7 @@
       <c r="E32" s="27">
         <v>72101</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G32" s="5" t="str">
@@ -8130,16 +8142,16 @@
       <c r="L32" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="38" t="s">
+      <c r="M32" s="37" t="s">
         <v>621</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32" s="35">
         <v>10</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="P32" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q32" s="6" t="s">
@@ -8222,7 +8234,7 @@
       <c r="AO32" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="AP32" s="34"/>
+      <c r="AP32" s="37"/>
       <c r="AQ32" s="5" t="s">
         <v>77</v>
       </c>
@@ -8257,7 +8269,7 @@
       <c r="E33" s="27">
         <v>72100</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="5" t="str">
@@ -8280,16 +8292,16 @@
       <c r="L33" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M33" s="38" t="s">
+      <c r="M33" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="35">
         <v>227</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q33" s="6" t="s">
@@ -8374,7 +8386,7 @@
       <c r="AO33" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="AP33" s="34"/>
+      <c r="AP33" s="37"/>
       <c r="AQ33" s="5" t="s">
         <v>77</v>
       </c>
@@ -8409,7 +8421,7 @@
       <c r="E34" s="27">
         <v>72100</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="5" t="str">
@@ -8432,16 +8444,16 @@
       <c r="L34" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M34" s="38" t="s">
+      <c r="M34" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="N34" s="36">
+      <c r="N34" s="35">
         <v>102</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="36" t="s">
+      <c r="P34" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q34" s="6" t="s">
@@ -8526,7 +8538,7 @@
       <c r="AO34" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="AP34" s="34"/>
+      <c r="AP34" s="37"/>
       <c r="AQ34" s="5" t="s">
         <v>77</v>
       </c>
@@ -8561,7 +8573,7 @@
       <c r="E35" s="27">
         <v>72100</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G35" s="5" t="str">
@@ -8584,16 +8596,16 @@
       <c r="L35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M35" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="35">
         <v>62</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="36" t="s">
+      <c r="P35" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q35" s="6" t="s">
@@ -8678,7 +8690,7 @@
       <c r="AO35" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="AP35" s="34"/>
+      <c r="AP35" s="37"/>
       <c r="AQ35" s="5" t="s">
         <v>77</v>
       </c>
@@ -8713,7 +8725,7 @@
       <c r="E36" s="27">
         <v>72100</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G36" s="5" t="str">
@@ -8736,16 +8748,16 @@
       <c r="L36" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M36" s="38" t="s">
+      <c r="M36" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="35">
         <v>22</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="36" t="s">
+      <c r="P36" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q36" s="6" t="s">
@@ -8830,7 +8842,7 @@
       <c r="AO36" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="AP36" s="34"/>
+      <c r="AP36" s="37"/>
       <c r="AQ36" s="5" t="s">
         <v>77</v>
       </c>
@@ -8865,7 +8877,7 @@
       <c r="E37" s="27">
         <v>72100</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G37" s="5" t="str">
@@ -8888,16 +8900,16 @@
       <c r="L37" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M37" s="38" t="s">
+      <c r="M37" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="35">
         <v>9</v>
       </c>
       <c r="O37" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="36" t="s">
+      <c r="P37" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q37" s="6" t="s">
@@ -8982,7 +8994,7 @@
       <c r="AO37" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="AP37" s="34"/>
+      <c r="AP37" s="37"/>
       <c r="AQ37" s="5" t="s">
         <v>77</v>
       </c>
@@ -9017,7 +9029,7 @@
       <c r="E38" s="27">
         <v>72100</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G38" s="5" t="str">
@@ -9040,16 +9052,16 @@
       <c r="L38" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M38" s="38" t="s">
+      <c r="M38" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="35">
         <v>71</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="P38" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q38" s="6" t="s">
@@ -9134,7 +9146,7 @@
       <c r="AO38" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="AP38" s="34"/>
+      <c r="AP38" s="37"/>
       <c r="AQ38" s="5" t="s">
         <v>77</v>
       </c>
@@ -9169,7 +9181,7 @@
       <c r="E39" s="27">
         <v>72100</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G39" s="5" t="str">
@@ -9192,16 +9204,16 @@
       <c r="L39" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M39" s="38" t="s">
+      <c r="M39" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39" s="35">
         <v>45</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="36" t="s">
+      <c r="P39" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q39" s="6" t="s">
@@ -9286,7 +9298,7 @@
       <c r="AO39" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="AP39" s="34"/>
+      <c r="AP39" s="37"/>
       <c r="AQ39" s="5" t="s">
         <v>77</v>
       </c>
@@ -9321,7 +9333,7 @@
       <c r="E40" s="27">
         <v>69003</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="39" t="s">
         <v>91</v>
       </c>
       <c r="G40" s="5" t="str">
@@ -9344,16 +9356,16 @@
       <c r="L40" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M40" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N40" s="36">
+      <c r="M40" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" s="35">
         <v>238</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="36">
+      <c r="P40" s="35">
         <v>200</v>
       </c>
       <c r="Q40" s="6" t="s">
@@ -9438,7 +9450,7 @@
       <c r="AO40" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="AP40" s="33"/>
+      <c r="AP40" s="36"/>
       <c r="AQ40" s="5" t="s">
         <v>77</v>
       </c>
@@ -9473,7 +9485,7 @@
       <c r="E41" s="26">
         <v>78310</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="39" t="s">
         <v>92</v>
       </c>
       <c r="G41" s="5" t="str">
@@ -9496,16 +9508,16 @@
       <c r="L41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="N41" s="35">
+      <c r="N41" s="34">
         <v>168</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="P41" s="36">
+      <c r="P41" s="35">
         <v>156</v>
       </c>
       <c r="Q41" s="6" t="s">
@@ -9590,7 +9602,7 @@
       <c r="AO41" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="AP41" s="33"/>
+      <c r="AP41" s="36"/>
       <c r="AQ41" s="5" t="s">
         <v>77</v>
       </c>
@@ -9625,7 +9637,7 @@
       <c r="E42" s="26">
         <v>78310</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="39" t="s">
         <v>92</v>
       </c>
       <c r="G42" s="5" t="str">
@@ -9648,14 +9660,14 @@
       <c r="L42" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M42" s="38" t="s">
+      <c r="M42" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N42" s="35">
         <v>87</v>
       </c>
       <c r="O42" s="12"/>
-      <c r="P42" s="36">
+      <c r="P42" s="35">
         <v>82</v>
       </c>
       <c r="Q42" s="12"/>
@@ -9738,7 +9750,7 @@
       <c r="AO42" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="AP42" s="34"/>
+      <c r="AP42" s="37"/>
       <c r="AQ42" s="5" t="s">
         <v>77</v>
       </c>
@@ -9773,7 +9785,7 @@
       <c r="E43" s="26">
         <v>78310</v>
       </c>
-      <c r="F43" s="40" t="s">
+      <c r="F43" s="39" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="5" t="str">
@@ -9796,14 +9808,14 @@
       <c r="L43" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M43" s="38" t="s">
+      <c r="M43" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="35">
         <v>197</v>
       </c>
       <c r="O43" s="12"/>
-      <c r="P43" s="36">
+      <c r="P43" s="35">
         <v>182</v>
       </c>
       <c r="Q43" s="12"/>
@@ -9886,7 +9898,7 @@
       <c r="AO43" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="AP43" s="34"/>
+      <c r="AP43" s="37"/>
       <c r="AQ43" s="5" t="s">
         <v>77</v>
       </c>
@@ -9921,7 +9933,7 @@
       <c r="E44" s="26">
         <v>78310</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="39" t="s">
         <v>92</v>
       </c>
       <c r="G44" s="5" t="str">
@@ -9944,14 +9956,14 @@
       <c r="L44" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M44" s="38" t="s">
+      <c r="M44" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="N44" s="36">
+      <c r="N44" s="35">
         <v>576</v>
       </c>
       <c r="O44" s="12"/>
-      <c r="P44" s="36">
+      <c r="P44" s="35">
         <v>543</v>
       </c>
       <c r="Q44" s="12"/>
@@ -10034,7 +10046,7 @@
       <c r="AO44" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="AP44" s="34"/>
+      <c r="AP44" s="37"/>
       <c r="AQ44" s="5" t="s">
         <v>77</v>
       </c>
@@ -10069,7 +10081,7 @@
       <c r="E45" s="26">
         <v>78310</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="39" t="s">
         <v>92</v>
       </c>
       <c r="G45" s="5" t="str">
@@ -10092,16 +10104,16 @@
       <c r="L45" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M45" s="38" t="s">
+      <c r="M45" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="N45" s="36">
+      <c r="N45" s="35">
         <v>237</v>
       </c>
       <c r="O45" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="35">
         <v>221</v>
       </c>
       <c r="Q45" s="12" t="s">
@@ -10186,7 +10198,7 @@
       <c r="AO45" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="AP45" s="34"/>
+      <c r="AP45" s="37"/>
       <c r="AQ45" s="5" t="s">
         <v>77</v>
       </c>
@@ -10221,7 +10233,7 @@
       <c r="E46" s="26">
         <v>78310</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="39" t="s">
         <v>92</v>
       </c>
       <c r="G46" s="5" t="str">
@@ -10244,16 +10256,16 @@
       <c r="L46" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M46" s="38" t="s">
+      <c r="M46" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="N46" s="36">
+      <c r="N46" s="35">
         <v>236</v>
       </c>
       <c r="O46" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="P46" s="36">
+      <c r="P46" s="35">
         <v>218</v>
       </c>
       <c r="Q46" s="12" t="s">
@@ -10338,7 +10350,7 @@
       <c r="AO46" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="AP46" s="34"/>
+      <c r="AP46" s="37"/>
       <c r="AQ46" s="11" t="s">
         <v>54</v>
       </c>
@@ -10373,7 +10385,7 @@
       <c r="E47" s="26">
         <v>57000</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="39" t="s">
         <v>93</v>
       </c>
       <c r="G47" s="5" t="str">
@@ -10396,16 +10408,16 @@
       <c r="L47" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M47" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N47" s="35">
+      <c r="M47" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N47" s="34">
         <v>370</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="P47" s="36" t="s">
+      <c r="P47" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q47" s="6" t="s">
@@ -10490,7 +10502,7 @@
       <c r="AO47" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="AP47" s="33"/>
+      <c r="AP47" s="36"/>
       <c r="AQ47" s="5" t="s">
         <v>77</v>
       </c>
@@ -10525,7 +10537,7 @@
       <c r="E48" s="26">
         <v>57000</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="39" t="s">
         <v>93</v>
       </c>
       <c r="G48" s="5" t="str">
@@ -10548,16 +10560,16 @@
       <c r="L48" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M48" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N48" s="35">
+      <c r="M48" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N48" s="34">
         <v>486</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="P48" s="36" t="s">
+      <c r="P48" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q48" s="6" t="s">
@@ -10642,7 +10654,7 @@
       <c r="AO48" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="AP48" s="33"/>
+      <c r="AP48" s="36"/>
       <c r="AQ48" s="5" t="s">
         <v>77</v>
       </c>
@@ -10677,7 +10689,7 @@
       <c r="E49" s="27">
         <v>75008</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G49" s="5" t="str">
@@ -10700,16 +10712,16 @@
       <c r="L49" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M49" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N49" s="35">
+      <c r="M49" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N49" s="34">
         <v>681</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="P49" s="36" t="s">
+      <c r="P49" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q49" s="6" t="s">
@@ -10794,7 +10806,7 @@
       <c r="AO49" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="AP49" s="33"/>
+      <c r="AP49" s="36"/>
       <c r="AQ49" s="5" t="s">
         <v>77</v>
       </c>
@@ -10829,7 +10841,7 @@
       <c r="E50" s="27">
         <v>75008</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G50" s="5" t="str">
@@ -10852,16 +10864,16 @@
       <c r="L50" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M50" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N50" s="36">
+      <c r="M50" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N50" s="35">
         <v>672</v>
       </c>
       <c r="O50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="P50" s="36" t="s">
+      <c r="P50" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q50" s="6" t="s">
@@ -10943,7 +10955,7 @@
       <c r="AO50" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="AP50" s="33"/>
+      <c r="AP50" s="36"/>
       <c r="AQ50" s="5" t="s">
         <v>77</v>
       </c>
@@ -10978,7 +10990,7 @@
       <c r="E51" s="27">
         <v>75009</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G51" s="5" t="str">
@@ -11001,16 +11013,16 @@
       <c r="L51" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M51" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N51" s="35">
+      <c r="M51" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N51" s="34">
         <v>115</v>
       </c>
       <c r="O51" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="P51" s="36" t="s">
+      <c r="P51" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q51" s="6" t="s">
@@ -11095,7 +11107,7 @@
       <c r="AO51" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="AP51" s="33"/>
+      <c r="AP51" s="36"/>
       <c r="AQ51" s="5" t="s">
         <v>54</v>
       </c>
@@ -11130,7 +11142,7 @@
       <c r="E52" s="27">
         <v>75010</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G52" s="5" t="str">
@@ -11153,16 +11165,16 @@
       <c r="L52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M52" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N52" s="35">
+      <c r="M52" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N52" s="34">
         <v>189</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="P52" s="36" t="s">
+      <c r="P52" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q52" s="6" t="s">
@@ -11247,7 +11259,7 @@
       <c r="AO52" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="AP52" s="33"/>
+      <c r="AP52" s="36"/>
       <c r="AQ52" s="5" t="s">
         <v>77</v>
       </c>
@@ -11282,7 +11294,7 @@
       <c r="E53" s="27">
         <v>75012</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G53" s="5" t="str">
@@ -11305,16 +11317,16 @@
       <c r="L53" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M53" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N53" s="35">
+      <c r="M53" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N53" s="34">
         <v>177</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="P53" s="36" t="s">
+      <c r="P53" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q53" s="6" t="s">
@@ -11399,7 +11411,7 @@
       <c r="AO53" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="AP53" s="33"/>
+      <c r="AP53" s="36"/>
       <c r="AQ53" s="5" t="s">
         <v>77</v>
       </c>
@@ -11434,7 +11446,7 @@
       <c r="E54" s="27">
         <v>75012</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G54" s="5" t="str">
@@ -11457,16 +11469,16 @@
       <c r="L54" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M54" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N54" s="36">
+      <c r="M54" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N54" s="35">
         <v>85</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P54" s="36" t="s">
+      <c r="P54" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q54" s="6" t="s">
@@ -11551,7 +11563,7 @@
       <c r="AO54" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="AP54" s="33"/>
+      <c r="AP54" s="36"/>
       <c r="AQ54" s="5" t="s">
         <v>77</v>
       </c>
@@ -11586,7 +11598,7 @@
       <c r="E55" s="27">
         <v>75016</v>
       </c>
-      <c r="F55" s="40" t="s">
+      <c r="F55" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G55" s="5" t="str">
@@ -11609,16 +11621,16 @@
       <c r="L55" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M55" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N55" s="35">
+      <c r="M55" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N55" s="34">
         <v>26</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="P55" s="36" t="s">
+      <c r="P55" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q55" s="6" t="s">
@@ -11703,7 +11715,7 @@
       <c r="AO55" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="AP55" s="33"/>
+      <c r="AP55" s="36"/>
       <c r="AQ55" s="5" t="s">
         <v>77</v>
       </c>
@@ -11738,7 +11750,7 @@
       <c r="E56" s="27">
         <v>75016</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G56" s="5" t="str">
@@ -11761,16 +11773,16 @@
       <c r="L56" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M56" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="N56" s="35">
+      <c r="M56" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N56" s="34">
         <v>87</v>
       </c>
       <c r="O56" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P56" s="36" t="s">
+      <c r="P56" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q56" s="6" t="s">
@@ -11855,7 +11867,7 @@
       <c r="AO56" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="AP56" s="33"/>
+      <c r="AP56" s="36"/>
       <c r="AQ56" s="5" t="s">
         <v>77</v>
       </c>
@@ -11890,7 +11902,7 @@
       <c r="E57" s="27">
         <v>92100</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="39" t="s">
         <v>95</v>
       </c>
       <c r="G57" s="5" t="str">
@@ -11913,16 +11925,16 @@
       <c r="L57" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M57" s="37" t="s">
+      <c r="M57" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="N57" s="36">
+      <c r="N57" s="35">
         <v>110</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P57" s="36" t="s">
+      <c r="P57" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q57" s="6" t="s">
@@ -12007,7 +12019,7 @@
       <c r="AO57" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="AP57" s="33"/>
+      <c r="AP57" s="36"/>
       <c r="AQ57" s="5" t="s">
         <v>77</v>
       </c>
@@ -12042,7 +12054,7 @@
       <c r="E58" s="27">
         <v>92100</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="F58" s="39" t="s">
         <v>95</v>
       </c>
       <c r="G58" s="5" t="str">
@@ -12065,10 +12077,10 @@
       <c r="L58" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M58" s="38" t="s">
+      <c r="M58" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="N58" s="36">
+      <c r="N58" s="35">
         <v>66</v>
       </c>
       <c r="O58" s="12"/>
@@ -12153,7 +12165,7 @@
       <c r="AO58" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="AP58" s="34"/>
+      <c r="AP58" s="37"/>
       <c r="AQ58" s="5" t="s">
         <v>77</v>
       </c>
@@ -12188,7 +12200,7 @@
       <c r="E59" s="27">
         <v>92100</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="39" t="s">
         <v>95</v>
       </c>
       <c r="G59" s="5" t="str">
@@ -12211,10 +12223,10 @@
       <c r="L59" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M59" s="38" t="s">
+      <c r="M59" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="N59" s="36">
+      <c r="N59" s="35">
         <v>79</v>
       </c>
       <c r="O59" s="12"/>
@@ -12299,7 +12311,7 @@
       <c r="AO59" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="AP59" s="34"/>
+      <c r="AP59" s="37"/>
       <c r="AQ59" s="5" t="s">
         <v>77</v>
       </c>
@@ -12334,7 +12346,7 @@
       <c r="E60" s="27">
         <v>92100</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="39" t="s">
         <v>95</v>
       </c>
       <c r="G60" s="5" t="str">
@@ -12357,10 +12369,10 @@
       <c r="L60" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M60" s="38" t="s">
+      <c r="M60" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="N60" s="36">
+      <c r="N60" s="35">
         <v>47</v>
       </c>
       <c r="O60" s="12"/>
@@ -12445,7 +12457,7 @@
       <c r="AO60" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="AP60" s="34"/>
+      <c r="AP60" s="37"/>
       <c r="AQ60" s="5" t="s">
         <v>77</v>
       </c>
@@ -12480,7 +12492,7 @@
       <c r="E61" s="27">
         <v>92100</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="F61" s="39" t="s">
         <v>95</v>
       </c>
       <c r="G61" s="5" t="str">
@@ -12503,10 +12515,10 @@
       <c r="L61" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M61" s="38" t="s">
+      <c r="M61" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="N61" s="36">
+      <c r="N61" s="35">
         <v>60</v>
       </c>
       <c r="O61" s="12"/>
@@ -12591,7 +12603,7 @@
       <c r="AO61" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="AP61" s="34"/>
+      <c r="AP61" s="37"/>
       <c r="AQ61" s="5" t="s">
         <v>77</v>
       </c>
@@ -12626,7 +12638,7 @@
       <c r="E62" s="27">
         <v>92100</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="F62" s="39" t="s">
         <v>95</v>
       </c>
       <c r="G62" s="5" t="str">
@@ -12649,10 +12661,10 @@
       <c r="L62" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M62" s="38" t="s">
+      <c r="M62" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N62" s="36">
+      <c r="N62" s="35">
         <v>81</v>
       </c>
       <c r="O62" s="12"/>
@@ -12737,7 +12749,7 @@
       <c r="AO62" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="AP62" s="34"/>
+      <c r="AP62" s="37"/>
       <c r="AQ62" s="5" t="s">
         <v>77</v>
       </c>
@@ -12772,7 +12784,7 @@
       <c r="E63" s="27">
         <v>92100</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="39" t="s">
         <v>95</v>
       </c>
       <c r="G63" s="5" t="str">
@@ -12795,10 +12807,10 @@
       <c r="L63" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M63" s="38" t="s">
+      <c r="M63" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="N63" s="36">
+      <c r="N63" s="35">
         <v>45</v>
       </c>
       <c r="O63" s="12"/>
@@ -12883,7 +12895,7 @@
       <c r="AO63" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="AP63" s="34"/>
+      <c r="AP63" s="37"/>
       <c r="AQ63" s="5" t="s">
         <v>77</v>
       </c>
@@ -12918,7 +12930,7 @@
       <c r="E64" s="27">
         <v>92100</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="F64" s="39" t="s">
         <v>95</v>
       </c>
       <c r="G64" s="5" t="str">
@@ -12941,10 +12953,10 @@
       <c r="L64" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M64" s="38" t="s">
+      <c r="M64" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="N64" s="36">
+      <c r="N64" s="35">
         <v>73</v>
       </c>
       <c r="O64" s="12"/>
@@ -13029,7 +13041,7 @@
       <c r="AO64" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="AP64" s="34"/>
+      <c r="AP64" s="37"/>
       <c r="AQ64" s="5" t="s">
         <v>77</v>
       </c>
@@ -13064,7 +13076,7 @@
       <c r="E65" s="27">
         <v>92250</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F65" s="39" t="s">
         <v>98</v>
       </c>
       <c r="G65" s="5" t="str">
@@ -13087,16 +13099,16 @@
       <c r="L65" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M65" s="37" t="s">
+      <c r="M65" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="N65" s="36">
+      <c r="N65" s="35">
         <v>80</v>
       </c>
       <c r="O65" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="36" t="s">
+      <c r="P65" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q65" s="6" t="s">
@@ -13181,7 +13193,7 @@
       <c r="AO65" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="AP65" s="33"/>
+      <c r="AP65" s="36"/>
       <c r="AQ65" s="5" t="s">
         <v>77</v>
       </c>
@@ -13216,7 +13228,7 @@
       <c r="E66" s="27">
         <v>92250</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="39" t="s">
         <v>98</v>
       </c>
       <c r="G66" s="5" t="str">
@@ -13239,10 +13251,10 @@
       <c r="L66" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M66" s="38" t="s">
+      <c r="M66" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="N66" s="36">
+      <c r="N66" s="35">
         <v>110</v>
       </c>
       <c r="O66" s="12"/>
@@ -13327,7 +13339,7 @@
       <c r="AO66" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="AP66" s="34"/>
+      <c r="AP66" s="37"/>
       <c r="AQ66" s="5" t="s">
         <v>77</v>
       </c>
@@ -13385,16 +13397,16 @@
       <c r="L67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M67" s="37" t="s">
+      <c r="M67" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="N67" s="36">
+      <c r="N67" s="35">
         <v>321</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="36" t="s">
+      <c r="P67" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q67" s="6" t="s">
@@ -13479,7 +13491,7 @@
       <c r="AO67" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="AP67" s="33"/>
+      <c r="AP67" s="36"/>
       <c r="AQ67" s="5" t="s">
         <v>77</v>
       </c>
@@ -13537,10 +13549,10 @@
       <c r="L68" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M68" s="38" t="s">
+      <c r="M68" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="N68" s="36">
+      <c r="N68" s="35">
         <v>159</v>
       </c>
       <c r="O68" s="12"/>
@@ -13615,7 +13627,7 @@
       <c r="AO68" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="AP68" s="34"/>
+      <c r="AP68" s="37"/>
       <c r="AQ68" s="5" t="s">
         <v>77</v>
       </c>
@@ -13673,10 +13685,10 @@
       <c r="L69" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M69" s="38" t="s">
+      <c r="M69" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="N69" s="36">
+      <c r="N69" s="35">
         <v>281</v>
       </c>
       <c r="O69" s="12"/>
@@ -13751,7 +13763,7 @@
       <c r="AO69" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="AP69" s="34"/>
+      <c r="AP69" s="37"/>
       <c r="AQ69" s="5" t="s">
         <v>77</v>
       </c>
@@ -13809,10 +13821,10 @@
       <c r="L70" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M70" s="38" t="s">
+      <c r="M70" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="N70" s="36">
+      <c r="N70" s="35">
         <v>168</v>
       </c>
       <c r="O70" s="12"/>
@@ -13887,7 +13899,7 @@
       <c r="AO70" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="AP70" s="34"/>
+      <c r="AP70" s="37"/>
       <c r="AQ70" s="5" t="s">
         <v>77</v>
       </c>
@@ -13945,10 +13957,10 @@
       <c r="L71" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M71" s="38" t="s">
+      <c r="M71" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="N71" s="36">
+      <c r="N71" s="35">
         <v>228</v>
       </c>
       <c r="O71" s="12"/>
@@ -14023,7 +14035,7 @@
       <c r="AO71" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="AP71" s="34"/>
+      <c r="AP71" s="37"/>
       <c r="AQ71" s="5" t="s">
         <v>77</v>
       </c>
@@ -14081,10 +14093,10 @@
       <c r="L72" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M72" s="38" t="s">
+      <c r="M72" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="N72" s="36">
+      <c r="N72" s="35">
         <v>133</v>
       </c>
       <c r="O72" s="12"/>
@@ -14159,7 +14171,7 @@
       <c r="AO72" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="AP72" s="34"/>
+      <c r="AP72" s="37"/>
       <c r="AQ72" s="5" t="s">
         <v>77</v>
       </c>
@@ -14217,10 +14229,10 @@
       <c r="L73" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M73" s="38" t="s">
+      <c r="M73" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="N73" s="36">
+      <c r="N73" s="35">
         <v>341</v>
       </c>
       <c r="O73" s="12"/>
@@ -14295,7 +14307,7 @@
       <c r="AO73" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="AP73" s="34"/>
+      <c r="AP73" s="37"/>
       <c r="AQ73" s="5" t="s">
         <v>77</v>
       </c>
@@ -14353,10 +14365,10 @@
       <c r="L74" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M74" s="38" t="s">
+      <c r="M74" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="N74" s="36">
+      <c r="N74" s="35">
         <v>444</v>
       </c>
       <c r="O74" s="12"/>
@@ -14431,7 +14443,7 @@
       <c r="AO74" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="AP74" s="34"/>
+      <c r="AP74" s="37"/>
       <c r="AQ74" s="5" t="s">
         <v>77</v>
       </c>
@@ -14489,10 +14501,10 @@
       <c r="L75" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M75" s="38" t="s">
+      <c r="M75" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="N75" s="36">
+      <c r="N75" s="35">
         <v>206</v>
       </c>
       <c r="O75" s="12"/>
@@ -14567,7 +14579,7 @@
       <c r="AO75" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="AP75" s="34"/>
+      <c r="AP75" s="37"/>
       <c r="AQ75" s="5" t="s">
         <v>77</v>
       </c>
@@ -14625,10 +14637,10 @@
       <c r="L76" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M76" s="38" t="s">
+      <c r="M76" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="N76" s="36">
+      <c r="N76" s="35">
         <v>231</v>
       </c>
       <c r="O76" s="12"/>
@@ -14703,7 +14715,7 @@
       <c r="AO76" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="AP76" s="34"/>
+      <c r="AP76" s="37"/>
       <c r="AQ76" s="5" t="s">
         <v>77</v>
       </c>
@@ -14761,10 +14773,10 @@
       <c r="L77" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M77" s="38" t="s">
+      <c r="M77" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="N77" s="36">
+      <c r="N77" s="35">
         <v>235</v>
       </c>
       <c r="O77" s="12"/>
@@ -14839,7 +14851,7 @@
       <c r="AO77" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="AP77" s="34"/>
+      <c r="AP77" s="37"/>
       <c r="AQ77" s="5" t="s">
         <v>77</v>
       </c>
@@ -14897,10 +14909,10 @@
       <c r="L78" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M78" s="38" t="s">
+      <c r="M78" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="N78" s="36">
+      <c r="N78" s="35">
         <v>333</v>
       </c>
       <c r="O78" s="12"/>
@@ -14975,7 +14987,7 @@
       <c r="AO78" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="AP78" s="34"/>
+      <c r="AP78" s="37"/>
       <c r="AQ78" s="5" t="s">
         <v>77</v>
       </c>
@@ -15033,10 +15045,10 @@
       <c r="L79" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M79" s="38" t="s">
+      <c r="M79" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="N79" s="36">
+      <c r="N79" s="35">
         <v>177</v>
       </c>
       <c r="O79" s="12"/>
@@ -15111,7 +15123,7 @@
       <c r="AO79" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="AP79" s="34"/>
+      <c r="AP79" s="37"/>
       <c r="AQ79" s="5" t="s">
         <v>77</v>
       </c>
@@ -15169,10 +15181,10 @@
       <c r="L80" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M80" s="38" t="s">
+      <c r="M80" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="N80" s="36">
+      <c r="N80" s="35">
         <v>99</v>
       </c>
       <c r="O80" s="12"/>
@@ -15247,7 +15259,7 @@
       <c r="AO80" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="AP80" s="34"/>
+      <c r="AP80" s="37"/>
       <c r="AQ80" s="5" t="s">
         <v>77</v>
       </c>
@@ -15305,10 +15317,10 @@
       <c r="L81" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M81" s="38" t="s">
+      <c r="M81" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="N81" s="36">
+      <c r="N81" s="35">
         <v>169</v>
       </c>
       <c r="O81" s="12"/>
@@ -15383,7 +15395,7 @@
       <c r="AO81" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="AP81" s="34"/>
+      <c r="AP81" s="37"/>
       <c r="AQ81" s="5" t="s">
         <v>77</v>
       </c>
@@ -15441,10 +15453,10 @@
       <c r="L82" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M82" s="38" t="s">
+      <c r="M82" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="N82" s="36">
+      <c r="N82" s="35">
         <v>196</v>
       </c>
       <c r="O82" s="12"/>
@@ -15519,7 +15531,7 @@
       <c r="AO82" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="AP82" s="34"/>
+      <c r="AP82" s="37"/>
       <c r="AQ82" s="5" t="s">
         <v>77</v>
       </c>
@@ -15577,10 +15589,10 @@
       <c r="L83" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="38" t="s">
+      <c r="M83" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="N83" s="36">
+      <c r="N83" s="35">
         <v>195</v>
       </c>
       <c r="O83" s="12"/>
@@ -15655,7 +15667,7 @@
       <c r="AO83" s="33" t="s">
         <v>528</v>
       </c>
-      <c r="AP83" s="34"/>
+      <c r="AP83" s="37"/>
       <c r="AQ83" s="5" t="s">
         <v>77</v>
       </c>
@@ -15713,10 +15725,10 @@
       <c r="L84" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M84" s="38" t="s">
+      <c r="M84" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="N84" s="36">
+      <c r="N84" s="35">
         <v>181</v>
       </c>
       <c r="O84" s="12"/>
@@ -15791,7 +15803,7 @@
       <c r="AO84" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="AP84" s="34"/>
+      <c r="AP84" s="37"/>
       <c r="AQ84" s="5" t="s">
         <v>77</v>
       </c>
@@ -15849,10 +15861,10 @@
       <c r="L85" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M85" s="38" t="s">
+      <c r="M85" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="N85" s="36">
+      <c r="N85" s="35">
         <v>277</v>
       </c>
       <c r="O85" s="12"/>
@@ -15927,7 +15939,7 @@
       <c r="AO85" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="AP85" s="34"/>
+      <c r="AP85" s="37"/>
       <c r="AQ85" s="5" t="s">
         <v>77</v>
       </c>
@@ -15985,10 +15997,10 @@
       <c r="L86" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M86" s="38" t="s">
+      <c r="M86" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="N86" s="36">
+      <c r="N86" s="35">
         <v>142</v>
       </c>
       <c r="O86" s="12"/>
@@ -16063,7 +16075,7 @@
       <c r="AO86" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="AP86" s="34"/>
+      <c r="AP86" s="37"/>
       <c r="AQ86" s="5" t="s">
         <v>77</v>
       </c>
@@ -16121,10 +16133,10 @@
       <c r="L87" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M87" s="38" t="s">
+      <c r="M87" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="N87" s="36">
+      <c r="N87" s="35">
         <v>114</v>
       </c>
       <c r="O87" s="12"/>
@@ -16199,7 +16211,7 @@
       <c r="AO87" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="AP87" s="34"/>
+      <c r="AP87" s="37"/>
       <c r="AQ87" s="5" t="s">
         <v>77</v>
       </c>
@@ -16257,10 +16269,10 @@
       <c r="L88" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M88" s="38" t="s">
+      <c r="M88" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="N88" s="36">
+      <c r="N88" s="35">
         <v>167</v>
       </c>
       <c r="O88" s="12"/>
@@ -16335,7 +16347,7 @@
       <c r="AO88" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="AP88" s="34"/>
+      <c r="AP88" s="37"/>
       <c r="AQ88" s="5" t="s">
         <v>77</v>
       </c>
@@ -16393,10 +16405,10 @@
       <c r="L89" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M89" s="38" t="s">
+      <c r="M89" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="N89" s="36">
+      <c r="N89" s="35">
         <v>88</v>
       </c>
       <c r="O89" s="12"/>
@@ -16471,7 +16483,7 @@
       <c r="AO89" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="AP89" s="34"/>
+      <c r="AP89" s="37"/>
       <c r="AQ89" s="5" t="s">
         <v>77</v>
       </c>
@@ -16506,7 +16518,7 @@
       <c r="E90" s="27">
         <v>92410</v>
       </c>
-      <c r="F90" s="40" t="s">
+      <c r="F90" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G90" s="5" t="str">
@@ -16529,16 +16541,16 @@
       <c r="L90" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M90" s="37" t="s">
+      <c r="M90" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="N90" s="36">
+      <c r="N90" s="35">
         <v>372</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P90" s="36" t="s">
+      <c r="P90" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q90" s="6" t="s">
@@ -16623,7 +16635,7 @@
       <c r="AO90" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="AP90" s="33"/>
+      <c r="AP90" s="36"/>
       <c r="AQ90" s="5" t="s">
         <v>77</v>
       </c>
@@ -16658,7 +16670,7 @@
       <c r="E91" s="27">
         <v>92410</v>
       </c>
-      <c r="F91" s="40" t="s">
+      <c r="F91" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G91" s="5" t="str">
@@ -16681,16 +16693,16 @@
       <c r="L91" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M91" s="38" t="s">
+      <c r="M91" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="N91" s="36">
+      <c r="N91" s="35">
         <v>106</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P91" s="36" t="s">
+      <c r="P91" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q91" s="6" t="s">
@@ -16775,7 +16787,7 @@
       <c r="AO91" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="AP91" s="34"/>
+      <c r="AP91" s="37"/>
       <c r="AQ91" s="5" t="s">
         <v>77</v>
       </c>
@@ -16810,7 +16822,7 @@
       <c r="E92" s="27">
         <v>92410</v>
       </c>
-      <c r="F92" s="40" t="s">
+      <c r="F92" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G92" s="5" t="str">
@@ -16833,16 +16845,16 @@
       <c r="L92" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M92" s="38" t="s">
+      <c r="M92" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="N92" s="36">
+      <c r="N92" s="35">
         <v>108</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P92" s="36" t="s">
+      <c r="P92" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q92" s="6" t="s">
@@ -16927,7 +16939,7 @@
       <c r="AO92" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="AP92" s="34"/>
+      <c r="AP92" s="37"/>
       <c r="AQ92" s="5" t="s">
         <v>77</v>
       </c>
@@ -16962,7 +16974,7 @@
       <c r="E93" s="27">
         <v>92410</v>
       </c>
-      <c r="F93" s="40" t="s">
+      <c r="F93" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G93" s="5" t="str">
@@ -16985,16 +16997,16 @@
       <c r="L93" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M93" s="38" t="s">
+      <c r="M93" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="N93" s="36">
+      <c r="N93" s="35">
         <v>424</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P93" s="36" t="s">
+      <c r="P93" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q93" s="6" t="s">
@@ -17079,7 +17091,7 @@
       <c r="AO93" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="AP93" s="34"/>
+      <c r="AP93" s="37"/>
       <c r="AQ93" s="5" t="s">
         <v>77</v>
       </c>
@@ -17114,7 +17126,7 @@
       <c r="E94" s="27">
         <v>92410</v>
       </c>
-      <c r="F94" s="40" t="s">
+      <c r="F94" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G94" s="5" t="str">
@@ -17137,16 +17149,16 @@
       <c r="L94" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M94" s="38" t="s">
+      <c r="M94" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="N94" s="36">
+      <c r="N94" s="35">
         <v>258</v>
       </c>
       <c r="O94" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P94" s="36" t="s">
+      <c r="P94" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q94" s="6" t="s">
@@ -17231,7 +17243,7 @@
       <c r="AO94" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="AP94" s="34"/>
+      <c r="AP94" s="37"/>
       <c r="AQ94" s="5" t="s">
         <v>77</v>
       </c>
@@ -17266,7 +17278,7 @@
       <c r="E95" s="27">
         <v>92410</v>
       </c>
-      <c r="F95" s="40" t="s">
+      <c r="F95" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G95" s="5" t="str">
@@ -17289,16 +17301,16 @@
       <c r="L95" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M95" s="38" t="s">
+      <c r="M95" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="N95" s="36">
+      <c r="N95" s="35">
         <v>152</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P95" s="36" t="s">
+      <c r="P95" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q95" s="6" t="s">
@@ -17383,7 +17395,7 @@
       <c r="AO95" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="AP95" s="34"/>
+      <c r="AP95" s="37"/>
       <c r="AQ95" s="5" t="s">
         <v>77</v>
       </c>
@@ -17418,7 +17430,7 @@
       <c r="E96" s="27">
         <v>92410</v>
       </c>
-      <c r="F96" s="40" t="s">
+      <c r="F96" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G96" s="5" t="str">
@@ -17441,16 +17453,16 @@
       <c r="L96" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M96" s="38" t="s">
+      <c r="M96" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="N96" s="36">
+      <c r="N96" s="35">
         <v>105</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P96" s="36" t="s">
+      <c r="P96" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q96" s="6" t="s">
@@ -17535,7 +17547,7 @@
       <c r="AO96" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="AP96" s="34"/>
+      <c r="AP96" s="37"/>
       <c r="AQ96" s="5" t="s">
         <v>77</v>
       </c>
@@ -17570,7 +17582,7 @@
       <c r="E97" s="27">
         <v>92411</v>
       </c>
-      <c r="F97" s="40" t="s">
+      <c r="F97" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G97" s="5" t="str">
@@ -17593,16 +17605,16 @@
       <c r="L97" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M97" s="38" t="s">
+      <c r="M97" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="N97" s="36">
+      <c r="N97" s="35">
         <v>547</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P97" s="36" t="s">
+      <c r="P97" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q97" s="6" t="s">
@@ -17687,7 +17699,7 @@
       <c r="AO97" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="AP97" s="34"/>
+      <c r="AP97" s="37"/>
       <c r="AQ97" s="5" t="s">
         <v>77</v>
       </c>
@@ -17722,7 +17734,7 @@
       <c r="E98" s="27">
         <v>95000</v>
       </c>
-      <c r="F98" s="40" t="s">
+      <c r="F98" s="39" t="s">
         <v>99</v>
       </c>
       <c r="G98" s="5" t="str">
@@ -17745,16 +17757,16 @@
       <c r="L98" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M98" s="37" t="s">
+      <c r="M98" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="N98" s="36">
+      <c r="N98" s="35">
         <v>286</v>
       </c>
       <c r="O98" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P98" s="36" t="s">
+      <c r="P98" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q98" s="6" t="s">
@@ -17839,7 +17851,7 @@
       <c r="AO98" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="AP98" s="33"/>
+      <c r="AP98" s="36"/>
       <c r="AQ98" s="5" t="s">
         <v>77</v>
       </c>
@@ -17874,7 +17886,7 @@
       <c r="E99" s="27">
         <v>95000</v>
       </c>
-      <c r="F99" s="40" t="s">
+      <c r="F99" s="39" t="s">
         <v>99</v>
       </c>
       <c r="G99" s="5" t="str">
@@ -17897,16 +17909,16 @@
       <c r="L99" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M99" s="38" t="s">
+      <c r="M99" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="N99" s="36">
+      <c r="N99" s="35">
         <v>84</v>
       </c>
       <c r="O99" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P99" s="36" t="s">
+      <c r="P99" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q99" s="6" t="s">
@@ -17991,7 +18003,7 @@
       <c r="AO99" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="AP99" s="34"/>
+      <c r="AP99" s="37"/>
       <c r="AQ99" s="5" t="s">
         <v>77</v>
       </c>
@@ -18026,7 +18038,7 @@
       <c r="E100" s="27">
         <v>95000</v>
       </c>
-      <c r="F100" s="40" t="s">
+      <c r="F100" s="39" t="s">
         <v>99</v>
       </c>
       <c r="G100" s="5" t="str">
@@ -18049,16 +18061,16 @@
       <c r="L100" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M100" s="38" t="s">
+      <c r="M100" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="N100" s="36">
+      <c r="N100" s="35">
         <v>272</v>
       </c>
       <c r="O100" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P100" s="36" t="s">
+      <c r="P100" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q100" s="6" t="s">
@@ -18143,7 +18155,7 @@
       <c r="AO100" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="AP100" s="34"/>
+      <c r="AP100" s="37"/>
       <c r="AQ100" s="5" t="s">
         <v>77</v>
       </c>
@@ -18178,7 +18190,7 @@
       <c r="E101" s="27">
         <v>95000</v>
       </c>
-      <c r="F101" s="40" t="s">
+      <c r="F101" s="39" t="s">
         <v>99</v>
       </c>
       <c r="G101" s="5" t="str">
@@ -18201,16 +18213,16 @@
       <c r="L101" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M101" s="38" t="s">
+      <c r="M101" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="N101" s="36">
+      <c r="N101" s="35">
         <v>162</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P101" s="36" t="s">
+      <c r="P101" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q101" s="6" t="s">
@@ -18295,7 +18307,7 @@
       <c r="AO101" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="AP101" s="34"/>
+      <c r="AP101" s="37"/>
       <c r="AQ101" s="5" t="s">
         <v>77</v>
       </c>
@@ -18330,7 +18342,7 @@
       <c r="E102" s="27">
         <v>95000</v>
       </c>
-      <c r="F102" s="40" t="s">
+      <c r="F102" s="39" t="s">
         <v>99</v>
       </c>
       <c r="G102" s="5" t="str">
@@ -18353,16 +18365,16 @@
       <c r="L102" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M102" s="38" t="s">
+      <c r="M102" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="N102" s="36">
+      <c r="N102" s="35">
         <v>271</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P102" s="36" t="s">
+      <c r="P102" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q102" s="6" t="s">
@@ -18447,7 +18459,7 @@
       <c r="AO102" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="AP102" s="34"/>
+      <c r="AP102" s="37"/>
       <c r="AQ102" s="5" t="s">
         <v>77</v>
       </c>
@@ -18482,7 +18494,7 @@
       <c r="E103" s="26">
         <v>34470</v>
       </c>
-      <c r="F103" s="40" t="s">
+      <c r="F103" s="39" t="s">
         <v>100</v>
       </c>
       <c r="G103" s="5" t="str">
@@ -18505,16 +18517,16 @@
       <c r="L103" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M103" s="37" t="s">
+      <c r="M103" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="N103" s="36">
+      <c r="N103" s="35">
         <v>144</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P103" s="36" t="s">
+      <c r="P103" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q103" s="6" t="s">
@@ -18599,7 +18611,7 @@
       <c r="AO103" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="AP103" s="33"/>
+      <c r="AP103" s="36"/>
       <c r="AQ103" s="5" t="s">
         <v>77</v>
       </c>
@@ -18616,15 +18628,15 @@
       <c r="BD103" s="1"/>
     </row>
     <row r="104" spans="1:56" ht="25.5">
-      <c r="A104" s="41" t="str">
+      <c r="A104" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B104" s="41" t="str">
+      <c r="B104" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C104" s="41">
+      <c r="C104" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -18634,10 +18646,10 @@
       <c r="E104" s="10">
         <v>34470</v>
       </c>
-      <c r="F104" s="40" t="s">
+      <c r="F104" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G104" s="41" t="str">
+      <c r="G104" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -18657,16 +18669,16 @@
       <c r="L104" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M104" s="38" t="s">
+      <c r="M104" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="N104" s="36">
+      <c r="N104" s="35">
         <v>133</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P104" s="36" t="s">
+      <c r="P104" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q104" s="6" t="s">
@@ -18751,7 +18763,7 @@
       <c r="AO104" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="AP104" s="34"/>
+      <c r="AP104" s="37"/>
       <c r="AQ104" s="5" t="s">
         <v>77</v>
       </c>
@@ -18770,15 +18782,15 @@
       <c r="BC104" s="16"/>
     </row>
     <row r="105" spans="1:56" ht="25.5">
-      <c r="A105" s="41" t="str">
+      <c r="A105" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B105" s="41" t="str">
+      <c r="B105" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C105" s="41">
+      <c r="C105" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -18788,10 +18800,10 @@
       <c r="E105" s="10">
         <v>34470</v>
       </c>
-      <c r="F105" s="40" t="s">
+      <c r="F105" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G105" s="41" t="str">
+      <c r="G105" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -18811,16 +18823,16 @@
       <c r="L105" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M105" s="38" t="s">
+      <c r="M105" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="N105" s="36">
+      <c r="N105" s="35">
         <v>114</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P105" s="36" t="s">
+      <c r="P105" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q105" s="6" t="s">
@@ -18905,7 +18917,7 @@
       <c r="AO105" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="AP105" s="34"/>
+      <c r="AP105" s="37"/>
       <c r="AQ105" s="5" t="s">
         <v>77</v>
       </c>
@@ -18918,15 +18930,15 @@
       <c r="AT105" s="14"/>
     </row>
     <row r="106" spans="1:56" ht="25.5">
-      <c r="A106" s="41" t="str">
+      <c r="A106" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B106" s="41" t="str">
+      <c r="B106" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C106" s="41">
+      <c r="C106" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -18936,10 +18948,10 @@
       <c r="E106" s="10">
         <v>34470</v>
       </c>
-      <c r="F106" s="40" t="s">
+      <c r="F106" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G106" s="41" t="str">
+      <c r="G106" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -18959,14 +18971,14 @@
       <c r="L106" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M106" s="38"/>
-      <c r="N106" s="36">
+      <c r="M106" s="37"/>
+      <c r="N106" s="35">
         <v>36</v>
       </c>
       <c r="O106" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P106" s="36" t="s">
+      <c r="P106" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q106" s="6" t="s">
@@ -19051,7 +19063,7 @@
       <c r="AO106" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="AP106" s="34"/>
+      <c r="AP106" s="37"/>
       <c r="AQ106" s="5" t="s">
         <v>77</v>
       </c>
@@ -19064,15 +19076,15 @@
       <c r="AT106" s="14"/>
     </row>
     <row r="107" spans="1:56" ht="25.5">
-      <c r="A107" s="41" t="str">
+      <c r="A107" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B107" s="41" t="str">
+      <c r="B107" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C107" s="41">
+      <c r="C107" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19082,10 +19094,10 @@
       <c r="E107" s="10">
         <v>34470</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="F107" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G107" s="41" t="str">
+      <c r="G107" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19105,16 +19117,16 @@
       <c r="L107" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M107" s="38" t="s">
+      <c r="M107" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="N107" s="36">
+      <c r="N107" s="35">
         <v>60</v>
       </c>
       <c r="O107" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P107" s="36" t="s">
+      <c r="P107" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q107" s="6" t="s">
@@ -19199,7 +19211,7 @@
       <c r="AO107" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="AP107" s="34"/>
+      <c r="AP107" s="37"/>
       <c r="AQ107" s="5" t="s">
         <v>77</v>
       </c>
@@ -19212,15 +19224,15 @@
       <c r="AT107" s="14"/>
     </row>
     <row r="108" spans="1:56" ht="25.5">
-      <c r="A108" s="41" t="str">
+      <c r="A108" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B108" s="41" t="str">
+      <c r="B108" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C108" s="41">
+      <c r="C108" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19230,10 +19242,10 @@
       <c r="E108" s="10">
         <v>34470</v>
       </c>
-      <c r="F108" s="40" t="s">
+      <c r="F108" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G108" s="41" t="str">
+      <c r="G108" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19253,16 +19265,16 @@
       <c r="L108" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M108" s="38" t="s">
+      <c r="M108" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="N108" s="36">
+      <c r="N108" s="35">
         <v>60</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="36" t="s">
+      <c r="P108" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q108" s="6" t="s">
@@ -19347,7 +19359,7 @@
       <c r="AO108" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="AP108" s="34"/>
+      <c r="AP108" s="37"/>
       <c r="AQ108" s="5" t="s">
         <v>77</v>
       </c>
@@ -19360,15 +19372,15 @@
       <c r="AT108" s="14"/>
     </row>
     <row r="109" spans="1:56" ht="25.5">
-      <c r="A109" s="41" t="str">
+      <c r="A109" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B109" s="41" t="str">
+      <c r="B109" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C109" s="41">
+      <c r="C109" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19378,10 +19390,10 @@
       <c r="E109" s="10">
         <v>34470</v>
       </c>
-      <c r="F109" s="40" t="s">
+      <c r="F109" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G109" s="41" t="str">
+      <c r="G109" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19401,16 +19413,16 @@
       <c r="L109" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M109" s="38" t="s">
+      <c r="M109" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="N109" s="36">
+      <c r="N109" s="35">
         <v>96</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P109" s="36" t="s">
+      <c r="P109" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q109" s="6" t="s">
@@ -19495,7 +19507,7 @@
       <c r="AO109" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="AP109" s="34"/>
+      <c r="AP109" s="37"/>
       <c r="AQ109" s="5" t="s">
         <v>77</v>
       </c>
@@ -19508,15 +19520,15 @@
       <c r="AT109" s="14"/>
     </row>
     <row r="110" spans="1:56" ht="25.5">
-      <c r="A110" s="41" t="str">
+      <c r="A110" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B110" s="41" t="str">
+      <c r="B110" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C110" s="41">
+      <c r="C110" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19526,10 +19538,10 @@
       <c r="E110" s="10">
         <v>34470</v>
       </c>
-      <c r="F110" s="40" t="s">
+      <c r="F110" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G110" s="41" t="str">
+      <c r="G110" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19549,16 +19561,16 @@
       <c r="L110" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M110" s="38" t="s">
+      <c r="M110" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="N110" s="36">
+      <c r="N110" s="35">
         <v>265</v>
       </c>
       <c r="O110" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P110" s="36" t="s">
+      <c r="P110" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q110" s="6" t="s">
@@ -19643,7 +19655,7 @@
       <c r="AO110" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="AP110" s="34"/>
+      <c r="AP110" s="37"/>
       <c r="AQ110" s="5" t="s">
         <v>77</v>
       </c>
@@ -19656,15 +19668,15 @@
       <c r="AT110" s="14"/>
     </row>
     <row r="111" spans="1:56" ht="25.5">
-      <c r="A111" s="41" t="str">
+      <c r="A111" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B111" s="41" t="str">
+      <c r="B111" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C111" s="41">
+      <c r="C111" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19674,10 +19686,10 @@
       <c r="E111" s="10">
         <v>34470</v>
       </c>
-      <c r="F111" s="40" t="s">
+      <c r="F111" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G111" s="41" t="str">
+      <c r="G111" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19697,16 +19709,16 @@
       <c r="L111" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M111" s="38" t="s">
+      <c r="M111" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="N111" s="36">
+      <c r="N111" s="35">
         <v>63</v>
       </c>
       <c r="O111" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P111" s="36" t="s">
+      <c r="P111" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q111" s="6" t="s">
@@ -19791,7 +19803,7 @@
       <c r="AO111" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="AP111" s="34"/>
+      <c r="AP111" s="37"/>
       <c r="AQ111" s="5" t="s">
         <v>77</v>
       </c>
@@ -19804,15 +19816,15 @@
       <c r="AT111" s="14"/>
     </row>
     <row r="112" spans="1:56" ht="25.5">
-      <c r="A112" s="41" t="str">
+      <c r="A112" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B112" s="41" t="str">
+      <c r="B112" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C112" s="41">
+      <c r="C112" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19822,10 +19834,10 @@
       <c r="E112" s="10">
         <v>34470</v>
       </c>
-      <c r="F112" s="40" t="s">
+      <c r="F112" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G112" s="41" t="str">
+      <c r="G112" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19845,16 +19857,16 @@
       <c r="L112" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M112" s="38" t="s">
+      <c r="M112" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="N112" s="36">
+      <c r="N112" s="35">
         <v>120</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P112" s="36" t="s">
+      <c r="P112" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q112" s="6" t="s">
@@ -19939,7 +19951,7 @@
       <c r="AO112" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="AP112" s="34"/>
+      <c r="AP112" s="37"/>
       <c r="AQ112" s="5" t="s">
         <v>77</v>
       </c>
@@ -19955,15 +19967,15 @@
       <c r="BD112" s="1"/>
     </row>
     <row r="113" spans="1:56" ht="25.5">
-      <c r="A113" s="41" t="str">
+      <c r="A113" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B113" s="41" t="str">
+      <c r="B113" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C113" s="41">
+      <c r="C113" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19973,10 +19985,10 @@
       <c r="E113" s="10">
         <v>34470</v>
       </c>
-      <c r="F113" s="40" t="s">
+      <c r="F113" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G113" s="41" t="str">
+      <c r="G113" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19996,16 +20008,16 @@
       <c r="L113" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M113" s="38" t="s">
+      <c r="M113" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="N113" s="36">
+      <c r="N113" s="35">
         <v>176</v>
       </c>
       <c r="O113" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P113" s="36" t="s">
+      <c r="P113" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q113" s="6" t="s">
@@ -20090,7 +20102,7 @@
       <c r="AO113" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="AP113" s="34"/>
+      <c r="AP113" s="37"/>
       <c r="AQ113" s="5" t="s">
         <v>77</v>
       </c>
@@ -20106,15 +20118,15 @@
       <c r="BD113" s="1"/>
     </row>
     <row r="114" spans="1:56" ht="25.5">
-      <c r="A114" s="41" t="str">
+      <c r="A114" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B114" s="41" t="str">
+      <c r="B114" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C114" s="41">
+      <c r="C114" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20124,10 +20136,10 @@
       <c r="E114" s="10">
         <v>34470</v>
       </c>
-      <c r="F114" s="40" t="s">
+      <c r="F114" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G114" s="41" t="str">
+      <c r="G114" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20147,16 +20159,16 @@
       <c r="L114" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M114" s="38" t="s">
+      <c r="M114" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="N114" s="36">
+      <c r="N114" s="35">
         <v>86</v>
       </c>
       <c r="O114" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P114" s="36" t="s">
+      <c r="P114" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q114" s="6" t="s">
@@ -20241,7 +20253,7 @@
       <c r="AO114" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="AP114" s="34"/>
+      <c r="AP114" s="37"/>
       <c r="AQ114" s="5" t="s">
         <v>77</v>
       </c>
@@ -20257,15 +20269,15 @@
       <c r="BD114" s="1"/>
     </row>
     <row r="115" spans="1:56" ht="25.5">
-      <c r="A115" s="41" t="str">
+      <c r="A115" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B115" s="41" t="str">
+      <c r="B115" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C115" s="41">
+      <c r="C115" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20275,10 +20287,10 @@
       <c r="E115" s="10">
         <v>34470</v>
       </c>
-      <c r="F115" s="40" t="s">
+      <c r="F115" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G115" s="41" t="str">
+      <c r="G115" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20298,16 +20310,16 @@
       <c r="L115" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M115" s="38" t="s">
+      <c r="M115" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="N115" s="36">
+      <c r="N115" s="35">
         <v>86</v>
       </c>
       <c r="O115" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P115" s="36" t="s">
+      <c r="P115" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q115" s="6" t="s">
@@ -20392,7 +20404,7 @@
       <c r="AO115" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="AP115" s="34"/>
+      <c r="AP115" s="37"/>
       <c r="AQ115" s="5" t="s">
         <v>77</v>
       </c>
@@ -20408,15 +20420,15 @@
       <c r="BD115" s="1"/>
     </row>
     <row r="116" spans="1:56" ht="25.5">
-      <c r="A116" s="41" t="str">
+      <c r="A116" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B116" s="41" t="str">
+      <c r="B116" s="40" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C116" s="41">
+      <c r="C116" s="40">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20426,10 +20438,10 @@
       <c r="E116" s="10">
         <v>34470</v>
       </c>
-      <c r="F116" s="40" t="s">
+      <c r="F116" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G116" s="41" t="str">
+      <c r="G116" s="40" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20449,16 +20461,16 @@
       <c r="L116" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M116" s="38" t="s">
+      <c r="M116" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="N116" s="36">
+      <c r="N116" s="35">
         <v>90</v>
       </c>
       <c r="O116" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P116" s="36" t="s">
+      <c r="P116" s="35" t="s">
         <v>105</v>
       </c>
       <c r="Q116" s="6" t="s">
@@ -20543,7 +20555,7 @@
       <c r="AO116" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="AP116" s="34"/>
+      <c r="AP116" s="37"/>
       <c r="AQ116" s="5" t="s">
         <v>77</v>
       </c>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B276C8-4790-4835-BABB-44F9BB920B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFDEF60-5216-44C0-8389-8E671D447A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="764">
   <si>
     <t>Contact</t>
   </si>
@@ -2327,13 +2327,16 @@
     <t>3.942464</t>
   </si>
   <si>
-    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/3.jpg</t>
-  </si>
-  <si>
-    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/ANGOULEME%207%20-%20RC%20SEPHORA.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/ANGOULEME%207%20-%201er%20Etage%2053-55%20rue%20herg%C3%A9.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/ANGOULEME%207%20-%202e%20Etage%2053-55%20rue%20herg%C3%A9.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/ANGOULEME%207%20-%203e%20Etage%2053-55%20rue%20herg%C3%A9.jpg</t>
-  </si>
-  <si>
-    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/BLOIS%2090%20RUE%20DU%20COMMERCE%20plan%20Rez-de-chauss%C3%A9e.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/BLOIS%2090%20RUE%20DU%20COMMERCE%20plan%201er%20Etage.jpg</t>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/4%20ANGOULEME%207%20-%20RC%20SEPHORA.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/5%20ANGOULEME%207%20-%201er%20Etage%2053-55%20rue%20herg%C3%A9.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/6%20ANGOULEME%207%20-%202e%20Etage%2053-55%20rue%20herg%C3%A9.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/1%20-%20Angoul%C3%AAme/7%20ANGOULEME%207%20-%203e%20Etage%2053-55%20rue%20herg%C3%A9.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/4%20Plan%20RDC.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/2%20-%20Besan%C3%A7on/5%20Plan%20R-1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/5%20Plan%20RDC.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/3%20-%20Blois/6%20Plan%20R%2B1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/3%20Plan%20R-1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/4%20Plan%20RDC.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/5%20Plan%20R%2B1.jpg</t>
   </si>
 </sst>
 </file>
@@ -2576,16 +2579,6 @@
   </cellStyles>
   <dxfs count="46">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2615,6 +2608,16 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2997,12 +3000,12 @@
     <tableColumn id="40" xr3:uid="{5463AA4C-3D9C-45CF-B81C-A3755D028F2B}" name="Honoraires" dataDxfId="8" dataCellStyle="Normal 2"/>
     <tableColumn id="36" xr3:uid="{EBABBF90-FEC0-4C48-8EB4-A8DB85141CEF}" name="Latitude" dataDxfId="7" dataCellStyle="Normal 2"/>
     <tableColumn id="35" xr3:uid="{FDA62BB3-971D-4771-BFF4-42A78D749576}" name="Longitude" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="0" dataCellStyle="Normal 2"/>
-    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3329,10 +3332,10 @@
   <dimension ref="A1:BD125"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP5" sqref="AP5"/>
+      <selection pane="bottomRight" activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -3671,7 +3674,7 @@
         <v>340</v>
       </c>
       <c r="AP2" s="36" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AQ2" s="5" t="s">
         <v>77</v>
@@ -3825,7 +3828,7 @@
         <v>341</v>
       </c>
       <c r="AP3" s="36" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AQ3" s="5" t="s">
         <v>77</v>
@@ -4132,7 +4135,9 @@
       <c r="AO5" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="AP5" s="36"/>
+      <c r="AP5" s="36" t="s">
+        <v>763</v>
+      </c>
       <c r="AQ5" s="5" t="s">
         <v>77</v>
       </c>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFDEF60-5216-44C0-8389-8E671D447A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D9832C-D22E-4CC0-BCCE-52CF6C953E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="830">
   <si>
     <t>Contact</t>
   </si>
@@ -2337,6 +2337,204 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/3%20Plan%20R-1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/4%20Plan%20RDC.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/4%20-%20Exincourt/5%20Plan%20R%2B1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/5%20B1-B2%20-%20Division%202022%20-%20GO%20Cloison-Pr%C3%A9sentation%20AT%20(1)%20-%20La_Casa_de_la_Carcasas.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.2%20-%20H%C3%A9rouville-Saint-Clair/5%20B4%20-%205372-GLA-2019.07.12.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.3%20-%20H%C3%A9rouville-Saint-Clair/5%20B6%20-%205372%20-%20GLA-2017.12.04.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.4%20-%20H%C3%A9rouville-Saint-Clair/5%20B7%20-%205372-GLA-2019.07.12.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.5%20-%20H%C3%A9rouville-Saint-Clair/5%20B9%20-%205372-GLA-2019.07.12.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.6%20-%20H%C3%A9rouville-Saint-Clair/5%20B11%20(ex%20Cama%C3%AFeu)%20(nouveau%20B69)%20-%205372-GLA-2019.07.12.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.7%20-%20H%C3%A9rouville-Saint-Clair/5%20B12%20-%205372-GLA-2019.07.12.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.8%20-%20H%C3%A9rouville-Saint-Clair/5%20B14A%20-%205372-GLA-2019.07.12.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.9%20-%20H%C3%A9rouville-Saint-Clair/5%20B14B%20-%205372-GLA-2019.07.12.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.10%20-%20H%C3%A9rouville-Saint-Clair/5%20B21%20-%205372%20-%20GLA-2017.12.04.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.11%20-%20H%C3%A9rouville-Saint-Clair/5%20B23B%20-%205372%20-%20GLA-2017.12.04.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.12%20-%20H%C3%A9rouville-Saint-Clair/5%20B20%20-%205372%20-%20GLA-2017.12.04.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.1%20-%20H%C3%A9rouville-Saint-Clair/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/5.13%20-%20H%C3%A9rouville-Saint-Clair/5%20B24%20et%20B26A%20et%20B%20-%205372-GLA-2019.07.12.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.1%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.2%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.3%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.4%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.5%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.6%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.7%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.8%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.9%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.10%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.11%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.11%20-%20La%20M%C3%A9zi%C3%A8re/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.12%20-%20La%20M%C3%A9zi%C3%A8re/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/6.12%20-%20La%20M%C3%A9zi%C3%A8re/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/7.1%20-%20Le%20Mans/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/7.1%20-%20Le%20Mans/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/7.1%20-%20Le%20Mans/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/7.1%20-%20Le%20Mans/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/7.1%20-%20Le%20Mans/5%20Niveau%20inf%C3%A9rieur.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/7.1%20-%20Le%20Mans/6%20Niveau%20sup%C3%A9rieur.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/8%20-%20Lyon/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/8%20-%20Lyon/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/8%20-%20Lyon/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/8%20-%20Lyon/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.1%20-%20Maurepas/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.1%20-%20Maurepas/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.1%20-%20Maurepas/3%20Plan.PNG</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.1%20-%20Maurepas/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.2%20-%20Maurepas/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.2%20-%20Maurepas/3%20Plan.PNG</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.1%20-%20Maurepas/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.3%20-%20Maurepas/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.3%20-%20Maurepas/3%20Plan.PNG</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.1%20-%20Maurepas/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.4%20-%20Maurepas/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.4%20-%20Maurepas/3%20Plan.PNG</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.1%20-%20Maurepas/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.5%20-%20Maurepas/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.5%20-%20Maurepas/3%20Plan.PNG</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.1%20-%20Maurepas/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.6%20-%20Maurepas/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/9.6%20-%20Maurepas/3%20Plan.PNG</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/10.1%20-%20Metz/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/10.1%20-%20Metz/2%20Plan%20R-1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/10.1%20-%20Metz/3%20Plan%20RDC.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/10.2%20-%20Metz/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/10.2%20-%20Metz/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/10.2%20-%20Metz/3%20Plan%20R-1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/10.2%20-%20Metz/4%20Plan%20RDC.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/11%20-%20Paris/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/11%20-%20Paris/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/11%20-%20Paris/3%20Plan%20RDC.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/11%20-%20Paris/4%20Plan%20R%C3%A9serves%20d%C3%A9port%C3%A9es%20R%20-2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/12%20-%20Paris/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/12%20-%20Paris/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/12%20-%20Paris/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/12%20-%20Paris/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/12%20-%20Paris/5%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/14%20-%20Paris/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/14%20-%20Paris/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/14%20-%20Paris/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/14%20-%20Paris/4%20Plan%20R%20-1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/14%20-%20Paris/5%20Plan%20RDC.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/15%20-%20Paris/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/15%20-%20Paris/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/15%20-%20Paris/3%20Plan%20R-1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/15%20-%20Paris/4%20Plan%20RDC.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/16%20-%20Paris/1%20Immeuble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/16%20-%20Paris/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/16%20-%20Paris/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/16%20-%20Paris/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/16%20-%20Paris/5.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/16%20-%20Paris/6%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/17%20-%20Paris/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/18%20-%20Paris/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/18%20-%20Paris/2%20Plan%20R-1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/18%20-%20Paris/3%20Plan%20RDC.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/2%20Plan%20de%20quartier.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/2%20Plan%20de%20quartier.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.2%20-%20Boulogne-Billancourt/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/2%20Plan%20de%20quartier.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.3%20-%20Boulogne-Billancourt/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/2%20Plan%20de%20quartier.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.4%20-%20Boulogne-Billancourt/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/2%20Plan%20de%20quartier.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.5%20-%20Boulogne-Billancourt/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/2%20Plan%20de%20quartier.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.6%20-%20Boulogne-Billancourt/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/2%20Plan%20de%20quartier.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.7%20-%20Boulogne-Billancourt/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/2%20Plan%20de%20quartier.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.1%20-%20Boulogne-Billancourt/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/19.8%20-%20Boulogne-Billancourt/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/20.1%20-%20La%20Garenne-Colombes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/20.1%20-%20La%20Garenne-Colombes/2%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/20.1%20-%20La%20Garenne-Colombes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/20.2%20-%20La%20Garenne-Colombes/2%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/1%20Vu%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/2%20Plan%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/3%20Plan%20d'ensemble%20-%20Fusion%201%2B2%2B3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/4%20.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/5%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/1%20Vu%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/2%20Plan%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/3%20Plan%20d'ensemble%20-%20Fusion%201%2B2%2B3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.2%20-%20Ville-d'Avray/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.2%20-%20Ville-d'Avray/5%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/1%20Vu%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/2%20Plan%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/3%20Plan%20d'ensemble%20-%20Fusion%201%2B2%2B3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.3%20-%20Ville-d'Avray/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.3%20-%20Ville-d'Avray/5%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/1%20Vu%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/2%20Plan%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/3%20Plan%20d'ensemble%20-%20Fusion%204%2B5.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/4%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/5%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10%2B6.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/6.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/7%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/1%20Vu%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/2%20Plan%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/3%20Plan%20d'ensemble%20-%20Fusion%204%2B5.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/4%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/5%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10%2B6.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.5%20-%20Ville-d'Avray/6.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.5%20-%20Ville-d'Avray/7%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/1%20Vu%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/2%20Plan%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/3%20Plan%20d'ensemble%20-%20Fusion%204%2B5.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/4%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/5%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10%2B6.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.6%20-%20Ville-d'Avray/6.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.6%20-%20Ville-d'Avray/7%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/1%20Vu%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/2%20Plan%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/3%20Plan%20d'ensemble%20-%20Fusion%204%2B5.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/4%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/5%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10%2B6.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.7%20-%20Ville-d'Avray/6.jpghttps://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.7%20-%20Ville-d'Avray/7%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/1%20Vu%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.1%20-%20Ville-d'Avray/2%20Plan%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/3%20Plan%20d'ensemble%20-%20Fusion%204%2B5.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/4%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.4%20-%20Ville-d'Avray/5%20Plan%20d'ensemble%20-%20Fusion%204%2B5%2B10%2B6.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/22.8%20-%20Ville-d'Avray/6.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.1%20-%20Pontoise/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.1%20-%20Pontoise/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.1%20-%20Pontoise/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.1%20-%20Pontoise/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.1%20-%20Pontoise/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.2%20-%20Pontoise/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.2%20-%20Pontoise/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.2%20-%20Pontoise/4%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.1%20-%20Pontoise/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.3%20-%20Pontoise/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.3%20-%20Pontoise/3%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.1%20-%20Pontoise/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.4%20-%20Pontoise/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.4%20-%20Pontoise/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.4%20-%20Pontoise/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.4%20-%20Pontoise/5%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.1%20-%20Pontoise/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.5%20-%20Pontoise/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.5%20-%20Pontoise/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.5%20-%20Pontoise/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/23.5%20-%20Pontoise/5%20Plan.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/5%20Plan%20de%20commercialisation.jpg</t>
   </si>
 </sst>
 </file>
@@ -3332,10 +3530,10 @@
   <dimension ref="A1:BD125"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AM95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP6" sqref="AP6"/>
+      <selection pane="bottomRight" activeCell="AP103" sqref="AP103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -4289,7 +4487,9 @@
       <c r="AO6" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="AP6" s="36"/>
+      <c r="AP6" s="36" t="s">
+        <v>764</v>
+      </c>
       <c r="AQ6" s="5" t="s">
         <v>77</v>
       </c>
@@ -4441,7 +4641,9 @@
       <c r="AO7" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="AP7" s="37"/>
+      <c r="AP7" s="36" t="s">
+        <v>765</v>
+      </c>
       <c r="AQ7" s="5" t="s">
         <v>77</v>
       </c>
@@ -4593,7 +4795,9 @@
       <c r="AO8" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AP8" s="37"/>
+      <c r="AP8" s="36" t="s">
+        <v>766</v>
+      </c>
       <c r="AQ8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4745,7 +4949,9 @@
       <c r="AO9" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="AP9" s="37"/>
+      <c r="AP9" s="36" t="s">
+        <v>767</v>
+      </c>
       <c r="AQ9" s="5" t="s">
         <v>77</v>
       </c>
@@ -4897,7 +5103,9 @@
       <c r="AO10" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="AP10" s="37"/>
+      <c r="AP10" s="36" t="s">
+        <v>768</v>
+      </c>
       <c r="AQ10" s="5" t="s">
         <v>77</v>
       </c>
@@ -5049,7 +5257,9 @@
       <c r="AO11" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="AP11" s="37"/>
+      <c r="AP11" s="36" t="s">
+        <v>769</v>
+      </c>
       <c r="AQ11" s="5" t="s">
         <v>77</v>
       </c>
@@ -5201,7 +5411,9 @@
       <c r="AO12" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="AP12" s="37"/>
+      <c r="AP12" s="36" t="s">
+        <v>770</v>
+      </c>
       <c r="AQ12" s="5" t="s">
         <v>77</v>
       </c>
@@ -5353,7 +5565,9 @@
       <c r="AO13" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="AP13" s="37"/>
+      <c r="AP13" s="36" t="s">
+        <v>771</v>
+      </c>
       <c r="AQ13" s="5" t="s">
         <v>77</v>
       </c>
@@ -5505,7 +5719,9 @@
       <c r="AO14" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="AP14" s="37"/>
+      <c r="AP14" s="36" t="s">
+        <v>772</v>
+      </c>
       <c r="AQ14" s="5" t="s">
         <v>77</v>
       </c>
@@ -5657,7 +5873,9 @@
       <c r="AO15" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="AP15" s="37"/>
+      <c r="AP15" s="36" t="s">
+        <v>773</v>
+      </c>
       <c r="AQ15" s="5" t="s">
         <v>77</v>
       </c>
@@ -5809,7 +6027,9 @@
       <c r="AO16" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="AP16" s="37"/>
+      <c r="AP16" s="36" t="s">
+        <v>774</v>
+      </c>
       <c r="AQ16" s="5" t="s">
         <v>77</v>
       </c>
@@ -5961,7 +6181,9 @@
       <c r="AO17" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="AP17" s="37"/>
+      <c r="AP17" s="36" t="s">
+        <v>775</v>
+      </c>
       <c r="AQ17" s="5" t="s">
         <v>77</v>
       </c>
@@ -6113,7 +6335,9 @@
       <c r="AO18" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="AP18" s="37"/>
+      <c r="AP18" s="36" t="s">
+        <v>776</v>
+      </c>
       <c r="AQ18" s="5" t="s">
         <v>77</v>
       </c>
@@ -6265,7 +6489,9 @@
       <c r="AO19" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="AP19" s="36"/>
+      <c r="AP19" s="36" t="s">
+        <v>777</v>
+      </c>
       <c r="AQ19" s="5" t="s">
         <v>77</v>
       </c>
@@ -6417,7 +6643,9 @@
       <c r="AO20" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="AP20" s="37"/>
+      <c r="AP20" s="37" t="s">
+        <v>778</v>
+      </c>
       <c r="AQ20" s="5" t="s">
         <v>77</v>
       </c>
@@ -6569,7 +6797,9 @@
       <c r="AO21" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="AP21" s="37"/>
+      <c r="AP21" s="37" t="s">
+        <v>779</v>
+      </c>
       <c r="AQ21" s="5" t="s">
         <v>77</v>
       </c>
@@ -6721,7 +6951,9 @@
       <c r="AO22" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="AP22" s="37"/>
+      <c r="AP22" s="37" t="s">
+        <v>780</v>
+      </c>
       <c r="AQ22" s="5" t="s">
         <v>77</v>
       </c>
@@ -6873,7 +7105,9 @@
       <c r="AO23" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="AP23" s="37"/>
+      <c r="AP23" s="37" t="s">
+        <v>781</v>
+      </c>
       <c r="AQ23" s="5" t="s">
         <v>77</v>
       </c>
@@ -7025,7 +7259,9 @@
       <c r="AO24" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="AP24" s="37"/>
+      <c r="AP24" s="37" t="s">
+        <v>782</v>
+      </c>
       <c r="AQ24" s="5" t="s">
         <v>77</v>
       </c>
@@ -7177,7 +7413,9 @@
       <c r="AO25" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="AP25" s="37"/>
+      <c r="AP25" s="37" t="s">
+        <v>783</v>
+      </c>
       <c r="AQ25" s="5" t="s">
         <v>77</v>
       </c>
@@ -7329,7 +7567,9 @@
       <c r="AO26" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="AP26" s="37"/>
+      <c r="AP26" s="37" t="s">
+        <v>784</v>
+      </c>
       <c r="AQ26" s="5" t="s">
         <v>77</v>
       </c>
@@ -7481,7 +7721,9 @@
       <c r="AO27" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="AP27" s="37"/>
+      <c r="AP27" s="37" t="s">
+        <v>785</v>
+      </c>
       <c r="AQ27" s="5" t="s">
         <v>77</v>
       </c>
@@ -7633,7 +7875,9 @@
       <c r="AO28" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="AP28" s="37"/>
+      <c r="AP28" s="37" t="s">
+        <v>786</v>
+      </c>
       <c r="AQ28" s="5" t="s">
         <v>77</v>
       </c>
@@ -7785,7 +8029,9 @@
       <c r="AO29" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="AP29" s="37"/>
+      <c r="AP29" s="37" t="s">
+        <v>787</v>
+      </c>
       <c r="AQ29" s="5" t="s">
         <v>77</v>
       </c>
@@ -7937,7 +8183,9 @@
       <c r="AO30" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="AP30" s="37"/>
+      <c r="AP30" s="37" t="s">
+        <v>788</v>
+      </c>
       <c r="AQ30" s="5" t="s">
         <v>77</v>
       </c>
@@ -8089,7 +8337,9 @@
       <c r="AO31" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="AP31" s="36"/>
+      <c r="AP31" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ31" s="5" t="s">
         <v>77</v>
       </c>
@@ -8239,7 +8489,9 @@
       <c r="AO32" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="AP32" s="37"/>
+      <c r="AP32" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ32" s="5" t="s">
         <v>77</v>
       </c>
@@ -8391,7 +8643,9 @@
       <c r="AO33" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="AP33" s="37"/>
+      <c r="AP33" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ33" s="5" t="s">
         <v>77</v>
       </c>
@@ -8543,7 +8797,9 @@
       <c r="AO34" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="AP34" s="37"/>
+      <c r="AP34" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ34" s="5" t="s">
         <v>77</v>
       </c>
@@ -8695,7 +8951,9 @@
       <c r="AO35" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="AP35" s="37"/>
+      <c r="AP35" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ35" s="5" t="s">
         <v>77</v>
       </c>
@@ -8847,7 +9105,9 @@
       <c r="AO36" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="AP36" s="37"/>
+      <c r="AP36" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ36" s="5" t="s">
         <v>77</v>
       </c>
@@ -8999,7 +9259,9 @@
       <c r="AO37" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="AP37" s="37"/>
+      <c r="AP37" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ37" s="5" t="s">
         <v>77</v>
       </c>
@@ -9151,7 +9413,9 @@
       <c r="AO38" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="AP38" s="37"/>
+      <c r="AP38" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ38" s="5" t="s">
         <v>77</v>
       </c>
@@ -9303,7 +9567,9 @@
       <c r="AO39" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="AP39" s="37"/>
+      <c r="AP39" s="36" t="s">
+        <v>789</v>
+      </c>
       <c r="AQ39" s="5" t="s">
         <v>77</v>
       </c>
@@ -9455,7 +9721,9 @@
       <c r="AO40" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="AP40" s="36"/>
+      <c r="AP40" s="36" t="s">
+        <v>790</v>
+      </c>
       <c r="AQ40" s="5" t="s">
         <v>77</v>
       </c>
@@ -9607,7 +9875,9 @@
       <c r="AO41" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="AP41" s="36"/>
+      <c r="AP41" s="36" t="s">
+        <v>791</v>
+      </c>
       <c r="AQ41" s="5" t="s">
         <v>77</v>
       </c>
@@ -9755,7 +10025,9 @@
       <c r="AO42" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="AP42" s="37"/>
+      <c r="AP42" s="36" t="s">
+        <v>792</v>
+      </c>
       <c r="AQ42" s="5" t="s">
         <v>77</v>
       </c>
@@ -9903,7 +10175,9 @@
       <c r="AO43" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="AP43" s="37"/>
+      <c r="AP43" s="36" t="s">
+        <v>793</v>
+      </c>
       <c r="AQ43" s="5" t="s">
         <v>77</v>
       </c>
@@ -10051,7 +10325,9 @@
       <c r="AO44" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="AP44" s="37"/>
+      <c r="AP44" s="36" t="s">
+        <v>794</v>
+      </c>
       <c r="AQ44" s="5" t="s">
         <v>77</v>
       </c>
@@ -10203,7 +10479,9 @@
       <c r="AO45" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="AP45" s="37"/>
+      <c r="AP45" s="36" t="s">
+        <v>795</v>
+      </c>
       <c r="AQ45" s="5" t="s">
         <v>77</v>
       </c>
@@ -10355,7 +10633,9 @@
       <c r="AO46" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="AP46" s="37"/>
+      <c r="AP46" s="36" t="s">
+        <v>796</v>
+      </c>
       <c r="AQ46" s="11" t="s">
         <v>54</v>
       </c>
@@ -10507,7 +10787,9 @@
       <c r="AO47" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="AP47" s="36"/>
+      <c r="AP47" s="36" t="s">
+        <v>797</v>
+      </c>
       <c r="AQ47" s="5" t="s">
         <v>77</v>
       </c>
@@ -10659,7 +10941,9 @@
       <c r="AO48" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="AP48" s="36"/>
+      <c r="AP48" s="36" t="s">
+        <v>798</v>
+      </c>
       <c r="AQ48" s="5" t="s">
         <v>77</v>
       </c>
@@ -10811,7 +11095,9 @@
       <c r="AO49" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="AP49" s="36"/>
+      <c r="AP49" s="36" t="s">
+        <v>799</v>
+      </c>
       <c r="AQ49" s="5" t="s">
         <v>77</v>
       </c>
@@ -10960,7 +11246,9 @@
       <c r="AO50" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="AP50" s="36"/>
+      <c r="AP50" s="36" t="s">
+        <v>800</v>
+      </c>
       <c r="AQ50" s="5" t="s">
         <v>77</v>
       </c>
@@ -11264,7 +11552,9 @@
       <c r="AO52" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="AP52" s="36"/>
+      <c r="AP52" s="36" t="s">
+        <v>801</v>
+      </c>
       <c r="AQ52" s="5" t="s">
         <v>77</v>
       </c>
@@ -11416,7 +11706,9 @@
       <c r="AO53" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="AP53" s="36"/>
+      <c r="AP53" s="36" t="s">
+        <v>802</v>
+      </c>
       <c r="AQ53" s="5" t="s">
         <v>77</v>
       </c>
@@ -11568,7 +11860,9 @@
       <c r="AO54" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="AP54" s="36"/>
+      <c r="AP54" s="36" t="s">
+        <v>803</v>
+      </c>
       <c r="AQ54" s="5" t="s">
         <v>77</v>
       </c>
@@ -11720,7 +12014,9 @@
       <c r="AO55" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="AP55" s="36"/>
+      <c r="AP55" s="36" t="s">
+        <v>804</v>
+      </c>
       <c r="AQ55" s="5" t="s">
         <v>77</v>
       </c>
@@ -11872,7 +12168,9 @@
       <c r="AO56" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="AP56" s="36"/>
+      <c r="AP56" s="36" t="s">
+        <v>805</v>
+      </c>
       <c r="AQ56" s="5" t="s">
         <v>77</v>
       </c>
@@ -12024,7 +12322,9 @@
       <c r="AO57" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="AP57" s="36"/>
+      <c r="AP57" s="36" t="s">
+        <v>806</v>
+      </c>
       <c r="AQ57" s="5" t="s">
         <v>77</v>
       </c>
@@ -12170,7 +12470,9 @@
       <c r="AO58" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="AP58" s="37"/>
+      <c r="AP58" s="36" t="s">
+        <v>807</v>
+      </c>
       <c r="AQ58" s="5" t="s">
         <v>77</v>
       </c>
@@ -12316,7 +12618,9 @@
       <c r="AO59" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="AP59" s="37"/>
+      <c r="AP59" s="36" t="s">
+        <v>808</v>
+      </c>
       <c r="AQ59" s="5" t="s">
         <v>77</v>
       </c>
@@ -12462,7 +12766,9 @@
       <c r="AO60" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="AP60" s="37"/>
+      <c r="AP60" s="36" t="s">
+        <v>809</v>
+      </c>
       <c r="AQ60" s="5" t="s">
         <v>77</v>
       </c>
@@ -12608,7 +12914,9 @@
       <c r="AO61" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="AP61" s="37"/>
+      <c r="AP61" s="36" t="s">
+        <v>810</v>
+      </c>
       <c r="AQ61" s="5" t="s">
         <v>77</v>
       </c>
@@ -12754,7 +13062,9 @@
       <c r="AO62" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="AP62" s="37"/>
+      <c r="AP62" s="36" t="s">
+        <v>811</v>
+      </c>
       <c r="AQ62" s="5" t="s">
         <v>77</v>
       </c>
@@ -12900,7 +13210,9 @@
       <c r="AO63" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="AP63" s="37"/>
+      <c r="AP63" s="36" t="s">
+        <v>812</v>
+      </c>
       <c r="AQ63" s="5" t="s">
         <v>77</v>
       </c>
@@ -13046,7 +13358,9 @@
       <c r="AO64" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="AP64" s="37"/>
+      <c r="AP64" s="36" t="s">
+        <v>813</v>
+      </c>
       <c r="AQ64" s="5" t="s">
         <v>77</v>
       </c>
@@ -13198,7 +13512,9 @@
       <c r="AO65" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="AP65" s="36"/>
+      <c r="AP65" s="36" t="s">
+        <v>814</v>
+      </c>
       <c r="AQ65" s="5" t="s">
         <v>77</v>
       </c>
@@ -13344,7 +13660,9 @@
       <c r="AO66" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="AP66" s="37"/>
+      <c r="AP66" s="37" t="s">
+        <v>815</v>
+      </c>
       <c r="AQ66" s="5" t="s">
         <v>77</v>
       </c>
@@ -16640,7 +16958,9 @@
       <c r="AO90" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="AP90" s="36"/>
+      <c r="AP90" s="36" t="s">
+        <v>816</v>
+      </c>
       <c r="AQ90" s="5" t="s">
         <v>77</v>
       </c>
@@ -16792,7 +17112,9 @@
       <c r="AO91" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="AP91" s="37"/>
+      <c r="AP91" s="36" t="s">
+        <v>817</v>
+      </c>
       <c r="AQ91" s="5" t="s">
         <v>77</v>
       </c>
@@ -16944,7 +17266,9 @@
       <c r="AO92" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="AP92" s="37"/>
+      <c r="AP92" s="36" t="s">
+        <v>818</v>
+      </c>
       <c r="AQ92" s="5" t="s">
         <v>77</v>
       </c>
@@ -17096,7 +17420,9 @@
       <c r="AO93" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="AP93" s="37"/>
+      <c r="AP93" s="37" t="s">
+        <v>819</v>
+      </c>
       <c r="AQ93" s="5" t="s">
         <v>77</v>
       </c>
@@ -17248,7 +17574,9 @@
       <c r="AO94" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="AP94" s="37"/>
+      <c r="AP94" s="37" t="s">
+        <v>820</v>
+      </c>
       <c r="AQ94" s="5" t="s">
         <v>77</v>
       </c>
@@ -17400,7 +17728,9 @@
       <c r="AO95" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="AP95" s="37"/>
+      <c r="AP95" s="37" t="s">
+        <v>821</v>
+      </c>
       <c r="AQ95" s="5" t="s">
         <v>77</v>
       </c>
@@ -17552,7 +17882,9 @@
       <c r="AO96" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="AP96" s="37"/>
+      <c r="AP96" s="37" t="s">
+        <v>822</v>
+      </c>
       <c r="AQ96" s="5" t="s">
         <v>77</v>
       </c>
@@ -17704,7 +18036,9 @@
       <c r="AO97" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="AP97" s="37"/>
+      <c r="AP97" s="37" t="s">
+        <v>823</v>
+      </c>
       <c r="AQ97" s="5" t="s">
         <v>77</v>
       </c>
@@ -17856,7 +18190,9 @@
       <c r="AO98" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="AP98" s="36"/>
+      <c r="AP98" s="36" t="s">
+        <v>824</v>
+      </c>
       <c r="AQ98" s="5" t="s">
         <v>77</v>
       </c>
@@ -18008,7 +18344,9 @@
       <c r="AO99" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="AP99" s="37"/>
+      <c r="AP99" s="36" t="s">
+        <v>825</v>
+      </c>
       <c r="AQ99" s="5" t="s">
         <v>77</v>
       </c>
@@ -18160,7 +18498,9 @@
       <c r="AO100" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="AP100" s="37"/>
+      <c r="AP100" s="36" t="s">
+        <v>826</v>
+      </c>
       <c r="AQ100" s="5" t="s">
         <v>77</v>
       </c>
@@ -18312,7 +18652,9 @@
       <c r="AO101" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="AP101" s="37"/>
+      <c r="AP101" s="36" t="s">
+        <v>827</v>
+      </c>
       <c r="AQ101" s="5" t="s">
         <v>77</v>
       </c>
@@ -18464,7 +18806,9 @@
       <c r="AO102" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="AP102" s="37"/>
+      <c r="AP102" s="36" t="s">
+        <v>828</v>
+      </c>
       <c r="AQ102" s="5" t="s">
         <v>77</v>
       </c>
@@ -18616,7 +18960,9 @@
       <c r="AO103" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="AP103" s="36"/>
+      <c r="AP103" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ103" s="5" t="s">
         <v>77</v>
       </c>
@@ -18768,7 +19114,9 @@
       <c r="AO104" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="AP104" s="37"/>
+      <c r="AP104" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ104" s="5" t="s">
         <v>77</v>
       </c>
@@ -18922,7 +19270,9 @@
       <c r="AO105" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="AP105" s="37"/>
+      <c r="AP105" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ105" s="5" t="s">
         <v>77</v>
       </c>
@@ -19068,7 +19418,9 @@
       <c r="AO106" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="AP106" s="37"/>
+      <c r="AP106" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ106" s="5" t="s">
         <v>77</v>
       </c>
@@ -19216,7 +19568,9 @@
       <c r="AO107" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="AP107" s="37"/>
+      <c r="AP107" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ107" s="5" t="s">
         <v>77</v>
       </c>
@@ -19364,7 +19718,9 @@
       <c r="AO108" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="AP108" s="37"/>
+      <c r="AP108" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ108" s="5" t="s">
         <v>77</v>
       </c>
@@ -19512,7 +19868,9 @@
       <c r="AO109" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="AP109" s="37"/>
+      <c r="AP109" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ109" s="5" t="s">
         <v>77</v>
       </c>
@@ -19660,7 +20018,9 @@
       <c r="AO110" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="AP110" s="37"/>
+      <c r="AP110" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ110" s="5" t="s">
         <v>77</v>
       </c>
@@ -19808,7 +20168,9 @@
       <c r="AO111" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="AP111" s="37"/>
+      <c r="AP111" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ111" s="5" t="s">
         <v>77</v>
       </c>
@@ -19956,7 +20318,9 @@
       <c r="AO112" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="AP112" s="37"/>
+      <c r="AP112" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ112" s="5" t="s">
         <v>77</v>
       </c>
@@ -20107,7 +20471,9 @@
       <c r="AO113" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="AP113" s="37"/>
+      <c r="AP113" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ113" s="5" t="s">
         <v>77</v>
       </c>
@@ -20258,7 +20624,9 @@
       <c r="AO114" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="AP114" s="37"/>
+      <c r="AP114" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ114" s="5" t="s">
         <v>77</v>
       </c>
@@ -20409,7 +20777,9 @@
       <c r="AO115" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="AP115" s="37"/>
+      <c r="AP115" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ115" s="5" t="s">
         <v>77</v>
       </c>
@@ -20560,7 +20930,9 @@
       <c r="AO116" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="AP116" s="37"/>
+      <c r="AP116" s="36" t="s">
+        <v>829</v>
+      </c>
       <c r="AQ116" s="5" t="s">
         <v>77</v>
       </c>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D9832C-D22E-4CC0-BCCE-52CF6C953E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A451158F-AA51-4787-AA62-5D49CDA575EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="875">
   <si>
     <t>Contact</t>
   </si>
@@ -893,12 +893,6 @@
     <t>https://maps.app.goo.gl/bRUcnSM5Cuttscrc9</t>
   </si>
   <si>
-    <t>48.763870265771125</t>
-  </si>
-  <si>
-    <t>2.2883596355824607</t>
-  </si>
-  <si>
     <t>https://maps.app.goo.gl/yRNFdK1p6sWPThzm8</t>
   </si>
   <si>
@@ -1073,15 +1067,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>A1.2.1</t>
-  </si>
-  <si>
-    <t>A1.2.2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>P2 Com.1</t>
   </si>
   <si>
@@ -1400,9 +1385,6 @@
     <t>Fnac, Natures et Découvertes, C&amp;A, Sostrene Grene, Nocibé, Devred, Micormania, Franck Provost, Moa, Adopt</t>
   </si>
   <si>
-    <t>Restaurants, Optical Centre, Emjo, Gifi, Basic Fit, Carrefour Market, Lidl, coiffeur</t>
-  </si>
-  <si>
     <t>Charges annuelles</t>
   </si>
   <si>
@@ -2535,6 +2517,159 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/24.1%20-%20P%C3%A9rols/5%20Plan%20de%20commercialisation.jpg</t>
+  </si>
+  <si>
+    <t>48.764732</t>
+  </si>
+  <si>
+    <t>2.287726</t>
+  </si>
+  <si>
+    <t>48.763380</t>
+  </si>
+  <si>
+    <t>2.288689</t>
+  </si>
+  <si>
+    <t>48.763102</t>
+  </si>
+  <si>
+    <t>2.288906</t>
+  </si>
+  <si>
+    <t>48.762966</t>
+  </si>
+  <si>
+    <t>2.289037</t>
+  </si>
+  <si>
+    <t>48.762637</t>
+  </si>
+  <si>
+    <t>2.289306</t>
+  </si>
+  <si>
+    <t>48.762503</t>
+  </si>
+  <si>
+    <t>2.289424</t>
+  </si>
+  <si>
+    <t>48.762446</t>
+  </si>
+  <si>
+    <t>2.289491</t>
+  </si>
+  <si>
+    <t>48.762275</t>
+  </si>
+  <si>
+    <t>2.289619</t>
+  </si>
+  <si>
+    <t>48.763811</t>
+  </si>
+  <si>
+    <t>2.289622</t>
+  </si>
+  <si>
+    <t>48.763848</t>
+  </si>
+  <si>
+    <t>2.289904</t>
+  </si>
+  <si>
+    <t>48.763871</t>
+  </si>
+  <si>
+    <t>2.290067</t>
+  </si>
+  <si>
+    <t>48.763898</t>
+  </si>
+  <si>
+    <t>2.290236</t>
+  </si>
+  <si>
+    <t>48.762632</t>
+  </si>
+  <si>
+    <t>2.288876</t>
+  </si>
+  <si>
+    <t>48.762872</t>
+  </si>
+  <si>
+    <t>2.287981</t>
+  </si>
+  <si>
+    <t>48.762731</t>
+  </si>
+  <si>
+    <t>2.288117</t>
+  </si>
+  <si>
+    <t>48.762201</t>
+  </si>
+  <si>
+    <t>2.289236</t>
+  </si>
+  <si>
+    <t>48.761981</t>
+  </si>
+  <si>
+    <t>2.289442</t>
+  </si>
+  <si>
+    <t>48.761762</t>
+  </si>
+  <si>
+    <t>2.289501</t>
+  </si>
+  <si>
+    <t>48.761767</t>
+  </si>
+  <si>
+    <t>2.289147</t>
+  </si>
+  <si>
+    <t>G2 - A</t>
+  </si>
+  <si>
+    <t>G2 - B</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>48.764103</t>
+  </si>
+  <si>
+    <t>2.288061</t>
+  </si>
+  <si>
+    <t>48.764022</t>
+  </si>
+  <si>
+    <t>2.288136</t>
+  </si>
+  <si>
+    <t>48.763691</t>
+  </si>
+  <si>
+    <t>2.288439</t>
+  </si>
+  <si>
+    <t>48.763755</t>
+  </si>
+  <si>
+    <t>2.289204</t>
+  </si>
+  <si>
+    <t>Basic Fit, Gifi, Lidl, Carrefour Market, Optical Center, Emjo, Perene, restaurants, coiffeur, centre de santé</t>
   </si>
 </sst>
 </file>
@@ -2623,7 +2758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2633,12 +2768,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8E8E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2658,7 +2787,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2762,9 +2891,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2776,6 +2902,34 @@
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3055,34 +3209,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3148,62 +3274,62 @@
       <calculatedColumnFormula>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{807881FC-FCFC-4E58-94E6-974968140DE0}" name="Rue" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="24" xr3:uid="{5BC55846-88AA-4EB3-AA6F-8E4CFB785641}" name="Code Postal" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="17" xr3:uid="{35EE7115-51F8-4E1F-AD3E-33A05B4BE6AA}" name="Ville" dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="34" xr3:uid="{BCDF1767-53B8-4755-BA69-6972BF82336C}" name="Adresse" dataDxfId="39" dataCellStyle="Normal 2">
+    <tableColumn id="24" xr3:uid="{5BC55846-88AA-4EB3-AA6F-8E4CFB785641}" name="Code Postal" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="17" xr3:uid="{35EE7115-51F8-4E1F-AD3E-33A05B4BE6AA}" name="Ville" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="34" xr3:uid="{BCDF1767-53B8-4755-BA69-6972BF82336C}" name="Adresse" dataDxfId="1" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Rue]]&amp;Tableau1[[#This Row],[Code Postal]]&amp;Tableau1[[#This Row],[Ville]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F16F96D2-ED03-45AB-90ED-8D480A7B0261}" name="Lien Google Maps" dataDxfId="38" dataCellStyle="Normal 2">
+    <tableColumn id="18" xr3:uid="{F16F96D2-ED03-45AB-90ED-8D480A7B0261}" name="Lien Google Maps" dataDxfId="41" dataCellStyle="Normal 2">
       <calculatedColumnFormula array="1">Extrait_hyperlien(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{172E07C4-0318-49AC-A621-9C0E3C5C5B5D}" name="Emplacement" dataDxfId="37" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{95EAECC7-A016-42C4-9C47-2CABFEAEC577}" name="Typologie" dataDxfId="36" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{8C8D77C7-8B55-471A-B479-215BC0D77604}" name="Type" dataDxfId="35" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{87D84239-5323-4A47-9424-F0CADB050723}" name="Cession / Droit au bail" dataDxfId="34" dataCellStyle="Normal 2"/>
-    <tableColumn id="31" xr3:uid="{86770348-6586-45F2-A401-94B68504976F}" name="Numéro de lot" dataDxfId="33" dataCellStyle="Normal 2"/>
-    <tableColumn id="1" xr3:uid="{3888DEAC-D743-4A06-B622-0805DADF7B24}" name="Surface GLA" dataDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{0D61162C-F920-419C-993E-EDC2DF105B61}" name="Répartition surface GLA" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{9969DD5B-5EA2-4595-B887-2E9B21053A55}" name="Surface utile" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{3DFB9473-7064-409A-A47B-5544538EC4AE}" name="Répartition surface utile" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{A744513A-B9BE-426C-9A67-F73FDBDA82D8}" name="Loyer annuel" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{356A37C1-BF3E-4357-A954-82A182007A4A}" name="Loyer Mensuel" dataDxfId="27" dataCellStyle="Normal 2">
+    <tableColumn id="15" xr3:uid="{172E07C4-0318-49AC-A621-9C0E3C5C5B5D}" name="Emplacement" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{95EAECC7-A016-42C4-9C47-2CABFEAEC577}" name="Typologie" dataDxfId="39" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8C8D77C7-8B55-471A-B479-215BC0D77604}" name="Type" dataDxfId="38" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{87D84239-5323-4A47-9424-F0CADB050723}" name="Cession / Droit au bail" dataDxfId="37" dataCellStyle="Normal 2"/>
+    <tableColumn id="31" xr3:uid="{86770348-6586-45F2-A401-94B68504976F}" name="Numéro de lot" dataDxfId="36" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{3888DEAC-D743-4A06-B622-0805DADF7B24}" name="Surface GLA" dataDxfId="35" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{0D61162C-F920-419C-993E-EDC2DF105B61}" name="Répartition surface GLA" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{9969DD5B-5EA2-4595-B887-2E9B21053A55}" name="Surface utile" dataDxfId="33" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{3DFB9473-7064-409A-A47B-5544538EC4AE}" name="Répartition surface utile" dataDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{A744513A-B9BE-426C-9A67-F73FDBDA82D8}" name="Loyer annuel" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{356A37C1-BF3E-4357-A954-82A182007A4A}" name="Loyer Mensuel" dataDxfId="30" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{767012B1-AABD-475A-8A4D-3B7DA0A65895}" name="Loyer €/m²" dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="30" xr3:uid="{1B20B1A4-ACFD-45E3-955E-514E88115368}" name="Loyer variable" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{2A7DA589-64F1-4CF6-8C82-38781BD9EC1D}" name="Charges annuelles" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{440DF5B1-3CC3-4785-9C23-94B007AF5E1B}" name="Charges Mensuelles" dataDxfId="23" dataCellStyle="Normal 2">
+    <tableColumn id="11" xr3:uid="{767012B1-AABD-475A-8A4D-3B7DA0A65895}" name="Loyer €/m²" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="30" xr3:uid="{1B20B1A4-ACFD-45E3-955E-514E88115368}" name="Loyer variable" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{2A7DA589-64F1-4CF6-8C82-38781BD9EC1D}" name="Charges annuelles" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{440DF5B1-3CC3-4785-9C23-94B007AF5E1B}" name="Charges Mensuelles" dataDxfId="26" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Charges annuelles]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4129B281-2FE2-4CF1-9B2A-1383495B75F8}" name="Charges €/m²" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="23" xr3:uid="{8D958AF5-4590-4B2C-91C7-84AA83299F72}" name="Taxe foncière" dataDxfId="21" dataCellStyle="Normal 2">
+    <tableColumn id="19" xr3:uid="{4129B281-2FE2-4CF1-9B2A-1383495B75F8}" name="Charges €/m²" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="23" xr3:uid="{8D958AF5-4590-4B2C-91C7-84AA83299F72}" name="Taxe foncière" dataDxfId="24" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{3ED0377F-0AC3-483C-A382-DCE0304838BB}" name="Taxe foncière €/m²" dataDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="37" xr3:uid="{DCF6EDF6-4C11-48C1-B6A2-F68E6553ECAE}" name="Marketing" dataDxfId="19" dataCellStyle="Normal 2">
+    <tableColumn id="25" xr3:uid="{3ED0377F-0AC3-483C-A382-DCE0304838BB}" name="Taxe foncière €/m²" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="37" xr3:uid="{DCF6EDF6-4C11-48C1-B6A2-F68E6553ECAE}" name="Marketing" dataDxfId="22" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{0670F3CF-44F2-4728-8A06-52C034D6BD30}" name="Marketing €/m²" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="39" xr3:uid="{5F4F5D62-4EE8-4561-AFC9-FBA26AD0FEB9}" name="Total (L+C+M)" dataDxfId="17" dataCellStyle="Normal 2">
+    <tableColumn id="26" xr3:uid="{0670F3CF-44F2-4728-8A06-52C034D6BD30}" name="Marketing €/m²" dataDxfId="21" dataCellStyle="Normal 2"/>
+    <tableColumn id="39" xr3:uid="{5F4F5D62-4EE8-4561-AFC9-FBA26AD0FEB9}" name="Total (L+C+M)" dataDxfId="20" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{95C0AA56-6C81-4449-BBAF-48D6559B29F4}" name="Dépôt de garantie" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="33" xr3:uid="{5D2CDDBF-0016-4D42-9FA2-C6BE7187A781}" name="GAPD" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="27" xr3:uid="{AE6532DB-DF7C-4137-958E-CF0878BAF4EA}" name="Gestion" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="29" xr3:uid="{C7D740EB-05A5-4C80-B626-4AE327C99B0E}" name="Etat de livraison" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{F202F9CF-E361-49F7-BCB2-41601DB0A090}" name="Extraction" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="38" xr3:uid="{1E22D9C1-89FA-49FF-9893-8AC79191E4A6}" name="Restauration" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="28" xr3:uid="{BF030FEC-E7AF-42C6-AC39-B670759A4BC7}" name="Environnement Commercial" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{D3CC4D5A-911C-4939-9024-731260442272}" name="Commentaires" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="40" xr3:uid="{5463AA4C-3D9C-45CF-B81C-A3755D028F2B}" name="Honoraires" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="36" xr3:uid="{EBABBF90-FEC0-4C48-8EB4-A8DB85141CEF}" name="Latitude" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="35" xr3:uid="{FDA62BB3-971D-4771-BFF4-42A78D749576}" name="Longitude" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="32" xr3:uid="{95C0AA56-6C81-4449-BBAF-48D6559B29F4}" name="Dépôt de garantie" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="33" xr3:uid="{5D2CDDBF-0016-4D42-9FA2-C6BE7187A781}" name="GAPD" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="27" xr3:uid="{AE6532DB-DF7C-4137-958E-CF0878BAF4EA}" name="Gestion" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="29" xr3:uid="{C7D740EB-05A5-4C80-B626-4AE327C99B0E}" name="Etat de livraison" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{F202F9CF-E361-49F7-BCB2-41601DB0A090}" name="Extraction" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="38" xr3:uid="{1E22D9C1-89FA-49FF-9893-8AC79191E4A6}" name="Restauration" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="28" xr3:uid="{BF030FEC-E7AF-42C6-AC39-B670759A4BC7}" name="Environnement Commercial" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{D3CC4D5A-911C-4939-9024-731260442272}" name="Commentaires" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="40" xr3:uid="{5463AA4C-3D9C-45CF-B81C-A3755D028F2B}" name="Honoraires" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="36" xr3:uid="{EBABBF90-FEC0-4C48-8EB4-A8DB85141CEF}" name="Latitude" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="35" xr3:uid="{FDA62BB3-971D-4771-BFF4-42A78D749576}" name="Longitude" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="3" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3530,10 +3656,10 @@
   <dimension ref="A1:BD125"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AM95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AL98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP103" sqref="AP103"/>
+      <selection pane="bottomRight" activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -3629,7 +3755,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>19</v>
@@ -3656,7 +3782,7 @@
         <v>103</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>8</v>
@@ -3668,16 +3794,16 @@
         <v>81</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>106</v>
@@ -3704,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>108</v>
@@ -3754,7 +3880,7 @@
       <c r="E2" s="26">
         <v>16000</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="5" t="str">
@@ -3845,34 +3971,34 @@
         <v>105</v>
       </c>
       <c r="AG2" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM2" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AO2" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AP2" s="36" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="AQ2" s="5" t="s">
         <v>77</v>
@@ -3908,7 +4034,7 @@
       <c r="E3" s="26">
         <v>25000</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="5" t="str">
@@ -3999,22 +4125,22 @@
         <v>105</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM3" s="5">
         <v>47.238161699999999</v>
@@ -4023,10 +4149,10 @@
         <v>6.0234543</v>
       </c>
       <c r="AO3" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AP3" s="36" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="AQ3" s="5" t="s">
         <v>77</v>
@@ -4062,7 +4188,7 @@
       <c r="E4" s="26">
         <v>41000</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G4" s="5" t="str">
@@ -4153,34 +4279,34 @@
         <v>105</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="AI4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="AJ4" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="AK4" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AO4" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AP4" s="36" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="AQ4" s="5" t="s">
         <v>77</v>
@@ -4216,7 +4342,7 @@
       <c r="E5" s="26">
         <v>25400</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G5" s="5" t="str">
@@ -4307,34 +4433,34 @@
         <v>105</v>
       </c>
       <c r="AG5" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="AL5" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH5" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM5" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AO5" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AP5" s="36" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="AQ5" s="5" t="s">
         <v>77</v>
@@ -4370,7 +4496,7 @@
       <c r="E6" s="27">
         <v>14200</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G6" s="5" t="str">
@@ -4394,7 +4520,7 @@
         <v>105</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N6" s="35">
         <v>179</v>
@@ -4461,40 +4587,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AO6" s="33" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AP6" s="36" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="AQ6" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS6" s="13" t="s">
         <v>76</v>
@@ -4524,7 +4650,7 @@
       <c r="E7" s="27">
         <v>14200</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G7" s="5" t="str">
@@ -4533,7 +4659,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>48</v>
@@ -4548,7 +4674,7 @@
         <v>105</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N7" s="35">
         <v>159</v>
@@ -4615,40 +4741,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AP7" s="36" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="AQ7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR7" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS7" s="13" t="s">
         <v>76</v>
@@ -4678,7 +4804,7 @@
       <c r="E8" s="27">
         <v>14200</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="5" t="str">
@@ -4687,7 +4813,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>48</v>
@@ -4702,7 +4828,7 @@
         <v>105</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N8" s="35">
         <v>125</v>
@@ -4769,40 +4895,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="AO8" s="33" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AP8" s="36" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="AQ8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR8" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS8" s="13" t="s">
         <v>76</v>
@@ -4832,7 +4958,7 @@
       <c r="E9" s="27">
         <v>14200</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G9" s="5" t="str">
@@ -4841,7 +4967,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>48</v>
@@ -4856,7 +4982,7 @@
         <v>105</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N9" s="35">
         <v>156</v>
@@ -4923,40 +5049,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM9" s="11" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AO9" s="33" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AP9" s="36" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="AQ9" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS9" s="13" t="s">
         <v>76</v>
@@ -4986,7 +5112,7 @@
       <c r="E10" s="27">
         <v>14200</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="5" t="str">
@@ -4995,7 +5121,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>48</v>
@@ -5010,7 +5136,7 @@
         <v>105</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N10" s="35">
         <v>178</v>
@@ -5077,40 +5203,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH10" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM10" s="11" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AN10" s="11" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AO10" s="33" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AP10" s="36" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="AQ10" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR10" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS10" s="13" t="s">
         <v>76</v>
@@ -5140,7 +5266,7 @@
       <c r="E11" s="27">
         <v>14200</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="5" t="str">
@@ -5149,7 +5275,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>48</v>
@@ -5164,7 +5290,7 @@
         <v>105</v>
       </c>
       <c r="M11" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N11" s="35">
         <v>253</v>
@@ -5231,40 +5357,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH11" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AO11" s="33" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AP11" s="36" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="AQ11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR11" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS11" s="13" t="s">
         <v>76</v>
@@ -5294,7 +5420,7 @@
       <c r="E12" s="27">
         <v>14200</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="5" t="str">
@@ -5303,7 +5429,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>48</v>
@@ -5318,7 +5444,7 @@
         <v>105</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N12" s="35">
         <v>171</v>
@@ -5385,40 +5511,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH12" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ12" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AN12" s="11" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AO12" s="33" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AP12" s="36" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="AQ12" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR12" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS12" s="13" t="s">
         <v>76</v>
@@ -5448,7 +5574,7 @@
       <c r="E13" s="27">
         <v>14200</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="5" t="str">
@@ -5457,7 +5583,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>48</v>
@@ -5472,7 +5598,7 @@
         <v>105</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N13" s="35">
         <v>200</v>
@@ -5539,40 +5665,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH13" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="AO13" s="33" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AP13" s="36" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="AQ13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR13" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS13" s="13" t="s">
         <v>76</v>
@@ -5602,7 +5728,7 @@
       <c r="E14" s="27">
         <v>14200</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G14" s="5" t="str">
@@ -5611,7 +5737,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>48</v>
@@ -5626,7 +5752,7 @@
         <v>105</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N14" s="35">
         <v>105</v>
@@ -5693,40 +5819,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH14" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AO14" s="33" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AP14" s="36" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="AQ14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>76</v>
@@ -5756,7 +5882,7 @@
       <c r="E15" s="27">
         <v>14200</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="5" t="str">
@@ -5765,7 +5891,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>48</v>
@@ -5780,7 +5906,7 @@
         <v>105</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N15" s="35">
         <v>51</v>
@@ -5847,40 +5973,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH15" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL15" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AO15" s="33" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AP15" s="36" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="AQ15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR15" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS15" s="13" t="s">
         <v>76</v>
@@ -5910,7 +6036,7 @@
       <c r="E16" s="27">
         <v>14200</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G16" s="5" t="str">
@@ -5919,7 +6045,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>48</v>
@@ -5934,7 +6060,7 @@
         <v>105</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N16" s="35">
         <v>115</v>
@@ -6001,40 +6127,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH16" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ16" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AN16" s="11" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="AO16" s="33" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AP16" s="36" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AQ16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR16" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>76</v>
@@ -6064,7 +6190,7 @@
       <c r="E17" s="27">
         <v>14200</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G17" s="5" t="str">
@@ -6073,7 +6199,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>48</v>
@@ -6088,7 +6214,7 @@
         <v>105</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N17" s="35">
         <v>210</v>
@@ -6155,40 +6281,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH17" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL17" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM17" s="11" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="AO17" s="33" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AP17" s="36" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="AQ17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR17" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS17" s="13" t="s">
         <v>76</v>
@@ -6218,7 +6344,7 @@
       <c r="E18" s="27">
         <v>14200</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G18" s="5" t="str">
@@ -6227,7 +6353,7 @@
 14200 - Hérouville-Saint-Clair</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>48</v>
@@ -6242,7 +6368,7 @@
         <v>105</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N18" s="35">
         <v>30</v>
@@ -6309,40 +6435,40 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH18" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="AO18" s="33" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AP18" s="36" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AQ18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR18" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>76</v>
@@ -6372,7 +6498,7 @@
       <c r="E19" s="27">
         <v>35520</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G19" s="5" t="str">
@@ -6463,40 +6589,40 @@
         <v>105</v>
       </c>
       <c r="AG19" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL19" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH19" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI19" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM19" s="11" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AP19" s="36" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="AQ19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR19" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS19" s="13" t="s">
         <v>76</v>
@@ -6526,7 +6652,7 @@
       <c r="E20" s="27">
         <v>35520</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G20" s="5" t="str">
@@ -6617,40 +6743,40 @@
         <v>105</v>
       </c>
       <c r="AG20" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK20" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL20" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH20" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI20" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK20" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM20" s="11" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="AO20" s="33" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AP20" s="37" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="AQ20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR20" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS20" s="13" t="s">
         <v>76</v>
@@ -6680,7 +6806,7 @@
       <c r="E21" s="27">
         <v>35520</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G21" s="5" t="str">
@@ -6771,40 +6897,40 @@
         <v>105</v>
       </c>
       <c r="AG21" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH21" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK21" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL21" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH21" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI21" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM21" s="11" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="AN21" s="11" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AP21" s="37" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="AQ21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS21" s="13" t="s">
         <v>76</v>
@@ -6834,7 +6960,7 @@
       <c r="E22" s="27">
         <v>35520</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G22" s="5" t="str">
@@ -6925,40 +7051,40 @@
         <v>105</v>
       </c>
       <c r="AG22" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH22" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK22" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL22" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH22" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK22" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM22" s="11" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AN22" s="11" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AO22" s="33" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AP22" s="37" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="AQ22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR22" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS22" s="13" t="s">
         <v>76</v>
@@ -6988,7 +7114,7 @@
       <c r="E23" s="27">
         <v>35520</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G23" s="5" t="str">
@@ -7079,40 +7205,40 @@
         <v>105</v>
       </c>
       <c r="AG23" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH23" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL23" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH23" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI23" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ23" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM23" s="11" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AN23" s="11" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AP23" s="37" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="AQ23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR23" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS23" s="13" t="s">
         <v>76</v>
@@ -7142,7 +7268,7 @@
       <c r="E24" s="27">
         <v>35520</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="5" t="str">
@@ -7233,40 +7359,40 @@
         <v>105</v>
       </c>
       <c r="AG24" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH24" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI24" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK24" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL24" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH24" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI24" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ24" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK24" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM24" s="11" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="AN24" s="11" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AP24" s="37" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="AQ24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR24" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS24" s="13" t="s">
         <v>76</v>
@@ -7296,7 +7422,7 @@
       <c r="E25" s="27">
         <v>35520</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G25" s="5" t="str">
@@ -7387,40 +7513,40 @@
         <v>105</v>
       </c>
       <c r="AG25" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH25" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK25" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL25" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH25" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI25" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ25" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK25" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM25" s="11" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AP25" s="37" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="AQ25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR25" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS25" s="13" t="s">
         <v>76</v>
@@ -7450,7 +7576,7 @@
       <c r="E26" s="27">
         <v>35520</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G26" s="5" t="str">
@@ -7541,40 +7667,40 @@
         <v>105</v>
       </c>
       <c r="AG26" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH26" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ26" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL26" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH26" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI26" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ26" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK26" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM26" s="11" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AN26" s="11" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AO26" s="33" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AP26" s="37" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="AQ26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR26" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS26" s="13" t="s">
         <v>76</v>
@@ -7604,7 +7730,7 @@
       <c r="E27" s="27">
         <v>35520</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G27" s="5" t="str">
@@ -7695,40 +7821,40 @@
         <v>105</v>
       </c>
       <c r="AG27" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH27" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI27" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK27" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL27" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH27" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI27" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ27" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK27" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM27" s="11" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AP27" s="37" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="AQ27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS27" s="13" t="s">
         <v>76</v>
@@ -7758,7 +7884,7 @@
       <c r="E28" s="27">
         <v>35520</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="5" t="str">
@@ -7849,40 +7975,40 @@
         <v>105</v>
       </c>
       <c r="AG28" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH28" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK28" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL28" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH28" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI28" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ28" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK28" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM28" s="11" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AN28" s="11" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AO28" s="33" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AP28" s="37" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="AQ28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR28" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS28" s="13" t="s">
         <v>76</v>
@@ -7912,7 +8038,7 @@
       <c r="E29" s="27">
         <v>35520</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G29" s="5" t="str">
@@ -8003,40 +8129,40 @@
         <v>105</v>
       </c>
       <c r="AG29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ29" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK29" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL29" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH29" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI29" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ29" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK29" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM29" s="11" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AN29" s="11" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AP29" s="37" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="AQ29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR29" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS29" s="13" t="s">
         <v>76</v>
@@ -8066,7 +8192,7 @@
       <c r="E30" s="27">
         <v>35520</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G30" s="5" t="str">
@@ -8157,40 +8283,40 @@
         <v>105</v>
       </c>
       <c r="AG30" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK30" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL30" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH30" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI30" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ30" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK30" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM30" s="11" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AO30" s="33" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AP30" s="37" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="AQ30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR30" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS30" s="13" t="s">
         <v>76</v>
@@ -8220,7 +8346,7 @@
       <c r="E31" s="27">
         <v>72100</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G31" s="5" t="str">
@@ -8244,7 +8370,7 @@
         <v>105</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N31" s="35">
         <v>61</v>
@@ -8311,34 +8437,34 @@
         <v>105</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH31" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ31" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK31" s="11" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AL31" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM31" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AN31" s="11" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AO31" s="33" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AP31" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ31" s="5" t="s">
         <v>77</v>
@@ -8369,12 +8495,12 @@
         <v>72</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E32" s="27">
         <v>72101</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G32" s="5" t="str">
@@ -8383,7 +8509,7 @@
 72101 - Le Mans</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>46</v>
@@ -8398,7 +8524,7 @@
         <v>105</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="N32" s="35">
         <v>10</v>
@@ -8463,34 +8589,34 @@
         <v>105</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH32" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ32" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK32" s="11" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AL32" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM32" s="11" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="AN32" s="11" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="AO32" s="11" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AP32" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ32" s="5" t="s">
         <v>77</v>
@@ -8526,7 +8652,7 @@
       <c r="E33" s="27">
         <v>72100</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="5" t="str">
@@ -8550,7 +8676,7 @@
         <v>105</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N33" s="35">
         <v>227</v>
@@ -8617,34 +8743,34 @@
         <v>105</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH33" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ33" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK33" s="11" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AL33" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM33" s="11" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="AN33" s="11" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="AO33" s="33" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AP33" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ33" s="5" t="s">
         <v>77</v>
@@ -8680,7 +8806,7 @@
       <c r="E34" s="27">
         <v>72100</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="5" t="str">
@@ -8704,7 +8830,7 @@
         <v>105</v>
       </c>
       <c r="M34" s="37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N34" s="35">
         <v>102</v>
@@ -8771,34 +8897,34 @@
         <v>105</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH34" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ34" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK34" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AL34" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM34" s="11" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AN34" s="11" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AO34" s="11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AP34" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ34" s="5" t="s">
         <v>77</v>
@@ -8834,7 +8960,7 @@
       <c r="E35" s="27">
         <v>72100</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G35" s="5" t="str">
@@ -8858,7 +8984,7 @@
         <v>105</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N35" s="35">
         <v>62</v>
@@ -8925,34 +9051,34 @@
         <v>105</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH35" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI35" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ35" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AL35" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AN35" s="11" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AO35" s="33" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AP35" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ35" s="5" t="s">
         <v>77</v>
@@ -8988,7 +9114,7 @@
       <c r="E36" s="27">
         <v>72100</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G36" s="5" t="str">
@@ -9012,7 +9138,7 @@
         <v>105</v>
       </c>
       <c r="M36" s="37" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N36" s="35">
         <v>22</v>
@@ -9079,34 +9205,34 @@
         <v>105</v>
       </c>
       <c r="AG36" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH36" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI36" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ36" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK36" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM36" s="11" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AN36" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AP36" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ36" s="5" t="s">
         <v>77</v>
@@ -9142,7 +9268,7 @@
       <c r="E37" s="27">
         <v>72100</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G37" s="5" t="str">
@@ -9166,7 +9292,7 @@
         <v>105</v>
       </c>
       <c r="M37" s="37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N37" s="35">
         <v>9</v>
@@ -9233,34 +9359,34 @@
         <v>105</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH37" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI37" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ37" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AL37" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM37" s="11" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AO37" s="33" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AP37" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ37" s="5" t="s">
         <v>77</v>
@@ -9296,7 +9422,7 @@
       <c r="E38" s="27">
         <v>72100</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G38" s="5" t="str">
@@ -9320,7 +9446,7 @@
         <v>105</v>
       </c>
       <c r="M38" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N38" s="35">
         <v>71</v>
@@ -9387,34 +9513,34 @@
         <v>105</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI38" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ38" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK38" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM38" s="11" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AN38" s="11" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="AO38" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AP38" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ38" s="5" t="s">
         <v>77</v>
@@ -9450,7 +9576,7 @@
       <c r="E39" s="27">
         <v>72100</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G39" s="5" t="str">
@@ -9474,7 +9600,7 @@
         <v>105</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N39" s="35">
         <v>45</v>
@@ -9541,34 +9667,34 @@
         <v>105</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH39" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK39" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM39" s="11" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="AN39" s="11" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AO39" s="33" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="AP39" s="36" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AQ39" s="5" t="s">
         <v>77</v>
@@ -9604,7 +9730,7 @@
       <c r="E40" s="27">
         <v>69003</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G40" s="5" t="str">
@@ -9695,40 +9821,40 @@
         <v>105</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH40" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM40" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AN40" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="AO40" s="33" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AP40" s="36" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="AQ40" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR40" s="11" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AS40" s="13" t="s">
         <v>31</v>
@@ -9758,7 +9884,7 @@
       <c r="E41" s="26">
         <v>78310</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G41" s="5" t="str">
@@ -9782,19 +9908,19 @@
         <v>105</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N41" s="34">
         <v>168</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P41" s="35">
         <v>156</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R41" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -9849,34 +9975,34 @@
         <v>105</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH41" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM41" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AN41" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AO41" s="33" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AP41" s="36" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="AQ41" s="5" t="s">
         <v>77</v>
@@ -9912,7 +10038,7 @@
       <c r="E42" s="26">
         <v>78310</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G42" s="5" t="str">
@@ -9936,7 +10062,7 @@
         <v>105</v>
       </c>
       <c r="M42" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N42" s="35">
         <v>87</v>
@@ -9999,34 +10125,34 @@
         <v>105</v>
       </c>
       <c r="AG42" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH42" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI42" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL42" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH42" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI42" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ42" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM42" s="11" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AN42" s="11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AO42" s="33" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AP42" s="36" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="AQ42" s="5" t="s">
         <v>77</v>
@@ -10062,7 +10188,7 @@
       <c r="E43" s="26">
         <v>78310</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="5" t="str">
@@ -10086,7 +10212,7 @@
         <v>105</v>
       </c>
       <c r="M43" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N43" s="35">
         <v>197</v>
@@ -10149,34 +10275,34 @@
         <v>105</v>
       </c>
       <c r="AG43" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH43" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI43" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL43" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH43" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI43" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ43" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM43" s="11" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AN43" s="11" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AP43" s="36" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="AQ43" s="5" t="s">
         <v>77</v>
@@ -10212,7 +10338,7 @@
       <c r="E44" s="26">
         <v>78310</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G44" s="5" t="str">
@@ -10236,7 +10362,7 @@
         <v>105</v>
       </c>
       <c r="M44" s="37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N44" s="35">
         <v>576</v>
@@ -10299,34 +10425,34 @@
         <v>105</v>
       </c>
       <c r="AG44" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH44" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI44" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ44" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AK44" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL44" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM44" s="11" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AN44" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="AO44" s="33" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AP44" s="36" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="AQ44" s="5" t="s">
         <v>77</v>
@@ -10362,7 +10488,7 @@
       <c r="E45" s="26">
         <v>78310</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G45" s="5" t="str">
@@ -10386,19 +10512,19 @@
         <v>105</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N45" s="35">
         <v>237</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P45" s="35">
         <v>221</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="R45" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -10453,34 +10579,34 @@
         <v>105</v>
       </c>
       <c r="AG45" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH45" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI45" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ45" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AK45" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL45" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM45" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AN45" s="11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AP45" s="36" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="AQ45" s="5" t="s">
         <v>77</v>
@@ -10516,7 +10642,7 @@
       <c r="E46" s="26">
         <v>78310</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G46" s="5" t="str">
@@ -10540,19 +10666,19 @@
         <v>105</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N46" s="35">
         <v>236</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P46" s="35">
         <v>218</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R46" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
@@ -10607,34 +10733,34 @@
         <v>105</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH46" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI46" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ46" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AK46" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL46" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM46" s="11" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AN46" s="11" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AO46" s="33" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AP46" s="36" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="AQ46" s="11" t="s">
         <v>54</v>
@@ -10670,7 +10796,7 @@
       <c r="E47" s="26">
         <v>57000</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G47" s="5" t="str">
@@ -10761,34 +10887,34 @@
         <v>105</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI47" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ47" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AK47" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AL47" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM47" s="5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AN47" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AO47" s="33" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AP47" s="36" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="AQ47" s="5" t="s">
         <v>77</v>
@@ -10824,7 +10950,7 @@
       <c r="E48" s="26">
         <v>57000</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G48" s="5" t="str">
@@ -10915,34 +11041,34 @@
         <v>105</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI48" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ48" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AK48" s="11" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AL48" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM48" s="11" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AN48" s="11" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AO48" s="33" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AP48" s="36" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="AQ48" s="5" t="s">
         <v>77</v>
@@ -10978,7 +11104,7 @@
       <c r="E49" s="27">
         <v>75008</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G49" s="5" t="str">
@@ -11069,7 +11195,7 @@
         <v>105</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH49" s="10" t="s">
         <v>54</v>
@@ -11078,31 +11204,31 @@
         <v>105</v>
       </c>
       <c r="AJ49" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AK49" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AL49" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM49" s="11" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="AN49" s="11" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="AO49" s="33" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AP49" s="36" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="AQ49" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR49" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS49" s="13" t="s">
         <v>31</v>
@@ -11132,7 +11258,7 @@
       <c r="E50" s="27">
         <v>75008</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G50" s="5" t="str">
@@ -11185,19 +11311,19 @@
         <v>105</v>
       </c>
       <c r="V50" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="W50" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="X50" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Y50" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AA50" s="6">
         <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
@@ -11220,34 +11346,34 @@
         <v>105</v>
       </c>
       <c r="AG50" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH50" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI50" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ50" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AK50" s="11" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AL50" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM50" s="11" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AN50" s="11" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AO50" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP50" s="36" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="AQ50" s="5" t="s">
         <v>77</v>
@@ -11283,7 +11409,7 @@
       <c r="E51" s="27">
         <v>75009</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G51" s="5" t="str">
@@ -11374,7 +11500,7 @@
         <v>105</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH51" s="10" t="s">
         <v>54</v>
@@ -11389,16 +11515,16 @@
         <v>59</v>
       </c>
       <c r="AL51" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM51" s="11" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AN51" s="11" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AO51" s="33" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AP51" s="36"/>
       <c r="AQ51" s="5" t="s">
@@ -11435,7 +11561,7 @@
       <c r="E52" s="27">
         <v>75010</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G52" s="5" t="str">
@@ -11526,40 +11652,40 @@
         <v>105</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ52" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AK52" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AL52" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM52" s="11" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="AN52" s="11" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="AO52" s="33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AP52" s="36" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="AQ52" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR52" s="11" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AS52" s="13" t="s">
         <v>31</v>
@@ -11589,7 +11715,7 @@
       <c r="E53" s="27">
         <v>75012</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G53" s="5" t="str">
@@ -11680,34 +11806,34 @@
         <v>105</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH53" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI53" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ53" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AK53" s="11" t="s">
         <v>65</v>
       </c>
       <c r="AL53" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM53" s="11" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AN53" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="AO53" s="33" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AP53" s="36" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="AQ53" s="5" t="s">
         <v>77</v>
@@ -11743,7 +11869,7 @@
       <c r="E54" s="27">
         <v>75012</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G54" s="5" t="str">
@@ -11834,34 +11960,34 @@
         <v>105</v>
       </c>
       <c r="AG54" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH54" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI54" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ54" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AK54" s="11" t="s">
         <v>53</v>
       </c>
       <c r="AL54" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM54" s="11" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AN54" s="11" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AO54" s="33" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AP54" s="36" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="AQ54" s="5" t="s">
         <v>77</v>
@@ -11897,7 +12023,7 @@
       <c r="E55" s="27">
         <v>75016</v>
       </c>
-      <c r="F55" s="39" t="s">
+      <c r="F55" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G55" s="5" t="str">
@@ -11988,34 +12114,34 @@
         <v>105</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI55" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ55" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AK55" s="11" t="s">
         <v>74</v>
       </c>
       <c r="AL55" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM55" s="11" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AN55" s="11" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AO55" s="33" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AP55" s="36" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="AQ55" s="5" t="s">
         <v>77</v>
@@ -12051,7 +12177,7 @@
       <c r="E56" s="27">
         <v>75016</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G56" s="5" t="str">
@@ -12142,34 +12268,34 @@
         <v>105</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH56" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI56" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ56" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AK56" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AL56" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM56" s="11" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AN56" s="11" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AO56" s="33" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AP56" s="36" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="AQ56" s="5" t="s">
         <v>77</v>
@@ -12205,7 +12331,7 @@
       <c r="E57" s="27">
         <v>92100</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G57" s="5" t="str">
@@ -12229,7 +12355,7 @@
         <v>105</v>
       </c>
       <c r="M57" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N57" s="35">
         <v>110</v>
@@ -12296,40 +12422,40 @@
         <v>105</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH57" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI57" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ57" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK57" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL57" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM57" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AN57" s="5" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="AO57" s="33" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AP57" s="36" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="AQ57" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS57" s="13" t="s">
         <v>38</v>
@@ -12359,7 +12485,7 @@
       <c r="E58" s="27">
         <v>92100</v>
       </c>
-      <c r="F58" s="39" t="s">
+      <c r="F58" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G58" s="5" t="str">
@@ -12383,14 +12509,20 @@
         <v>105</v>
       </c>
       <c r="M58" s="37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N58" s="35">
         <v>66</v>
       </c>
-      <c r="O58" s="12"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="12"/>
+      <c r="O58" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P58" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R58" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>29700</v>
@@ -12444,40 +12576,40 @@
         <v>105</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH58" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI58" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ58" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK58" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL58" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM58" s="11" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AN58" s="11" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AO58" s="33" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AP58" s="36" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="AQ58" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR58" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS58" s="13" t="s">
         <v>38</v>
@@ -12507,7 +12639,7 @@
       <c r="E59" s="27">
         <v>92100</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G59" s="5" t="str">
@@ -12531,14 +12663,20 @@
         <v>105</v>
       </c>
       <c r="M59" s="37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N59" s="35">
         <v>79</v>
       </c>
-      <c r="O59" s="12"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="12"/>
+      <c r="O59" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P59" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R59" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>35550</v>
@@ -12592,40 +12730,40 @@
         <v>105</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH59" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI59" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ59" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK59" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL59" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM59" s="11" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AN59" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AO59" s="33" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AP59" s="36" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="AQ59" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR59" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS59" s="13" t="s">
         <v>38</v>
@@ -12655,7 +12793,7 @@
       <c r="E60" s="27">
         <v>92100</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G60" s="5" t="str">
@@ -12679,14 +12817,20 @@
         <v>105</v>
       </c>
       <c r="M60" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N60" s="35">
         <v>47</v>
       </c>
-      <c r="O60" s="12"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="12"/>
+      <c r="O60" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P60" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R60" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>25850</v>
@@ -12740,40 +12884,40 @@
         <v>105</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH60" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI60" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ60" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK60" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL60" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM60" s="11" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AN60" s="11" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AO60" s="33" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AP60" s="36" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="AQ60" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR60" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS60" s="13" t="s">
         <v>38</v>
@@ -12803,7 +12947,7 @@
       <c r="E61" s="27">
         <v>92100</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G61" s="5" t="str">
@@ -12827,14 +12971,20 @@
         <v>105</v>
       </c>
       <c r="M61" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N61" s="35">
         <v>60</v>
       </c>
-      <c r="O61" s="12"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="12"/>
+      <c r="O61" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P61" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R61" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>33000</v>
@@ -12888,40 +13038,40 @@
         <v>105</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH61" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI61" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ61" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK61" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL61" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM61" s="11" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AN61" s="11" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AO61" s="33" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="AP61" s="36" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AQ61" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR61" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS61" s="13" t="s">
         <v>38</v>
@@ -12951,7 +13101,7 @@
       <c r="E62" s="27">
         <v>92100</v>
       </c>
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G62" s="5" t="str">
@@ -12975,14 +13125,20 @@
         <v>105</v>
       </c>
       <c r="M62" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N62" s="35">
         <v>81</v>
       </c>
-      <c r="O62" s="12"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="12"/>
+      <c r="O62" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P62" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R62" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>44550</v>
@@ -13036,40 +13192,40 @@
         <v>105</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH62" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI62" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ62" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK62" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL62" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM62" s="11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="AN62" s="11" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AO62" s="33" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="AP62" s="36" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="AQ62" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR62" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS62" s="13" t="s">
         <v>38</v>
@@ -13099,7 +13255,7 @@
       <c r="E63" s="27">
         <v>92100</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G63" s="5" t="str">
@@ -13123,14 +13279,20 @@
         <v>105</v>
       </c>
       <c r="M63" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N63" s="35">
         <v>45</v>
       </c>
-      <c r="O63" s="12"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="12"/>
+      <c r="O63" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P63" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R63" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>24750</v>
@@ -13184,40 +13346,40 @@
         <v>105</v>
       </c>
       <c r="AG63" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH63" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI63" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ63" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK63" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL63" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM63" s="11" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="AN63" s="11" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="AO63" s="33" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AP63" s="36" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AQ63" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR63" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS63" s="13" t="s">
         <v>38</v>
@@ -13247,7 +13409,7 @@
       <c r="E64" s="27">
         <v>92100</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G64" s="5" t="str">
@@ -13271,14 +13433,20 @@
         <v>105</v>
       </c>
       <c r="M64" s="37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N64" s="35">
         <v>73</v>
       </c>
-      <c r="O64" s="12"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="12"/>
+      <c r="O64" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P64" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R64" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>32850</v>
@@ -13332,40 +13500,40 @@
         <v>105</v>
       </c>
       <c r="AG64" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH64" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI64" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ64" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AK64" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL64" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM64" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AN64" s="11" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="AO64" s="33" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AP64" s="36" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="AQ64" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR64" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS64" s="13" t="s">
         <v>38</v>
@@ -13395,7 +13563,7 @@
       <c r="E65" s="27">
         <v>92250</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G65" s="5" t="str">
@@ -13419,7 +13587,7 @@
         <v>105</v>
       </c>
       <c r="M65" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N65" s="35">
         <v>80</v>
@@ -13486,40 +13654,40 @@
         <v>105</v>
       </c>
       <c r="AG65" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH65" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI65" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ65" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AK65" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AL65" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM65" s="5" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="AN65" s="5" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="AO65" s="33" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AP65" s="36" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="AQ65" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR65" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AS65" s="13" t="s">
         <v>31</v>
@@ -13549,7 +13717,7 @@
       <c r="E66" s="27">
         <v>92250</v>
       </c>
-      <c r="F66" s="39" t="s">
+      <c r="F66" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G66" s="5" t="str">
@@ -13573,14 +13741,20 @@
         <v>105</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N66" s="35">
         <v>110</v>
       </c>
-      <c r="O66" s="12"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="12"/>
+      <c r="O66" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P66" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R66" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>49500</v>
@@ -13634,40 +13808,40 @@
         <v>105</v>
       </c>
       <c r="AG66" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH66" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI66" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ66" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AK66" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AL66" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM66" s="11" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="AN66" s="11" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="AO66" s="33" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AP66" s="37" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="AQ66" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR66" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AS66" s="13" t="s">
         <v>31</v>
@@ -13721,7 +13895,7 @@
         <v>105</v>
       </c>
       <c r="M67" s="36" t="s">
-        <v>342</v>
+        <v>862</v>
       </c>
       <c r="N67" s="35">
         <v>321</v>
@@ -13788,38 +13962,38 @@
         <v>105</v>
       </c>
       <c r="AG67" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH67" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AI67" s="4" t="s">
-        <v>105</v>
+      <c r="AI67" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="AJ67" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK67" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL67" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM67" s="5" t="s">
-        <v>282</v>
+        <v>866</v>
       </c>
       <c r="AN67" s="5" t="s">
-        <v>283</v>
+        <v>867</v>
       </c>
       <c r="AO67" s="33" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AP67" s="36"/>
       <c r="AQ67" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR67" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS67" s="13" t="s">
         <v>38</v>
@@ -13873,14 +14047,20 @@
         <v>105</v>
       </c>
       <c r="M68" s="37" t="s">
-        <v>343</v>
+        <v>863</v>
       </c>
       <c r="N68" s="35">
         <v>159</v>
       </c>
-      <c r="O68" s="12"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="12"/>
+      <c r="O68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P68" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R68" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>51675</v>
@@ -13932,30 +14112,38 @@
         <v>105</v>
       </c>
       <c r="AG68" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH68" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI68" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ68" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK68" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL68" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM68" s="11"/>
-      <c r="AN68" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM68" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="AN68" s="11" t="s">
+        <v>869</v>
+      </c>
       <c r="AO68" s="33" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AP68" s="37"/>
       <c r="AQ68" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR68" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS68" s="13" t="s">
         <v>38</v>
@@ -14009,14 +14197,20 @@
         <v>105</v>
       </c>
       <c r="M69" s="37" t="s">
-        <v>344</v>
+        <v>864</v>
       </c>
       <c r="N69" s="35">
         <v>281</v>
       </c>
-      <c r="O69" s="12"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="12"/>
+      <c r="O69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P69" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R69" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>91325</v>
@@ -14068,30 +14262,38 @@
         <v>105</v>
       </c>
       <c r="AG69" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH69" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI69" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ69" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK69" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL69" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM69" s="11"/>
-      <c r="AN69" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM69" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="AN69" s="11" t="s">
+        <v>871</v>
+      </c>
       <c r="AO69" s="33" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AP69" s="37"/>
       <c r="AQ69" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR69" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS69" s="13" t="s">
         <v>38</v>
@@ -14145,14 +14347,20 @@
         <v>105</v>
       </c>
       <c r="M70" s="37" t="s">
-        <v>337</v>
+        <v>865</v>
       </c>
       <c r="N70" s="35">
         <v>168</v>
       </c>
-      <c r="O70" s="12"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="12"/>
+      <c r="O70" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P70" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R70" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>54600</v>
@@ -14204,30 +14412,38 @@
         <v>105</v>
       </c>
       <c r="AG70" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH70" s="10"/>
-      <c r="AI70" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH70" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI70" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ70" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK70" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL70" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM70" s="11"/>
-      <c r="AN70" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM70" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="AN70" s="11" t="s">
+        <v>873</v>
+      </c>
       <c r="AO70" s="33" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AP70" s="37"/>
       <c r="AQ70" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR70" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS70" s="13" t="s">
         <v>38</v>
@@ -14281,14 +14497,20 @@
         <v>105</v>
       </c>
       <c r="M71" s="37" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N71" s="35">
         <v>228</v>
       </c>
-      <c r="O71" s="12"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="12"/>
+      <c r="O71" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P71" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R71" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>74100</v>
@@ -14340,30 +14562,38 @@
         <v>105</v>
       </c>
       <c r="AG71" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH71" s="10"/>
-      <c r="AI71" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH71" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI71" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ71" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK71" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL71" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM71" s="11"/>
-      <c r="AN71" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM71" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="AN71" s="11" t="s">
+        <v>851</v>
+      </c>
       <c r="AO71" s="33" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AP71" s="37"/>
       <c r="AQ71" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR71" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS71" s="13" t="s">
         <v>38</v>
@@ -14417,14 +14647,20 @@
         <v>105</v>
       </c>
       <c r="M72" s="37" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="N72" s="35">
         <v>133</v>
       </c>
-      <c r="O72" s="12"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="12"/>
+      <c r="O72" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P72" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R72" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>43225</v>
@@ -14476,30 +14712,38 @@
         <v>105</v>
       </c>
       <c r="AG72" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH72" s="10"/>
-      <c r="AI72" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH72" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI72" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ72" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK72" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL72" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM72" s="11"/>
-      <c r="AN72" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM72" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="AN72" s="11" t="s">
+        <v>853</v>
+      </c>
       <c r="AO72" s="33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AP72" s="37"/>
       <c r="AQ72" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR72" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS72" s="13" t="s">
         <v>38</v>
@@ -14553,14 +14797,20 @@
         <v>105</v>
       </c>
       <c r="M73" s="37" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N73" s="35">
         <v>341</v>
       </c>
-      <c r="O73" s="12"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="12"/>
+      <c r="O73" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P73" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R73" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>119350</v>
@@ -14612,30 +14862,38 @@
         <v>105</v>
       </c>
       <c r="AG73" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH73" s="10"/>
-      <c r="AI73" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH73" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI73" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ73" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK73" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL73" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM73" s="11"/>
-      <c r="AN73" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM73" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="AN73" s="11" t="s">
+        <v>849</v>
+      </c>
       <c r="AO73" s="33" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AP73" s="37"/>
       <c r="AQ73" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR73" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS73" s="13" t="s">
         <v>38</v>
@@ -14689,14 +14947,20 @@
         <v>105</v>
       </c>
       <c r="M74" s="37" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N74" s="35">
         <v>444</v>
       </c>
-      <c r="O74" s="12"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="12"/>
+      <c r="O74" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P74" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R74" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>155400</v>
@@ -14748,30 +15012,38 @@
         <v>105</v>
       </c>
       <c r="AG74" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH74" s="10"/>
-      <c r="AI74" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH74" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI74" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ74" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK74" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL74" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM74" s="11"/>
-      <c r="AN74" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM74" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="AN74" s="11" t="s">
+        <v>855</v>
+      </c>
       <c r="AO74" s="33" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AP74" s="37"/>
       <c r="AQ74" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR74" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS74" s="13" t="s">
         <v>38</v>
@@ -14825,14 +15097,20 @@
         <v>105</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="N75" s="35">
         <v>206</v>
       </c>
-      <c r="O75" s="12"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="12"/>
+      <c r="O75" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P75" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R75" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>72100</v>
@@ -14884,30 +15162,38 @@
         <v>105</v>
       </c>
       <c r="AG75" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH75" s="10"/>
-      <c r="AI75" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH75" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI75" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ75" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK75" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL75" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM75" s="11"/>
-      <c r="AN75" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM75" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AN75" s="11" t="s">
+        <v>857</v>
+      </c>
       <c r="AO75" s="33" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AP75" s="37"/>
       <c r="AQ75" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR75" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS75" s="13" t="s">
         <v>38</v>
@@ -14961,14 +15247,20 @@
         <v>105</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N76" s="35">
         <v>231</v>
       </c>
-      <c r="O76" s="12"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="12"/>
+      <c r="O76" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P76" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R76" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>92400</v>
@@ -15020,30 +15312,38 @@
         <v>105</v>
       </c>
       <c r="AG76" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH76" s="10"/>
-      <c r="AI76" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH76" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI76" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ76" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK76" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL76" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM76" s="11"/>
-      <c r="AN76" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM76" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="AN76" s="11" t="s">
+        <v>859</v>
+      </c>
       <c r="AO76" s="33" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AP76" s="37"/>
       <c r="AQ76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR76" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS76" s="13" t="s">
         <v>38</v>
@@ -15097,14 +15397,20 @@
         <v>105</v>
       </c>
       <c r="M77" s="37" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N77" s="35">
         <v>235</v>
       </c>
-      <c r="O77" s="12"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="12"/>
+      <c r="O77" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P77" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R77" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>82250</v>
@@ -15156,30 +15462,38 @@
         <v>105</v>
       </c>
       <c r="AG77" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH77" s="10"/>
-      <c r="AI77" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH77" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI77" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ77" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK77" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL77" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM77" s="11"/>
-      <c r="AN77" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM77" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="AN77" s="11" t="s">
+        <v>861</v>
+      </c>
       <c r="AO77" s="33" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AP77" s="37"/>
       <c r="AQ77" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR77" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS77" s="13" t="s">
         <v>38</v>
@@ -15233,14 +15547,20 @@
         <v>105</v>
       </c>
       <c r="M78" s="37" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N78" s="35">
         <v>333</v>
       </c>
-      <c r="O78" s="12"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="12"/>
+      <c r="O78" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P78" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R78" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>108225</v>
@@ -15292,30 +15612,38 @@
         <v>105</v>
       </c>
       <c r="AG78" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH78" s="10"/>
-      <c r="AI78" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH78" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI78" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ78" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK78" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL78" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM78" s="11"/>
-      <c r="AN78" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM78" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="AN78" s="11" t="s">
+        <v>825</v>
+      </c>
       <c r="AO78" s="33" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AP78" s="37"/>
       <c r="AQ78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR78" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS78" s="13" t="s">
         <v>38</v>
@@ -15369,14 +15697,20 @@
         <v>105</v>
       </c>
       <c r="M79" s="37" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N79" s="35">
         <v>177</v>
       </c>
-      <c r="O79" s="12"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="12"/>
+      <c r="O79" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P79" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R79" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>61950</v>
@@ -15428,30 +15762,38 @@
         <v>105</v>
       </c>
       <c r="AG79" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH79" s="10"/>
-      <c r="AI79" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH79" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI79" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ79" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK79" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL79" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM79" s="11"/>
-      <c r="AN79" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM79" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="AN79" s="11" t="s">
+        <v>827</v>
+      </c>
       <c r="AO79" s="33" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AP79" s="37"/>
       <c r="AQ79" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR79" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS79" s="13" t="s">
         <v>38</v>
@@ -15505,14 +15847,20 @@
         <v>105</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N80" s="35">
         <v>99</v>
       </c>
-      <c r="O80" s="12"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="12"/>
+      <c r="O80" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P80" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q80" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R80" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>34650</v>
@@ -15564,30 +15912,38 @@
         <v>105</v>
       </c>
       <c r="AG80" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH80" s="10"/>
-      <c r="AI80" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH80" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI80" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ80" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK80" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL80" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM80" s="11"/>
-      <c r="AN80" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM80" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="AN80" s="11" t="s">
+        <v>829</v>
+      </c>
       <c r="AO80" s="33" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AP80" s="37"/>
       <c r="AQ80" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR80" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS80" s="13" t="s">
         <v>38</v>
@@ -15641,14 +15997,20 @@
         <v>105</v>
       </c>
       <c r="M81" s="37" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N81" s="35">
         <v>169</v>
       </c>
-      <c r="O81" s="12"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="12"/>
+      <c r="O81" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P81" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R81" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>54925</v>
@@ -15700,30 +16062,38 @@
         <v>105</v>
       </c>
       <c r="AG81" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH81" s="10"/>
-      <c r="AI81" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH81" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI81" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ81" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK81" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL81" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM81" s="11"/>
-      <c r="AN81" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM81" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN81" s="11" t="s">
+        <v>831</v>
+      </c>
       <c r="AO81" s="33" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AP81" s="37"/>
       <c r="AQ81" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR81" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS81" s="13" t="s">
         <v>38</v>
@@ -15777,14 +16147,20 @@
         <v>105</v>
       </c>
       <c r="M82" s="37" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="N82" s="35">
         <v>196</v>
       </c>
-      <c r="O82" s="12"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="12"/>
+      <c r="O82" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P82" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R82" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>68600</v>
@@ -15836,30 +16212,38 @@
         <v>105</v>
       </c>
       <c r="AG82" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH82" s="10"/>
-      <c r="AI82" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH82" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI82" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ82" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK82" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL82" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM82" s="11"/>
-      <c r="AN82" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM82" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="AN82" s="11" t="s">
+        <v>833</v>
+      </c>
       <c r="AO82" s="33" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AP82" s="37"/>
       <c r="AQ82" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR82" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS82" s="13" t="s">
         <v>38</v>
@@ -15913,14 +16297,20 @@
         <v>105</v>
       </c>
       <c r="M83" s="37" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="N83" s="35">
         <v>195</v>
       </c>
-      <c r="O83" s="12"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="12"/>
+      <c r="O83" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P83" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R83" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>68250</v>
@@ -15972,30 +16362,38 @@
         <v>105</v>
       </c>
       <c r="AG83" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH83" s="10"/>
-      <c r="AI83" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH83" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI83" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ83" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK83" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL83" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM83" s="11"/>
-      <c r="AN83" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM83" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="AN83" s="11" t="s">
+        <v>835</v>
+      </c>
       <c r="AO83" s="33" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AP83" s="37"/>
       <c r="AQ83" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR83" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS83" s="13" t="s">
         <v>38</v>
@@ -16049,14 +16447,20 @@
         <v>105</v>
       </c>
       <c r="M84" s="37" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N84" s="35">
         <v>181</v>
       </c>
-      <c r="O84" s="12"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="12"/>
+      <c r="O84" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P84" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R84" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>63350</v>
@@ -16108,30 +16512,38 @@
         <v>105</v>
       </c>
       <c r="AG84" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH84" s="10"/>
-      <c r="AI84" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH84" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI84" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ84" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK84" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL84" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM84" s="11"/>
-      <c r="AN84" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM84" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="AN84" s="11" t="s">
+        <v>837</v>
+      </c>
       <c r="AO84" s="33" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AP84" s="37"/>
       <c r="AQ84" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR84" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS84" s="13" t="s">
         <v>38</v>
@@ -16185,14 +16597,20 @@
         <v>105</v>
       </c>
       <c r="M85" s="37" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="N85" s="35">
         <v>277</v>
       </c>
-      <c r="O85" s="12"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="12"/>
+      <c r="O85" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P85" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R85" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>96950</v>
@@ -16244,30 +16662,38 @@
         <v>105</v>
       </c>
       <c r="AG85" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH85" s="10"/>
-      <c r="AI85" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH85" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI85" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ85" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK85" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL85" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM85" s="11"/>
-      <c r="AN85" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM85" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="AN85" s="11" t="s">
+        <v>839</v>
+      </c>
       <c r="AO85" s="33" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AP85" s="37"/>
       <c r="AQ85" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR85" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS85" s="13" t="s">
         <v>38</v>
@@ -16321,14 +16747,20 @@
         <v>105</v>
       </c>
       <c r="M86" s="37" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="N86" s="35">
         <v>142</v>
       </c>
-      <c r="O86" s="12"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="12"/>
+      <c r="O86" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P86" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R86" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>46150</v>
@@ -16380,30 +16812,38 @@
         <v>105</v>
       </c>
       <c r="AG86" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH86" s="10"/>
-      <c r="AI86" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH86" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI86" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ86" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK86" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL86" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM86" s="11"/>
-      <c r="AN86" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM86" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="AN86" s="11" t="s">
+        <v>841</v>
+      </c>
       <c r="AO86" s="33" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AP86" s="37"/>
       <c r="AQ86" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR86" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>38</v>
@@ -16457,14 +16897,20 @@
         <v>105</v>
       </c>
       <c r="M87" s="37" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="N87" s="35">
         <v>114</v>
       </c>
-      <c r="O87" s="12"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="12"/>
+      <c r="O87" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P87" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q87" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R87" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>37050</v>
@@ -16516,30 +16962,38 @@
         <v>105</v>
       </c>
       <c r="AG87" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH87" s="10"/>
-      <c r="AI87" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH87" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI87" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ87" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK87" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL87" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM87" s="11"/>
-      <c r="AN87" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM87" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="AN87" s="11" t="s">
+        <v>843</v>
+      </c>
       <c r="AO87" s="33" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AP87" s="37"/>
       <c r="AQ87" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR87" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS87" s="13" t="s">
         <v>38</v>
@@ -16593,14 +17047,20 @@
         <v>105</v>
       </c>
       <c r="M88" s="37" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="N88" s="35">
         <v>167</v>
       </c>
-      <c r="O88" s="12"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="12"/>
+      <c r="O88" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P88" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R88" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>54275</v>
@@ -16652,30 +17112,38 @@
         <v>105</v>
       </c>
       <c r="AG88" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH88" s="10"/>
-      <c r="AI88" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH88" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI88" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ88" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK88" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL88" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM88" s="11"/>
-      <c r="AN88" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM88" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="AN88" s="11" t="s">
+        <v>845</v>
+      </c>
       <c r="AO88" s="33" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AP88" s="37"/>
       <c r="AQ88" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR88" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS88" s="13" t="s">
         <v>38</v>
@@ -16729,14 +17197,20 @@
         <v>105</v>
       </c>
       <c r="M89" s="37" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="N89" s="35">
         <v>88</v>
       </c>
-      <c r="O89" s="12"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="12"/>
+      <c r="O89" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P89" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="R89" s="12">
         <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
         <v>28600</v>
@@ -16788,30 +17262,38 @@
         <v>105</v>
       </c>
       <c r="AG89" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH89" s="10"/>
-      <c r="AI89" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="AH89" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI89" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="AJ89" s="4" t="s">
-        <v>451</v>
+        <v>874</v>
       </c>
       <c r="AK89" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AL89" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM89" s="11"/>
-      <c r="AN89" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="AM89" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="AN89" s="11" t="s">
+        <v>847</v>
+      </c>
       <c r="AO89" s="33" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AP89" s="37"/>
       <c r="AQ89" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR89" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AS89" s="13" t="s">
         <v>38</v>
@@ -16841,7 +17323,7 @@
       <c r="E90" s="27">
         <v>92410</v>
       </c>
-      <c r="F90" s="39" t="s">
+      <c r="F90" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G90" s="5" t="str">
@@ -16865,7 +17347,7 @@
         <v>105</v>
       </c>
       <c r="M90" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N90" s="35">
         <v>372</v>
@@ -16932,40 +17414,40 @@
         <v>105</v>
       </c>
       <c r="AG90" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH90" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AI90" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ90" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AK90" s="5" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="AL90" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM90" s="5" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="AN90" s="5" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="AO90" s="33" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AP90" s="36" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="AQ90" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR90" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AS90" s="13" t="s">
         <v>31</v>
@@ -16995,7 +17477,7 @@
       <c r="E91" s="27">
         <v>92410</v>
       </c>
-      <c r="F91" s="39" t="s">
+      <c r="F91" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G91" s="5" t="str">
@@ -17019,7 +17501,7 @@
         <v>105</v>
       </c>
       <c r="M91" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N91" s="35">
         <v>106</v>
@@ -17086,40 +17568,40 @@
         <v>105</v>
       </c>
       <c r="AG91" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH91" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI91" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ91" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AK91" s="5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="AL91" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM91" s="11" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="AN91" s="11" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="AO91" s="33" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AP91" s="36" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="AQ91" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR91" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AS91" s="13" t="s">
         <v>31</v>
@@ -17149,7 +17631,7 @@
       <c r="E92" s="27">
         <v>92410</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G92" s="5" t="str">
@@ -17173,7 +17655,7 @@
         <v>105</v>
       </c>
       <c r="M92" s="37" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="N92" s="35">
         <v>108</v>
@@ -17240,40 +17722,40 @@
         <v>105</v>
       </c>
       <c r="AG92" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH92" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI92" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ92" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AK92" s="5" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="AL92" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM92" s="11" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="AN92" s="11" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="AO92" s="33" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AP92" s="36" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="AQ92" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR92" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AS92" s="13" t="s">
         <v>31</v>
@@ -17303,7 +17785,7 @@
       <c r="E93" s="27">
         <v>92410</v>
       </c>
-      <c r="F93" s="39" t="s">
+      <c r="F93" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G93" s="5" t="str">
@@ -17327,7 +17809,7 @@
         <v>105</v>
       </c>
       <c r="M93" s="37" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="N93" s="35">
         <v>424</v>
@@ -17394,40 +17876,40 @@
         <v>105</v>
       </c>
       <c r="AG93" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH93" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI93" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ93" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AK93" s="5" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="AL93" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM93" s="11" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="AN93" s="11" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="AO93" s="33" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AP93" s="37" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="AQ93" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR93" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AS93" s="13" t="s">
         <v>31</v>
@@ -17457,7 +17939,7 @@
       <c r="E94" s="27">
         <v>92410</v>
       </c>
-      <c r="F94" s="39" t="s">
+      <c r="F94" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G94" s="5" t="str">
@@ -17481,7 +17963,7 @@
         <v>105</v>
       </c>
       <c r="M94" s="37" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N94" s="35">
         <v>258</v>
@@ -17548,40 +18030,40 @@
         <v>105</v>
       </c>
       <c r="AG94" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH94" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI94" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ94" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AK94" s="5" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="AL94" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM94" s="11" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="AN94" s="11" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="AO94" s="33" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AP94" s="37" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="AQ94" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR94" s="11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AS94" s="13" t="s">
         <v>31</v>
@@ -17611,7 +18093,7 @@
       <c r="E95" s="27">
         <v>92410</v>
       </c>
-      <c r="F95" s="39" t="s">
+      <c r="F95" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G95" s="5" t="str">
@@ -17635,7 +18117,7 @@
         <v>105</v>
       </c>
       <c r="M95" s="37" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="N95" s="35">
         <v>152</v>
@@ -17702,40 +18184,40 @@
         <v>105</v>
       </c>
       <c r="AG95" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH95" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI95" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ95" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AK95" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="AK95" s="5" t="s">
-        <v>702</v>
-      </c>
       <c r="AL95" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM95" s="11" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="AN95" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="AO95" s="33" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AP95" s="37" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="AQ95" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR95" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AS95" s="13" t="s">
         <v>31</v>
@@ -17765,7 +18247,7 @@
       <c r="E96" s="27">
         <v>92410</v>
       </c>
-      <c r="F96" s="39" t="s">
+      <c r="F96" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G96" s="5" t="str">
@@ -17789,7 +18271,7 @@
         <v>105</v>
       </c>
       <c r="M96" s="37" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="N96" s="35">
         <v>105</v>
@@ -17856,40 +18338,40 @@
         <v>105</v>
       </c>
       <c r="AG96" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH96" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI96" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ96" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AK96" s="5" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="AL96" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM96" s="11" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="AN96" s="11" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="AO96" s="33" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AP96" s="37" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="AQ96" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR96" s="11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AS96" s="13" t="s">
         <v>31</v>
@@ -17914,12 +18396,12 @@
         <v>92</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E97" s="27">
         <v>92411</v>
       </c>
-      <c r="F97" s="39" t="s">
+      <c r="F97" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G97" s="5" t="str">
@@ -17943,7 +18425,7 @@
         <v>105</v>
       </c>
       <c r="M97" s="37" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="N97" s="35">
         <v>547</v>
@@ -18010,40 +18492,40 @@
         <v>105</v>
       </c>
       <c r="AG97" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH97" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI97" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ97" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AK97" s="5" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="AL97" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM97" s="11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="AN97" s="11" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="AO97" s="33" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="AP97" s="37" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="AQ97" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR97" s="11" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="AS97" s="13" t="s">
         <v>31</v>
@@ -18073,7 +18555,7 @@
       <c r="E98" s="27">
         <v>95000</v>
       </c>
-      <c r="F98" s="39" t="s">
+      <c r="F98" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G98" s="5" t="str">
@@ -18082,7 +18564,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>46</v>
@@ -18097,7 +18579,7 @@
         <v>105</v>
       </c>
       <c r="M98" s="36" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="N98" s="35">
         <v>286</v>
@@ -18164,40 +18646,40 @@
         <v>105</v>
       </c>
       <c r="AG98" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH98" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI98" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ98" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AK98" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AL98" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM98" s="5" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AN98" s="5" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AO98" s="33" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AP98" s="36" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AQ98" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR98" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AS98" s="13" t="s">
         <v>38</v>
@@ -18227,7 +18709,7 @@
       <c r="E99" s="27">
         <v>95000</v>
       </c>
-      <c r="F99" s="39" t="s">
+      <c r="F99" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G99" s="5" t="str">
@@ -18236,7 +18718,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>46</v>
@@ -18251,7 +18733,7 @@
         <v>105</v>
       </c>
       <c r="M99" s="37" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="N99" s="35">
         <v>84</v>
@@ -18318,40 +18800,40 @@
         <v>105</v>
       </c>
       <c r="AG99" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH99" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI99" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ99" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AK99" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AL99" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM99" s="11" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AN99" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AO99" s="33" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AP99" s="36" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AQ99" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR99" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AS99" s="13" t="s">
         <v>38</v>
@@ -18381,7 +18863,7 @@
       <c r="E100" s="27">
         <v>95000</v>
       </c>
-      <c r="F100" s="39" t="s">
+      <c r="F100" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G100" s="5" t="str">
@@ -18390,7 +18872,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>46</v>
@@ -18405,7 +18887,7 @@
         <v>105</v>
       </c>
       <c r="M100" s="37" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N100" s="35">
         <v>272</v>
@@ -18472,40 +18954,40 @@
         <v>105</v>
       </c>
       <c r="AG100" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH100" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI100" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ100" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AK100" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AL100" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM100" s="11" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="AN100" s="11" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AO100" s="33" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AP100" s="36" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="AQ100" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR100" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AS100" s="13" t="s">
         <v>38</v>
@@ -18535,7 +19017,7 @@
       <c r="E101" s="27">
         <v>95000</v>
       </c>
-      <c r="F101" s="39" t="s">
+      <c r="F101" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G101" s="5" t="str">
@@ -18544,7 +19026,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>46</v>
@@ -18559,7 +19041,7 @@
         <v>105</v>
       </c>
       <c r="M101" s="37" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="N101" s="35">
         <v>162</v>
@@ -18626,40 +19108,40 @@
         <v>105</v>
       </c>
       <c r="AG101" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH101" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI101" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ101" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AK101" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AL101" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="AN101" s="11" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="AO101" s="33" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AP101" s="36" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="AQ101" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR101" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AS101" s="13" t="s">
         <v>38</v>
@@ -18689,7 +19171,7 @@
       <c r="E102" s="27">
         <v>95000</v>
       </c>
-      <c r="F102" s="39" t="s">
+      <c r="F102" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G102" s="5" t="str">
@@ -18698,7 +19180,7 @@
 95000 - Pontoise</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>46</v>
@@ -18713,7 +19195,7 @@
         <v>105</v>
       </c>
       <c r="M102" s="37" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N102" s="35">
         <v>271</v>
@@ -18780,40 +19262,40 @@
         <v>105</v>
       </c>
       <c r="AG102" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AH102" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AI102" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ102" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AK102" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AL102" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM102" s="11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="AN102" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="AO102" s="33" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AP102" s="36" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="AQ102" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AR102" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AS102" s="13" t="s">
         <v>38</v>
@@ -18843,7 +19325,7 @@
       <c r="E103" s="26">
         <v>34470</v>
       </c>
-      <c r="F103" s="39" t="s">
+      <c r="F103" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G103" s="5" t="str">
@@ -18867,7 +19349,7 @@
         <v>105</v>
       </c>
       <c r="M103" s="36" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="N103" s="35">
         <v>144</v>
@@ -18934,34 +19416,34 @@
         <v>105</v>
       </c>
       <c r="AG103" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH103" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI103" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ103" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK103" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL103" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH103" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI103" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ103" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AK103" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL103" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM103" s="11" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="AN103" s="11" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="AO103" s="33" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AP103" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ103" s="5" t="s">
         <v>77</v>
@@ -18979,15 +19461,15 @@
       <c r="BD103" s="1"/>
     </row>
     <row r="104" spans="1:56" ht="25.5">
-      <c r="A104" s="40" t="str">
+      <c r="A104" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B104" s="40" t="str">
+      <c r="B104" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C104" s="40">
+      <c r="C104" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -18997,10 +19479,10 @@
       <c r="E104" s="10">
         <v>34470</v>
       </c>
-      <c r="F104" s="39" t="s">
+      <c r="F104" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G104" s="40" t="str">
+      <c r="G104" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19021,7 +19503,7 @@
         <v>105</v>
       </c>
       <c r="M104" s="37" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="N104" s="35">
         <v>133</v>
@@ -19088,34 +19570,34 @@
         <v>105</v>
       </c>
       <c r="AG104" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH104" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI104" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ104" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK104" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL104" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM104" s="11" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="AN104" s="11" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="AO104" s="33" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AP104" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ104" s="5" t="s">
         <v>77</v>
@@ -19135,15 +19617,15 @@
       <c r="BC104" s="16"/>
     </row>
     <row r="105" spans="1:56" ht="25.5">
-      <c r="A105" s="40" t="str">
+      <c r="A105" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B105" s="40" t="str">
+      <c r="B105" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C105" s="40">
+      <c r="C105" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19153,10 +19635,10 @@
       <c r="E105" s="10">
         <v>34470</v>
       </c>
-      <c r="F105" s="39" t="s">
+      <c r="F105" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G105" s="40" t="str">
+      <c r="G105" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19177,7 +19659,7 @@
         <v>105</v>
       </c>
       <c r="M105" s="37" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="N105" s="35">
         <v>114</v>
@@ -19244,34 +19726,34 @@
         <v>105</v>
       </c>
       <c r="AG105" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH105" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI105" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ105" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK105" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL105" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM105" s="11" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="AN105" s="11" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="AO105" s="33" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AP105" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ105" s="5" t="s">
         <v>77</v>
@@ -19285,15 +19767,15 @@
       <c r="AT105" s="14"/>
     </row>
     <row r="106" spans="1:56" ht="25.5">
-      <c r="A106" s="40" t="str">
+      <c r="A106" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B106" s="40" t="str">
+      <c r="B106" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C106" s="40">
+      <c r="C106" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19303,10 +19785,10 @@
       <c r="E106" s="10">
         <v>34470</v>
       </c>
-      <c r="F106" s="39" t="s">
+      <c r="F106" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G106" s="40" t="str">
+      <c r="G106" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19392,34 +19874,34 @@
         <v>105</v>
       </c>
       <c r="AG106" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH106" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI106" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ106" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK106" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL106" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM106" s="11" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="AN106" s="11" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="AO106" s="33" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AP106" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ106" s="5" t="s">
         <v>77</v>
@@ -19433,15 +19915,15 @@
       <c r="AT106" s="14"/>
     </row>
     <row r="107" spans="1:56" ht="25.5">
-      <c r="A107" s="40" t="str">
+      <c r="A107" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B107" s="40" t="str">
+      <c r="B107" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C107" s="40">
+      <c r="C107" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19451,10 +19933,10 @@
       <c r="E107" s="10">
         <v>34470</v>
       </c>
-      <c r="F107" s="39" t="s">
+      <c r="F107" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G107" s="40" t="str">
+      <c r="G107" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19475,7 +19957,7 @@
         <v>105</v>
       </c>
       <c r="M107" s="37" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N107" s="35">
         <v>60</v>
@@ -19542,34 +20024,34 @@
         <v>105</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH107" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI107" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ107" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK107" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL107" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM107" s="11" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="AN107" s="11" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="AO107" s="33" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AP107" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ107" s="5" t="s">
         <v>77</v>
@@ -19583,15 +20065,15 @@
       <c r="AT107" s="14"/>
     </row>
     <row r="108" spans="1:56" ht="25.5">
-      <c r="A108" s="40" t="str">
+      <c r="A108" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B108" s="40" t="str">
+      <c r="B108" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C108" s="40">
+      <c r="C108" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19601,10 +20083,10 @@
       <c r="E108" s="10">
         <v>34470</v>
       </c>
-      <c r="F108" s="39" t="s">
+      <c r="F108" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G108" s="40" t="str">
+      <c r="G108" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19625,7 +20107,7 @@
         <v>105</v>
       </c>
       <c r="M108" s="37" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N108" s="35">
         <v>60</v>
@@ -19692,34 +20174,34 @@
         <v>105</v>
       </c>
       <c r="AG108" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH108" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI108" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ108" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK108" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL108" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM108" s="11" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="AN108" s="11" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="AO108" s="33" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AP108" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ108" s="5" t="s">
         <v>77</v>
@@ -19733,15 +20215,15 @@
       <c r="AT108" s="14"/>
     </row>
     <row r="109" spans="1:56" ht="25.5">
-      <c r="A109" s="40" t="str">
+      <c r="A109" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B109" s="40" t="str">
+      <c r="B109" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C109" s="40">
+      <c r="C109" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19751,10 +20233,10 @@
       <c r="E109" s="10">
         <v>34470</v>
       </c>
-      <c r="F109" s="39" t="s">
+      <c r="F109" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G109" s="40" t="str">
+      <c r="G109" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19775,7 +20257,7 @@
         <v>105</v>
       </c>
       <c r="M109" s="37" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="N109" s="35">
         <v>96</v>
@@ -19842,34 +20324,34 @@
         <v>105</v>
       </c>
       <c r="AG109" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH109" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI109" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ109" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK109" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL109" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM109" s="11" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="AN109" s="11" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="AO109" s="33" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AP109" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ109" s="5" t="s">
         <v>77</v>
@@ -19883,15 +20365,15 @@
       <c r="AT109" s="14"/>
     </row>
     <row r="110" spans="1:56" ht="25.5">
-      <c r="A110" s="40" t="str">
+      <c r="A110" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B110" s="40" t="str">
+      <c r="B110" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C110" s="40">
+      <c r="C110" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -19901,10 +20383,10 @@
       <c r="E110" s="10">
         <v>34470</v>
       </c>
-      <c r="F110" s="39" t="s">
+      <c r="F110" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G110" s="40" t="str">
+      <c r="G110" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -19925,7 +20407,7 @@
         <v>105</v>
       </c>
       <c r="M110" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N110" s="35">
         <v>265</v>
@@ -19992,34 +20474,34 @@
         <v>105</v>
       </c>
       <c r="AG110" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH110" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI110" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ110" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK110" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL110" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM110" s="11" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="AN110" s="11" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="AO110" s="33" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AP110" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ110" s="5" t="s">
         <v>77</v>
@@ -20033,15 +20515,15 @@
       <c r="AT110" s="14"/>
     </row>
     <row r="111" spans="1:56" ht="25.5">
-      <c r="A111" s="40" t="str">
+      <c r="A111" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B111" s="40" t="str">
+      <c r="B111" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C111" s="40">
+      <c r="C111" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20051,10 +20533,10 @@
       <c r="E111" s="10">
         <v>34470</v>
       </c>
-      <c r="F111" s="39" t="s">
+      <c r="F111" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G111" s="40" t="str">
+      <c r="G111" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20075,7 +20557,7 @@
         <v>105</v>
       </c>
       <c r="M111" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N111" s="35">
         <v>63</v>
@@ -20142,34 +20624,34 @@
         <v>105</v>
       </c>
       <c r="AG111" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI111" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ111" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK111" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL111" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM111" s="11" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="AN111" s="11" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="AO111" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AP111" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ111" s="5" t="s">
         <v>77</v>
@@ -20183,15 +20665,15 @@
       <c r="AT111" s="14"/>
     </row>
     <row r="112" spans="1:56" ht="25.5">
-      <c r="A112" s="40" t="str">
+      <c r="A112" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B112" s="40" t="str">
+      <c r="B112" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C112" s="40">
+      <c r="C112" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20201,10 +20683,10 @@
       <c r="E112" s="10">
         <v>34470</v>
       </c>
-      <c r="F112" s="39" t="s">
+      <c r="F112" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G112" s="40" t="str">
+      <c r="G112" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20225,7 +20707,7 @@
         <v>105</v>
       </c>
       <c r="M112" s="37" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N112" s="35">
         <v>120</v>
@@ -20292,34 +20774,34 @@
         <v>105</v>
       </c>
       <c r="AG112" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH112" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI112" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ112" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK112" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL112" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM112" s="11" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="AN112" s="11" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="AO112" s="33" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AP112" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ112" s="5" t="s">
         <v>77</v>
@@ -20336,15 +20818,15 @@
       <c r="BD112" s="1"/>
     </row>
     <row r="113" spans="1:56" ht="25.5">
-      <c r="A113" s="40" t="str">
+      <c r="A113" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B113" s="40" t="str">
+      <c r="B113" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C113" s="40">
+      <c r="C113" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20354,10 +20836,10 @@
       <c r="E113" s="10">
         <v>34470</v>
       </c>
-      <c r="F113" s="39" t="s">
+      <c r="F113" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G113" s="40" t="str">
+      <c r="G113" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20378,7 +20860,7 @@
         <v>105</v>
       </c>
       <c r="M113" s="37" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="N113" s="35">
         <v>176</v>
@@ -20445,34 +20927,34 @@
         <v>105</v>
       </c>
       <c r="AG113" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AH113" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AI113" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AJ113" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK113" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL113" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM113" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="AN113" s="11" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="AO113" s="33" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AP113" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ113" s="5" t="s">
         <v>77</v>
@@ -20489,15 +20971,15 @@
       <c r="BD113" s="1"/>
     </row>
     <row r="114" spans="1:56" ht="25.5">
-      <c r="A114" s="40" t="str">
+      <c r="A114" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B114" s="40" t="str">
+      <c r="B114" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C114" s="40">
+      <c r="C114" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20507,10 +20989,10 @@
       <c r="E114" s="10">
         <v>34470</v>
       </c>
-      <c r="F114" s="39" t="s">
+      <c r="F114" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G114" s="40" t="str">
+      <c r="G114" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20531,7 +21013,7 @@
         <v>105</v>
       </c>
       <c r="M114" s="37" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="N114" s="35">
         <v>86</v>
@@ -20598,34 +21080,34 @@
         <v>105</v>
       </c>
       <c r="AG114" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH114" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI114" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ114" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK114" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL114" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH114" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI114" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ114" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AK114" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL114" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM114" s="11" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="AN114" s="11" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="AO114" s="33" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AP114" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ114" s="5" t="s">
         <v>77</v>
@@ -20642,15 +21124,15 @@
       <c r="BD114" s="1"/>
     </row>
     <row r="115" spans="1:56" ht="25.5">
-      <c r="A115" s="40" t="str">
+      <c r="A115" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B115" s="40" t="str">
+      <c r="B115" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C115" s="40">
+      <c r="C115" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20660,10 +21142,10 @@
       <c r="E115" s="10">
         <v>34470</v>
       </c>
-      <c r="F115" s="39" t="s">
+      <c r="F115" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G115" s="40" t="str">
+      <c r="G115" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20684,7 +21166,7 @@
         <v>105</v>
       </c>
       <c r="M115" s="37" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="N115" s="35">
         <v>86</v>
@@ -20751,34 +21233,34 @@
         <v>105</v>
       </c>
       <c r="AG115" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH115" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI115" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ115" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK115" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL115" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH115" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI115" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ115" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AK115" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL115" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM115" s="11" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="AN115" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="AO115" s="33" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AP115" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ115" s="5" t="s">
         <v>77</v>
@@ -20795,15 +21277,15 @@
       <c r="BD115" s="1"/>
     </row>
     <row r="116" spans="1:56" ht="25.5">
-      <c r="A116" s="40" t="str">
+      <c r="A116" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Occitanie</v>
       </c>
-      <c r="B116" s="40" t="str">
+      <c r="B116" s="39" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
         <v>Hérault</v>
       </c>
-      <c r="C116" s="40">
+      <c r="C116" s="39">
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>34</v>
       </c>
@@ -20813,10 +21295,10 @@
       <c r="E116" s="10">
         <v>34470</v>
       </c>
-      <c r="F116" s="39" t="s">
+      <c r="F116" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G116" s="40" t="str">
+      <c r="G116" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
         <v>C.C. Auchan Avenue Georges Frêche
 34470 - Pérols</v>
@@ -20837,7 +21319,7 @@
         <v>105</v>
       </c>
       <c r="M116" s="37" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="N116" s="35">
         <v>90</v>
@@ -20904,34 +21386,34 @@
         <v>105</v>
       </c>
       <c r="AG116" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH116" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI116" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ116" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK116" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL116" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AH116" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI116" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ116" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AK116" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL116" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AM116" s="11" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="AN116" s="11" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="AO116" s="33" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AP116" s="36" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AQ116" s="5" t="s">
         <v>77</v>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40564F4B-403C-4D59-89D0-679CC7A0E422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1E8B05-0338-4ED4-8C9D-C13BA5FDB7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="1082">
   <si>
     <t>Contact</t>
   </si>
@@ -2828,9 +2828,6 @@
     <t>Huningue</t>
   </si>
   <si>
-    <t>Vitry Le François</t>
-  </si>
-  <si>
     <t>Loches</t>
   </si>
   <si>
@@ -2939,102 +2936,6 @@
     <t>54 - 55</t>
   </si>
   <si>
-    <t>9 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR10</t>
-  </si>
-  <si>
-    <t>10 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR11</t>
-  </si>
-  <si>
-    <t>11 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR12</t>
-  </si>
-  <si>
-    <t>12 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR13</t>
-  </si>
-  <si>
-    <t>13 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR14</t>
-  </si>
-  <si>
-    <t>14 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR15</t>
-  </si>
-  <si>
-    <t>15 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR16</t>
-  </si>
-  <si>
-    <t>16 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR17</t>
-  </si>
-  <si>
-    <t>17 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR18</t>
-  </si>
-  <si>
-    <t>18 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR19</t>
-  </si>
-  <si>
-    <t>19 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR20</t>
-  </si>
-  <si>
-    <t>20 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR21</t>
-  </si>
-  <si>
-    <t>21 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR22</t>
-  </si>
-  <si>
-    <t>22 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR23</t>
-  </si>
-  <si>
-    <t>23 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR24</t>
-  </si>
-  <si>
-    <t>24 Route de Saint-Leu</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/8iiLWsQkZab33zJR25</t>
-  </si>
-  <si>
     <t>29.1</t>
   </si>
   <si>
@@ -3282,6 +3183,114 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/30%20-%20L'Isle-Adam/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/30%20-%20L'Isle-Adam/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/30%20-%20L'Isle-Adam/3.jpg</t>
+  </si>
+  <si>
+    <t>Mours</t>
+  </si>
+  <si>
+    <t>Parc d’activités Col’Vert Rue du Kiosque</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/vpxnjtFKHndYSbgW9</t>
+  </si>
+  <si>
+    <t>Urba City, Mondovélo, Les Foulées, La Grande Récrée, Cultura, Terra Kids, Basic Fit</t>
+  </si>
+  <si>
+    <t>Nouvelle commercialisation dans une zone très qualitative et commerciale (Darty, Décathlon, Naturalia, McDonald's). Projet modulable, car bâtiment à construire. Possibilité d'acheter le terrain.</t>
+  </si>
+  <si>
+    <t>49.128119</t>
+  </si>
+  <si>
+    <t>2.247133</t>
+  </si>
+  <si>
+    <t>49.128018</t>
+  </si>
+  <si>
+    <t>2.247074</t>
+  </si>
+  <si>
+    <t>49.127912</t>
+  </si>
+  <si>
+    <t>2.247010</t>
+  </si>
+  <si>
+    <t>49.127810</t>
+  </si>
+  <si>
+    <t>2.246935</t>
+  </si>
+  <si>
+    <t>49.126782</t>
+  </si>
+  <si>
+    <t>2.251495</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/EzBX5XpF18D7UW9o7</t>
+  </si>
+  <si>
+    <t>15 Boulevard Léon Bureau</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>375 €/m² = 106 875 €</t>
+  </si>
+  <si>
+    <t>310 €/m² = 69 440 €</t>
+  </si>
+  <si>
+    <t>47.206248</t>
+  </si>
+  <si>
+    <t>-1.563567</t>
+  </si>
+  <si>
+    <t>47.206310</t>
+  </si>
+  <si>
+    <t>-1.563098</t>
+  </si>
+  <si>
+    <t>Restaurants, commerce de proximité</t>
+  </si>
+  <si>
+    <t>En face des Machines de l'Île. A proximité du Palais de Justice, et de l'école des Beaux-Arts. Nouvelle construction dans un quartier d'habitation et de bureaux. Gaine à installer.</t>
+  </si>
+  <si>
+    <t>En face des Machines de l'Île. A proximité du Palais de Justice, et de l'école des Beaux-Arts. Nouvelle construction dans un quartier d'habitation et de bureaux</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.2%20-%20Nantes/2.jpg</t>
   </si>
 </sst>
 </file>
@@ -3879,8 +3888,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AT138" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:AT138" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AT145" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:AT145" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
   <tableColumns count="46">
     <tableColumn id="43" xr3:uid="{DE1D6443-0E1C-43C0-8BC8-BDC69562CB95}" name="Région" dataDxfId="45" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</calculatedColumnFormula>
@@ -4274,10 +4283,10 @@
   <dimension ref="A1:BD151"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AN118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AL133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP139" sqref="AP139"/>
+      <selection pane="bottomRight" activeCell="AP145" sqref="AP145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -22151,7 +22160,7 @@
         <v>67</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E117" s="10">
         <v>67600</v>
@@ -22238,7 +22247,7 @@
         <v>33026</v>
       </c>
       <c r="AD117" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AE117" s="6" t="s">
         <v>104</v>
@@ -22304,13 +22313,13 @@
         <v>84</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E118" s="26">
         <v>84507</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G118" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -22318,7 +22327,7 @@
 84507 - Bollène</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>47</v>
@@ -22391,7 +22400,7 @@
         <v>212755.4</v>
       </c>
       <c r="AD118" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>104</v>
@@ -22409,31 +22418,31 @@
         <v>372</v>
       </c>
       <c r="AJ118" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="AK118" s="11" t="s">
         <v>935</v>
-      </c>
-      <c r="AK118" s="11" t="s">
-        <v>936</v>
       </c>
       <c r="AL118" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM118" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="AN118" s="11" t="s">
         <v>937</v>
-      </c>
-      <c r="AN118" s="11" t="s">
-        <v>938</v>
       </c>
       <c r="AO118" s="11">
         <v>26</v>
       </c>
       <c r="AP118" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AQ118" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR118" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AS118" s="13" t="s">
         <v>923</v>
@@ -22457,7 +22466,7 @@
         <v>92</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E119" s="10">
         <v>92100</v>
@@ -22471,7 +22480,7 @@
 92100 - Boulogne-Billancourt</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I119" s="12" t="s">
         <v>45</v>
@@ -22486,7 +22495,7 @@
         <v>104</v>
       </c>
       <c r="M119" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N119" s="34">
         <v>254</v>
@@ -22563,22 +22572,22 @@
       </c>
       <c r="AJ119" s="10"/>
       <c r="AK119" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AL119" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM119" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="AN119" s="11" t="s">
         <v>945</v>
-      </c>
-      <c r="AN119" s="11" t="s">
-        <v>946</v>
       </c>
       <c r="AO119" s="11">
         <v>27</v>
       </c>
       <c r="AP119" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AQ119" s="11" t="s">
         <v>76</v>
@@ -22608,7 +22617,7 @@
         <v>75</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E120" s="10">
         <v>75020</v>
@@ -22622,7 +22631,7 @@
 75020 - Paris</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>45</v>
@@ -22713,31 +22722,31 @@
         <v>371</v>
       </c>
       <c r="AJ120" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AK120" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AL120" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM120" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="AN120" s="11" t="s">
         <v>950</v>
-      </c>
-      <c r="AN120" s="11" t="s">
-        <v>951</v>
       </c>
       <c r="AO120" s="11">
         <v>28</v>
       </c>
       <c r="AP120" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AQ120" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR120" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AS120" s="13" t="s">
         <v>31</v>
@@ -22761,13 +22770,13 @@
         <v>93</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E121" s="10">
         <v>93430</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G121" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -22775,7 +22784,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>45</v>
@@ -22790,7 +22799,7 @@
         <v>104</v>
       </c>
       <c r="M121" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N121" s="34">
         <v>163</v>
@@ -22848,7 +22857,7 @@
         <v>78240</v>
       </c>
       <c r="AD121" s="6" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="AE121" s="6" t="s">
         <v>104</v>
@@ -22866,32 +22875,32 @@
         <v>372</v>
       </c>
       <c r="AJ121" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK121" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL121" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM121" s="11" t="s">
-        <v>1032</v>
+        <v>999</v>
       </c>
       <c r="AN121" s="11" t="s">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="AO121" s="11" t="s">
-        <v>996</v>
+        <v>963</v>
       </c>
       <c r="AP121" s="36"/>
       <c r="AQ121" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR121" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS121" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT121" s="14"/>
       <c r="AW121" s="1"/>
@@ -22912,21 +22921,21 @@
         <v>93</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="E122" s="10">
-        <v>93431</v>
+        <v>93430</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G122" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>9 Route de Saint-Leu
-93431 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>45</v>
@@ -22999,7 +23008,7 @@
         <v>48960</v>
       </c>
       <c r="AD122" s="6" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="AE122" s="6" t="s">
         <v>104</v>
@@ -23017,32 +23026,32 @@
         <v>371</v>
       </c>
       <c r="AJ122" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK122" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL122" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM122" s="11" t="s">
-        <v>1034</v>
+        <v>1001</v>
       </c>
       <c r="AN122" s="11" t="s">
-        <v>1035</v>
+        <v>1002</v>
       </c>
       <c r="AO122" s="11" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="AP122" s="36"/>
       <c r="AQ122" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR122" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS122" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT122" s="14"/>
       <c r="AW122" s="1"/>
@@ -23063,21 +23072,21 @@
         <v>93</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="E123" s="10">
-        <v>93432</v>
+        <v>93430</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G123" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>10 Route de Saint-Leu
-93432 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="I123" s="12" t="s">
         <v>45</v>
@@ -23150,7 +23159,7 @@
         <v>41760</v>
       </c>
       <c r="AD123" s="6" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="AE123" s="6" t="s">
         <v>104</v>
@@ -23168,32 +23177,32 @@
         <v>371</v>
       </c>
       <c r="AJ123" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK123" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL123" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM123" s="11" t="s">
-        <v>1036</v>
+        <v>1003</v>
       </c>
       <c r="AN123" s="11" t="s">
-        <v>1037</v>
+        <v>1004</v>
       </c>
       <c r="AO123" s="11" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="AP123" s="36"/>
       <c r="AQ123" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR123" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS123" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT123" s="14"/>
       <c r="AW123" s="1"/>
@@ -23214,21 +23223,21 @@
         <v>93</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="E124" s="10">
-        <v>93433</v>
+        <v>93430</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G124" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>11 Route de Saint-Leu
-93433 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="I124" s="12" t="s">
         <v>45</v>
@@ -23243,7 +23252,7 @@
         <v>104</v>
       </c>
       <c r="M124" s="36" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N124" s="34">
         <v>438</v>
@@ -23301,7 +23310,7 @@
         <v>210240</v>
       </c>
       <c r="AD124" s="6" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
       <c r="AE124" s="6" t="s">
         <v>104</v>
@@ -23319,32 +23328,32 @@
         <v>372</v>
       </c>
       <c r="AJ124" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK124" s="11" t="s">
-        <v>1067</v>
+        <v>1034</v>
       </c>
       <c r="AL124" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM124" s="11" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="AN124" s="11" t="s">
-        <v>1039</v>
+        <v>1006</v>
       </c>
       <c r="AO124" s="11" t="s">
-        <v>999</v>
+        <v>966</v>
       </c>
       <c r="AP124" s="36"/>
       <c r="AQ124" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR124" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS124" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT124" s="14"/>
       <c r="AW124" s="1"/>
@@ -23365,21 +23374,21 @@
         <v>93</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="E125" s="10">
-        <v>93434</v>
+        <v>93430</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G125" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>12 Route de Saint-Leu
-93434 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>45</v>
@@ -23394,7 +23403,7 @@
         <v>104</v>
       </c>
       <c r="M125" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N125" s="34">
         <v>97</v>
@@ -23452,7 +23461,7 @@
         <v>46560</v>
       </c>
       <c r="AD125" s="6" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="AE125" s="6" t="s">
         <v>104</v>
@@ -23470,32 +23479,32 @@
         <v>371</v>
       </c>
       <c r="AJ125" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK125" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL125" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM125" s="11" t="s">
-        <v>1040</v>
+        <v>1007</v>
       </c>
       <c r="AN125" s="11" t="s">
-        <v>1041</v>
+        <v>1008</v>
       </c>
       <c r="AO125" s="11" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="AP125" s="36"/>
       <c r="AQ125" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR125" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS125" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT125" s="14"/>
       <c r="AW125" s="1"/>
@@ -23516,21 +23525,21 @@
         <v>93</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="E126" s="10">
-        <v>93435</v>
+        <v>93430</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G126" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>13 Route de Saint-Leu
-93435 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="I126" s="12" t="s">
         <v>45</v>
@@ -23603,7 +23612,7 @@
         <v>36000</v>
       </c>
       <c r="AD126" s="6" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="AE126" s="6" t="s">
         <v>104</v>
@@ -23621,32 +23630,32 @@
         <v>371</v>
       </c>
       <c r="AJ126" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK126" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL126" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM126" s="11" t="s">
-        <v>1048</v>
+        <v>1015</v>
       </c>
       <c r="AN126" s="11" t="s">
-        <v>1049</v>
+        <v>1016</v>
       </c>
       <c r="AO126" s="11" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="AP126" s="36"/>
       <c r="AQ126" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR126" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS126" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT126" s="14"/>
     </row>
@@ -23664,21 +23673,21 @@
         <v>93</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="E127" s="10">
-        <v>93436</v>
+        <v>93430</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G127" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>14 Route de Saint-Leu
-93436 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>975</v>
+        <v>957</v>
       </c>
       <c r="I127" s="12" t="s">
         <v>45</v>
@@ -23693,7 +23702,7 @@
         <v>104</v>
       </c>
       <c r="M127" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N127" s="34">
         <v>125</v>
@@ -23751,7 +23760,7 @@
         <v>60000</v>
       </c>
       <c r="AD127" s="6" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="AE127" s="6" t="s">
         <v>104</v>
@@ -23769,32 +23778,32 @@
         <v>371</v>
       </c>
       <c r="AJ127" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK127" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL127" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM127" s="11" t="s">
-        <v>1046</v>
+        <v>1013</v>
       </c>
       <c r="AN127" s="11" t="s">
-        <v>1047</v>
+        <v>1014</v>
       </c>
       <c r="AO127" s="11" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="AP127" s="36"/>
       <c r="AQ127" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR127" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS127" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT127" s="14"/>
     </row>
@@ -23812,21 +23821,21 @@
         <v>93</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="E128" s="10">
-        <v>93437</v>
+        <v>93430</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G128" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>15 Route de Saint-Leu
-93437 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>45</v>
@@ -23899,7 +23908,7 @@
         <v>33120</v>
       </c>
       <c r="AD128" s="6" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="AE128" s="6" t="s">
         <v>104</v>
@@ -23917,32 +23926,32 @@
         <v>371</v>
       </c>
       <c r="AJ128" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK128" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL128" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM128" s="11" t="s">
-        <v>1044</v>
+        <v>1011</v>
       </c>
       <c r="AN128" s="11" t="s">
-        <v>1045</v>
+        <v>1012</v>
       </c>
       <c r="AO128" s="11" t="s">
-        <v>1003</v>
+        <v>970</v>
       </c>
       <c r="AP128" s="36"/>
       <c r="AQ128" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR128" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS128" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT128" s="14"/>
     </row>
@@ -23960,21 +23969,21 @@
         <v>93</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="E129" s="10">
-        <v>93438</v>
+        <v>93430</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G129" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>16 Route de Saint-Leu
-93438 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>45</v>
@@ -24047,7 +24056,7 @@
         <v>31200</v>
       </c>
       <c r="AD129" s="6" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="AE129" s="6" t="s">
         <v>104</v>
@@ -24065,32 +24074,32 @@
         <v>371</v>
       </c>
       <c r="AJ129" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK129" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL129" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM129" s="11" t="s">
-        <v>1042</v>
+        <v>1009</v>
       </c>
       <c r="AN129" s="11" t="s">
-        <v>1043</v>
+        <v>1010</v>
       </c>
       <c r="AO129" s="11" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="AP129" s="36"/>
       <c r="AQ129" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR129" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS129" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT129" s="14"/>
     </row>
@@ -24108,21 +24117,21 @@
         <v>93</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="E130" s="10">
-        <v>93439</v>
+        <v>93430</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G130" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>17 Route de Saint-Leu
-93439 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="I130" s="12" t="s">
         <v>45</v>
@@ -24195,7 +24204,7 @@
         <v>35040</v>
       </c>
       <c r="AD130" s="6" t="s">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="AE130" s="6" t="s">
         <v>104</v>
@@ -24213,32 +24222,32 @@
         <v>371</v>
       </c>
       <c r="AJ130" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK130" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL130" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM130" s="11" t="s">
-        <v>1050</v>
+        <v>1017</v>
       </c>
       <c r="AN130" s="11" t="s">
-        <v>1051</v>
+        <v>1018</v>
       </c>
       <c r="AO130" s="11" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="AP130" s="36"/>
       <c r="AQ130" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR130" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS130" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT130" s="14"/>
     </row>
@@ -24256,21 +24265,21 @@
         <v>93</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="E131" s="10">
-        <v>93440</v>
+        <v>93430</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G131" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>18 Route de Saint-Leu
-93440 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>983</v>
+        <v>957</v>
       </c>
       <c r="I131" s="12" t="s">
         <v>45</v>
@@ -24343,7 +24352,7 @@
         <v>36000</v>
       </c>
       <c r="AD131" s="6" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="AE131" s="6" t="s">
         <v>104</v>
@@ -24361,32 +24370,32 @@
         <v>371</v>
       </c>
       <c r="AJ131" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK131" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL131" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM131" s="11" t="s">
-        <v>1052</v>
+        <v>1019</v>
       </c>
       <c r="AN131" s="11" t="s">
-        <v>1053</v>
+        <v>1020</v>
       </c>
       <c r="AO131" s="11" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="AP131" s="36"/>
       <c r="AQ131" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR131" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS131" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT131" s="14"/>
     </row>
@@ -24404,21 +24413,21 @@
         <v>93</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="E132" s="10">
-        <v>93441</v>
+        <v>93430</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G132" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>19 Route de Saint-Leu
-93441 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>45</v>
@@ -24491,7 +24500,7 @@
         <v>27360</v>
       </c>
       <c r="AD132" s="6" t="s">
-        <v>1024</v>
+        <v>991</v>
       </c>
       <c r="AE132" s="6" t="s">
         <v>104</v>
@@ -24509,32 +24518,32 @@
         <v>371</v>
       </c>
       <c r="AJ132" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK132" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL132" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM132" s="11" t="s">
-        <v>1054</v>
+        <v>1021</v>
       </c>
       <c r="AN132" s="11" t="s">
-        <v>1055</v>
+        <v>1022</v>
       </c>
       <c r="AO132" s="11" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="AP132" s="36"/>
       <c r="AQ132" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR132" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS132" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT132" s="14"/>
     </row>
@@ -24552,21 +24561,21 @@
         <v>93</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>986</v>
+        <v>956</v>
       </c>
       <c r="E133" s="10">
-        <v>93442</v>
+        <v>93430</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G133" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>20 Route de Saint-Leu
-93442 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>45</v>
@@ -24639,7 +24648,7 @@
         <v>27840</v>
       </c>
       <c r="AD133" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="AE133" s="6" t="s">
         <v>104</v>
@@ -24657,32 +24666,32 @@
         <v>371</v>
       </c>
       <c r="AJ133" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK133" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL133" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM133" s="11" t="s">
-        <v>1056</v>
+        <v>1023</v>
       </c>
       <c r="AN133" s="11" t="s">
-        <v>1057</v>
+        <v>1024</v>
       </c>
       <c r="AO133" s="11" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="AP133" s="36"/>
       <c r="AQ133" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR133" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS133" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT133" s="14"/>
     </row>
@@ -24700,21 +24709,21 @@
         <v>93</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="E134" s="10">
-        <v>93443</v>
+        <v>93430</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G134" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>21 Route de Saint-Leu
-93443 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>989</v>
+        <v>957</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>45</v>
@@ -24787,7 +24796,7 @@
         <v>30240</v>
       </c>
       <c r="AD134" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="AE134" s="6" t="s">
         <v>104</v>
@@ -24805,32 +24814,32 @@
         <v>371</v>
       </c>
       <c r="AJ134" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK134" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL134" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM134" s="11" t="s">
-        <v>1058</v>
+        <v>1025</v>
       </c>
       <c r="AN134" s="11" t="s">
-        <v>1059</v>
+        <v>1026</v>
       </c>
       <c r="AO134" s="11" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="AP134" s="36"/>
       <c r="AQ134" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR134" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS134" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT134" s="14"/>
     </row>
@@ -24848,21 +24857,21 @@
         <v>93</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>990</v>
+        <v>956</v>
       </c>
       <c r="E135" s="10">
-        <v>93444</v>
+        <v>93430</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G135" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>22 Route de Saint-Leu
-93444 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>991</v>
+        <v>957</v>
       </c>
       <c r="I135" s="12" t="s">
         <v>45</v>
@@ -24935,7 +24944,7 @@
         <v>40320</v>
       </c>
       <c r="AD135" s="6" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="AE135" s="6" t="s">
         <v>104</v>
@@ -24953,32 +24962,32 @@
         <v>371</v>
       </c>
       <c r="AJ135" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK135" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL135" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM135" s="11" t="s">
-        <v>1060</v>
+        <v>1027</v>
       </c>
       <c r="AN135" s="11" t="s">
-        <v>1061</v>
+        <v>1028</v>
       </c>
       <c r="AO135" s="11" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="AP135" s="36"/>
       <c r="AQ135" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR135" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS135" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT135" s="14"/>
     </row>
@@ -24996,21 +25005,21 @@
         <v>93</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>992</v>
+        <v>956</v>
       </c>
       <c r="E136" s="10">
-        <v>93445</v>
+        <v>93430</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G136" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>23 Route de Saint-Leu
-93445 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>993</v>
+        <v>957</v>
       </c>
       <c r="I136" s="12" t="s">
         <v>45</v>
@@ -25083,7 +25092,7 @@
         <v>45120</v>
       </c>
       <c r="AD136" s="6" t="s">
-        <v>1028</v>
+        <v>995</v>
       </c>
       <c r="AE136" s="6" t="s">
         <v>104</v>
@@ -25101,32 +25110,32 @@
         <v>371</v>
       </c>
       <c r="AJ136" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK136" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL136" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM136" s="11" t="s">
-        <v>1062</v>
+        <v>1029</v>
       </c>
       <c r="AN136" s="11" t="s">
-        <v>1063</v>
+        <v>1030</v>
       </c>
       <c r="AO136" s="11" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="AP136" s="36"/>
       <c r="AQ136" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR136" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS136" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT136" s="14"/>
     </row>
@@ -25144,21 +25153,21 @@
         <v>93</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>994</v>
+        <v>956</v>
       </c>
       <c r="E137" s="10">
-        <v>93446</v>
+        <v>93430</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G137" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
-        <v>24 Route de Saint-Leu
-93446 - Villetaneuse</v>
+        <v>8 Route de Saint-Leu
+93430 - Villetaneuse</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>995</v>
+        <v>957</v>
       </c>
       <c r="I137" s="12" t="s">
         <v>45</v>
@@ -25173,7 +25182,7 @@
         <v>104</v>
       </c>
       <c r="M137" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N137" s="34">
         <v>62</v>
@@ -25231,7 +25240,7 @@
         <v>29760</v>
       </c>
       <c r="AD137" s="6" t="s">
-        <v>1029</v>
+        <v>996</v>
       </c>
       <c r="AE137" s="6" t="s">
         <v>104</v>
@@ -25249,32 +25258,32 @@
         <v>371</v>
       </c>
       <c r="AJ137" s="10" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="AK137" s="11" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
       <c r="AL137" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM137" s="11" t="s">
-        <v>1064</v>
+        <v>1031</v>
       </c>
       <c r="AN137" s="11" t="s">
-        <v>1065</v>
+        <v>1032</v>
       </c>
       <c r="AO137" s="11" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="AP137" s="36"/>
       <c r="AQ137" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR137" s="11" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="AS137" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT137" s="14"/>
     </row>
@@ -25292,13 +25301,13 @@
         <v>95</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>1069</v>
+        <v>1036</v>
       </c>
       <c r="E138" s="10">
         <v>95290</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>1068</v>
+        <v>1035</v>
       </c>
       <c r="G138" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25306,7 +25315,7 @@
 95290 - L'Isle-Adam</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>1070</v>
+        <v>1037</v>
       </c>
       <c r="I138" s="12" t="s">
         <v>47</v>
@@ -25321,7 +25330,7 @@
         <v>104</v>
       </c>
       <c r="M138" s="36" t="s">
-        <v>1071</v>
+        <v>1038</v>
       </c>
       <c r="N138" s="34">
         <v>60</v>
@@ -25379,7 +25388,7 @@
         <v>54000</v>
       </c>
       <c r="AD138" s="6" t="s">
-        <v>1072</v>
+        <v>1039</v>
       </c>
       <c r="AE138" s="6" t="s">
         <v>104</v>
@@ -25397,50 +25406,1004 @@
         <v>371</v>
       </c>
       <c r="AJ138" s="10" t="s">
-        <v>1073</v>
+        <v>1040</v>
       </c>
       <c r="AK138" s="11" t="s">
-        <v>1077</v>
+        <v>1044</v>
       </c>
       <c r="AL138" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM138" s="11" t="s">
-        <v>1075</v>
+        <v>1042</v>
       </c>
       <c r="AN138" s="11" t="s">
-        <v>1076</v>
+        <v>1043</v>
       </c>
       <c r="AO138" s="11">
         <v>30</v>
       </c>
       <c r="AP138" s="36" t="s">
-        <v>1078</v>
+        <v>1045</v>
       </c>
       <c r="AQ138" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR138" s="11" t="s">
-        <v>1074</v>
+        <v>1041</v>
       </c>
       <c r="AS138" s="13" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="AT138" s="14"/>
     </row>
-    <row r="149" spans="6:6">
+    <row r="139" spans="1:46" ht="38.25">
+      <c r="A139" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B139" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-D'Oise</v>
+      </c>
+      <c r="C139" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>95</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E139" s="10">
+        <v>95260</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G139" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Parc d’activités Col’Vert Rue du Kiosque
+95260 - Mours</v>
+      </c>
+      <c r="H139" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K139" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L139" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M139" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="N139" s="34">
+        <v>620</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P139" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q139" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R139" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
+      <c r="S139" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T139" s="12"/>
+      <c r="U139" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V139" s="12"/>
+      <c r="W139" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X139" s="12"/>
+      <c r="Y139" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z139" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA139" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB139" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC139" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD139" s="12"/>
+      <c r="AE139" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF139" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG139" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH139" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI139" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ139" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AK139" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AL139" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM139" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AN139" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AO139" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AP139" s="36"/>
+      <c r="AQ139" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR139" s="11"/>
+      <c r="AS139" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="AT139" s="14"/>
+    </row>
+    <row r="140" spans="1:46" ht="38.25">
+      <c r="A140" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B140" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-D'Oise</v>
+      </c>
+      <c r="C140" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>95</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E140" s="10">
+        <v>95260</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G140" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Parc d’activités Col’Vert Rue du Kiosque
+95260 - Mours</v>
+      </c>
+      <c r="H140" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J140" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K140" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L140" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M140" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="N140" s="34">
+        <v>620</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P140" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q140" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R140" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
+      <c r="S140" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T140" s="12"/>
+      <c r="U140" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V140" s="12"/>
+      <c r="W140" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X140" s="12"/>
+      <c r="Y140" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z140" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA140" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB140" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC140" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD140" s="12"/>
+      <c r="AE140" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF140" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG140" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH140" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI140" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ140" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AK140" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AL140" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM140" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AN140" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AO140" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AP140" s="36"/>
+      <c r="AQ140" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR140" s="11"/>
+      <c r="AS140" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="AT140" s="14"/>
+    </row>
+    <row r="141" spans="1:46" ht="38.25">
+      <c r="A141" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B141" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-D'Oise</v>
+      </c>
+      <c r="C141" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>95</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E141" s="10">
+        <v>95260</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G141" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Parc d’activités Col’Vert Rue du Kiosque
+95260 - Mours</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K141" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L141" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M141" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="N141" s="34">
+        <v>620</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P141" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q141" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R141" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
+      <c r="S141" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T141" s="12"/>
+      <c r="U141" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V141" s="12"/>
+      <c r="W141" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z141" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA141" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB141" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC141" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD141" s="12"/>
+      <c r="AE141" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF141" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG141" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH141" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI141" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ141" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AK141" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AL141" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM141" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AN141" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AO141" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AP141" s="36"/>
+      <c r="AQ141" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR141" s="11"/>
+      <c r="AS141" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="AT141" s="14"/>
+    </row>
+    <row r="142" spans="1:46" ht="38.25">
+      <c r="A142" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B142" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-D'Oise</v>
+      </c>
+      <c r="C142" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>95</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E142" s="10">
+        <v>95260</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G142" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Parc d’activités Col’Vert Rue du Kiosque
+95260 - Mours</v>
+      </c>
+      <c r="H142" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L142" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M142" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="N142" s="34">
+        <v>628</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P142" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q142" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R142" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
+      <c r="S142" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T142" s="12"/>
+      <c r="U142" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V142" s="12"/>
+      <c r="W142" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z142" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA142" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB142" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC142" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD142" s="12"/>
+      <c r="AE142" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF142" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG142" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH142" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI142" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ142" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AK142" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AL142" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM142" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AN142" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AO142" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AP142" s="36"/>
+      <c r="AQ142" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR142" s="11"/>
+      <c r="AS142" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="AT142" s="14"/>
+    </row>
+    <row r="143" spans="1:46" ht="38.25">
+      <c r="A143" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B143" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-D'Oise</v>
+      </c>
+      <c r="C143" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>95</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E143" s="10">
+        <v>95260</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G143" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Parc d’activités Col’Vert Rue du Kiosque
+95260 - Mours</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K143" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L143" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M143" s="36"/>
+      <c r="N143" s="34"/>
+      <c r="O143" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P143" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q143" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R143" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
+      <c r="S143" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T143" s="12"/>
+      <c r="U143" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z143" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA143" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB143" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC143" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD143" s="12"/>
+      <c r="AE143" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF143" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG143" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH143" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI143" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ143" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AK143" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AL143" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM143" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AN143" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AO143" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AP143" s="36"/>
+      <c r="AQ143" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR143" s="11"/>
+      <c r="AS143" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="AT143" s="14"/>
+    </row>
+    <row r="144" spans="1:46" ht="38.25">
+      <c r="A144" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Pays de la Loire</v>
+      </c>
+      <c r="B144" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Loire-Atlantique</v>
+      </c>
+      <c r="C144" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>44</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E144" s="10">
+        <v>44200</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G144" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>15 Boulevard Léon Bureau
+44200 - Nantes</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K144" s="10"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="N144" s="34">
+        <v>285</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P144" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q144" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R144" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>128250</v>
+      </c>
+      <c r="S144" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>10687.5</v>
+      </c>
+      <c r="T144" s="12">
+        <v>450</v>
+      </c>
+      <c r="U144" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V144" s="12"/>
+      <c r="W144" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z144" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA144" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB144" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC144" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>128250</v>
+      </c>
+      <c r="AD144" s="12"/>
+      <c r="AE144" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF144" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG144" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH144" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI144" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ144" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AK144" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AL144" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM144" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AN144" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AO144" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AP144" s="36" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AQ144" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR144" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AS144" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT144" s="14"/>
+    </row>
+    <row r="145" spans="1:46" ht="38.25">
+      <c r="A145" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Pays de la Loire</v>
+      </c>
+      <c r="B145" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Loire-Atlantique</v>
+      </c>
+      <c r="C145" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>44</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E145" s="10">
+        <v>44200</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G145" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>15 Boulevard Léon Bureau
+44200 - Nantes</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K145" s="10"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="N145" s="34">
+        <v>224</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P145" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q145" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R145" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>78400</v>
+      </c>
+      <c r="S145" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>6533.333333333333</v>
+      </c>
+      <c r="T145" s="12">
+        <v>350</v>
+      </c>
+      <c r="U145" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V145" s="12"/>
+      <c r="W145" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z145" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA145" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB145" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC145" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>78400</v>
+      </c>
+      <c r="AD145" s="12"/>
+      <c r="AE145" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF145" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG145" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH145" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI145" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ145" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AK145" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AL145" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM145" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AN145" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AO145" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AP145" s="36" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AQ145" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR145" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AS145" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT145" s="14"/>
+    </row>
+    <row r="149" spans="1:46">
       <c r="F149" s="1" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="150" spans="6:6">
-      <c r="F150" s="1" t="s">
+    <row r="151" spans="1:46">
+      <c r="F151" s="1" t="s">
         <v>927</v>
-      </c>
-    </row>
-    <row r="151" spans="6:6">
-      <c r="F151" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -25533,23 +26496,30 @@
     <hyperlink ref="H119" r:id="rId85" xr:uid="{E9E04CFF-CDF5-48AA-B94D-6DA0AD9D2BA5}"/>
     <hyperlink ref="H120" r:id="rId86" xr:uid="{B7CDE0FD-8A09-4174-932D-FE6101C452B5}"/>
     <hyperlink ref="H121" r:id="rId87" xr:uid="{6971848A-A988-4DBF-9D23-FFFD48C1E6CD}"/>
-    <hyperlink ref="H122" r:id="rId88" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{AA3D9A2A-3EAE-4E52-8992-D668E9F8C095}"/>
-    <hyperlink ref="H123" r:id="rId89" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{1633D7CB-6065-4473-BE0B-7F01E58EA8FC}"/>
-    <hyperlink ref="H124" r:id="rId90" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{D5FE8118-F46C-4473-97EA-BA9B9E8133FB}"/>
-    <hyperlink ref="H125" r:id="rId91" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{2C45B6F6-8704-40DB-ADA1-455693FF6188}"/>
-    <hyperlink ref="H126" r:id="rId92" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{41F021C6-16D9-46A4-8BFB-27F955DA9A56}"/>
-    <hyperlink ref="H127" r:id="rId93" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{28B246BF-3BD0-4262-8B7C-2A340E61592F}"/>
-    <hyperlink ref="H128" r:id="rId94" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{DDC8DFFD-1F1D-417E-A660-6E8929DB975D}"/>
-    <hyperlink ref="H129" r:id="rId95" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{A2C3F841-EC59-4489-874D-61B54685EF90}"/>
-    <hyperlink ref="H130" r:id="rId96" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{244EA684-7B70-4E33-B8EA-6C7028CC1750}"/>
-    <hyperlink ref="H131" r:id="rId97" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{9D0E494E-7443-482A-A0C6-AB2A5D10D985}"/>
-    <hyperlink ref="H132" r:id="rId98" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{801AB4B7-A781-40DA-916D-5CEBE3560373}"/>
-    <hyperlink ref="H133" r:id="rId99" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{EE7FF82E-887D-4864-998C-E7C477EFBCDA}"/>
-    <hyperlink ref="H134" r:id="rId100" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{79F47709-69B2-4CDD-898B-D1B560AEC709}"/>
-    <hyperlink ref="H135" r:id="rId101" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{4D7B8934-D8F7-4EE3-9C79-8E50D597DE82}"/>
-    <hyperlink ref="H136" r:id="rId102" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{75DC22B2-0CE0-4B97-BE47-0281C0BDB651}"/>
-    <hyperlink ref="H137" r:id="rId103" display="https://maps.app.goo.gl/8iiLWsQkZab33zJR9" xr:uid="{E9B98108-BE07-4CB9-A0B8-12652D95F2C7}"/>
-    <hyperlink ref="H138" r:id="rId104" xr:uid="{080B1A9F-E5F0-49E3-97CD-6FCCA68308F4}"/>
+    <hyperlink ref="H138" r:id="rId88" xr:uid="{080B1A9F-E5F0-49E3-97CD-6FCCA68308F4}"/>
+    <hyperlink ref="H139" r:id="rId89" xr:uid="{60277B5C-FF5B-46B3-BBF6-66AFD5E516D1}"/>
+    <hyperlink ref="H122" r:id="rId90" xr:uid="{62405CFE-5DA9-4596-886C-3ACF426D9309}"/>
+    <hyperlink ref="H123" r:id="rId91" xr:uid="{B587046D-852F-4EB8-948D-F8411549618B}"/>
+    <hyperlink ref="H125" r:id="rId92" xr:uid="{399D402E-7B20-4D08-860B-714F86DCE34E}"/>
+    <hyperlink ref="H127" r:id="rId93" xr:uid="{CD670C98-2375-4F18-8B63-AF74138521E2}"/>
+    <hyperlink ref="H129" r:id="rId94" xr:uid="{A7F7D7EA-169E-4B8A-8DED-291B7521F6F3}"/>
+    <hyperlink ref="H131" r:id="rId95" xr:uid="{98F88FD2-383A-4139-A7C5-40E54E0859F2}"/>
+    <hyperlink ref="H133" r:id="rId96" xr:uid="{939111DF-00E5-4CD9-877C-3E829B22A01A}"/>
+    <hyperlink ref="H135" r:id="rId97" xr:uid="{10CC2294-8549-42BC-A814-C5F6C4548A64}"/>
+    <hyperlink ref="H137" r:id="rId98" xr:uid="{E7B223E3-8313-4C2F-8F51-1B96502CE206}"/>
+    <hyperlink ref="H124" r:id="rId99" xr:uid="{92E083BD-C893-485B-97AF-85307610A42F}"/>
+    <hyperlink ref="H126" r:id="rId100" xr:uid="{5E642C7F-73C6-47A9-8F05-40EA30F1E4CB}"/>
+    <hyperlink ref="H128" r:id="rId101" xr:uid="{CC865E32-87C8-46B6-9B7C-7C5CE55CC5C6}"/>
+    <hyperlink ref="H130" r:id="rId102" xr:uid="{54BBC918-33F4-4455-BB76-5E897445C5C8}"/>
+    <hyperlink ref="H132" r:id="rId103" xr:uid="{DBAA1B38-C94A-4F88-A4D2-2B9015202629}"/>
+    <hyperlink ref="H134" r:id="rId104" xr:uid="{CAD15A8F-0FDF-468F-841D-5DB3005468A0}"/>
+    <hyperlink ref="H136" r:id="rId105" xr:uid="{56259A3A-CABA-4CC7-8994-C525611F5A2A}"/>
+    <hyperlink ref="H140" r:id="rId106" xr:uid="{54D9C84A-9E79-4E6C-94AD-0B1E658B9727}"/>
+    <hyperlink ref="H141" r:id="rId107" xr:uid="{03D798D2-CCD2-4F77-BE5B-6E2A2FE47845}"/>
+    <hyperlink ref="H143" r:id="rId108" xr:uid="{0816FF13-6441-462C-A055-21680CDF255C}"/>
+    <hyperlink ref="H142" r:id="rId109" xr:uid="{01C599EF-C1DF-4C31-ADC2-E79CCD9D3420}"/>
+    <hyperlink ref="H144" r:id="rId110" xr:uid="{48DF072A-5724-4516-9EB9-B2B092F9ECBF}"/>
+    <hyperlink ref="H145" r:id="rId111" xr:uid="{2D52890D-990D-499F-92B9-790A6B56B2C1}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -25558,7 +26528,7 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId105"/>
+    <tablePart r:id="rId112"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1E8B05-0338-4ED4-8C9D-C13BA5FDB7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45F748-11E4-42FA-B394-E3492AEE3D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4429" uniqueCount="1084">
   <si>
     <t>Contact</t>
   </si>
@@ -3287,10 +3287,16 @@
     <t>En face des Machines de l'Île. A proximité du Palais de Justice, et de l'école des Beaux-Arts. Nouvelle construction dans un quartier d'habitation et de bureaux</t>
   </si>
   <si>
-    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/2.jpg</t>
-  </si>
-  <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.2%20-%20Nantes/2.jpg</t>
+  </si>
+  <si>
+    <t>Avant Cap</t>
+  </si>
+  <si>
+    <t>Lipkin</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/3.jpg</t>
   </si>
 </sst>
 </file>
@@ -4280,7 +4286,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C491A860-D730-4E53-986A-F9417B64BAFA}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:BD151"/>
+  <dimension ref="A1:BD152"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="AL133" activePane="bottomRight" state="frozen"/>
@@ -26244,7 +26250,7 @@
         <v>1066</v>
       </c>
       <c r="AP144" s="36" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="AQ144" s="11" t="s">
         <v>76</v>
@@ -26383,7 +26389,7 @@
         <v>1067</v>
       </c>
       <c r="AP145" s="36" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AQ145" s="11" t="s">
         <v>76</v>
@@ -26401,9 +26407,19 @@
         <v>926</v>
       </c>
     </row>
+    <row r="150" spans="1:46">
+      <c r="F150" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
     <row r="151" spans="1:46">
       <c r="F151" s="1" t="s">
-        <v>927</v>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="152" spans="1:46">
+      <c r="F152" s="1" t="s">
+        <v>1082</v>
       </c>
     </row>
   </sheetData>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45F748-11E4-42FA-B394-E3492AEE3D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5BE9A6-690F-4B52-AC2F-6211ED14DDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4429" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="1087">
   <si>
     <t>Contact</t>
   </si>
@@ -3297,6 +3297,15 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/3.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/29.1%20-%20Villetaneuse/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/29.1%20-%20Villetaneuse/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/29.1%20-%20Villetaneuse/3.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/2%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/2%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.5%20-%20Mours/4.jpg</t>
   </si>
 </sst>
 </file>
@@ -4289,10 +4298,10 @@
   <dimension ref="A1:BD152"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AL133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AK125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP145" sqref="AP145"/>
+      <selection pane="bottomRight" activeCell="AP144" sqref="AP144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -22898,7 +22907,9 @@
       <c r="AO121" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="AP121" s="36"/>
+      <c r="AP121" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ121" s="11" t="s">
         <v>76</v>
       </c>
@@ -23049,7 +23060,9 @@
       <c r="AO122" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="AP122" s="36"/>
+      <c r="AP122" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ122" s="11" t="s">
         <v>76</v>
       </c>
@@ -23200,7 +23213,9 @@
       <c r="AO123" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="AP123" s="36"/>
+      <c r="AP123" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ123" s="11" t="s">
         <v>76</v>
       </c>
@@ -23351,7 +23366,9 @@
       <c r="AO124" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="AP124" s="36"/>
+      <c r="AP124" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ124" s="11" t="s">
         <v>76</v>
       </c>
@@ -23502,7 +23519,9 @@
       <c r="AO125" s="11" t="s">
         <v>967</v>
       </c>
-      <c r="AP125" s="36"/>
+      <c r="AP125" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ125" s="11" t="s">
         <v>76</v>
       </c>
@@ -23653,7 +23672,9 @@
       <c r="AO126" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="AP126" s="36"/>
+      <c r="AP126" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ126" s="11" t="s">
         <v>76</v>
       </c>
@@ -23801,7 +23822,9 @@
       <c r="AO127" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="AP127" s="36"/>
+      <c r="AP127" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ127" s="11" t="s">
         <v>76</v>
       </c>
@@ -23949,7 +23972,9 @@
       <c r="AO128" s="11" t="s">
         <v>970</v>
       </c>
-      <c r="AP128" s="36"/>
+      <c r="AP128" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ128" s="11" t="s">
         <v>76</v>
       </c>
@@ -24097,7 +24122,9 @@
       <c r="AO129" s="11" t="s">
         <v>971</v>
       </c>
-      <c r="AP129" s="36"/>
+      <c r="AP129" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ129" s="11" t="s">
         <v>76</v>
       </c>
@@ -24245,7 +24272,9 @@
       <c r="AO130" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="AP130" s="36"/>
+      <c r="AP130" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ130" s="11" t="s">
         <v>76</v>
       </c>
@@ -24393,7 +24422,9 @@
       <c r="AO131" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="AP131" s="36"/>
+      <c r="AP131" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ131" s="11" t="s">
         <v>76</v>
       </c>
@@ -24541,7 +24572,9 @@
       <c r="AO132" s="11" t="s">
         <v>974</v>
       </c>
-      <c r="AP132" s="36"/>
+      <c r="AP132" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ132" s="11" t="s">
         <v>76</v>
       </c>
@@ -24689,7 +24722,9 @@
       <c r="AO133" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="AP133" s="36"/>
+      <c r="AP133" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ133" s="11" t="s">
         <v>76</v>
       </c>
@@ -24837,7 +24872,9 @@
       <c r="AO134" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="AP134" s="36"/>
+      <c r="AP134" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ134" s="11" t="s">
         <v>76</v>
       </c>
@@ -24985,7 +25022,9 @@
       <c r="AO135" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="AP135" s="36"/>
+      <c r="AP135" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ135" s="11" t="s">
         <v>76</v>
       </c>
@@ -25133,7 +25172,9 @@
       <c r="AO136" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="AP136" s="36"/>
+      <c r="AP136" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ136" s="11" t="s">
         <v>76</v>
       </c>
@@ -25281,7 +25322,9 @@
       <c r="AO137" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="AP137" s="36"/>
+      <c r="AP137" s="36" t="s">
+        <v>1084</v>
+      </c>
       <c r="AQ137" s="11" t="s">
         <v>76</v>
       </c>
@@ -25570,7 +25613,9 @@
       <c r="AO139" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="AP139" s="36"/>
+      <c r="AP139" s="36" t="s">
+        <v>1085</v>
+      </c>
       <c r="AQ139" s="11" t="s">
         <v>76</v>
       </c>
@@ -25707,7 +25752,9 @@
       <c r="AO140" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="AP140" s="36"/>
+      <c r="AP140" s="36" t="s">
+        <v>1085</v>
+      </c>
       <c r="AQ140" s="11" t="s">
         <v>76</v>
       </c>
@@ -25844,7 +25891,9 @@
       <c r="AO141" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="AP141" s="36"/>
+      <c r="AP141" s="36" t="s">
+        <v>1085</v>
+      </c>
       <c r="AQ141" s="11" t="s">
         <v>76</v>
       </c>
@@ -25981,7 +26030,9 @@
       <c r="AO142" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="AP142" s="36"/>
+      <c r="AP142" s="36" t="s">
+        <v>1085</v>
+      </c>
       <c r="AQ142" s="11" t="s">
         <v>76</v>
       </c>
@@ -26114,7 +26165,9 @@
       <c r="AO143" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="AP143" s="36"/>
+      <c r="AP143" s="36" t="s">
+        <v>1086</v>
+      </c>
       <c r="AQ143" s="11" t="s">
         <v>76</v>
       </c>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5BE9A6-690F-4B52-AC2F-6211ED14DDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5B6EF-9530-40C5-9453-2612B20ABFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="1068">
   <si>
     <t>Contact</t>
   </si>
@@ -2843,12 +2843,6 @@
     <t>Hypermarché Leclerc Bollène, 1 Route de Saint-Paul-trois-Châteaux</t>
   </si>
   <si>
-    <t>2 mois = 25 800 €</t>
-  </si>
-  <si>
-    <t>2 mois = 4 833 €</t>
-  </si>
-  <si>
     <t>Hyper Leclerc 100 M€, Nocibé, Histoire d'Or, Afflelou, Marionnaud, mode, chaussures, coiffure, pressing</t>
   </si>
   <si>
@@ -2990,54 +2984,6 @@
     <t>Lidl, B&amp;M, Basic Fit, Electro Depot, Smyths Toys, Ange, Afflelou, décoration, mode</t>
   </si>
   <si>
-    <t>3 mois = 14 263 €</t>
-  </si>
-  <si>
-    <t>3 mois = 8 925 €</t>
-  </si>
-  <si>
-    <t>3 mois = 7 613 €</t>
-  </si>
-  <si>
-    <t>3 mois = 38 325</t>
-  </si>
-  <si>
-    <t>3 mois = 8 488 €</t>
-  </si>
-  <si>
-    <t>3 mois = 6 563 €</t>
-  </si>
-  <si>
-    <t>3 mois = 10 938 €</t>
-  </si>
-  <si>
-    <t>3 mois = 6 038 €</t>
-  </si>
-  <si>
-    <t>3 mois = 5 688 €</t>
-  </si>
-  <si>
-    <t>3 mois = 6 388 €</t>
-  </si>
-  <si>
-    <t>3 mois = 4 988 €</t>
-  </si>
-  <si>
-    <t>3 mois = 5 075 €</t>
-  </si>
-  <si>
-    <t>3 mois = 5 513 €</t>
-  </si>
-  <si>
-    <t>3 mois = 7 350 €</t>
-  </si>
-  <si>
-    <t>3 mois = 8 225 €</t>
-  </si>
-  <si>
-    <t>3 mois = 5 425 €</t>
-  </si>
-  <si>
     <t>Entre 220 et 330 €/m²</t>
   </si>
   <si>
@@ -3162,9 +3108,6 @@
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>3 mois = 12 000 €</t>
   </si>
   <si>
     <t>Hyper Carrefour, Sephora, Nocibé, Chevignon, Histoire d'Or, Yves Rocher, Armand Thierry, Micromania</t>
@@ -3544,34 +3487,6 @@
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3848,6 +3763,34 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3917,61 +3860,61 @@
     </tableColumn>
     <tableColumn id="22" xr3:uid="{807881FC-FCFC-4E58-94E6-974968140DE0}" name="Rue" dataDxfId="42" dataCellStyle="Normal 2"/>
     <tableColumn id="24" xr3:uid="{5BC55846-88AA-4EB3-AA6F-8E4CFB785641}" name="Code Postal" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="17" xr3:uid="{35EE7115-51F8-4E1F-AD3E-33A05B4BE6AA}" name="Ville" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="34" xr3:uid="{BCDF1767-53B8-4755-BA69-6972BF82336C}" name="Adresse" dataDxfId="0" dataCellStyle="Normal 2">
+    <tableColumn id="17" xr3:uid="{35EE7115-51F8-4E1F-AD3E-33A05B4BE6AA}" name="Ville" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="34" xr3:uid="{BCDF1767-53B8-4755-BA69-6972BF82336C}" name="Adresse" dataDxfId="39" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Rue]]&amp;Tableau1[[#This Row],[Code Postal]]&amp;Tableau1[[#This Row],[Ville]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F16F96D2-ED03-45AB-90ED-8D480A7B0261}" name="Lien Google Maps" dataDxfId="1" dataCellStyle="Normal 2">
+    <tableColumn id="18" xr3:uid="{F16F96D2-ED03-45AB-90ED-8D480A7B0261}" name="Lien Google Maps" dataDxfId="38" dataCellStyle="Normal 2">
       <calculatedColumnFormula array="1">Extrait_hyperlien(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{172E07C4-0318-49AC-A621-9C0E3C5C5B5D}" name="Emplacement" dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{95EAECC7-A016-42C4-9C47-2CABFEAEC577}" name="Typologie" dataDxfId="39" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{8C8D77C7-8B55-471A-B479-215BC0D77604}" name="Type" dataDxfId="38" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{87D84239-5323-4A47-9424-F0CADB050723}" name="Cession / Droit au bail" dataDxfId="37" dataCellStyle="Normal 2"/>
-    <tableColumn id="31" xr3:uid="{86770348-6586-45F2-A401-94B68504976F}" name="Numéro de lot" dataDxfId="36" dataCellStyle="Normal 2"/>
-    <tableColumn id="1" xr3:uid="{3888DEAC-D743-4A06-B622-0805DADF7B24}" name="Surface GLA" dataDxfId="35" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{0D61162C-F920-419C-993E-EDC2DF105B61}" name="Répartition surface GLA" dataDxfId="34" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{9969DD5B-5EA2-4595-B887-2E9B21053A55}" name="Surface utile" dataDxfId="33" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{3DFB9473-7064-409A-A47B-5544538EC4AE}" name="Répartition surface utile" dataDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{A744513A-B9BE-426C-9A67-F73FDBDA82D8}" name="Loyer annuel" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{356A37C1-BF3E-4357-A954-82A182007A4A}" name="Loyer Mensuel" dataDxfId="30" dataCellStyle="Normal 2">
+    <tableColumn id="15" xr3:uid="{172E07C4-0318-49AC-A621-9C0E3C5C5B5D}" name="Emplacement" dataDxfId="37" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{95EAECC7-A016-42C4-9C47-2CABFEAEC577}" name="Typologie" dataDxfId="36" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8C8D77C7-8B55-471A-B479-215BC0D77604}" name="Type" dataDxfId="35" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{87D84239-5323-4A47-9424-F0CADB050723}" name="Cession / Droit au bail" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="31" xr3:uid="{86770348-6586-45F2-A401-94B68504976F}" name="Numéro de lot" dataDxfId="33" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{3888DEAC-D743-4A06-B622-0805DADF7B24}" name="Surface GLA" dataDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{0D61162C-F920-419C-993E-EDC2DF105B61}" name="Répartition surface GLA" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{9969DD5B-5EA2-4595-B887-2E9B21053A55}" name="Surface utile" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{3DFB9473-7064-409A-A47B-5544538EC4AE}" name="Répartition surface utile" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{A744513A-B9BE-426C-9A67-F73FDBDA82D8}" name="Loyer annuel" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{356A37C1-BF3E-4357-A954-82A182007A4A}" name="Loyer Mensuel" dataDxfId="27" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{767012B1-AABD-475A-8A4D-3B7DA0A65895}" name="Loyer €/m²" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="30" xr3:uid="{1B20B1A4-ACFD-45E3-955E-514E88115368}" name="Loyer variable" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{2A7DA589-64F1-4CF6-8C82-38781BD9EC1D}" name="Charges annuelles" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{440DF5B1-3CC3-4785-9C23-94B007AF5E1B}" name="Charges Mensuelles" dataDxfId="26" dataCellStyle="Normal 2">
+    <tableColumn id="11" xr3:uid="{767012B1-AABD-475A-8A4D-3B7DA0A65895}" name="Loyer €/m²" dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="30" xr3:uid="{1B20B1A4-ACFD-45E3-955E-514E88115368}" name="Loyer variable" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{2A7DA589-64F1-4CF6-8C82-38781BD9EC1D}" name="Charges annuelles" dataDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{440DF5B1-3CC3-4785-9C23-94B007AF5E1B}" name="Charges Mensuelles" dataDxfId="23" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Charges annuelles]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4129B281-2FE2-4CF1-9B2A-1383495B75F8}" name="Charges €/m²" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="23" xr3:uid="{8D958AF5-4590-4B2C-91C7-84AA83299F72}" name="Taxe foncière" dataDxfId="24" dataCellStyle="Normal 2">
+    <tableColumn id="19" xr3:uid="{4129B281-2FE2-4CF1-9B2A-1383495B75F8}" name="Charges €/m²" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="23" xr3:uid="{8D958AF5-4590-4B2C-91C7-84AA83299F72}" name="Taxe foncière" dataDxfId="21" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{3ED0377F-0AC3-483C-A382-DCE0304838BB}" name="Taxe foncière €/m²" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="37" xr3:uid="{DCF6EDF6-4C11-48C1-B6A2-F68E6553ECAE}" name="Marketing" dataDxfId="22" dataCellStyle="Normal 2">
+    <tableColumn id="25" xr3:uid="{3ED0377F-0AC3-483C-A382-DCE0304838BB}" name="Taxe foncière €/m²" dataDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="37" xr3:uid="{DCF6EDF6-4C11-48C1-B6A2-F68E6553ECAE}" name="Marketing" dataDxfId="19" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{0670F3CF-44F2-4728-8A06-52C034D6BD30}" name="Marketing €/m²" dataDxfId="21" dataCellStyle="Normal 2"/>
-    <tableColumn id="39" xr3:uid="{5F4F5D62-4EE8-4561-AFC9-FBA26AD0FEB9}" name="Total (L+C+M)" dataDxfId="20" dataCellStyle="Normal 2">
+    <tableColumn id="26" xr3:uid="{0670F3CF-44F2-4728-8A06-52C034D6BD30}" name="Marketing €/m²" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="39" xr3:uid="{5F4F5D62-4EE8-4561-AFC9-FBA26AD0FEB9}" name="Total (L+C+M)" dataDxfId="17" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{95C0AA56-6C81-4449-BBAF-48D6559B29F4}" name="Dépôt de garantie" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="33" xr3:uid="{5D2CDDBF-0016-4D42-9FA2-C6BE7187A781}" name="GAPD" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="27" xr3:uid="{AE6532DB-DF7C-4137-958E-CF0878BAF4EA}" name="Gestion" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="29" xr3:uid="{C7D740EB-05A5-4C80-B626-4AE327C99B0E}" name="Etat de livraison" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{F202F9CF-E361-49F7-BCB2-41601DB0A090}" name="Extraction" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="38" xr3:uid="{1E22D9C1-89FA-49FF-9893-8AC79191E4A6}" name="Restauration" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="28" xr3:uid="{BF030FEC-E7AF-42C6-AC39-B670759A4BC7}" name="Environnement Commercial" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{D3CC4D5A-911C-4939-9024-731260442272}" name="Commentaires" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="40" xr3:uid="{5463AA4C-3D9C-45CF-B81C-A3755D028F2B}" name="Honoraires" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="36" xr3:uid="{EBABBF90-FEC0-4C48-8EB4-A8DB85141CEF}" name="Latitude" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="35" xr3:uid="{FDA62BB3-971D-4771-BFF4-42A78D749576}" name="Longitude" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="32" xr3:uid="{95C0AA56-6C81-4449-BBAF-48D6559B29F4}" name="Dépôt de garantie" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="33" xr3:uid="{5D2CDDBF-0016-4D42-9FA2-C6BE7187A781}" name="GAPD" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="27" xr3:uid="{AE6532DB-DF7C-4137-958E-CF0878BAF4EA}" name="Gestion" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="29" xr3:uid="{C7D740EB-05A5-4C80-B626-4AE327C99B0E}" name="Etat de livraison" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{F202F9CF-E361-49F7-BCB2-41601DB0A090}" name="Extraction" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="38" xr3:uid="{1E22D9C1-89FA-49FF-9893-8AC79191E4A6}" name="Restauration" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="28" xr3:uid="{BF030FEC-E7AF-42C6-AC39-B670759A4BC7}" name="Environnement Commercial" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{D3CC4D5A-911C-4939-9024-731260442272}" name="Commentaires" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="40" xr3:uid="{5463AA4C-3D9C-45CF-B81C-A3755D028F2B}" name="Honoraires" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="36" xr3:uid="{EBABBF90-FEC0-4C48-8EB4-A8DB85141CEF}" name="Latitude" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="35" xr3:uid="{FDA62BB3-971D-4771-BFF4-42A78D749576}" name="Longitude" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4298,10 +4241,10 @@
   <dimension ref="A1:BD152"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AK125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="U128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP144" sqref="AP144"/>
+      <selection pane="bottomRight" activeCell="AD138" sqref="AD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -22261,8 +22204,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>33026</v>
       </c>
-      <c r="AD117" s="12" t="s">
-        <v>933</v>
+      <c r="AD117" s="12" t="str">
+        <f>"2 mois = "&amp;TEXT(ROUND(2/12*R117,0),"### ### ##0 €")</f>
+        <v>2 mois = 4 900 €</v>
       </c>
       <c r="AE117" s="6" t="s">
         <v>104</v>
@@ -22414,8 +22358,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>212755.4</v>
       </c>
-      <c r="AD118" s="12" t="s">
-        <v>932</v>
+      <c r="AD118" s="12" t="str">
+        <f>"2 mois = "&amp;TEXT(ROUND(2/12*R118,0),"### ### ##0 €")</f>
+        <v>2 mois = 27 950 €</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>104</v>
@@ -22433,31 +22378,31 @@
         <v>372</v>
       </c>
       <c r="AJ118" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AK118" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AL118" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM118" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AN118" s="11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AO118" s="11">
         <v>26</v>
       </c>
       <c r="AP118" s="36" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AQ118" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR118" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AS118" s="13" t="s">
         <v>923</v>
@@ -22481,7 +22426,7 @@
         <v>92</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E119" s="10">
         <v>92100</v>
@@ -22495,7 +22440,7 @@
 92100 - Boulogne-Billancourt</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I119" s="12" t="s">
         <v>45</v>
@@ -22510,7 +22455,7 @@
         <v>104</v>
       </c>
       <c r="M119" s="36" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="N119" s="34">
         <v>254</v>
@@ -22587,22 +22532,22 @@
       </c>
       <c r="AJ119" s="10"/>
       <c r="AK119" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AL119" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM119" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AN119" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AO119" s="11">
         <v>27</v>
       </c>
       <c r="AP119" s="36" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AQ119" s="11" t="s">
         <v>76</v>
@@ -22632,7 +22577,7 @@
         <v>75</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E120" s="10">
         <v>75020</v>
@@ -22646,7 +22591,7 @@
 75020 - Paris</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>45</v>
@@ -22737,31 +22682,31 @@
         <v>371</v>
       </c>
       <c r="AJ120" s="10" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AK120" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AL120" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM120" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AN120" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AO120" s="11">
         <v>28</v>
       </c>
       <c r="AP120" s="36" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AQ120" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR120" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AS120" s="13" t="s">
         <v>31</v>
@@ -22785,13 +22730,13 @@
         <v>93</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E121" s="10">
         <v>93430</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G121" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -22799,7 +22744,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>45</v>
@@ -22814,7 +22759,7 @@
         <v>104</v>
       </c>
       <c r="M121" s="36" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="N121" s="34">
         <v>163</v>
@@ -22871,8 +22816,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>78240</v>
       </c>
-      <c r="AD121" s="6" t="s">
-        <v>981</v>
+      <c r="AD121" s="12" t="str">
+        <f t="shared" ref="AD121:AD133" si="0">"3 mois = "&amp;TEXT(ROUND(3/12*R121,0),"### ### ##0 €")</f>
+        <v>3 mois = 14 263 €</v>
       </c>
       <c r="AE121" s="6" t="s">
         <v>104</v>
@@ -22890,34 +22836,34 @@
         <v>372</v>
       </c>
       <c r="AJ121" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK121" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL121" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM121" s="11" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="AN121" s="11" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="AO121" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AP121" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ121" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR121" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS121" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT121" s="14"/>
       <c r="AW121" s="1"/>
@@ -22938,13 +22884,13 @@
         <v>93</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E122" s="10">
         <v>93430</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G122" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -22952,7 +22898,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>45</v>
@@ -23024,8 +22970,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>48960</v>
       </c>
-      <c r="AD122" s="6" t="s">
-        <v>982</v>
+      <c r="AD122" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 8 925 €</v>
       </c>
       <c r="AE122" s="6" t="s">
         <v>104</v>
@@ -23043,34 +22990,34 @@
         <v>371</v>
       </c>
       <c r="AJ122" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK122" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL122" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM122" s="11" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="AN122" s="11" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="AO122" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AP122" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ122" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR122" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS122" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT122" s="14"/>
       <c r="AW122" s="1"/>
@@ -23091,13 +23038,13 @@
         <v>93</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E123" s="10">
         <v>93430</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G123" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23105,7 +23052,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I123" s="12" t="s">
         <v>45</v>
@@ -23177,8 +23124,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>41760</v>
       </c>
-      <c r="AD123" s="6" t="s">
-        <v>983</v>
+      <c r="AD123" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 7 613 €</v>
       </c>
       <c r="AE123" s="6" t="s">
         <v>104</v>
@@ -23196,34 +23144,34 @@
         <v>371</v>
       </c>
       <c r="AJ123" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK123" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL123" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM123" s="11" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="AN123" s="11" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="AO123" s="11" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AP123" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ123" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR123" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS123" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT123" s="14"/>
       <c r="AW123" s="1"/>
@@ -23244,13 +23192,13 @@
         <v>93</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E124" s="10">
         <v>93430</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G124" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23258,7 +23206,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I124" s="12" t="s">
         <v>45</v>
@@ -23273,7 +23221,7 @@
         <v>104</v>
       </c>
       <c r="M124" s="36" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="N124" s="34">
         <v>438</v>
@@ -23330,8 +23278,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>210240</v>
       </c>
-      <c r="AD124" s="6" t="s">
-        <v>984</v>
+      <c r="AD124" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 38 325 €</v>
       </c>
       <c r="AE124" s="6" t="s">
         <v>104</v>
@@ -23349,34 +23298,34 @@
         <v>372</v>
       </c>
       <c r="AJ124" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK124" s="11" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="AL124" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM124" s="11" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="AN124" s="11" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="AO124" s="11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AP124" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ124" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR124" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS124" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT124" s="14"/>
       <c r="AW124" s="1"/>
@@ -23397,13 +23346,13 @@
         <v>93</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E125" s="10">
         <v>93430</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G125" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23411,7 +23360,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>45</v>
@@ -23426,7 +23375,7 @@
         <v>104</v>
       </c>
       <c r="M125" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="N125" s="34">
         <v>97</v>
@@ -23483,8 +23432,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>46560</v>
       </c>
-      <c r="AD125" s="6" t="s">
-        <v>985</v>
+      <c r="AD125" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 8 488 €</v>
       </c>
       <c r="AE125" s="6" t="s">
         <v>104</v>
@@ -23502,34 +23452,34 @@
         <v>371</v>
       </c>
       <c r="AJ125" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK125" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL125" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM125" s="11" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="AN125" s="11" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="AO125" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AP125" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ125" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR125" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS125" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT125" s="14"/>
       <c r="AW125" s="1"/>
@@ -23550,13 +23500,13 @@
         <v>93</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E126" s="10">
         <v>93430</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G126" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23564,7 +23514,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I126" s="12" t="s">
         <v>45</v>
@@ -23636,8 +23586,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>36000</v>
       </c>
-      <c r="AD126" s="6" t="s">
-        <v>986</v>
+      <c r="AD126" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 6 563 €</v>
       </c>
       <c r="AE126" s="6" t="s">
         <v>104</v>
@@ -23655,34 +23606,34 @@
         <v>371</v>
       </c>
       <c r="AJ126" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK126" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL126" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM126" s="11" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="AN126" s="11" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="AO126" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AP126" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ126" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR126" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS126" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT126" s="14"/>
     </row>
@@ -23700,13 +23651,13 @@
         <v>93</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E127" s="10">
         <v>93430</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G127" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23714,7 +23665,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I127" s="12" t="s">
         <v>45</v>
@@ -23729,7 +23680,7 @@
         <v>104</v>
       </c>
       <c r="M127" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="N127" s="34">
         <v>125</v>
@@ -23786,8 +23737,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>60000</v>
       </c>
-      <c r="AD127" s="6" t="s">
-        <v>987</v>
+      <c r="AD127" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 10 938 €</v>
       </c>
       <c r="AE127" s="6" t="s">
         <v>104</v>
@@ -23805,34 +23757,34 @@
         <v>371</v>
       </c>
       <c r="AJ127" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK127" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL127" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM127" s="11" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="AN127" s="11" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="AO127" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AP127" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ127" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR127" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS127" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT127" s="14"/>
     </row>
@@ -23850,13 +23802,13 @@
         <v>93</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E128" s="10">
         <v>93430</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G128" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23864,7 +23816,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>45</v>
@@ -23936,8 +23888,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>33120</v>
       </c>
-      <c r="AD128" s="6" t="s">
-        <v>988</v>
+      <c r="AD128" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 6 038 €</v>
       </c>
       <c r="AE128" s="6" t="s">
         <v>104</v>
@@ -23955,34 +23908,34 @@
         <v>371</v>
       </c>
       <c r="AJ128" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK128" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL128" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM128" s="11" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
       <c r="AN128" s="11" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="AO128" s="11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AP128" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ128" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR128" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS128" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT128" s="14"/>
     </row>
@@ -24000,13 +23953,13 @@
         <v>93</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E129" s="10">
         <v>93430</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G129" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24014,7 +23967,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>45</v>
@@ -24086,8 +24039,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>31200</v>
       </c>
-      <c r="AD129" s="6" t="s">
-        <v>989</v>
+      <c r="AD129" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 5 688 €</v>
       </c>
       <c r="AE129" s="6" t="s">
         <v>104</v>
@@ -24105,34 +24059,34 @@
         <v>371</v>
       </c>
       <c r="AJ129" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK129" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL129" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM129" s="11" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="AN129" s="11" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
       <c r="AO129" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AP129" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ129" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR129" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS129" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT129" s="14"/>
     </row>
@@ -24150,13 +24104,13 @@
         <v>93</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E130" s="10">
         <v>93430</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G130" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24164,7 +24118,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I130" s="12" t="s">
         <v>45</v>
@@ -24236,8 +24190,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>35040</v>
       </c>
-      <c r="AD130" s="6" t="s">
-        <v>990</v>
+      <c r="AD130" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 6 388 €</v>
       </c>
       <c r="AE130" s="6" t="s">
         <v>104</v>
@@ -24255,34 +24210,34 @@
         <v>371</v>
       </c>
       <c r="AJ130" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK130" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL130" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM130" s="11" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="AN130" s="11" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="AO130" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AP130" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ130" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR130" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS130" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT130" s="14"/>
     </row>
@@ -24300,13 +24255,13 @@
         <v>93</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E131" s="10">
         <v>93430</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G131" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24314,7 +24269,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I131" s="12" t="s">
         <v>45</v>
@@ -24386,8 +24341,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>36000</v>
       </c>
-      <c r="AD131" s="6" t="s">
-        <v>986</v>
+      <c r="AD131" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 6 563 €</v>
       </c>
       <c r="AE131" s="6" t="s">
         <v>104</v>
@@ -24405,34 +24361,34 @@
         <v>371</v>
       </c>
       <c r="AJ131" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK131" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL131" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM131" s="11" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="AN131" s="11" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="AO131" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AP131" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ131" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR131" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS131" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT131" s="14"/>
     </row>
@@ -24450,13 +24406,13 @@
         <v>93</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E132" s="10">
         <v>93430</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G132" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24464,7 +24420,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>45</v>
@@ -24536,8 +24492,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>27360</v>
       </c>
-      <c r="AD132" s="6" t="s">
-        <v>991</v>
+      <c r="AD132" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 4 988 €</v>
       </c>
       <c r="AE132" s="6" t="s">
         <v>104</v>
@@ -24555,34 +24512,34 @@
         <v>371</v>
       </c>
       <c r="AJ132" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK132" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL132" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM132" s="11" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="AN132" s="11" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="AO132" s="11" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AP132" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ132" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR132" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS132" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT132" s="14"/>
     </row>
@@ -24600,13 +24557,13 @@
         <v>93</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E133" s="10">
         <v>93430</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G133" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24614,7 +24571,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>45</v>
@@ -24686,8 +24643,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>27840</v>
       </c>
-      <c r="AD133" s="6" t="s">
-        <v>992</v>
+      <c r="AD133" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 5 075 €</v>
       </c>
       <c r="AE133" s="6" t="s">
         <v>104</v>
@@ -24705,34 +24663,34 @@
         <v>371</v>
       </c>
       <c r="AJ133" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK133" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL133" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM133" s="11" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="AN133" s="11" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="AO133" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AP133" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ133" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR133" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS133" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT133" s="14"/>
     </row>
@@ -24750,13 +24708,13 @@
         <v>93</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E134" s="10">
         <v>93430</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G134" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24764,7 +24722,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>45</v>
@@ -24836,8 +24794,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>30240</v>
       </c>
-      <c r="AD134" s="6" t="s">
-        <v>993</v>
+      <c r="AD134" s="12" t="str">
+        <f t="shared" ref="AD134:AD137" si="1">"3 mois = "&amp;TEXT(ROUND(3/12*R134,0),"### ### ##0 €")</f>
+        <v>3 mois = 5 513 €</v>
       </c>
       <c r="AE134" s="6" t="s">
         <v>104</v>
@@ -24855,34 +24814,34 @@
         <v>371</v>
       </c>
       <c r="AJ134" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK134" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL134" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM134" s="11" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="AN134" s="11" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="AO134" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AP134" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ134" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR134" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS134" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT134" s="14"/>
     </row>
@@ -24900,13 +24859,13 @@
         <v>93</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E135" s="10">
         <v>93430</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G135" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24914,7 +24873,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I135" s="12" t="s">
         <v>45</v>
@@ -24986,8 +24945,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>40320</v>
       </c>
-      <c r="AD135" s="6" t="s">
-        <v>994</v>
+      <c r="AD135" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 7 350 €</v>
       </c>
       <c r="AE135" s="6" t="s">
         <v>104</v>
@@ -25005,34 +24965,34 @@
         <v>371</v>
       </c>
       <c r="AJ135" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK135" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL135" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM135" s="11" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="AN135" s="11" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="AO135" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AP135" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ135" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR135" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS135" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT135" s="14"/>
     </row>
@@ -25050,13 +25010,13 @@
         <v>93</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E136" s="10">
         <v>93430</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G136" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25064,7 +25024,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I136" s="12" t="s">
         <v>45</v>
@@ -25136,8 +25096,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>45120</v>
       </c>
-      <c r="AD136" s="6" t="s">
-        <v>995</v>
+      <c r="AD136" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 8 225 €</v>
       </c>
       <c r="AE136" s="6" t="s">
         <v>104</v>
@@ -25155,34 +25116,34 @@
         <v>371</v>
       </c>
       <c r="AJ136" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK136" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL136" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM136" s="11" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
       <c r="AN136" s="11" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="AO136" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AP136" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ136" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR136" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS136" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT136" s="14"/>
     </row>
@@ -25200,13 +25161,13 @@
         <v>93</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E137" s="10">
         <v>93430</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G137" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25214,7 +25175,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I137" s="12" t="s">
         <v>45</v>
@@ -25229,7 +25190,7 @@
         <v>104</v>
       </c>
       <c r="M137" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="N137" s="34">
         <v>62</v>
@@ -25286,8 +25247,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>29760</v>
       </c>
-      <c r="AD137" s="6" t="s">
-        <v>996</v>
+      <c r="AD137" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 5 425 €</v>
       </c>
       <c r="AE137" s="6" t="s">
         <v>104</v>
@@ -25305,34 +25267,34 @@
         <v>371</v>
       </c>
       <c r="AJ137" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK137" s="11" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="AL137" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM137" s="11" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="AN137" s="11" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="AO137" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="AP137" s="36" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="AQ137" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR137" s="11" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="AS137" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT137" s="14"/>
     </row>
@@ -25350,13 +25312,13 @@
         <v>95</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="E138" s="10">
         <v>95290</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="G138" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25364,7 +25326,7 @@
 95290 - L'Isle-Adam</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="I138" s="12" t="s">
         <v>47</v>
@@ -25379,7 +25341,7 @@
         <v>104</v>
       </c>
       <c r="M138" s="36" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="N138" s="34">
         <v>60</v>
@@ -25436,8 +25398,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>54000</v>
       </c>
-      <c r="AD138" s="6" t="s">
-        <v>1039</v>
+      <c r="AD138" s="12" t="str">
+        <f>"3 mois = "&amp;TEXT(ROUND(3/12*R138,0),"### ### ##0 €")</f>
+        <v>3 mois = 12 000 €</v>
       </c>
       <c r="AE138" s="6" t="s">
         <v>104</v>
@@ -25455,34 +25418,34 @@
         <v>371</v>
       </c>
       <c r="AJ138" s="10" t="s">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="AK138" s="11" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="AL138" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM138" s="11" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
       <c r="AN138" s="11" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="AO138" s="11">
         <v>30</v>
       </c>
       <c r="AP138" s="36" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="AQ138" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR138" s="11" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="AS138" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT138" s="14"/>
     </row>
@@ -25500,13 +25463,13 @@
         <v>95</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="E139" s="10">
         <v>95260</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="G139" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25514,7 +25477,7 @@
 95260 - Mours</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="I139" s="12" t="s">
         <v>47</v>
@@ -25596,32 +25559,32 @@
         <v>372</v>
       </c>
       <c r="AJ139" s="10" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="AK139" s="11" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="AL139" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM139" s="11" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="AN139" s="11" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="AO139" s="11" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
       <c r="AP139" s="36" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="AQ139" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR139" s="11"/>
       <c r="AS139" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT139" s="14"/>
     </row>
@@ -25639,13 +25602,13 @@
         <v>95</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="E140" s="10">
         <v>95260</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="G140" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25653,7 +25616,7 @@
 95260 - Mours</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="I140" s="12" t="s">
         <v>47</v>
@@ -25735,32 +25698,32 @@
         <v>372</v>
       </c>
       <c r="AJ140" s="10" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="AK140" s="11" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="AL140" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM140" s="11" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="AN140" s="11" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="AO140" s="11" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="AP140" s="36" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="AQ140" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR140" s="11"/>
       <c r="AS140" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT140" s="14"/>
     </row>
@@ -25778,13 +25741,13 @@
         <v>95</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="E141" s="10">
         <v>95260</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="G141" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25792,7 +25755,7 @@
 95260 - Mours</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="I141" s="12" t="s">
         <v>47</v>
@@ -25874,32 +25837,32 @@
         <v>372</v>
       </c>
       <c r="AJ141" s="10" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="AK141" s="11" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="AL141" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM141" s="11" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="AN141" s="11" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="AO141" s="11" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
       <c r="AP141" s="36" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="AQ141" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR141" s="11"/>
       <c r="AS141" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT141" s="14"/>
     </row>
@@ -25917,13 +25880,13 @@
         <v>95</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="E142" s="10">
         <v>95260</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="G142" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25931,7 +25894,7 @@
 95260 - Mours</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="I142" s="12" t="s">
         <v>47</v>
@@ -26013,32 +25976,32 @@
         <v>372</v>
       </c>
       <c r="AJ142" s="10" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="AK142" s="11" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="AL142" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM142" s="11" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="AN142" s="11" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="AO142" s="11" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="AP142" s="36" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="AQ142" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR142" s="11"/>
       <c r="AS142" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT142" s="14"/>
     </row>
@@ -26056,13 +26019,13 @@
         <v>95</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="E143" s="10">
         <v>95260</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="G143" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26070,7 +26033,7 @@
 95260 - Mours</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="I143" s="12" t="s">
         <v>47</v>
@@ -26148,32 +26111,32 @@
         <v>372</v>
       </c>
       <c r="AJ143" s="10" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="AK143" s="11" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="AL143" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM143" s="11" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="AN143" s="11" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="AO143" s="11" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="AP143" s="36" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="AQ143" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR143" s="11"/>
       <c r="AS143" s="13" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="AT143" s="14"/>
     </row>
@@ -26191,13 +26154,13 @@
         <v>44</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="E144" s="10">
         <v>44200</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="G144" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26205,7 +26168,7 @@
 44200 - Nantes</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="I144" s="12" t="s">
         <v>45</v>
@@ -26285,31 +26248,31 @@
         <v>372</v>
       </c>
       <c r="AJ144" s="10" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="AK144" s="11" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="AL144" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM144" s="11" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="AN144" s="11" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="AO144" s="11" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="AP144" s="36" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="AQ144" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR144" s="11" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="AS144" s="13" t="s">
         <v>37</v>
@@ -26330,13 +26293,13 @@
         <v>44</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="E145" s="10">
         <v>44200</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="G145" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26344,7 +26307,7 @@
 44200 - Nantes</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="I145" s="12" t="s">
         <v>45</v>
@@ -26424,31 +26387,31 @@
         <v>371</v>
       </c>
       <c r="AJ145" s="10" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="AK145" s="11" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="AL145" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM145" s="11" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="AN145" s="11" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="AO145" s="11" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="AP145" s="36" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="AQ145" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR145" s="11" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="AS145" s="13" t="s">
         <v>37</v>
@@ -26467,12 +26430,12 @@
     </row>
     <row r="151" spans="1:46">
       <c r="F151" s="1" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="152" spans="1:46">
       <c r="F152" s="1" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5B6EF-9530-40C5-9453-2612B20ABFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EAD35E-E66C-4955-9756-996EA5FAFCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4485" uniqueCount="1086">
   <si>
     <t>Contact</t>
   </si>
@@ -3249,13 +3249,68 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/2%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.1%20-%20Mours/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/31.5%20-%20Mours/4.jpg</t>
+  </si>
+  <si>
+    <t>5 avenue d'Alsace</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Li1LEavQXMdoEcnp6</t>
+  </si>
+  <si>
+    <t>47.596972</t>
+  </si>
+  <si>
+    <t>7.583361</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/x6dcSwrDVoZjnYt46</t>
+  </si>
+  <si>
+    <t>Super U 38 Route de Vauzelles, Rue du Bon Raisin</t>
+  </si>
+  <si>
+    <t>Coiffeur, Restaurant, Atol, services</t>
+  </si>
+  <si>
+    <t>47.134859</t>
+  </si>
+  <si>
+    <t>0.981750</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>Super U Loches</t>
+  </si>
+  <si>
+    <t>Leclerc Saint-Louis</t>
+  </si>
+  <si>
+    <t>300 €/m² = 21 900 €</t>
+  </si>
+  <si>
+    <t>Charges et taxes comprises. Local en angle d'un supermarché de 50 M€ dans une très belle zone 100% commercialisée (Intersport, Bricomarché, V&amp;B, Maxizoo, Chaussea, Optical Centre, etc.)</t>
+  </si>
+  <si>
+    <t>Dans un retail Park avec drive Leclerc, à la frontière avec l'Allemagne et la Suisse</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/33%20-%20Huningue/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/33%20-%20Huningue/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/33%20-%20Huningue/3.png</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/5%20plan%20cellules%20magasin.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-40C];[Red]\-#,##0\ [$€-40C]"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="General&quot; m²&quot;"/>
@@ -3337,7 +3392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3347,6 +3402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8E8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3366,7 +3427,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3478,6 +3539,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3846,8 +3913,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AT145" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:AT145" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AT147" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:AT147" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
   <tableColumns count="46">
     <tableColumn id="43" xr3:uid="{DE1D6443-0E1C-43C0-8BC8-BDC69562CB95}" name="Région" dataDxfId="45" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</calculatedColumnFormula>
@@ -4238,13 +4305,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C491A860-D730-4E53-986A-F9417B64BAFA}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:BD152"/>
+  <dimension ref="A1:BD154"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="U128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AL138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD138" sqref="AD138"/>
+      <selection pane="bottomRight" activeCell="AP148" sqref="AP148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -25311,7 +25378,7 @@
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>95</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="42" t="s">
         <v>1018</v>
       </c>
       <c r="E138" s="10">
@@ -25462,7 +25529,7 @@
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>95</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="E139" s="10">
@@ -25601,7 +25668,7 @@
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>95</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="E140" s="10">
@@ -25740,7 +25807,7 @@
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>95</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="E141" s="10">
@@ -25879,7 +25946,7 @@
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>95</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="E142" s="10">
@@ -26018,7 +26085,7 @@
         <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
         <v>95</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="42" t="s">
         <v>1028</v>
       </c>
       <c r="E143" s="10">
@@ -26047,7 +26114,9 @@
       <c r="L143" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M143" s="36"/>
+      <c r="M143" s="36" t="s">
+        <v>361</v>
+      </c>
       <c r="N143" s="34"/>
       <c r="O143" s="6" t="s">
         <v>104</v>
@@ -26176,8 +26245,12 @@
       <c r="J144" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K144" s="10"/>
-      <c r="L144" s="12"/>
+      <c r="K144" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L144" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="M144" s="36" t="s">
         <v>337</v>
       </c>
@@ -26315,8 +26388,12 @@
       <c r="J145" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K145" s="10"/>
-      <c r="L145" s="12"/>
+      <c r="K145" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L145" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="M145" s="36" t="s">
         <v>338</v>
       </c>
@@ -26418,23 +26495,290 @@
       </c>
       <c r="AT145" s="14"/>
     </row>
-    <row r="149" spans="1:46">
-      <c r="F149" s="1" t="s">
+    <row r="146" spans="1:46" ht="25.5">
+      <c r="A146" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Grand Est</v>
+      </c>
+      <c r="B146" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Haut-Rhin</v>
+      </c>
+      <c r="C146" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>68</v>
+      </c>
+      <c r="D146" s="42" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E146" s="10">
+        <v>68330</v>
+      </c>
+      <c r="F146" s="10" t="s">
         <v>926</v>
       </c>
+      <c r="G146" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>5 avenue d'Alsace
+68330 - Huningue</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K146" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L146" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M146" s="36" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N146" s="34">
+        <v>287</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P146" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R146" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
+      <c r="S146" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T146" s="12"/>
+      <c r="U146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V146" s="12"/>
+      <c r="W146" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA146" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC146" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD146" s="12"/>
+      <c r="AE146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG146" s="12"/>
+      <c r="AH146" s="10"/>
+      <c r="AI146" s="10"/>
+      <c r="AJ146" s="10"/>
+      <c r="AK146" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AL146" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM146" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AN146" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AO146" s="11">
+        <v>33</v>
+      </c>
+      <c r="AP146" s="36" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AQ146" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR146" s="11"/>
+      <c r="AS146" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AT146" s="14"/>
     </row>
-    <row r="150" spans="1:46">
-      <c r="F150" s="1" t="s">
+    <row r="147" spans="1:46" ht="38.25">
+      <c r="A147" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Centre-Val de Loire</v>
+      </c>
+      <c r="B147" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Indre-et-Loire</v>
+      </c>
+      <c r="C147" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>37</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E147" s="10">
+        <v>37600</v>
+      </c>
+      <c r="F147" s="10" t="s">
         <v>927</v>
       </c>
+      <c r="G147" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Super U 38 Route de Vauzelles, Rue du Bon Raisin
+37600 - Loches</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K147" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L147" s="12">
+        <v>25000</v>
+      </c>
+      <c r="M147" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="N147" s="34">
+        <v>73</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P147" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q147" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R147" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>25550</v>
+      </c>
+      <c r="S147" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>2129.1666666666665</v>
+      </c>
+      <c r="T147" s="12">
+        <v>350</v>
+      </c>
+      <c r="U147" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V147" s="12"/>
+      <c r="W147" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z147" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA147" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB147" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC147" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>25550</v>
+      </c>
+      <c r="AD147" s="12" t="str">
+        <f>"3 mois = "&amp;TEXT(ROUND(3/12*R147,0),"### ### ##0 €")</f>
+        <v>3 mois = 6 388 €</v>
+      </c>
+      <c r="AE147" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF147" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG147" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH147" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI147" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ147" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AK147" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AL147" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM147" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AN147" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AO147" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AP147" s="36" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AQ147" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR147" s="43" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AS147" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AT147" s="14"/>
     </row>
-    <row r="151" spans="1:46">
-      <c r="F151" s="1" t="s">
+    <row r="153" spans="1:46">
+      <c r="F153" s="1" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="152" spans="1:46">
-      <c r="F152" s="1" t="s">
+    <row r="154" spans="1:46">
+      <c r="F154" s="1" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -26552,6 +26896,8 @@
     <hyperlink ref="H142" r:id="rId109" xr:uid="{01C599EF-C1DF-4C31-ADC2-E79CCD9D3420}"/>
     <hyperlink ref="H144" r:id="rId110" xr:uid="{48DF072A-5724-4516-9EB9-B2B092F9ECBF}"/>
     <hyperlink ref="H145" r:id="rId111" xr:uid="{2D52890D-990D-499F-92B9-790A6B56B2C1}"/>
+    <hyperlink ref="H146" r:id="rId112" xr:uid="{D89787FE-D414-4ADC-AC02-C8B9D2520919}"/>
+    <hyperlink ref="H147" r:id="rId113" xr:uid="{83F81C45-2D7B-4019-9457-DB12A08DE525}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -26560,7 +26906,7 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId112"/>
+    <tablePart r:id="rId114"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EAD35E-E66C-4955-9756-996EA5FAFCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ACBF54-EC73-468C-9D31-A96313B885C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4485" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="1105">
   <si>
     <t>Contact</t>
   </si>
@@ -3281,9 +3281,6 @@
     <t>0.981750</t>
   </si>
   <si>
-    <t>34.1</t>
-  </si>
-  <si>
     <t>Super U Loches</t>
   </si>
   <si>
@@ -3303,6 +3300,66 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/34.1%20-%20Loches/5%20plan%20cellules%20magasin.jpg</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/K9R5sQxCB3Rf4pa6A</t>
+  </si>
+  <si>
+    <t>Extension de 7 000 m² d'un retail Park commercialisé à 100 % autour d'un supermarché U de 50 M€ hors essence Intersport, Bricomarché, V&amp;B, Maxizoo, Chaussea, Optical Centre, etc.</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>135 €/m²</t>
+  </si>
+  <si>
+    <t>Projet à définir</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>47.134100</t>
+  </si>
+  <si>
+    <t>0.980457</t>
+  </si>
+  <si>
+    <t>47.134252</t>
+  </si>
+  <si>
+    <t>0.980154</t>
+  </si>
+  <si>
+    <t>47.134410</t>
+  </si>
+  <si>
+    <t>0.979889</t>
+  </si>
+  <si>
+    <t>47.134735</t>
+  </si>
+  <si>
+    <t>0.979787</t>
+  </si>
+  <si>
+    <t>47.134934</t>
+  </si>
+  <si>
+    <t>0.980034</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/35.1%20Loches/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/35.1%20Loches/2%20Aper%C3%A7u%20Projet%20Retail%20Park%20Loches.jpg</t>
   </si>
 </sst>
 </file>
@@ -3913,8 +3970,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AT147" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:AT147" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AT152" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:AT152" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
   <tableColumns count="46">
     <tableColumn id="43" xr3:uid="{DE1D6443-0E1C-43C0-8BC8-BDC69562CB95}" name="Région" dataDxfId="45" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</calculatedColumnFormula>
@@ -4308,10 +4365,10 @@
   <dimension ref="A1:BD154"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AL138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AM138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP148" sqref="AP148"/>
+      <selection pane="bottomRight" activeCell="AP149" sqref="AP149:AP152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -25585,7 +25642,10 @@
       <c r="U139" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V139" s="12"/>
+      <c r="V139" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W139" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -25724,7 +25784,10 @@
       <c r="U140" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V140" s="12"/>
+      <c r="V140" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W140" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -25863,7 +25926,10 @@
       <c r="U141" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V141" s="12"/>
+      <c r="V141" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W141" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -26002,7 +26068,10 @@
       <c r="U142" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V142" s="12"/>
+      <c r="V142" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W142" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -26139,7 +26208,10 @@
       <c r="U143" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V143" s="12"/>
+      <c r="V143" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W143" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -26280,7 +26352,10 @@
       <c r="U144" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V144" s="12"/>
+      <c r="V144" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W144" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -26423,7 +26498,10 @@
       <c r="U145" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V145" s="12"/>
+      <c r="V145" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W145" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -26564,7 +26642,10 @@
       <c r="U146" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V146" s="12"/>
+      <c r="V146" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W146" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -26600,7 +26681,7 @@
       <c r="AI146" s="10"/>
       <c r="AJ146" s="10"/>
       <c r="AK146" s="11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AL146" s="5" t="s">
         <v>370</v>
@@ -26615,14 +26696,14 @@
         <v>33</v>
       </c>
       <c r="AP146" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AQ146" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR146" s="11"/>
       <c r="AS146" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AT146" s="14"/>
     </row>
@@ -26697,7 +26778,10 @@
       <c r="U147" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="V147" s="12"/>
+      <c r="V147" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>0</v>
+      </c>
       <c r="W147" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
         <v>0</v>
@@ -26744,7 +26828,7 @@
         <v>1075</v>
       </c>
       <c r="AK147" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AL147" s="5" t="s">
         <v>370</v>
@@ -26755,22 +26839,782 @@
       <c r="AN147" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="AO147" s="11" t="s">
-        <v>1078</v>
+      <c r="AO147" s="11">
+        <v>34</v>
       </c>
       <c r="AP147" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AQ147" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR147" s="43" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AS147" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AT147" s="14"/>
+    </row>
+    <row r="148" spans="1:46" ht="38.25">
+      <c r="A148" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Centre-Val de Loire</v>
+      </c>
+      <c r="B148" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Indre-et-Loire</v>
+      </c>
+      <c r="C148" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>37</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E148" s="10">
+        <v>37600</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="G148" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Super U 38 Route de Vauzelles, Rue du Bon Raisin
+37600 - Loches</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J148" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K148" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L148" s="12">
+        <f>100*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>20000</v>
+      </c>
+      <c r="M148" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="N148" s="34">
+        <v>200</v>
+      </c>
+      <c r="O148" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P148" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q148" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R148" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>40000</v>
+      </c>
+      <c r="S148" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="T148" s="12">
+        <v>200</v>
+      </c>
+      <c r="U148" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V148" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>10000</v>
+      </c>
+      <c r="W148" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="X148" s="12">
+        <v>50</v>
+      </c>
+      <c r="Y148" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>6000</v>
+      </c>
+      <c r="Z148" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA148" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB148" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC148" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>56000</v>
+      </c>
+      <c r="AD148" s="12" t="str">
+        <f t="shared" ref="AD148:AD152" si="2">"3 mois = "&amp;TEXT(ROUND(3/12*R148,0),"### ### ##0 €")</f>
+        <v>3 mois = 10 000 €</v>
+      </c>
+      <c r="AE148" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF148" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG148" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH148" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI148" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ148" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AK148" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AL148" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM148" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AN148" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AO148" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AP148" s="36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AQ148" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR148" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AS148" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AT148" s="14"/>
+    </row>
+    <row r="149" spans="1:46" ht="38.25">
+      <c r="A149" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Centre-Val de Loire</v>
+      </c>
+      <c r="B149" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Indre-et-Loire</v>
+      </c>
+      <c r="C149" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>37</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E149" s="10">
+        <v>37601</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="G149" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Super U 38 Route de Vauzelles, Rue du Bon Raisin
+37601 - Loches</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J149" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K149" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L149" s="12">
+        <f>100*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>50000</v>
+      </c>
+      <c r="M149" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="N149" s="34">
+        <v>500</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P149" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q149" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R149" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>100000</v>
+      </c>
+      <c r="S149" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="T149" s="12">
+        <v>200</v>
+      </c>
+      <c r="U149" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V149" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>25000</v>
+      </c>
+      <c r="W149" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="X149" s="12">
+        <v>50</v>
+      </c>
+      <c r="Y149" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>15000</v>
+      </c>
+      <c r="Z149" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA149" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB149" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC149" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>140000</v>
+      </c>
+      <c r="AD149" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3 mois = 25 000 €</v>
+      </c>
+      <c r="AE149" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF149" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG149" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH149" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI149" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ149" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AK149" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AL149" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM149" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AN149" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AO149" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AP149" s="36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AQ149" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR149" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AS149" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AT149" s="14"/>
+    </row>
+    <row r="150" spans="1:46" ht="38.25">
+      <c r="A150" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Centre-Val de Loire</v>
+      </c>
+      <c r="B150" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Indre-et-Loire</v>
+      </c>
+      <c r="C150" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>37</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E150" s="10">
+        <v>37602</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="G150" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Super U 38 Route de Vauzelles, Rue du Bon Raisin
+37602 - Loches</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J150" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K150" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L150" s="12">
+        <f>100*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>100000</v>
+      </c>
+      <c r="M150" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="N150" s="34">
+        <v>1000</v>
+      </c>
+      <c r="O150" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P150" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q150" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R150" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>200000</v>
+      </c>
+      <c r="S150" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>16666.666666666668</v>
+      </c>
+      <c r="T150" s="12">
+        <v>200</v>
+      </c>
+      <c r="U150" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V150" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>50000</v>
+      </c>
+      <c r="W150" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="X150" s="12">
+        <v>50</v>
+      </c>
+      <c r="Y150" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>30000</v>
+      </c>
+      <c r="Z150" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA150" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB150" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC150" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>280000</v>
+      </c>
+      <c r="AD150" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3 mois = 50 000 €</v>
+      </c>
+      <c r="AE150" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF150" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG150" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH150" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI150" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ150" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AK150" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AL150" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM150" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AN150" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AO150" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AP150" s="36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AQ150" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR150" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AS150" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AT150" s="14"/>
+    </row>
+    <row r="151" spans="1:46" ht="38.25">
+      <c r="A151" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Centre-Val de Loire</v>
+      </c>
+      <c r="B151" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Indre-et-Loire</v>
+      </c>
+      <c r="C151" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>37</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E151" s="10">
+        <v>37603</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="G151" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Super U 38 Route de Vauzelles, Rue du Bon Raisin
+37603 - Loches</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K151" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L151" s="12">
+        <f>100*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>200000</v>
+      </c>
+      <c r="M151" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="N151" s="34">
+        <v>2000</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P151" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q151" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R151" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>400000</v>
+      </c>
+      <c r="S151" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>33333.333333333336</v>
+      </c>
+      <c r="T151" s="12">
+        <v>200</v>
+      </c>
+      <c r="U151" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V151" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>100000</v>
+      </c>
+      <c r="W151" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="X151" s="12">
+        <v>50</v>
+      </c>
+      <c r="Y151" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>60000</v>
+      </c>
+      <c r="Z151" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA151" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB151" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC151" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>560000</v>
+      </c>
+      <c r="AD151" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3 mois = 100 000 €</v>
+      </c>
+      <c r="AE151" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF151" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG151" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH151" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI151" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ151" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AK151" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AL151" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM151" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AN151" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AO151" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AP151" s="36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AQ151" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR151" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AS151" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AT151" s="14"/>
+    </row>
+    <row r="152" spans="1:46" ht="38.25">
+      <c r="A152" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Centre-Val de Loire</v>
+      </c>
+      <c r="B152" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Indre-et-Loire</v>
+      </c>
+      <c r="C152" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>37</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E152" s="10">
+        <v>37604</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="G152" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Super U 38 Route de Vauzelles, Rue du Bon Raisin
+37604 - Loches</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L152" s="12">
+        <f>100*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>500000</v>
+      </c>
+      <c r="M152" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="N152" s="34">
+        <v>5000</v>
+      </c>
+      <c r="O152" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P152" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q152" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R152" s="12">
+        <f>Tableau1[[#This Row],[Loyer €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>1000000</v>
+      </c>
+      <c r="S152" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>83333.333333333328</v>
+      </c>
+      <c r="T152" s="12">
+        <v>200</v>
+      </c>
+      <c r="U152" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V152" s="6">
+        <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
+        <v>250000</v>
+      </c>
+      <c r="W152" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>20833.333333333332</v>
+      </c>
+      <c r="X152" s="12">
+        <v>50</v>
+      </c>
+      <c r="Y152" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>150000</v>
+      </c>
+      <c r="Z152" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA152" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB152" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC152" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>1400000</v>
+      </c>
+      <c r="AD152" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3 mois = 250 000 €</v>
+      </c>
+      <c r="AE152" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF152" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG152" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH152" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI152" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ152" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AK152" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AL152" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM152" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AN152" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AO152" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AP152" s="36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AQ152" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR152" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AS152" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AT152" s="14"/>
     </row>
     <row r="153" spans="1:46">
       <c r="F153" s="1" t="s">
@@ -26898,6 +27742,11 @@
     <hyperlink ref="H145" r:id="rId111" xr:uid="{2D52890D-990D-499F-92B9-790A6B56B2C1}"/>
     <hyperlink ref="H146" r:id="rId112" xr:uid="{D89787FE-D414-4ADC-AC02-C8B9D2520919}"/>
     <hyperlink ref="H147" r:id="rId113" xr:uid="{83F81C45-2D7B-4019-9457-DB12A08DE525}"/>
+    <hyperlink ref="H148" r:id="rId114" xr:uid="{5DD490B2-A51A-488D-BCDE-B83932141509}"/>
+    <hyperlink ref="H149" r:id="rId115" xr:uid="{8FDF2590-E1B8-4CE8-9753-7BFB747102D3}"/>
+    <hyperlink ref="H150" r:id="rId116" xr:uid="{F9E1A7BC-0810-451D-AAC4-F0BE420D1B9F}"/>
+    <hyperlink ref="H151" r:id="rId117" xr:uid="{6B38E304-7485-42E7-9EFC-3CDA0B79C692}"/>
+    <hyperlink ref="H152" r:id="rId118" xr:uid="{9BAD643D-2774-4811-AF7F-3253EB54E8FC}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -26906,7 +27755,7 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId114"/>
+    <tablePart r:id="rId119"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ACBF54-EC73-468C-9D31-A96313B885C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394606E2-CA7B-4FDC-9247-20715E382D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -2729,75 +2729,6 @@
     <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6</t>
   </si>
   <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.2%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.3%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.3%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.4%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.5%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.5%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.6%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.7%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.7%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.8%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.8%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.9%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.10%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.10%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.11%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.12%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.13%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.14%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.15%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.16%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.17%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.18%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.19%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.20%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.20%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.21%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.21%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.22%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/GbjLcfXKvoPHqUjX6; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.23%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
-  </si>
-  <si>
     <t>Sélestat</t>
   </si>
   <si>
@@ -3360,6 +3291,75 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/35.1%20Loches/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/35.1%20Loches/2%20Aper%C3%A7u%20Projet%20Retail%20Park%20Loches.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.2%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.3%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.3%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.4%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.5%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.5%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.6%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.7%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.7%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.8%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.8%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.9%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.10%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.10%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.11%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.12%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.13%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.14%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.15%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.16%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.17%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.18%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.19%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.20%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.20%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.21%20-%20Ch%C3%A2tenay-Malabry/4.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.21%20-%20Ch%C3%A2tenay-Malabry/5.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.22%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.23%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
   </si>
 </sst>
 </file>
@@ -4365,10 +4365,10 @@
   <dimension ref="A1:BD154"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AM138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AM67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP149" sqref="AP149:AP152"/>
+      <selection pane="bottomRight" activeCell="AP90" sqref="AP90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -14698,7 +14698,7 @@
         <v>505</v>
       </c>
       <c r="AP67" s="35" t="s">
-        <v>894</v>
+        <v>1082</v>
       </c>
       <c r="AQ67" s="5" t="s">
         <v>76</v>
@@ -14852,7 +14852,7 @@
         <v>506</v>
       </c>
       <c r="AP68" s="35" t="s">
-        <v>895</v>
+        <v>1083</v>
       </c>
       <c r="AQ68" s="5" t="s">
         <v>76</v>
@@ -15006,7 +15006,7 @@
         <v>507</v>
       </c>
       <c r="AP69" s="35" t="s">
-        <v>896</v>
+        <v>1084</v>
       </c>
       <c r="AQ69" s="5" t="s">
         <v>76</v>
@@ -15160,7 +15160,7 @@
         <v>508</v>
       </c>
       <c r="AP70" s="35" t="s">
-        <v>897</v>
+        <v>1085</v>
       </c>
       <c r="AQ70" s="5" t="s">
         <v>76</v>
@@ -15314,7 +15314,7 @@
         <v>509</v>
       </c>
       <c r="AP71" s="35" t="s">
-        <v>898</v>
+        <v>1086</v>
       </c>
       <c r="AQ71" s="5" t="s">
         <v>76</v>
@@ -15468,7 +15468,7 @@
         <v>510</v>
       </c>
       <c r="AP72" s="35" t="s">
-        <v>899</v>
+        <v>1087</v>
       </c>
       <c r="AQ72" s="5" t="s">
         <v>76</v>
@@ -15622,7 +15622,7 @@
         <v>511</v>
       </c>
       <c r="AP73" s="35" t="s">
-        <v>900</v>
+        <v>1088</v>
       </c>
       <c r="AQ73" s="5" t="s">
         <v>76</v>
@@ -15776,7 +15776,7 @@
         <v>512</v>
       </c>
       <c r="AP74" s="35" t="s">
-        <v>901</v>
+        <v>1089</v>
       </c>
       <c r="AQ74" s="5" t="s">
         <v>76</v>
@@ -15930,7 +15930,7 @@
         <v>513</v>
       </c>
       <c r="AP75" s="35" t="s">
-        <v>902</v>
+        <v>1090</v>
       </c>
       <c r="AQ75" s="5" t="s">
         <v>76</v>
@@ -16084,7 +16084,7 @@
         <v>514</v>
       </c>
       <c r="AP76" s="35" t="s">
-        <v>903</v>
+        <v>1091</v>
       </c>
       <c r="AQ76" s="5" t="s">
         <v>76</v>
@@ -16238,7 +16238,7 @@
         <v>515</v>
       </c>
       <c r="AP77" s="35" t="s">
-        <v>904</v>
+        <v>1092</v>
       </c>
       <c r="AQ77" s="5" t="s">
         <v>76</v>
@@ -16392,7 +16392,7 @@
         <v>516</v>
       </c>
       <c r="AP78" s="35" t="s">
-        <v>905</v>
+        <v>1093</v>
       </c>
       <c r="AQ78" s="5" t="s">
         <v>76</v>
@@ -16546,7 +16546,7 @@
         <v>517</v>
       </c>
       <c r="AP79" s="35" t="s">
-        <v>906</v>
+        <v>1094</v>
       </c>
       <c r="AQ79" s="5" t="s">
         <v>76</v>
@@ -16700,7 +16700,7 @@
         <v>518</v>
       </c>
       <c r="AP80" s="35" t="s">
-        <v>907</v>
+        <v>1095</v>
       </c>
       <c r="AQ80" s="5" t="s">
         <v>76</v>
@@ -16854,7 +16854,7 @@
         <v>519</v>
       </c>
       <c r="AP81" s="35" t="s">
-        <v>908</v>
+        <v>1096</v>
       </c>
       <c r="AQ81" s="5" t="s">
         <v>76</v>
@@ -17008,7 +17008,7 @@
         <v>520</v>
       </c>
       <c r="AP82" s="35" t="s">
-        <v>909</v>
+        <v>1097</v>
       </c>
       <c r="AQ82" s="5" t="s">
         <v>76</v>
@@ -17162,7 +17162,7 @@
         <v>521</v>
       </c>
       <c r="AP83" s="35" t="s">
-        <v>910</v>
+        <v>1098</v>
       </c>
       <c r="AQ83" s="5" t="s">
         <v>76</v>
@@ -17316,7 +17316,7 @@
         <v>522</v>
       </c>
       <c r="AP84" s="35" t="s">
-        <v>911</v>
+        <v>1099</v>
       </c>
       <c r="AQ84" s="5" t="s">
         <v>76</v>
@@ -17470,7 +17470,7 @@
         <v>523</v>
       </c>
       <c r="AP85" s="35" t="s">
-        <v>912</v>
+        <v>1100</v>
       </c>
       <c r="AQ85" s="5" t="s">
         <v>76</v>
@@ -17624,7 +17624,7 @@
         <v>524</v>
       </c>
       <c r="AP86" s="35" t="s">
-        <v>913</v>
+        <v>1101</v>
       </c>
       <c r="AQ86" s="5" t="s">
         <v>76</v>
@@ -17778,7 +17778,7 @@
         <v>525</v>
       </c>
       <c r="AP87" s="35" t="s">
-        <v>914</v>
+        <v>1102</v>
       </c>
       <c r="AQ87" s="5" t="s">
         <v>76</v>
@@ -17932,7 +17932,7 @@
         <v>526</v>
       </c>
       <c r="AP88" s="35" t="s">
-        <v>915</v>
+        <v>1103</v>
       </c>
       <c r="AQ88" s="5" t="s">
         <v>76</v>
@@ -18086,7 +18086,7 @@
         <v>527</v>
       </c>
       <c r="AP89" s="35" t="s">
-        <v>916</v>
+        <v>1104</v>
       </c>
       <c r="AQ89" s="5" t="s">
         <v>76</v>
@@ -22242,13 +22242,13 @@
         <v>67</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="E117" s="10">
         <v>67600</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="G117" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -22256,7 +22256,7 @@
 67600 - Sélestat</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>45</v>
@@ -22271,7 +22271,7 @@
         <v>7500</v>
       </c>
       <c r="M117" s="36" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="N117" s="34">
         <v>98</v>
@@ -22348,25 +22348,25 @@
         <v>371</v>
       </c>
       <c r="AJ117" s="10" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="AK117" s="11" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="AL117" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM117" s="11" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="AN117" s="11" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="AO117" s="11">
         <v>25</v>
       </c>
       <c r="AP117" s="36" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="AQ117" s="11" t="s">
         <v>76</v>
@@ -22375,7 +22375,7 @@
         <v>380</v>
       </c>
       <c r="AS117" s="13" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="AT117" s="14"/>
       <c r="AW117" s="1"/>
@@ -22396,13 +22396,13 @@
         <v>84</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="E118" s="26">
         <v>84507</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
       <c r="G118" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -22410,7 +22410,7 @@
 84507 - Bollène</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>47</v>
@@ -22502,34 +22502,34 @@
         <v>372</v>
       </c>
       <c r="AJ118" s="10" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="AK118" s="11" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
       <c r="AL118" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM118" s="11" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
       <c r="AN118" s="11" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="AO118" s="11">
         <v>26</v>
       </c>
       <c r="AP118" s="36" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
       <c r="AQ118" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR118" s="11" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="AS118" s="13" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="AT118" s="14"/>
       <c r="AW118" s="1"/>
@@ -22550,7 +22550,7 @@
         <v>92</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="E119" s="10">
         <v>92100</v>
@@ -22564,7 +22564,7 @@
 92100 - Boulogne-Billancourt</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
       <c r="I119" s="12" t="s">
         <v>45</v>
@@ -22579,7 +22579,7 @@
         <v>104</v>
       </c>
       <c r="M119" s="36" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="N119" s="34">
         <v>254</v>
@@ -22656,22 +22656,22 @@
       </c>
       <c r="AJ119" s="10"/>
       <c r="AK119" s="11" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="AL119" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM119" s="11" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="AN119" s="11" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="AO119" s="11">
         <v>27</v>
       </c>
       <c r="AP119" s="36" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="AQ119" s="11" t="s">
         <v>76</v>
@@ -22701,7 +22701,7 @@
         <v>75</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="E120" s="10">
         <v>75020</v>
@@ -22715,7 +22715,7 @@
 75020 - Paris</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>45</v>
@@ -22806,31 +22806,31 @@
         <v>371</v>
       </c>
       <c r="AJ120" s="10" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="AK120" s="11" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
       <c r="AL120" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM120" s="11" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="AN120" s="11" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="AO120" s="11">
         <v>28</v>
       </c>
       <c r="AP120" s="36" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
       <c r="AQ120" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR120" s="11" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="AS120" s="13" t="s">
         <v>31</v>
@@ -22854,13 +22854,13 @@
         <v>93</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E121" s="10">
         <v>93430</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G121" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -22868,7 +22868,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>45</v>
@@ -22883,7 +22883,7 @@
         <v>104</v>
       </c>
       <c r="M121" s="36" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="N121" s="34">
         <v>163</v>
@@ -22960,34 +22960,34 @@
         <v>372</v>
       </c>
       <c r="AJ121" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK121" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL121" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM121" s="11" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
       <c r="AN121" s="11" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
       <c r="AO121" s="11" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="AP121" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ121" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR121" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS121" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT121" s="14"/>
       <c r="AW121" s="1"/>
@@ -23008,13 +23008,13 @@
         <v>93</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E122" s="10">
         <v>93430</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G122" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23022,7 +23022,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>45</v>
@@ -23114,34 +23114,34 @@
         <v>371</v>
       </c>
       <c r="AJ122" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK122" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL122" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM122" s="11" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="AN122" s="11" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="AO122" s="11" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="AP122" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ122" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR122" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS122" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT122" s="14"/>
       <c r="AW122" s="1"/>
@@ -23162,13 +23162,13 @@
         <v>93</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E123" s="10">
         <v>93430</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G123" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23176,7 +23176,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I123" s="12" t="s">
         <v>45</v>
@@ -23268,34 +23268,34 @@
         <v>371</v>
       </c>
       <c r="AJ123" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK123" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL123" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM123" s="11" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="AN123" s="11" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="AO123" s="11" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="AP123" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ123" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR123" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS123" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT123" s="14"/>
       <c r="AW123" s="1"/>
@@ -23316,13 +23316,13 @@
         <v>93</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E124" s="10">
         <v>93430</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G124" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23330,7 +23330,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I124" s="12" t="s">
         <v>45</v>
@@ -23345,7 +23345,7 @@
         <v>104</v>
       </c>
       <c r="M124" s="36" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="N124" s="34">
         <v>438</v>
@@ -23422,34 +23422,34 @@
         <v>372</v>
       </c>
       <c r="AJ124" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK124" s="11" t="s">
-        <v>1016</v>
+        <v>993</v>
       </c>
       <c r="AL124" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM124" s="11" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="AN124" s="11" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="AO124" s="11" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="AP124" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ124" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR124" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS124" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT124" s="14"/>
       <c r="AW124" s="1"/>
@@ -23470,13 +23470,13 @@
         <v>93</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E125" s="10">
         <v>93430</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G125" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23484,7 +23484,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>45</v>
@@ -23499,7 +23499,7 @@
         <v>104</v>
       </c>
       <c r="M125" s="36" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="N125" s="34">
         <v>97</v>
@@ -23576,34 +23576,34 @@
         <v>371</v>
       </c>
       <c r="AJ125" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK125" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL125" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM125" s="11" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="AN125" s="11" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="AO125" s="11" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="AP125" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ125" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR125" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS125" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT125" s="14"/>
       <c r="AW125" s="1"/>
@@ -23624,13 +23624,13 @@
         <v>93</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E126" s="10">
         <v>93430</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G126" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23638,7 +23638,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I126" s="12" t="s">
         <v>45</v>
@@ -23730,34 +23730,34 @@
         <v>371</v>
       </c>
       <c r="AJ126" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK126" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL126" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM126" s="11" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="AN126" s="11" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="AO126" s="11" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="AP126" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ126" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR126" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS126" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT126" s="14"/>
     </row>
@@ -23775,13 +23775,13 @@
         <v>93</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E127" s="10">
         <v>93430</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G127" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23789,7 +23789,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I127" s="12" t="s">
         <v>45</v>
@@ -23804,7 +23804,7 @@
         <v>104</v>
       </c>
       <c r="M127" s="36" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="N127" s="34">
         <v>125</v>
@@ -23881,34 +23881,34 @@
         <v>371</v>
       </c>
       <c r="AJ127" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK127" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL127" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM127" s="11" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="AN127" s="11" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="AO127" s="11" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="AP127" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ127" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR127" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS127" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT127" s="14"/>
     </row>
@@ -23926,13 +23926,13 @@
         <v>93</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E128" s="10">
         <v>93430</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G128" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -23940,7 +23940,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>45</v>
@@ -24032,34 +24032,34 @@
         <v>371</v>
       </c>
       <c r="AJ128" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK128" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL128" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM128" s="11" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="AN128" s="11" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="AO128" s="11" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="AP128" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ128" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR128" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS128" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT128" s="14"/>
     </row>
@@ -24077,13 +24077,13 @@
         <v>93</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E129" s="10">
         <v>93430</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G129" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24091,7 +24091,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>45</v>
@@ -24183,34 +24183,34 @@
         <v>371</v>
       </c>
       <c r="AJ129" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK129" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL129" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM129" s="11" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="AN129" s="11" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="AO129" s="11" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="AP129" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ129" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR129" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS129" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT129" s="14"/>
     </row>
@@ -24228,13 +24228,13 @@
         <v>93</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E130" s="10">
         <v>93430</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G130" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24242,7 +24242,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I130" s="12" t="s">
         <v>45</v>
@@ -24334,34 +24334,34 @@
         <v>371</v>
       </c>
       <c r="AJ130" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK130" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL130" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM130" s="11" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="AN130" s="11" t="s">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="AO130" s="11" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="AP130" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ130" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR130" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS130" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT130" s="14"/>
     </row>
@@ -24379,13 +24379,13 @@
         <v>93</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E131" s="10">
         <v>93430</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G131" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24393,7 +24393,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I131" s="12" t="s">
         <v>45</v>
@@ -24485,34 +24485,34 @@
         <v>371</v>
       </c>
       <c r="AJ131" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK131" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL131" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM131" s="11" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
       <c r="AN131" s="11" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="AO131" s="11" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="AP131" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ131" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR131" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS131" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT131" s="14"/>
     </row>
@@ -24530,13 +24530,13 @@
         <v>93</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E132" s="10">
         <v>93430</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G132" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24544,7 +24544,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>45</v>
@@ -24636,34 +24636,34 @@
         <v>371</v>
       </c>
       <c r="AJ132" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK132" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL132" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM132" s="11" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="AN132" s="11" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
       <c r="AO132" s="11" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="AP132" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ132" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR132" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS132" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT132" s="14"/>
     </row>
@@ -24681,13 +24681,13 @@
         <v>93</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E133" s="10">
         <v>93430</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G133" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24695,7 +24695,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>45</v>
@@ -24787,34 +24787,34 @@
         <v>371</v>
       </c>
       <c r="AJ133" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK133" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL133" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM133" s="11" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="AN133" s="11" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="AO133" s="11" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
       <c r="AP133" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ133" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR133" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS133" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT133" s="14"/>
     </row>
@@ -24832,13 +24832,13 @@
         <v>93</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E134" s="10">
         <v>93430</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G134" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24846,7 +24846,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>45</v>
@@ -24938,34 +24938,34 @@
         <v>371</v>
       </c>
       <c r="AJ134" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK134" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL134" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM134" s="11" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="AN134" s="11" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="AO134" s="11" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="AP134" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ134" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR134" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS134" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT134" s="14"/>
     </row>
@@ -24983,13 +24983,13 @@
         <v>93</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E135" s="10">
         <v>93430</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G135" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -24997,7 +24997,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I135" s="12" t="s">
         <v>45</v>
@@ -25089,34 +25089,34 @@
         <v>371</v>
       </c>
       <c r="AJ135" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK135" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL135" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM135" s="11" t="s">
-        <v>1009</v>
+        <v>986</v>
       </c>
       <c r="AN135" s="11" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="AO135" s="11" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="AP135" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ135" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR135" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS135" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT135" s="14"/>
     </row>
@@ -25134,13 +25134,13 @@
         <v>93</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E136" s="10">
         <v>93430</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G136" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25148,7 +25148,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I136" s="12" t="s">
         <v>45</v>
@@ -25240,34 +25240,34 @@
         <v>371</v>
       </c>
       <c r="AJ136" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK136" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL136" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM136" s="11" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="AN136" s="11" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
       <c r="AO136" s="11" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
       <c r="AP136" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ136" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR136" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS136" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT136" s="14"/>
     </row>
@@ -25285,13 +25285,13 @@
         <v>93</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E137" s="10">
         <v>93430</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="G137" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25299,7 +25299,7 @@
 93430 - Villetaneuse</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="I137" s="12" t="s">
         <v>45</v>
@@ -25314,7 +25314,7 @@
         <v>104</v>
       </c>
       <c r="M137" s="36" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
       <c r="N137" s="34">
         <v>62</v>
@@ -25391,34 +25391,34 @@
         <v>371</v>
       </c>
       <c r="AJ137" s="10" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="AK137" s="11" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="AL137" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM137" s="11" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="AN137" s="11" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
       <c r="AO137" s="11" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="AP137" s="36" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="AQ137" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR137" s="11" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="AS137" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT137" s="14"/>
     </row>
@@ -25436,13 +25436,13 @@
         <v>95</v>
       </c>
       <c r="D138" s="42" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
       <c r="E138" s="10">
         <v>95290</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
       <c r="G138" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25450,7 +25450,7 @@
 95290 - L'Isle-Adam</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
       <c r="I138" s="12" t="s">
         <v>47</v>
@@ -25465,7 +25465,7 @@
         <v>104</v>
       </c>
       <c r="M138" s="36" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="N138" s="34">
         <v>60</v>
@@ -25542,34 +25542,34 @@
         <v>371</v>
       </c>
       <c r="AJ138" s="10" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
       <c r="AK138" s="11" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="AL138" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM138" s="11" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="AN138" s="11" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="AO138" s="11">
         <v>30</v>
       </c>
       <c r="AP138" s="36" t="s">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="AQ138" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR138" s="11" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="AS138" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT138" s="14"/>
     </row>
@@ -25587,13 +25587,13 @@
         <v>95</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="E139" s="10">
         <v>95260</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="G139" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25601,7 +25601,7 @@
 95260 - Mours</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="I139" s="12" t="s">
         <v>47</v>
@@ -25686,32 +25686,32 @@
         <v>372</v>
       </c>
       <c r="AJ139" s="10" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="AK139" s="11" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="AL139" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM139" s="11" t="s">
-        <v>1037</v>
+        <v>1014</v>
       </c>
       <c r="AN139" s="11" t="s">
-        <v>1038</v>
+        <v>1015</v>
       </c>
       <c r="AO139" s="11" t="s">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="AP139" s="36" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
       <c r="AQ139" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR139" s="11"/>
       <c r="AS139" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT139" s="14"/>
     </row>
@@ -25729,13 +25729,13 @@
         <v>95</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="E140" s="10">
         <v>95260</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="G140" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25743,7 +25743,7 @@
 95260 - Mours</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="I140" s="12" t="s">
         <v>47</v>
@@ -25828,32 +25828,32 @@
         <v>372</v>
       </c>
       <c r="AJ140" s="10" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="AK140" s="11" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="AL140" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM140" s="11" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="AN140" s="11" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="AO140" s="11" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
       <c r="AP140" s="36" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
       <c r="AQ140" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR140" s="11"/>
       <c r="AS140" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT140" s="14"/>
     </row>
@@ -25871,13 +25871,13 @@
         <v>95</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="E141" s="10">
         <v>95260</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="G141" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -25885,7 +25885,7 @@
 95260 - Mours</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="I141" s="12" t="s">
         <v>47</v>
@@ -25970,32 +25970,32 @@
         <v>372</v>
       </c>
       <c r="AJ141" s="10" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="AK141" s="11" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="AL141" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM141" s="11" t="s">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="AN141" s="11" t="s">
-        <v>1042</v>
+        <v>1019</v>
       </c>
       <c r="AO141" s="11" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="AP141" s="36" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
       <c r="AQ141" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR141" s="11"/>
       <c r="AS141" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT141" s="14"/>
     </row>
@@ -26013,13 +26013,13 @@
         <v>95</v>
       </c>
       <c r="D142" s="42" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="E142" s="10">
         <v>95260</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="G142" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26027,7 +26027,7 @@
 95260 - Mours</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="I142" s="12" t="s">
         <v>47</v>
@@ -26112,32 +26112,32 @@
         <v>372</v>
       </c>
       <c r="AJ142" s="10" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="AK142" s="11" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="AL142" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM142" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AN142" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AO142" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AP142" s="36" t="s">
         <v>1043</v>
-      </c>
-      <c r="AN142" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AO142" s="11" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AP142" s="36" t="s">
-        <v>1066</v>
       </c>
       <c r="AQ142" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR142" s="11"/>
       <c r="AS142" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT142" s="14"/>
     </row>
@@ -26155,13 +26155,13 @@
         <v>95</v>
       </c>
       <c r="D143" s="42" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="E143" s="10">
         <v>95260</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="G143" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26169,7 +26169,7 @@
 95260 - Mours</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="I143" s="12" t="s">
         <v>47</v>
@@ -26252,32 +26252,32 @@
         <v>372</v>
       </c>
       <c r="AJ143" s="10" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="AK143" s="11" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="AL143" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM143" s="11" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="AN143" s="11" t="s">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="AO143" s="11" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
       <c r="AP143" s="36" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="AQ143" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR143" s="11"/>
       <c r="AS143" s="13" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="AT143" s="14"/>
     </row>
@@ -26295,13 +26295,13 @@
         <v>44</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
       <c r="E144" s="10">
         <v>44200</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
       <c r="G144" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26309,7 +26309,7 @@
 44200 - Nantes</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
       <c r="I144" s="12" t="s">
         <v>45</v>
@@ -26396,31 +26396,31 @@
         <v>372</v>
       </c>
       <c r="AJ144" s="10" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="AK144" s="11" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
       <c r="AL144" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM144" s="11" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="AN144" s="11" t="s">
-        <v>1055</v>
+        <v>1032</v>
       </c>
       <c r="AO144" s="11" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
       <c r="AP144" s="36" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
       <c r="AQ144" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR144" s="11" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
       <c r="AS144" s="13" t="s">
         <v>37</v>
@@ -26441,13 +26441,13 @@
         <v>44</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
       <c r="E145" s="10">
         <v>44200</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
       <c r="G145" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26455,7 +26455,7 @@
 44200 - Nantes</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
       <c r="I145" s="12" t="s">
         <v>45</v>
@@ -26542,31 +26542,31 @@
         <v>371</v>
       </c>
       <c r="AJ145" s="10" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="AK145" s="11" t="s">
-        <v>1060</v>
+        <v>1037</v>
       </c>
       <c r="AL145" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM145" s="11" t="s">
-        <v>1056</v>
+        <v>1033</v>
       </c>
       <c r="AN145" s="11" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
       <c r="AO145" s="11" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="AP145" s="36" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="AQ145" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR145" s="11" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
       <c r="AS145" s="13" t="s">
         <v>37</v>
@@ -26587,13 +26587,13 @@
         <v>68</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
       <c r="E146" s="10">
         <v>68330</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="G146" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26601,7 +26601,7 @@
 68330 - Huningue</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
       <c r="I146" s="12" t="s">
         <v>45</v>
@@ -26616,7 +26616,7 @@
         <v>104</v>
       </c>
       <c r="M146" s="36" t="s">
-        <v>1069</v>
+        <v>1046</v>
       </c>
       <c r="N146" s="34">
         <v>287</v>
@@ -26681,29 +26681,29 @@
       <c r="AI146" s="10"/>
       <c r="AJ146" s="10"/>
       <c r="AK146" s="11" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
       <c r="AL146" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM146" s="11" t="s">
-        <v>1071</v>
+        <v>1048</v>
       </c>
       <c r="AN146" s="11" t="s">
-        <v>1072</v>
+        <v>1049</v>
       </c>
       <c r="AO146" s="11">
         <v>33</v>
       </c>
       <c r="AP146" s="36" t="s">
-        <v>1083</v>
+        <v>1060</v>
       </c>
       <c r="AQ146" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR146" s="11"/>
       <c r="AS146" s="13" t="s">
-        <v>1079</v>
+        <v>1056</v>
       </c>
       <c r="AT146" s="14"/>
     </row>
@@ -26721,13 +26721,13 @@
         <v>37</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
       <c r="E147" s="10">
         <v>37600</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="G147" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26735,7 +26735,7 @@
 37600 - Loches</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>1073</v>
+        <v>1050</v>
       </c>
       <c r="I147" s="12" t="s">
         <v>47</v>
@@ -26825,34 +26825,34 @@
         <v>104</v>
       </c>
       <c r="AJ147" s="10" t="s">
-        <v>1075</v>
+        <v>1052</v>
       </c>
       <c r="AK147" s="11" t="s">
-        <v>1081</v>
+        <v>1058</v>
       </c>
       <c r="AL147" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM147" s="11" t="s">
-        <v>1076</v>
+        <v>1053</v>
       </c>
       <c r="AN147" s="11" t="s">
-        <v>1077</v>
+        <v>1054</v>
       </c>
       <c r="AO147" s="11">
         <v>34</v>
       </c>
       <c r="AP147" s="36" t="s">
-        <v>1084</v>
+        <v>1061</v>
       </c>
       <c r="AQ147" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR147" s="43" t="s">
-        <v>1080</v>
+        <v>1057</v>
       </c>
       <c r="AS147" s="13" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
       <c r="AT147" s="14"/>
     </row>
@@ -26870,13 +26870,13 @@
         <v>37</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
       <c r="E148" s="10">
         <v>37600</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="G148" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -26884,7 +26884,7 @@
 37600 - Loches</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
       <c r="I148" s="12" t="s">
         <v>47</v>
@@ -26977,34 +26977,34 @@
         <v>104</v>
       </c>
       <c r="AJ148" s="10" t="s">
-        <v>1089</v>
+        <v>1066</v>
       </c>
       <c r="AK148" s="11" t="s">
-        <v>1086</v>
+        <v>1063</v>
       </c>
       <c r="AL148" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM148" s="11" t="s">
-        <v>1094</v>
+        <v>1071</v>
       </c>
       <c r="AN148" s="11" t="s">
-        <v>1095</v>
+        <v>1072</v>
       </c>
       <c r="AO148" s="11" t="s">
-        <v>1087</v>
+        <v>1064</v>
       </c>
       <c r="AP148" s="36" t="s">
-        <v>1104</v>
+        <v>1081</v>
       </c>
       <c r="AQ148" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR148" s="11" t="s">
-        <v>1088</v>
+        <v>1065</v>
       </c>
       <c r="AS148" s="13" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
       <c r="AT148" s="14"/>
     </row>
@@ -27022,13 +27022,13 @@
         <v>37</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
       <c r="E149" s="10">
         <v>37601</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="G149" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -27036,7 +27036,7 @@
 37601 - Loches</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
       <c r="I149" s="12" t="s">
         <v>47</v>
@@ -27129,34 +27129,34 @@
         <v>104</v>
       </c>
       <c r="AJ149" s="10" t="s">
-        <v>1089</v>
+        <v>1066</v>
       </c>
       <c r="AK149" s="11" t="s">
-        <v>1086</v>
+        <v>1063</v>
       </c>
       <c r="AL149" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM149" s="11" t="s">
-        <v>1096</v>
+        <v>1073</v>
       </c>
       <c r="AN149" s="11" t="s">
-        <v>1097</v>
+        <v>1074</v>
       </c>
       <c r="AO149" s="11" t="s">
-        <v>1090</v>
+        <v>1067</v>
       </c>
       <c r="AP149" s="36" t="s">
-        <v>1104</v>
+        <v>1081</v>
       </c>
       <c r="AQ149" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR149" s="11" t="s">
-        <v>1088</v>
+        <v>1065</v>
       </c>
       <c r="AS149" s="13" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
       <c r="AT149" s="14"/>
     </row>
@@ -27174,13 +27174,13 @@
         <v>37</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
       <c r="E150" s="10">
         <v>37602</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="G150" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -27188,7 +27188,7 @@
 37602 - Loches</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
       <c r="I150" s="12" t="s">
         <v>47</v>
@@ -27281,34 +27281,34 @@
         <v>104</v>
       </c>
       <c r="AJ150" s="10" t="s">
-        <v>1089</v>
+        <v>1066</v>
       </c>
       <c r="AK150" s="11" t="s">
-        <v>1086</v>
+        <v>1063</v>
       </c>
       <c r="AL150" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM150" s="11" t="s">
-        <v>1098</v>
+        <v>1075</v>
       </c>
       <c r="AN150" s="11" t="s">
-        <v>1099</v>
+        <v>1076</v>
       </c>
       <c r="AO150" s="11" t="s">
-        <v>1091</v>
+        <v>1068</v>
       </c>
       <c r="AP150" s="36" t="s">
-        <v>1104</v>
+        <v>1081</v>
       </c>
       <c r="AQ150" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR150" s="11" t="s">
-        <v>1088</v>
+        <v>1065</v>
       </c>
       <c r="AS150" s="13" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
       <c r="AT150" s="14"/>
     </row>
@@ -27326,13 +27326,13 @@
         <v>37</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
       <c r="E151" s="10">
         <v>37603</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="G151" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -27340,7 +27340,7 @@
 37603 - Loches</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
       <c r="I151" s="12" t="s">
         <v>47</v>
@@ -27433,34 +27433,34 @@
         <v>104</v>
       </c>
       <c r="AJ151" s="10" t="s">
-        <v>1089</v>
+        <v>1066</v>
       </c>
       <c r="AK151" s="11" t="s">
-        <v>1086</v>
+        <v>1063</v>
       </c>
       <c r="AL151" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM151" s="11" t="s">
-        <v>1100</v>
+        <v>1077</v>
       </c>
       <c r="AN151" s="11" t="s">
-        <v>1101</v>
+        <v>1078</v>
       </c>
       <c r="AO151" s="11" t="s">
-        <v>1092</v>
+        <v>1069</v>
       </c>
       <c r="AP151" s="36" t="s">
-        <v>1104</v>
+        <v>1081</v>
       </c>
       <c r="AQ151" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR151" s="11" t="s">
-        <v>1088</v>
+        <v>1065</v>
       </c>
       <c r="AS151" s="13" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
       <c r="AT151" s="14"/>
     </row>
@@ -27478,13 +27478,13 @@
         <v>37</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
       <c r="E152" s="10">
         <v>37604</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="G152" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -27492,7 +27492,7 @@
 37604 - Loches</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
       <c r="I152" s="12" t="s">
         <v>47</v>
@@ -27585,45 +27585,45 @@
         <v>104</v>
       </c>
       <c r="AJ152" s="10" t="s">
-        <v>1089</v>
+        <v>1066</v>
       </c>
       <c r="AK152" s="11" t="s">
-        <v>1086</v>
+        <v>1063</v>
       </c>
       <c r="AL152" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM152" s="11" t="s">
-        <v>1102</v>
+        <v>1079</v>
       </c>
       <c r="AN152" s="11" t="s">
-        <v>1103</v>
+        <v>1080</v>
       </c>
       <c r="AO152" s="11" t="s">
-        <v>1093</v>
+        <v>1070</v>
       </c>
       <c r="AP152" s="36" t="s">
-        <v>1104</v>
+        <v>1081</v>
       </c>
       <c r="AQ152" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR152" s="11" t="s">
-        <v>1088</v>
+        <v>1065</v>
       </c>
       <c r="AS152" s="13" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
       <c r="AT152" s="14"/>
     </row>
     <row r="153" spans="1:46">
       <c r="F153" s="1" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="154" spans="1:46">
       <c r="F154" s="1" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394606E2-CA7B-4FDC-9247-20715E382D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81E011-8B5E-44B3-88C4-667DEBCB8A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5009" uniqueCount="1233">
   <si>
     <t>Contact</t>
   </si>
@@ -3360,6 +3360,390 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.1%20-%20Ch%C3%A2tenay-Malabry/3%20Plan%20de%20masse.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/21.23%20-%20Ch%C3%A2tenay-Malabry/4.jpg</t>
+  </si>
+  <si>
+    <t>Vitrolles</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nemours</t>
+  </si>
+  <si>
+    <t>Avignon</t>
+  </si>
+  <si>
+    <t>14 Boulevard de l'Europe</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/9Ve3dRd43covAEFVA</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>Restaurant en pied d'un batiment autonome dans une zone d'activité</t>
+  </si>
+  <si>
+    <t>Date d'ajout</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/u2aZqSfdRfKcuU8f6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Agiux4Mzn3c7cD5Q9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ZT3smPn7vYZ4vePU6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Zm8LZ3W7bF7oEBhA6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/x4oCDbXcTni1Dwhq7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/fJAXX2oK3kLbFqQN8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/368Pqe4Ndxa8v6hq7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/8z1HzhMcXXoF94Bb8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/jiv1tvwoFYLDiKzb7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ThH7vH9twAYbv2UU7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/7LDR6QtcAQGrpmfx6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/yeG3FvdN5Az7BTzU9</t>
+  </si>
+  <si>
+    <t>La Valette-du-Var</t>
+  </si>
+  <si>
+    <t>23 Avenue des Frères Lumière</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lotissement d'activité économique Castel Les Espaluns, Avenue de l'Université</t>
+  </si>
+  <si>
+    <t>330 Avenue Marcou Delanglade</t>
+  </si>
+  <si>
+    <t>13 Rue Serpente</t>
+  </si>
+  <si>
+    <t>Champigny-sur-Marne</t>
+  </si>
+  <si>
+    <t>14 Rue Serpente</t>
+  </si>
+  <si>
+    <t>12 Rue Serpente</t>
+  </si>
+  <si>
+    <t>Herblay-sur-Seine</t>
+  </si>
+  <si>
+    <t>8 Avenue Paul Langevin</t>
+  </si>
+  <si>
+    <t>Les Pennes-Mirabeau</t>
+  </si>
+  <si>
+    <t>8 Rue des Vignes</t>
+  </si>
+  <si>
+    <t>Saint-Germain-du-Puy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saint-Doulchard</t>
+  </si>
+  <si>
+    <t>Centre Commercial Géant,  548 Route d'Orléans</t>
+  </si>
+  <si>
+    <t>50 Rue Saint-Dizier</t>
+  </si>
+  <si>
+    <t>ZAC D'Aulnoy</t>
+  </si>
+  <si>
+    <t>Aulnoy-lez-Valenciennes</t>
+  </si>
+  <si>
+    <t>352 Route nationale, Rue des Fusillés de 1940</t>
+  </si>
+  <si>
+    <t>Ennetières-en-Weppes</t>
+  </si>
+  <si>
+    <t>11 Rue de Soultz</t>
+  </si>
+  <si>
+    <t>Wittenheim</t>
+  </si>
+  <si>
+    <t>31 Rue de Montargis</t>
+  </si>
+  <si>
+    <t>Plan de Campagne, Chemin des Pennes CD6</t>
+  </si>
+  <si>
+    <t>43.439381</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.241938</t>
+  </si>
+  <si>
+    <t>43.416553</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.356538</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>45.1</t>
+  </si>
+  <si>
+    <t>47.1</t>
+  </si>
+  <si>
+    <t>47.2</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>Groupe Strauss</t>
+  </si>
+  <si>
+    <t>50.637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.966169</t>
+  </si>
+  <si>
+    <t>Lidl, V&amp;B, restaurants, Circuit de karting, entreprises</t>
+  </si>
+  <si>
+    <t>Avant Cap, Barnéoud, Kiabi, La Maison du Convertible, Conforama, SoCooc, …</t>
+  </si>
+  <si>
+    <t>Local dans l'une des principales zones commerciales de France</t>
+  </si>
+  <si>
+    <t>Leclerc Drive, Noz, Monsieur Meuble, Pêche, Action, Electro Dépôt</t>
+  </si>
+  <si>
+    <t>Local stratégiquement placé en entrée de ville de Bourges sur la N151, dans une zone commerciale</t>
+  </si>
+  <si>
+    <t>47.097965</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.461545</t>
+  </si>
+  <si>
+    <t>Leroy Merlin, Boulanger, Intersport, Cultura, Decathlon</t>
+  </si>
+  <si>
+    <t>47.112262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.380074</t>
+  </si>
+  <si>
+    <t>Ancien Casino. Centre commercial au nord de Bourges, au milieu d'une zone d'habitation et de commerces</t>
+  </si>
+  <si>
+    <t>48.689891</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.182956</t>
+  </si>
+  <si>
+    <t>Ancien Five Guys. Emplacement exceptionnel en angle et en cœur de ville de Nancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mcdonald's, Buger King, Nex Yorker, Lush, restaurants, librairie, bijouterie, </t>
+  </si>
+  <si>
+    <t>50.335823</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.518012</t>
+  </si>
+  <si>
+    <t>Centre commercial Carrefour d'Aulnoy-lez-Valenciennes</t>
+  </si>
+  <si>
+    <t>Tollens, B&amp;M, Peugeot, Cuisinella, Grand Frais</t>
+  </si>
+  <si>
+    <t>Ancien KFC à proximité du centre Englos</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/478dz86LSbFCSjgs9</t>
+  </si>
+  <si>
+    <t>47.798698</t>
+  </si>
+  <si>
+    <t>7.3127756</t>
+  </si>
+  <si>
+    <t>Orchestra, Stokomani, Animalis, Action, Jardinerie</t>
+  </si>
+  <si>
+    <t>Ancien Cuisine Plus à proximité du Carrefour Wittenheim</t>
+  </si>
+  <si>
+    <t>48.255557</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.701845</t>
+  </si>
+  <si>
+    <t>Basic Fit, Jardinerie, Netto, Carglass</t>
+  </si>
+  <si>
+    <t>Ancienne La Halle dans une petite zone commerciale et d'habitation</t>
+  </si>
+  <si>
+    <t>43.136512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.999812</t>
+  </si>
+  <si>
+    <t>Darty, Gifi, Sport 2000, Maxi Bazar, Ecocuisine, restaurants</t>
+  </si>
+  <si>
+    <t>Mcdonald's, Chaussea, V&amp;B, Basic Fit, Poltronesofa, Wingstop, Fiveguys</t>
+  </si>
+  <si>
+    <t>Ancien Casa dans une zone commerciale forte à proximité d'Avenue 83 et Toulon Grand Var</t>
+  </si>
+  <si>
+    <t>Ancienne boulangerie dans une zone commerciale forte à proximité d'avenue 83 et Toulon Grand Var</t>
+  </si>
+  <si>
+    <t>43.137481</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.003336</t>
+  </si>
+  <si>
+    <t>43.920764</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.868124</t>
+  </si>
+  <si>
+    <t>Ancien Point B (burger) dans une zone commercial à proximité du centre Auchan Mistral 7 au sud d'Avignon</t>
+  </si>
+  <si>
+    <t>Afflelou, Flunch, Darty, Stokomani, La Halle, Décathlon, King Jouet, LDLC</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/xRk1dgDyTNRJ37Js6</t>
+  </si>
+  <si>
+    <t>48.817641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.531077</t>
+  </si>
+  <si>
+    <t>48.817952</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.532064</t>
+  </si>
+  <si>
+    <t>48.817472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.531197</t>
+  </si>
+  <si>
+    <t>Zone commerciale à côté du Leclerc de Champigny. Proximité directe avec les habitations</t>
+  </si>
+  <si>
+    <t>Lidl, patisserie, pièce automobile, maison, confodis, entreprises</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/SUpMvLrMFe1dX8fi7</t>
+  </si>
+  <si>
+    <t>49.005681</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.171767</t>
+  </si>
+  <si>
+    <t>Leroy Merlin, Nike, Alinea, Truffaut, Décathlon, Fnac, Intersport, Action, Animalis, Cuisine</t>
+  </si>
+  <si>
+    <t>Local situé dans la Patte d'Oie d'Herblay</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/36%20-%20Vitrolles/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/36%20-%20Vitrolles/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/37%20-%20Les%20Pennes-Mirabeau/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/38%20-%20Saint-Germain-du-Puy/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/38%20-%20Saint-Germain-du-Puy/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/40%20-%20Nancy/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/40%20-%20Nancy/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/40%20-%20Nancy/3.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/39%20-%20Saint-Doulchard/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/39%20-%20Saint-Doulchard/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/39%20-%20Saint-Doulchard/3.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/41%20-%20Aulnoy-lez-Valenciennes/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/41%20-%20Aulnoy-lez-Valenciennes/2.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/41%20-%20Aulnoy-lez-Valenciennes/3.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/41%20-%20Aulnoy-lez-Valenciennes/4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/42%20-%20Enneti%C3%A8res-en-Weppes/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/42%20-%20Enneti%C3%A8res-en-Weppes/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/43%20-%20Wittenheim/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/43%20-%20Wittenheim/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/44%20-%20Nemours/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/45.1%20-%20La%20Valette-du-Var/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/45.1%20-%20La%20Valette-du-Var/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/45.2%20-%20La%20Valette-du-Var/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/47.1%20-%20Champigny-sur-Marne/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/46%20-%20Avignon/1.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/47.2%20-%20Champigny-sur-Marne/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/47.2%20-%20Champigny-sur-Marne/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/47.3%20-%20Champigny-sur-Marne/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/47.3%20-%20Champigny-sur-Marne/2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/48%20-%20Herblay-sur-Seine/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/48%20-%20Herblay-sur-Seine/2.jpg</t>
   </si>
 </sst>
 </file>
@@ -3484,7 +3868,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3603,6 +3987,8 @@
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -3610,7 +3996,10 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4EE763AE-B02B-43D6-BC8E-83B5996D9CAB}"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="47">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3970,75 +4359,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AT152" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:AT152" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
-  <tableColumns count="46">
-    <tableColumn id="43" xr3:uid="{DE1D6443-0E1C-43C0-8BC8-BDC69562CB95}" name="Région" dataDxfId="45" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AU168" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:AU168" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
+  <tableColumns count="47">
+    <tableColumn id="43" xr3:uid="{DE1D6443-0E1C-43C0-8BC8-BDC69562CB95}" name="Région" dataDxfId="46" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{EA09E10C-F31A-414B-B7AE-01100FDFFB35}" name="Département" dataDxfId="44" dataCellStyle="Normal 2">
+    <tableColumn id="45" xr3:uid="{EA09E10C-F31A-414B-B7AE-01100FDFFB35}" name="Département" dataDxfId="45" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{B8B116FD-A2D6-4640-B53A-B27BF55F77D2}" name="N° Département" dataDxfId="43" dataCellStyle="Normal 2">
+    <tableColumn id="44" xr3:uid="{B8B116FD-A2D6-4640-B53A-B27BF55F77D2}" name="N° Département" dataDxfId="44" dataCellStyle="Normal 2">
       <calculatedColumnFormula>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{807881FC-FCFC-4E58-94E6-974968140DE0}" name="Rue" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="24" xr3:uid="{5BC55846-88AA-4EB3-AA6F-8E4CFB785641}" name="Code Postal" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="17" xr3:uid="{35EE7115-51F8-4E1F-AD3E-33A05B4BE6AA}" name="Ville" dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="34" xr3:uid="{BCDF1767-53B8-4755-BA69-6972BF82336C}" name="Adresse" dataDxfId="39" dataCellStyle="Normal 2">
+    <tableColumn id="22" xr3:uid="{807881FC-FCFC-4E58-94E6-974968140DE0}" name="Rue" dataDxfId="43" dataCellStyle="Normal 2"/>
+    <tableColumn id="24" xr3:uid="{5BC55846-88AA-4EB3-AA6F-8E4CFB785641}" name="Code Postal" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="17" xr3:uid="{35EE7115-51F8-4E1F-AD3E-33A05B4BE6AA}" name="Ville" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="34" xr3:uid="{BCDF1767-53B8-4755-BA69-6972BF82336C}" name="Adresse" dataDxfId="40" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Rue]]&amp;Tableau1[[#This Row],[Code Postal]]&amp;Tableau1[[#This Row],[Ville]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F16F96D2-ED03-45AB-90ED-8D480A7B0261}" name="Lien Google Maps" dataDxfId="38" dataCellStyle="Normal 2">
+    <tableColumn id="18" xr3:uid="{F16F96D2-ED03-45AB-90ED-8D480A7B0261}" name="Lien Google Maps" dataDxfId="39" dataCellStyle="Normal 2">
       <calculatedColumnFormula array="1">Extrait_hyperlien(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{172E07C4-0318-49AC-A621-9C0E3C5C5B5D}" name="Emplacement" dataDxfId="37" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{95EAECC7-A016-42C4-9C47-2CABFEAEC577}" name="Typologie" dataDxfId="36" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{8C8D77C7-8B55-471A-B479-215BC0D77604}" name="Type" dataDxfId="35" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{87D84239-5323-4A47-9424-F0CADB050723}" name="Cession / Droit au bail" dataDxfId="34" dataCellStyle="Normal 2"/>
-    <tableColumn id="31" xr3:uid="{86770348-6586-45F2-A401-94B68504976F}" name="Numéro de lot" dataDxfId="33" dataCellStyle="Normal 2"/>
-    <tableColumn id="1" xr3:uid="{3888DEAC-D743-4A06-B622-0805DADF7B24}" name="Surface GLA" dataDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{0D61162C-F920-419C-993E-EDC2DF105B61}" name="Répartition surface GLA" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{9969DD5B-5EA2-4595-B887-2E9B21053A55}" name="Surface utile" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{3DFB9473-7064-409A-A47B-5544538EC4AE}" name="Répartition surface utile" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{A744513A-B9BE-426C-9A67-F73FDBDA82D8}" name="Loyer annuel" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{356A37C1-BF3E-4357-A954-82A182007A4A}" name="Loyer Mensuel" dataDxfId="27" dataCellStyle="Normal 2">
+    <tableColumn id="15" xr3:uid="{172E07C4-0318-49AC-A621-9C0E3C5C5B5D}" name="Emplacement" dataDxfId="38" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{95EAECC7-A016-42C4-9C47-2CABFEAEC577}" name="Typologie" dataDxfId="37" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8C8D77C7-8B55-471A-B479-215BC0D77604}" name="Type" dataDxfId="36" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{87D84239-5323-4A47-9424-F0CADB050723}" name="Cession / Droit au bail" dataDxfId="35" dataCellStyle="Normal 2"/>
+    <tableColumn id="31" xr3:uid="{86770348-6586-45F2-A401-94B68504976F}" name="Numéro de lot" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{3888DEAC-D743-4A06-B622-0805DADF7B24}" name="Surface GLA" dataDxfId="33" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{0D61162C-F920-419C-993E-EDC2DF105B61}" name="Répartition surface GLA" dataDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{9969DD5B-5EA2-4595-B887-2E9B21053A55}" name="Surface utile" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{3DFB9473-7064-409A-A47B-5544538EC4AE}" name="Répartition surface utile" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{A744513A-B9BE-426C-9A67-F73FDBDA82D8}" name="Loyer annuel" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{356A37C1-BF3E-4357-A954-82A182007A4A}" name="Loyer Mensuel" dataDxfId="28" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{767012B1-AABD-475A-8A4D-3B7DA0A65895}" name="Loyer €/m²" dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="30" xr3:uid="{1B20B1A4-ACFD-45E3-955E-514E88115368}" name="Loyer variable" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{2A7DA589-64F1-4CF6-8C82-38781BD9EC1D}" name="Charges annuelles" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{440DF5B1-3CC3-4785-9C23-94B007AF5E1B}" name="Charges Mensuelles" dataDxfId="23" dataCellStyle="Normal 2">
+    <tableColumn id="11" xr3:uid="{767012B1-AABD-475A-8A4D-3B7DA0A65895}" name="Loyer €/m²" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="30" xr3:uid="{1B20B1A4-ACFD-45E3-955E-514E88115368}" name="Loyer variable" dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{2A7DA589-64F1-4CF6-8C82-38781BD9EC1D}" name="Charges annuelles" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{440DF5B1-3CC3-4785-9C23-94B007AF5E1B}" name="Charges Mensuelles" dataDxfId="24" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Charges annuelles]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4129B281-2FE2-4CF1-9B2A-1383495B75F8}" name="Charges €/m²" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="23" xr3:uid="{8D958AF5-4590-4B2C-91C7-84AA83299F72}" name="Taxe foncière" dataDxfId="21" dataCellStyle="Normal 2">
+    <tableColumn id="19" xr3:uid="{4129B281-2FE2-4CF1-9B2A-1383495B75F8}" name="Charges €/m²" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="23" xr3:uid="{8D958AF5-4590-4B2C-91C7-84AA83299F72}" name="Taxe foncière" dataDxfId="22" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{3ED0377F-0AC3-483C-A382-DCE0304838BB}" name="Taxe foncière €/m²" dataDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="37" xr3:uid="{DCF6EDF6-4C11-48C1-B6A2-F68E6553ECAE}" name="Marketing" dataDxfId="19" dataCellStyle="Normal 2">
+    <tableColumn id="25" xr3:uid="{3ED0377F-0AC3-483C-A382-DCE0304838BB}" name="Taxe foncière €/m²" dataDxfId="21" dataCellStyle="Normal 2"/>
+    <tableColumn id="37" xr3:uid="{DCF6EDF6-4C11-48C1-B6A2-F68E6553ECAE}" name="Marketing" dataDxfId="20" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{0670F3CF-44F2-4728-8A06-52C034D6BD30}" name="Marketing €/m²" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="39" xr3:uid="{5F4F5D62-4EE8-4561-AFC9-FBA26AD0FEB9}" name="Total (L+C+M)" dataDxfId="17" dataCellStyle="Normal 2">
+    <tableColumn id="26" xr3:uid="{0670F3CF-44F2-4728-8A06-52C034D6BD30}" name="Marketing €/m²" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="39" xr3:uid="{5F4F5D62-4EE8-4561-AFC9-FBA26AD0FEB9}" name="Total (L+C+M)" dataDxfId="18" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{95C0AA56-6C81-4449-BBAF-48D6559B29F4}" name="Dépôt de garantie" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="33" xr3:uid="{5D2CDDBF-0016-4D42-9FA2-C6BE7187A781}" name="GAPD" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="27" xr3:uid="{AE6532DB-DF7C-4137-958E-CF0878BAF4EA}" name="Gestion" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="29" xr3:uid="{C7D740EB-05A5-4C80-B626-4AE327C99B0E}" name="Etat de livraison" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{F202F9CF-E361-49F7-BCB2-41601DB0A090}" name="Extraction" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="38" xr3:uid="{1E22D9C1-89FA-49FF-9893-8AC79191E4A6}" name="Restauration" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="28" xr3:uid="{BF030FEC-E7AF-42C6-AC39-B670759A4BC7}" name="Environnement Commercial" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{D3CC4D5A-911C-4939-9024-731260442272}" name="Commentaires" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="40" xr3:uid="{5463AA4C-3D9C-45CF-B81C-A3755D028F2B}" name="Honoraires" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="36" xr3:uid="{EBABBF90-FEC0-4C48-8EB4-A8DB85141CEF}" name="Latitude" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="35" xr3:uid="{FDA62BB3-971D-4771-BFF4-42A78D749576}" name="Longitude" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="32" xr3:uid="{95C0AA56-6C81-4449-BBAF-48D6559B29F4}" name="Dépôt de garantie" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="33" xr3:uid="{5D2CDDBF-0016-4D42-9FA2-C6BE7187A781}" name="GAPD" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="27" xr3:uid="{AE6532DB-DF7C-4137-958E-CF0878BAF4EA}" name="Gestion" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="29" xr3:uid="{C7D740EB-05A5-4C80-B626-4AE327C99B0E}" name="Etat de livraison" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{F202F9CF-E361-49F7-BCB2-41601DB0A090}" name="Extraction" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="38" xr3:uid="{1E22D9C1-89FA-49FF-9893-8AC79191E4A6}" name="Restauration" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="28" xr3:uid="{BF030FEC-E7AF-42C6-AC39-B670759A4BC7}" name="Environnement Commercial" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{D3CC4D5A-911C-4939-9024-731260442272}" name="Commentaires" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="40" xr3:uid="{5463AA4C-3D9C-45CF-B81C-A3755D028F2B}" name="Honoraires" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="36" xr3:uid="{EBABBF90-FEC0-4C48-8EB4-A8DB85141CEF}" name="Latitude" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="35" xr3:uid="{FDA62BB3-971D-4771-BFF4-42A78D749576}" name="Longitude" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="41" xr3:uid="{0B5CFD66-9BAF-42E4-85BA-98CEF40CC994}" name="Référence annonce" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="46" xr3:uid="{ED041E73-B65A-464D-8E38-4CD520F93F57}" name="Photos annonce" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="42" xr3:uid="{31DE41E2-CE5A-45AD-B999-11A9307EA50B}" name="Actif" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{D2AE6F16-4821-49DE-B56C-155BB51A6204}" name="Valeur BP" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{80CF5A8D-23B2-4B36-80CB-91ECBC7FF3FE}" name="Contact" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{E28C924B-61DC-4BBD-ABE7-33B29A5037B4}" name="Page Web" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="47" xr3:uid="{6D70689D-C350-4037-8D03-D9E5646BA26C}" name="Date d'ajout" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4362,22 +4752,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C491A860-D730-4E53-986A-F9417B64BAFA}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:BD154"/>
+  <dimension ref="A1:BD171"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AM67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AM153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP90" sqref="AP90"/>
+      <selection pane="bottomRight" activeCell="AP168" sqref="AP168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.25" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="1" bestFit="1" customWidth="1"/>
@@ -4565,7 +4955,9 @@
       <c r="AT1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AU1" s="1"/>
+      <c r="AU1" s="3" t="s">
+        <v>1113</v>
+      </c>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="BD1" s="1"/>
@@ -4719,7 +5111,7 @@
         <v>18</v>
       </c>
       <c r="AT2" s="7"/>
-      <c r="AU2" s="1"/>
+      <c r="AU2" s="44"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="BD2" s="1"/>
@@ -4873,7 +5265,7 @@
         <v>18</v>
       </c>
       <c r="AT3" s="9"/>
-      <c r="AU3" s="1"/>
+      <c r="AU3" s="44"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="BD3" s="1"/>
@@ -5027,7 +5419,7 @@
         <v>18</v>
       </c>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="1"/>
+      <c r="AU4" s="44"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="BD4" s="1"/>
@@ -5181,7 +5573,7 @@
         <v>18</v>
       </c>
       <c r="AT5" s="8"/>
-      <c r="AU5" s="1"/>
+      <c r="AU5" s="44"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="BD5" s="1"/>
@@ -5335,7 +5727,7 @@
         <v>75</v>
       </c>
       <c r="AT6" s="14"/>
-      <c r="AU6" s="1"/>
+      <c r="AU6" s="44"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="BD6" s="1"/>
@@ -5489,7 +5881,7 @@
         <v>75</v>
       </c>
       <c r="AT7" s="14"/>
-      <c r="AU7" s="1"/>
+      <c r="AU7" s="44"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="BD7" s="1"/>
@@ -5643,7 +6035,7 @@
         <v>75</v>
       </c>
       <c r="AT8" s="14"/>
-      <c r="AU8" s="1"/>
+      <c r="AU8" s="44"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="BD8" s="1"/>
@@ -5797,7 +6189,7 @@
         <v>75</v>
       </c>
       <c r="AT9" s="14"/>
-      <c r="AU9" s="1"/>
+      <c r="AU9" s="44"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="BD9" s="1"/>
@@ -5951,7 +6343,7 @@
         <v>75</v>
       </c>
       <c r="AT10" s="14"/>
-      <c r="AU10" s="1"/>
+      <c r="AU10" s="44"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="BD10" s="1"/>
@@ -6105,7 +6497,7 @@
         <v>75</v>
       </c>
       <c r="AT11" s="14"/>
-      <c r="AU11" s="1"/>
+      <c r="AU11" s="44"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="BD11" s="1"/>
@@ -6259,7 +6651,7 @@
         <v>75</v>
       </c>
       <c r="AT12" s="14"/>
-      <c r="AU12" s="1"/>
+      <c r="AU12" s="44"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="BD12" s="1"/>
@@ -6413,7 +6805,7 @@
         <v>75</v>
       </c>
       <c r="AT13" s="14"/>
-      <c r="AU13" s="1"/>
+      <c r="AU13" s="44"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="BD13" s="1"/>
@@ -6567,7 +6959,7 @@
         <v>75</v>
       </c>
       <c r="AT14" s="14"/>
-      <c r="AU14" s="1"/>
+      <c r="AU14" s="44"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="BD14" s="1"/>
@@ -6721,7 +7113,7 @@
         <v>75</v>
       </c>
       <c r="AT15" s="14"/>
-      <c r="AU15" s="1"/>
+      <c r="AU15" s="44"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="BD15" s="1"/>
@@ -6875,7 +7267,7 @@
         <v>75</v>
       </c>
       <c r="AT16" s="14"/>
-      <c r="AU16" s="1"/>
+      <c r="AU16" s="44"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="BD16" s="1"/>
@@ -7029,7 +7421,7 @@
         <v>75</v>
       </c>
       <c r="AT17" s="14"/>
-      <c r="AU17" s="1"/>
+      <c r="AU17" s="44"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="BD17" s="1"/>
@@ -7183,7 +7575,7 @@
         <v>75</v>
       </c>
       <c r="AT18" s="14"/>
-      <c r="AU18" s="1"/>
+      <c r="AU18" s="44"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="BD18" s="1"/>
@@ -7337,7 +7729,7 @@
         <v>75</v>
       </c>
       <c r="AT19" s="14"/>
-      <c r="AU19" s="1"/>
+      <c r="AU19" s="44"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="BD19" s="1"/>
@@ -7491,7 +7883,7 @@
         <v>75</v>
       </c>
       <c r="AT20" s="14"/>
-      <c r="AU20" s="1"/>
+      <c r="AU20" s="44"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="BD20" s="1"/>
@@ -7645,7 +8037,7 @@
         <v>75</v>
       </c>
       <c r="AT21" s="14"/>
-      <c r="AU21" s="1"/>
+      <c r="AU21" s="44"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="BD21" s="1"/>
@@ -7799,7 +8191,7 @@
         <v>75</v>
       </c>
       <c r="AT22" s="14"/>
-      <c r="AU22" s="1"/>
+      <c r="AU22" s="44"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="BD22" s="1"/>
@@ -7953,7 +8345,7 @@
         <v>75</v>
       </c>
       <c r="AT23" s="14"/>
-      <c r="AU23" s="1"/>
+      <c r="AU23" s="44"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="BD23" s="1"/>
@@ -8107,7 +8499,7 @@
         <v>75</v>
       </c>
       <c r="AT24" s="14"/>
-      <c r="AU24" s="1"/>
+      <c r="AU24" s="44"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="BD24" s="1"/>
@@ -8261,7 +8653,7 @@
         <v>75</v>
       </c>
       <c r="AT25" s="14"/>
-      <c r="AU25" s="1"/>
+      <c r="AU25" s="44"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="BD25" s="1"/>
@@ -8415,7 +8807,7 @@
         <v>75</v>
       </c>
       <c r="AT26" s="14"/>
-      <c r="AU26" s="1"/>
+      <c r="AU26" s="44"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="BD26" s="1"/>
@@ -8569,7 +8961,7 @@
         <v>75</v>
       </c>
       <c r="AT27" s="14"/>
-      <c r="AU27" s="1"/>
+      <c r="AU27" s="44"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="BD27" s="1"/>
@@ -8723,7 +9115,7 @@
         <v>75</v>
       </c>
       <c r="AT28" s="14"/>
-      <c r="AU28" s="1"/>
+      <c r="AU28" s="44"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="BD28" s="1"/>
@@ -8877,7 +9269,7 @@
         <v>75</v>
       </c>
       <c r="AT29" s="14"/>
-      <c r="AU29" s="1"/>
+      <c r="AU29" s="44"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="BD29" s="1"/>
@@ -9031,7 +9423,7 @@
         <v>75</v>
       </c>
       <c r="AT30" s="14"/>
-      <c r="AU30" s="1"/>
+      <c r="AU30" s="44"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="BD30" s="1"/>
@@ -9185,7 +9577,7 @@
         <v>39</v>
       </c>
       <c r="AT31" s="14"/>
-      <c r="AU31" s="1"/>
+      <c r="AU31" s="44"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="BD31" s="1"/>
@@ -9337,7 +9729,7 @@
         <v>39</v>
       </c>
       <c r="AT32" s="14"/>
-      <c r="AU32" s="1"/>
+      <c r="AU32" s="44"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="BD32" s="1"/>
@@ -9491,7 +9883,7 @@
         <v>39</v>
       </c>
       <c r="AT33" s="14"/>
-      <c r="AU33" s="1"/>
+      <c r="AU33" s="44"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="BD33" s="1"/>
@@ -9645,7 +10037,7 @@
         <v>39</v>
       </c>
       <c r="AT34" s="14"/>
-      <c r="AU34" s="1"/>
+      <c r="AU34" s="44"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="BD34" s="1"/>
@@ -9799,7 +10191,7 @@
         <v>39</v>
       </c>
       <c r="AT35" s="14"/>
-      <c r="AU35" s="1"/>
+      <c r="AU35" s="44"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="BD35" s="1"/>
@@ -9953,7 +10345,7 @@
         <v>39</v>
       </c>
       <c r="AT36" s="14"/>
-      <c r="AU36" s="1"/>
+      <c r="AU36" s="44"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="BD36" s="1"/>
@@ -10107,7 +10499,7 @@
         <v>39</v>
       </c>
       <c r="AT37" s="14"/>
-      <c r="AU37" s="1"/>
+      <c r="AU37" s="44"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="BD37" s="1"/>
@@ -10261,7 +10653,7 @@
         <v>39</v>
       </c>
       <c r="AT38" s="14"/>
-      <c r="AU38" s="1"/>
+      <c r="AU38" s="44"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
       <c r="BD38" s="1"/>
@@ -10415,7 +10807,7 @@
         <v>39</v>
       </c>
       <c r="AT39" s="14"/>
-      <c r="AU39" s="1"/>
+      <c r="AU39" s="44"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
       <c r="BD39" s="1"/>
@@ -10569,7 +10961,7 @@
         <v>31</v>
       </c>
       <c r="AT40" s="14"/>
-      <c r="AU40" s="1"/>
+      <c r="AU40" s="44"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
       <c r="BD40" s="1"/>
@@ -10723,7 +11115,7 @@
         <v>18</v>
       </c>
       <c r="AT41" s="9"/>
-      <c r="AU41" s="1"/>
+      <c r="AU41" s="44"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
       <c r="BD41" s="1"/>
@@ -10873,7 +11265,7 @@
         <v>18</v>
       </c>
       <c r="AT42" s="14"/>
-      <c r="AU42" s="1"/>
+      <c r="AU42" s="44"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
       <c r="BD42" s="1"/>
@@ -11023,7 +11415,7 @@
         <v>18</v>
       </c>
       <c r="AT43" s="14"/>
-      <c r="AU43" s="1"/>
+      <c r="AU43" s="44"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="BD43" s="1"/>
@@ -11173,7 +11565,7 @@
         <v>18</v>
       </c>
       <c r="AT44" s="14"/>
-      <c r="AU44" s="1"/>
+      <c r="AU44" s="44"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
       <c r="BD44" s="1"/>
@@ -11327,7 +11719,7 @@
         <v>18</v>
       </c>
       <c r="AT45" s="14"/>
-      <c r="AU45" s="1"/>
+      <c r="AU45" s="44"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
       <c r="BD45" s="1"/>
@@ -11481,7 +11873,7 @@
         <v>18</v>
       </c>
       <c r="AT46" s="14"/>
-      <c r="AU46" s="1"/>
+      <c r="AU46" s="44"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
       <c r="BD46" s="1"/>
@@ -11635,7 +12027,7 @@
         <v>18</v>
       </c>
       <c r="AT47" s="8"/>
-      <c r="AU47" s="1"/>
+      <c r="AU47" s="44"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
       <c r="BD47" s="1"/>
@@ -11789,7 +12181,7 @@
         <v>18</v>
       </c>
       <c r="AT48" s="14"/>
-      <c r="AU48" s="1"/>
+      <c r="AU48" s="44"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
       <c r="BD48" s="1"/>
@@ -11943,7 +12335,7 @@
         <v>31</v>
       </c>
       <c r="AT49" s="14"/>
-      <c r="AU49" s="1"/>
+      <c r="AU49" s="44"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
       <c r="BD49" s="1"/>
@@ -12094,7 +12486,7 @@
         <v>31</v>
       </c>
       <c r="AT50" s="14"/>
-      <c r="AU50" s="1"/>
+      <c r="AU50" s="44"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
       <c r="BD50" s="1"/>
@@ -12246,7 +12638,7 @@
         <v>31</v>
       </c>
       <c r="AT51" s="14"/>
-      <c r="AU51" s="1"/>
+      <c r="AU51" s="44"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="BD51" s="1"/>
@@ -12400,7 +12792,7 @@
         <v>31</v>
       </c>
       <c r="AT52" s="14"/>
-      <c r="AU52" s="1"/>
+      <c r="AU52" s="44"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="1"/>
       <c r="BD52" s="1"/>
@@ -12554,7 +12946,7 @@
         <v>31</v>
       </c>
       <c r="AT53" s="14"/>
-      <c r="AU53" s="1"/>
+      <c r="AU53" s="44"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="1"/>
       <c r="BD53" s="1"/>
@@ -12708,7 +13100,7 @@
         <v>31</v>
       </c>
       <c r="AT54" s="14"/>
-      <c r="AU54" s="1"/>
+      <c r="AU54" s="44"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="1"/>
       <c r="BD54" s="1"/>
@@ -12862,7 +13254,7 @@
         <v>69</v>
       </c>
       <c r="AT55" s="14"/>
-      <c r="AU55" s="1"/>
+      <c r="AU55" s="44"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="1"/>
       <c r="BD55" s="1"/>
@@ -13016,7 +13408,7 @@
         <v>31</v>
       </c>
       <c r="AT56" s="14"/>
-      <c r="AU56" s="1"/>
+      <c r="AU56" s="44"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
       <c r="BD56" s="1"/>
@@ -13170,7 +13562,7 @@
         <v>37</v>
       </c>
       <c r="AT57" s="14"/>
-      <c r="AU57" s="1"/>
+      <c r="AU57" s="44"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="1"/>
       <c r="BD57" s="1"/>
@@ -13324,7 +13716,7 @@
         <v>37</v>
       </c>
       <c r="AT58" s="14"/>
-      <c r="AU58" s="1"/>
+      <c r="AU58" s="44"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="1"/>
       <c r="BD58" s="1"/>
@@ -13478,7 +13870,7 @@
         <v>37</v>
       </c>
       <c r="AT59" s="14"/>
-      <c r="AU59" s="1"/>
+      <c r="AU59" s="44"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="1"/>
       <c r="BD59" s="1"/>
@@ -13632,7 +14024,7 @@
         <v>37</v>
       </c>
       <c r="AT60" s="14"/>
-      <c r="AU60" s="1"/>
+      <c r="AU60" s="44"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="1"/>
       <c r="BD60" s="1"/>
@@ -13786,7 +14178,7 @@
         <v>37</v>
       </c>
       <c r="AT61" s="14"/>
-      <c r="AU61" s="1"/>
+      <c r="AU61" s="44"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="1"/>
       <c r="BD61" s="1"/>
@@ -13940,7 +14332,7 @@
         <v>37</v>
       </c>
       <c r="AT62" s="14"/>
-      <c r="AU62" s="1"/>
+      <c r="AU62" s="44"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="1"/>
       <c r="BD62" s="1"/>
@@ -14094,7 +14486,7 @@
         <v>37</v>
       </c>
       <c r="AT63" s="14"/>
-      <c r="AU63" s="1"/>
+      <c r="AU63" s="44"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="1"/>
       <c r="BD63" s="1"/>
@@ -14248,7 +14640,7 @@
         <v>37</v>
       </c>
       <c r="AT64" s="14"/>
-      <c r="AU64" s="1"/>
+      <c r="AU64" s="44"/>
       <c r="AV64" s="1"/>
       <c r="AW64" s="1"/>
       <c r="BD64" s="1"/>
@@ -14402,7 +14794,7 @@
         <v>31</v>
       </c>
       <c r="AT65" s="14"/>
-      <c r="AU65" s="1"/>
+      <c r="AU65" s="44"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="1"/>
       <c r="BD65" s="1"/>
@@ -14556,7 +14948,7 @@
         <v>31</v>
       </c>
       <c r="AT66" s="14"/>
-      <c r="AU66" s="1"/>
+      <c r="AU66" s="44"/>
       <c r="AV66" s="1"/>
       <c r="AW66" s="1"/>
       <c r="BD66" s="1"/>
@@ -14710,7 +15102,7 @@
         <v>37</v>
       </c>
       <c r="AT67" s="14"/>
-      <c r="AU67" s="1"/>
+      <c r="AU67" s="44"/>
       <c r="AV67" s="1"/>
       <c r="AW67" s="1"/>
       <c r="BD67" s="1"/>
@@ -14864,7 +15256,7 @@
         <v>37</v>
       </c>
       <c r="AT68" s="14"/>
-      <c r="AU68" s="1"/>
+      <c r="AU68" s="44"/>
       <c r="AV68" s="1"/>
       <c r="AW68" s="1"/>
       <c r="BD68" s="1"/>
@@ -15018,7 +15410,7 @@
         <v>37</v>
       </c>
       <c r="AT69" s="14"/>
-      <c r="AU69" s="1"/>
+      <c r="AU69" s="44"/>
       <c r="AV69" s="1"/>
       <c r="AW69" s="1"/>
       <c r="BD69" s="1"/>
@@ -15172,7 +15564,7 @@
         <v>37</v>
       </c>
       <c r="AT70" s="14"/>
-      <c r="AU70" s="1"/>
+      <c r="AU70" s="44"/>
       <c r="AV70" s="1"/>
       <c r="AW70" s="1"/>
       <c r="BD70" s="1"/>
@@ -15326,7 +15718,7 @@
         <v>37</v>
       </c>
       <c r="AT71" s="14"/>
-      <c r="AU71" s="1"/>
+      <c r="AU71" s="44"/>
       <c r="AV71" s="1"/>
       <c r="AW71" s="1"/>
       <c r="BD71" s="1"/>
@@ -15480,7 +15872,7 @@
         <v>37</v>
       </c>
       <c r="AT72" s="14"/>
-      <c r="AU72" s="1"/>
+      <c r="AU72" s="44"/>
       <c r="AV72" s="1"/>
       <c r="AW72" s="1"/>
       <c r="BD72" s="1"/>
@@ -15634,7 +16026,7 @@
         <v>37</v>
       </c>
       <c r="AT73" s="14"/>
-      <c r="AU73" s="1"/>
+      <c r="AU73" s="44"/>
       <c r="AV73" s="1"/>
       <c r="AW73" s="1"/>
       <c r="BD73" s="1"/>
@@ -15788,7 +16180,7 @@
         <v>37</v>
       </c>
       <c r="AT74" s="14"/>
-      <c r="AU74" s="1"/>
+      <c r="AU74" s="44"/>
       <c r="AV74" s="1"/>
       <c r="AW74" s="1"/>
       <c r="BD74" s="1"/>
@@ -15942,7 +16334,7 @@
         <v>37</v>
       </c>
       <c r="AT75" s="14"/>
-      <c r="AU75" s="1"/>
+      <c r="AU75" s="44"/>
       <c r="AV75" s="1"/>
       <c r="AW75" s="1"/>
       <c r="BD75" s="1"/>
@@ -16096,7 +16488,7 @@
         <v>37</v>
       </c>
       <c r="AT76" s="14"/>
-      <c r="AU76" s="1"/>
+      <c r="AU76" s="44"/>
       <c r="AV76" s="1"/>
       <c r="AW76" s="1"/>
       <c r="BD76" s="1"/>
@@ -16250,7 +16642,7 @@
         <v>37</v>
       </c>
       <c r="AT77" s="14"/>
-      <c r="AU77" s="1"/>
+      <c r="AU77" s="44"/>
       <c r="AV77" s="1"/>
       <c r="AW77" s="1"/>
       <c r="BD77" s="1"/>
@@ -16404,7 +16796,7 @@
         <v>37</v>
       </c>
       <c r="AT78" s="14"/>
-      <c r="AU78" s="1"/>
+      <c r="AU78" s="44"/>
       <c r="AV78" s="1"/>
       <c r="AW78" s="1"/>
       <c r="BD78" s="1"/>
@@ -16558,7 +16950,7 @@
         <v>37</v>
       </c>
       <c r="AT79" s="14"/>
-      <c r="AU79" s="1"/>
+      <c r="AU79" s="44"/>
       <c r="AV79" s="1"/>
       <c r="AW79" s="1"/>
       <c r="BD79" s="1"/>
@@ -16712,7 +17104,7 @@
         <v>37</v>
       </c>
       <c r="AT80" s="14"/>
-      <c r="AU80" s="1"/>
+      <c r="AU80" s="44"/>
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
       <c r="BD80" s="1"/>
@@ -16866,7 +17258,7 @@
         <v>37</v>
       </c>
       <c r="AT81" s="14"/>
-      <c r="AU81" s="1"/>
+      <c r="AU81" s="44"/>
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
       <c r="BD81" s="1"/>
@@ -17020,7 +17412,7 @@
         <v>37</v>
       </c>
       <c r="AT82" s="14"/>
-      <c r="AU82" s="1"/>
+      <c r="AU82" s="44"/>
       <c r="AV82" s="1"/>
       <c r="AW82" s="1"/>
       <c r="BD82" s="1"/>
@@ -17174,7 +17566,7 @@
         <v>37</v>
       </c>
       <c r="AT83" s="14"/>
-      <c r="AU83" s="1"/>
+      <c r="AU83" s="44"/>
       <c r="AV83" s="1"/>
       <c r="AW83" s="1"/>
       <c r="BD83" s="1"/>
@@ -17328,7 +17720,7 @@
         <v>37</v>
       </c>
       <c r="AT84" s="14"/>
-      <c r="AU84" s="1"/>
+      <c r="AU84" s="44"/>
       <c r="AV84" s="1"/>
       <c r="AW84" s="1"/>
       <c r="BD84" s="1"/>
@@ -17482,7 +17874,7 @@
         <v>37</v>
       </c>
       <c r="AT85" s="14"/>
-      <c r="AU85" s="1"/>
+      <c r="AU85" s="44"/>
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
       <c r="BD85" s="1"/>
@@ -17636,7 +18028,7 @@
         <v>37</v>
       </c>
       <c r="AT86" s="14"/>
-      <c r="AU86" s="1"/>
+      <c r="AU86" s="44"/>
       <c r="AV86" s="1"/>
       <c r="AW86" s="1"/>
       <c r="BD86" s="1"/>
@@ -17790,7 +18182,7 @@
         <v>37</v>
       </c>
       <c r="AT87" s="14"/>
-      <c r="AU87" s="1"/>
+      <c r="AU87" s="44"/>
       <c r="AV87" s="1"/>
       <c r="AW87" s="1"/>
       <c r="BD87" s="1"/>
@@ -17944,7 +18336,7 @@
         <v>37</v>
       </c>
       <c r="AT88" s="14"/>
-      <c r="AU88" s="1"/>
+      <c r="AU88" s="44"/>
       <c r="AV88" s="1"/>
       <c r="AW88" s="1"/>
       <c r="BD88" s="1"/>
@@ -18098,7 +18490,7 @@
         <v>37</v>
       </c>
       <c r="AT89" s="14"/>
-      <c r="AU89" s="1"/>
+      <c r="AU89" s="44"/>
       <c r="AV89" s="1"/>
       <c r="AW89" s="1"/>
       <c r="BD89" s="1"/>
@@ -18252,7 +18644,7 @@
         <v>31</v>
       </c>
       <c r="AT90" s="14"/>
-      <c r="AU90" s="1"/>
+      <c r="AU90" s="44"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
       <c r="BD90" s="1"/>
@@ -18406,7 +18798,7 @@
         <v>31</v>
       </c>
       <c r="AT91" s="14"/>
-      <c r="AU91" s="1"/>
+      <c r="AU91" s="44"/>
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
       <c r="BD91" s="1"/>
@@ -18560,7 +18952,7 @@
         <v>31</v>
       </c>
       <c r="AT92" s="14"/>
-      <c r="AU92" s="1"/>
+      <c r="AU92" s="44"/>
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
       <c r="BD92" s="1"/>
@@ -18714,7 +19106,7 @@
         <v>31</v>
       </c>
       <c r="AT93" s="14"/>
-      <c r="AU93" s="1"/>
+      <c r="AU93" s="44"/>
       <c r="AV93" s="1"/>
       <c r="AW93" s="1"/>
       <c r="BD93" s="1"/>
@@ -18868,7 +19260,7 @@
         <v>31</v>
       </c>
       <c r="AT94" s="14"/>
-      <c r="AU94" s="1"/>
+      <c r="AU94" s="44"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
       <c r="BD94" s="1"/>
@@ -19022,7 +19414,7 @@
         <v>31</v>
       </c>
       <c r="AT95" s="14"/>
-      <c r="AU95" s="1"/>
+      <c r="AU95" s="44"/>
       <c r="AV95" s="1"/>
       <c r="AW95" s="1"/>
       <c r="BD95" s="1"/>
@@ -19176,7 +19568,7 @@
         <v>31</v>
       </c>
       <c r="AT96" s="14"/>
-      <c r="AU96" s="1"/>
+      <c r="AU96" s="44"/>
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
       <c r="BD96" s="1"/>
@@ -19330,7 +19722,7 @@
         <v>31</v>
       </c>
       <c r="AT97" s="14"/>
-      <c r="AU97" s="1"/>
+      <c r="AU97" s="44"/>
       <c r="AV97" s="1"/>
       <c r="AW97" s="1"/>
       <c r="BD97" s="1"/>
@@ -19484,7 +19876,7 @@
         <v>37</v>
       </c>
       <c r="AT98" s="14"/>
-      <c r="AU98" s="1"/>
+      <c r="AU98" s="44"/>
       <c r="AV98" s="1"/>
       <c r="AW98" s="1"/>
       <c r="BD98" s="1"/>
@@ -19638,7 +20030,7 @@
         <v>37</v>
       </c>
       <c r="AT99" s="14"/>
-      <c r="AU99" s="1"/>
+      <c r="AU99" s="44"/>
       <c r="AV99" s="1"/>
       <c r="AW99" s="1"/>
       <c r="BD99" s="1"/>
@@ -19792,7 +20184,7 @@
         <v>37</v>
       </c>
       <c r="AT100" s="14"/>
-      <c r="AU100" s="1"/>
+      <c r="AU100" s="44"/>
       <c r="AV100" s="1"/>
       <c r="AW100" s="1"/>
       <c r="BD100" s="1"/>
@@ -19946,7 +20338,7 @@
         <v>37</v>
       </c>
       <c r="AT101" s="14"/>
-      <c r="AU101" s="1"/>
+      <c r="AU101" s="44"/>
       <c r="AV101" s="1"/>
       <c r="AW101" s="1"/>
       <c r="BD101" s="1"/>
@@ -20100,7 +20492,7 @@
         <v>37</v>
       </c>
       <c r="AT102" s="14"/>
-      <c r="AU102" s="1"/>
+      <c r="AU102" s="44"/>
       <c r="AV102" s="1"/>
       <c r="AW102" s="1"/>
       <c r="BD102" s="1"/>
@@ -20254,7 +20646,7 @@
         <v>18</v>
       </c>
       <c r="AT103" s="16"/>
-      <c r="AU103" s="1"/>
+      <c r="AU103" s="44"/>
       <c r="AV103" s="1"/>
       <c r="AW103" s="1"/>
       <c r="BD103" s="1"/>
@@ -20408,6 +20800,7 @@
         <v>18</v>
       </c>
       <c r="AT104" s="14"/>
+      <c r="AU104" s="44"/>
       <c r="AX104" s="10"/>
       <c r="AY104" s="10"/>
       <c r="AZ104" s="11"/>
@@ -20564,6 +20957,7 @@
         <v>18</v>
       </c>
       <c r="AT105" s="14"/>
+      <c r="AU105" s="44"/>
     </row>
     <row r="106" spans="1:56" ht="25.5">
       <c r="A106" s="38" t="str">
@@ -20712,6 +21106,7 @@
         <v>18</v>
       </c>
       <c r="AT106" s="14"/>
+      <c r="AU106" s="44"/>
     </row>
     <row r="107" spans="1:56" ht="25.5">
       <c r="A107" s="38" t="str">
@@ -20862,6 +21257,7 @@
         <v>18</v>
       </c>
       <c r="AT107" s="14"/>
+      <c r="AU107" s="44"/>
     </row>
     <row r="108" spans="1:56" ht="25.5">
       <c r="A108" s="38" t="str">
@@ -21012,6 +21408,7 @@
         <v>18</v>
       </c>
       <c r="AT108" s="14"/>
+      <c r="AU108" s="44"/>
     </row>
     <row r="109" spans="1:56" ht="25.5">
       <c r="A109" s="38" t="str">
@@ -21162,6 +21559,7 @@
         <v>18</v>
       </c>
       <c r="AT109" s="14"/>
+      <c r="AU109" s="44"/>
     </row>
     <row r="110" spans="1:56" ht="25.5">
       <c r="A110" s="38" t="str">
@@ -21312,6 +21710,7 @@
         <v>18</v>
       </c>
       <c r="AT110" s="14"/>
+      <c r="AU110" s="44"/>
     </row>
     <row r="111" spans="1:56" ht="25.5">
       <c r="A111" s="38" t="str">
@@ -21462,6 +21861,7 @@
         <v>18</v>
       </c>
       <c r="AT111" s="14"/>
+      <c r="AU111" s="44"/>
     </row>
     <row r="112" spans="1:56" ht="25.5">
       <c r="A112" s="38" t="str">
@@ -21612,6 +22012,7 @@
         <v>18</v>
       </c>
       <c r="AT112" s="14"/>
+      <c r="AU112" s="44"/>
       <c r="AW112" s="1"/>
       <c r="BC112"/>
       <c r="BD112" s="1"/>
@@ -21765,6 +22166,7 @@
         <v>18</v>
       </c>
       <c r="AT113" s="14"/>
+      <c r="AU113" s="44"/>
       <c r="AW113" s="1"/>
       <c r="BC113"/>
       <c r="BD113" s="1"/>
@@ -21918,6 +22320,7 @@
         <v>18</v>
       </c>
       <c r="AT114" s="14"/>
+      <c r="AU114" s="44"/>
       <c r="AW114" s="1"/>
       <c r="BC114"/>
       <c r="BD114" s="1"/>
@@ -22071,6 +22474,7 @@
         <v>18</v>
       </c>
       <c r="AT115" s="14"/>
+      <c r="AU115" s="44"/>
       <c r="AW115" s="1"/>
       <c r="BC115"/>
       <c r="BD115" s="1"/>
@@ -22224,6 +22628,7 @@
         <v>18</v>
       </c>
       <c r="AT116" s="14"/>
+      <c r="AU116" s="44"/>
       <c r="AW116" s="1"/>
       <c r="BC116"/>
       <c r="BD116" s="1"/>
@@ -22378,6 +22783,7 @@
         <v>900</v>
       </c>
       <c r="AT117" s="14"/>
+      <c r="AU117" s="44"/>
       <c r="AW117" s="1"/>
       <c r="BC117"/>
       <c r="BD117" s="1"/>
@@ -22532,6 +22938,7 @@
         <v>900</v>
       </c>
       <c r="AT118" s="14"/>
+      <c r="AU118" s="44"/>
       <c r="AW118" s="1"/>
       <c r="BC118"/>
       <c r="BD118" s="1"/>
@@ -22683,6 +23090,7 @@
         <v>31</v>
       </c>
       <c r="AT119" s="14"/>
+      <c r="AU119" s="44"/>
       <c r="AW119" s="1"/>
       <c r="BC119"/>
       <c r="BD119" s="1"/>
@@ -22836,6 +23244,7 @@
         <v>31</v>
       </c>
       <c r="AT120" s="14"/>
+      <c r="AU120" s="44"/>
       <c r="AW120" s="1"/>
       <c r="BC120"/>
       <c r="BD120" s="1"/>
@@ -22990,6 +23399,7 @@
         <v>957</v>
       </c>
       <c r="AT121" s="14"/>
+      <c r="AU121" s="44"/>
       <c r="AW121" s="1"/>
       <c r="BC121"/>
       <c r="BD121" s="1"/>
@@ -23144,6 +23554,7 @@
         <v>957</v>
       </c>
       <c r="AT122" s="14"/>
+      <c r="AU122" s="44"/>
       <c r="AW122" s="1"/>
       <c r="BC122"/>
       <c r="BD122" s="1"/>
@@ -23298,6 +23709,7 @@
         <v>957</v>
       </c>
       <c r="AT123" s="14"/>
+      <c r="AU123" s="44"/>
       <c r="AW123" s="1"/>
       <c r="BC123"/>
       <c r="BD123" s="1"/>
@@ -23452,6 +23864,7 @@
         <v>957</v>
       </c>
       <c r="AT124" s="14"/>
+      <c r="AU124" s="44"/>
       <c r="AW124" s="1"/>
       <c r="BC124"/>
       <c r="BD124" s="1"/>
@@ -23606,6 +24019,7 @@
         <v>957</v>
       </c>
       <c r="AT125" s="14"/>
+      <c r="AU125" s="44"/>
       <c r="AW125" s="1"/>
       <c r="BC125"/>
       <c r="BD125" s="1"/>
@@ -23760,6 +24174,7 @@
         <v>957</v>
       </c>
       <c r="AT126" s="14"/>
+      <c r="AU126" s="44"/>
     </row>
     <row r="127" spans="1:56" ht="25.5">
       <c r="A127" s="38" t="str">
@@ -23911,6 +24326,7 @@
         <v>957</v>
       </c>
       <c r="AT127" s="14"/>
+      <c r="AU127" s="44"/>
     </row>
     <row r="128" spans="1:56" ht="25.5">
       <c r="A128" s="38" t="str">
@@ -24062,8 +24478,9 @@
         <v>957</v>
       </c>
       <c r="AT128" s="14"/>
+      <c r="AU128" s="44"/>
     </row>
-    <row r="129" spans="1:46" ht="25.5">
+    <row r="129" spans="1:47" ht="25.5">
       <c r="A129" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -24213,8 +24630,9 @@
         <v>957</v>
       </c>
       <c r="AT129" s="14"/>
+      <c r="AU129" s="44"/>
     </row>
-    <row r="130" spans="1:46" ht="25.5">
+    <row r="130" spans="1:47" ht="25.5">
       <c r="A130" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -24364,8 +24782,9 @@
         <v>957</v>
       </c>
       <c r="AT130" s="14"/>
+      <c r="AU130" s="44"/>
     </row>
-    <row r="131" spans="1:46" ht="25.5">
+    <row r="131" spans="1:47" ht="25.5">
       <c r="A131" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -24515,8 +24934,9 @@
         <v>957</v>
       </c>
       <c r="AT131" s="14"/>
+      <c r="AU131" s="44"/>
     </row>
-    <row r="132" spans="1:46" ht="25.5">
+    <row r="132" spans="1:47" ht="25.5">
       <c r="A132" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -24666,8 +25086,9 @@
         <v>957</v>
       </c>
       <c r="AT132" s="14"/>
+      <c r="AU132" s="44"/>
     </row>
-    <row r="133" spans="1:46" ht="25.5">
+    <row r="133" spans="1:47" ht="25.5">
       <c r="A133" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -24817,8 +25238,9 @@
         <v>957</v>
       </c>
       <c r="AT133" s="14"/>
+      <c r="AU133" s="44"/>
     </row>
-    <row r="134" spans="1:46" ht="25.5">
+    <row r="134" spans="1:47" ht="25.5">
       <c r="A134" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -24968,8 +25390,9 @@
         <v>957</v>
       </c>
       <c r="AT134" s="14"/>
+      <c r="AU134" s="44"/>
     </row>
-    <row r="135" spans="1:46" ht="25.5">
+    <row r="135" spans="1:47" ht="25.5">
       <c r="A135" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -25119,8 +25542,9 @@
         <v>957</v>
       </c>
       <c r="AT135" s="14"/>
+      <c r="AU135" s="44"/>
     </row>
-    <row r="136" spans="1:46" ht="25.5">
+    <row r="136" spans="1:47" ht="25.5">
       <c r="A136" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -25270,8 +25694,9 @@
         <v>957</v>
       </c>
       <c r="AT136" s="14"/>
+      <c r="AU136" s="44"/>
     </row>
-    <row r="137" spans="1:46" ht="25.5">
+    <row r="137" spans="1:47" ht="25.5">
       <c r="A137" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -25421,8 +25846,9 @@
         <v>957</v>
       </c>
       <c r="AT137" s="14"/>
+      <c r="AU137" s="44"/>
     </row>
-    <row r="138" spans="1:46" ht="38.25">
+    <row r="138" spans="1:47" ht="38.25">
       <c r="A138" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -25572,8 +25998,9 @@
         <v>957</v>
       </c>
       <c r="AT138" s="14"/>
+      <c r="AU138" s="44"/>
     </row>
-    <row r="139" spans="1:46" ht="38.25">
+    <row r="139" spans="1:47" ht="38.25">
       <c r="A139" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -25714,8 +26141,9 @@
         <v>957</v>
       </c>
       <c r="AT139" s="14"/>
+      <c r="AU139" s="44"/>
     </row>
-    <row r="140" spans="1:46" ht="38.25">
+    <row r="140" spans="1:47" ht="38.25">
       <c r="A140" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -25856,8 +26284,9 @@
         <v>957</v>
       </c>
       <c r="AT140" s="14"/>
+      <c r="AU140" s="44"/>
     </row>
-    <row r="141" spans="1:46" ht="38.25">
+    <row r="141" spans="1:47" ht="38.25">
       <c r="A141" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -25998,8 +26427,9 @@
         <v>957</v>
       </c>
       <c r="AT141" s="14"/>
+      <c r="AU141" s="44"/>
     </row>
-    <row r="142" spans="1:46" ht="38.25">
+    <row r="142" spans="1:47" ht="38.25">
       <c r="A142" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -26140,8 +26570,9 @@
         <v>957</v>
       </c>
       <c r="AT142" s="14"/>
+      <c r="AU142" s="44"/>
     </row>
-    <row r="143" spans="1:46" ht="38.25">
+    <row r="143" spans="1:47" ht="38.25">
       <c r="A143" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Ile-de-France</v>
@@ -26280,8 +26711,9 @@
         <v>957</v>
       </c>
       <c r="AT143" s="14"/>
+      <c r="AU143" s="44"/>
     </row>
-    <row r="144" spans="1:46" ht="38.25">
+    <row r="144" spans="1:47" ht="38.25">
       <c r="A144" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Pays de la Loire</v>
@@ -26426,8 +26858,9 @@
         <v>37</v>
       </c>
       <c r="AT144" s="14"/>
+      <c r="AU144" s="44"/>
     </row>
-    <row r="145" spans="1:46" ht="38.25">
+    <row r="145" spans="1:47" ht="38.25">
       <c r="A145" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Pays de la Loire</v>
@@ -26572,8 +27005,9 @@
         <v>37</v>
       </c>
       <c r="AT145" s="14"/>
+      <c r="AU145" s="44"/>
     </row>
-    <row r="146" spans="1:46" ht="25.5">
+    <row r="146" spans="1:47" ht="25.5">
       <c r="A146" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Grand Est</v>
@@ -26706,8 +27140,9 @@
         <v>1056</v>
       </c>
       <c r="AT146" s="14"/>
+      <c r="AU146" s="44"/>
     </row>
-    <row r="147" spans="1:46" ht="38.25">
+    <row r="147" spans="1:47" ht="38.25">
       <c r="A147" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Centre-Val de Loire</v>
@@ -26855,8 +27290,11 @@
         <v>1055</v>
       </c>
       <c r="AT147" s="14"/>
+      <c r="AU147" s="44">
+        <v>45999</v>
+      </c>
     </row>
-    <row r="148" spans="1:46" ht="38.25">
+    <row r="148" spans="1:47" ht="38.25">
       <c r="A148" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Centre-Val de Loire</v>
@@ -27007,8 +27445,11 @@
         <v>1055</v>
       </c>
       <c r="AT148" s="14"/>
+      <c r="AU148" s="44">
+        <v>45999</v>
+      </c>
     </row>
-    <row r="149" spans="1:46" ht="38.25">
+    <row r="149" spans="1:47" ht="38.25">
       <c r="A149" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Centre-Val de Loire</v>
@@ -27159,8 +27600,11 @@
         <v>1055</v>
       </c>
       <c r="AT149" s="14"/>
+      <c r="AU149" s="44">
+        <v>45999</v>
+      </c>
     </row>
-    <row r="150" spans="1:46" ht="38.25">
+    <row r="150" spans="1:47" ht="38.25">
       <c r="A150" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Centre-Val de Loire</v>
@@ -27311,8 +27755,11 @@
         <v>1055</v>
       </c>
       <c r="AT150" s="14"/>
+      <c r="AU150" s="44">
+        <v>45999</v>
+      </c>
     </row>
-    <row r="151" spans="1:46" ht="38.25">
+    <row r="151" spans="1:47" ht="38.25">
       <c r="A151" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Centre-Val de Loire</v>
@@ -27463,8 +27910,11 @@
         <v>1055</v>
       </c>
       <c r="AT151" s="14"/>
+      <c r="AU151" s="44">
+        <v>45999</v>
+      </c>
     </row>
-    <row r="152" spans="1:46" ht="38.25">
+    <row r="152" spans="1:47" ht="38.25">
       <c r="A152" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Centre-Val de Loire</v>
@@ -27615,14 +28065,2143 @@
         <v>1055</v>
       </c>
       <c r="AT152" s="14"/>
+      <c r="AU152" s="44">
+        <v>45999</v>
+      </c>
     </row>
-    <row r="153" spans="1:46">
-      <c r="F153" s="1" t="s">
+    <row r="153" spans="1:47" ht="25.5">
+      <c r="A153" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Provence-Alpes-Côte d'Azur</v>
+      </c>
+      <c r="B153" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Bouches-du-Rhône</v>
+      </c>
+      <c r="C153" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>13</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E153" s="10">
+        <v>13127</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G153" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>14 Boulevard de l'Europe
+13127 - Vitrolles</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K153" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L153" s="12"/>
+      <c r="M153" s="36"/>
+      <c r="N153" s="34">
+        <v>181</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P153" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q153" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T153" s="12"/>
+      <c r="U153" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z153" s="12"/>
+      <c r="AA153" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB153" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC153" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD153" s="12"/>
+      <c r="AE153" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF153" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG153" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH153" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI153" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ153" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AK153" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AL153" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM153" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AN153" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AO153" s="11">
+        <v>36</v>
+      </c>
+      <c r="AP153" s="36" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AQ153" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR153" s="11"/>
+      <c r="AS153" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT153" s="14"/>
+      <c r="AU153" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:47" ht="38.25">
+      <c r="A154" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Provence-Alpes-Côte d'Azur</v>
+      </c>
+      <c r="B154" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Bouches-du-Rhône</v>
+      </c>
+      <c r="C154" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>13</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E154" s="10">
+        <v>13170</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G154" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Plan de Campagne, Chemin des Pennes CD6
+13170 - Les Pennes-Mirabeau</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J154" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K154" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L154" s="12"/>
+      <c r="M154" s="36"/>
+      <c r="N154" s="34">
+        <v>1390</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P154" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q154" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T154" s="12"/>
+      <c r="U154" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V154" s="12"/>
+      <c r="W154" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X154" s="12"/>
+      <c r="Y154" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z154" s="12"/>
+      <c r="AA154" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB154" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC154" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD154" s="12"/>
+      <c r="AE154" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF154" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG154" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH154" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI154" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ154" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AK154" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AL154" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM154" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AN154" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AO154" s="11">
+        <v>37</v>
+      </c>
+      <c r="AP154" s="36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AQ154" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR154" s="11"/>
+      <c r="AS154" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT154" s="14"/>
+      <c r="AU154" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:47" ht="25.5">
+      <c r="A155" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Centre-Val de Loire</v>
+      </c>
+      <c r="B155" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Cher</v>
+      </c>
+      <c r="C155" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>18</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E155" s="10">
+        <v>18390</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G155" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>8 Rue des Vignes
+18390 - Saint-Germain-du-Puy</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J155" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K155" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L155" s="12"/>
+      <c r="M155" s="36"/>
+      <c r="N155" s="34">
+        <v>1000</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P155" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q155" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T155" s="12"/>
+      <c r="U155" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V155" s="12"/>
+      <c r="W155" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z155" s="12"/>
+      <c r="AA155" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB155" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC155" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD155" s="12"/>
+      <c r="AE155" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF155" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG155" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH155" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI155" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ155" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AK155" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AL155" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM155" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AN155" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AO155" s="11">
+        <v>38</v>
+      </c>
+      <c r="AP155" s="36" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AQ155" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR155" s="11"/>
+      <c r="AS155" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT155" s="14"/>
+      <c r="AU155" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:47" ht="38.25">
+      <c r="A156" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Centre-Val de Loire</v>
+      </c>
+      <c r="B156" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Cher</v>
+      </c>
+      <c r="C156" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>18</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E156" s="10">
+        <v>18230</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G156" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>Centre Commercial Géant,  548 Route d'Orléans
+18230 -  Saint-Doulchard</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J156" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L156" s="12"/>
+      <c r="M156" s="36"/>
+      <c r="N156" s="34">
+        <v>5000</v>
+      </c>
+      <c r="O156" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P156" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q156" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T156" s="12"/>
+      <c r="U156" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V156" s="12"/>
+      <c r="W156" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X156" s="12"/>
+      <c r="Y156" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z156" s="12"/>
+      <c r="AA156" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB156" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC156" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD156" s="12"/>
+      <c r="AE156" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF156" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG156" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH156" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI156" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ156" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AK156" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AL156" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM156" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AN156" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AO156" s="11">
+        <v>39</v>
+      </c>
+      <c r="AP156" s="36" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AQ156" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR156" s="11"/>
+      <c r="AS156" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT156" s="14"/>
+      <c r="AU156" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:47" ht="25.5">
+      <c r="A157" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Grand Est</v>
+      </c>
+      <c r="B157" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Meurthe-et-Moselle</v>
+      </c>
+      <c r="C157" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>54</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E157" s="10">
+        <v>54000</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G157" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>50 Rue Saint-Dizier
+54000 - Nancy</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K157" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L157" s="12"/>
+      <c r="M157" s="36"/>
+      <c r="N157" s="34">
+        <v>449</v>
+      </c>
+      <c r="O157" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P157" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q157" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T157" s="12"/>
+      <c r="U157" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V157" s="12"/>
+      <c r="W157" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X157" s="12"/>
+      <c r="Y157" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z157" s="12"/>
+      <c r="AA157" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB157" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC157" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD157" s="12"/>
+      <c r="AE157" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF157" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG157" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH157" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI157" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ157" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AK157" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AL157" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM157" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AN157" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AO157" s="11">
+        <v>40</v>
+      </c>
+      <c r="AP157" s="36" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AQ157" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR157" s="11"/>
+      <c r="AS157" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT157" s="14"/>
+      <c r="AU157" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:47" ht="25.5">
+      <c r="A158" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Hauts-de-France</v>
+      </c>
+      <c r="B158" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Nord</v>
+      </c>
+      <c r="C158" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>59</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E158" s="10">
+        <v>59300</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G158" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>ZAC D'Aulnoy
+59300 - Aulnoy-lez-Valenciennes</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J158" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L158" s="12"/>
+      <c r="M158" s="36"/>
+      <c r="N158" s="34" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O158" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P158" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q158" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T158" s="12"/>
+      <c r="U158" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V158" s="12"/>
+      <c r="W158" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X158" s="12"/>
+      <c r="Y158" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z158" s="12"/>
+      <c r="AA158" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB158" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC158" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD158" s="12"/>
+      <c r="AE158" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF158" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG158" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH158" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI158" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ158" s="10"/>
+      <c r="AK158" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AL158" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM158" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AN158" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AO158" s="11">
+        <v>41</v>
+      </c>
+      <c r="AP158" s="36" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AQ158" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR158" s="11"/>
+      <c r="AS158" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT158" s="14"/>
+      <c r="AU158" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:47" ht="38.25">
+      <c r="A159" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Hauts-de-France</v>
+      </c>
+      <c r="B159" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Nord</v>
+      </c>
+      <c r="C159" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>59</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E159" s="10">
+        <v>59320</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G159" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>352 Route nationale, Rue des Fusillés de 1940
+59320 - Ennetières-en-Weppes</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J159" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L159" s="12"/>
+      <c r="M159" s="36"/>
+      <c r="N159" s="34">
+        <v>750</v>
+      </c>
+      <c r="O159" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P159" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q159" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T159" s="12"/>
+      <c r="U159" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V159" s="12"/>
+      <c r="W159" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X159" s="12"/>
+      <c r="Y159" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z159" s="12"/>
+      <c r="AA159" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB159" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC159" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD159" s="12"/>
+      <c r="AE159" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF159" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG159" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH159" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI159" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ159" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AK159" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AL159" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM159" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AN159" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AO159" s="11">
+        <v>42</v>
+      </c>
+      <c r="AP159" s="36" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AQ159" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR159" s="11"/>
+      <c r="AS159" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT159" s="14"/>
+      <c r="AU159" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:47" ht="25.5">
+      <c r="A160" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Grand Est</v>
+      </c>
+      <c r="B160" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Haut-Rhin</v>
+      </c>
+      <c r="C160" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>68</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E160" s="10">
+        <v>68270</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G160" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>11 Rue de Soultz
+68270 - Wittenheim</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J160" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L160" s="12"/>
+      <c r="M160" s="36"/>
+      <c r="N160" s="34">
+        <v>930</v>
+      </c>
+      <c r="O160" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P160" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q160" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T160" s="12"/>
+      <c r="U160" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V160" s="12"/>
+      <c r="W160" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X160" s="12"/>
+      <c r="Y160" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z160" s="12"/>
+      <c r="AA160" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB160" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC160" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD160" s="12"/>
+      <c r="AE160" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF160" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG160" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH160" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI160" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ160" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AK160" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AL160" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM160" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AN160" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AO160" s="11">
+        <v>43</v>
+      </c>
+      <c r="AP160" s="36" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AQ160" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR160" s="11"/>
+      <c r="AS160" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT160" s="14"/>
+      <c r="AU160" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:47" ht="25.5">
+      <c r="A161" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B161" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Seine-et-Marne</v>
+      </c>
+      <c r="C161" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>77</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E161" s="10">
+        <v>77140</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G161" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>31 Rue de Montargis
+77140 - Nemours</v>
+      </c>
+      <c r="H161" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J161" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K161" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L161" s="12"/>
+      <c r="M161" s="36"/>
+      <c r="N161" s="34">
+        <v>760</v>
+      </c>
+      <c r="O161" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P161" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q161" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R161" s="12"/>
+      <c r="S161" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T161" s="12"/>
+      <c r="U161" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V161" s="12"/>
+      <c r="W161" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X161" s="12"/>
+      <c r="Y161" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z161" s="12"/>
+      <c r="AA161" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB161" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC161" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD161" s="12"/>
+      <c r="AE161" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF161" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG161" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH161" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI161" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ161" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AK161" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AL161" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM161" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AN161" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AO161" s="11">
+        <v>44</v>
+      </c>
+      <c r="AP161" s="36" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AQ161" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR161" s="11"/>
+      <c r="AS161" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT161" s="14"/>
+      <c r="AU161" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:47" ht="25.5">
+      <c r="A162" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Provence-Alpes-Côte d'Azur</v>
+      </c>
+      <c r="B162" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Var</v>
+      </c>
+      <c r="C162" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>83</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E162" s="10">
+        <v>83160</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G162" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>23 Avenue des Frères Lumière
+83160 - La Valette-du-Var</v>
+      </c>
+      <c r="H162" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J162" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K162" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L162" s="12"/>
+      <c r="M162" s="36"/>
+      <c r="N162" s="34">
+        <v>276</v>
+      </c>
+      <c r="O162" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P162" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q162" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T162" s="12"/>
+      <c r="U162" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V162" s="12"/>
+      <c r="W162" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X162" s="12"/>
+      <c r="Y162" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z162" s="12"/>
+      <c r="AA162" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB162" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC162" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD162" s="12"/>
+      <c r="AE162" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF162" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG162" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH162" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI162" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ162" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AK162" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AL162" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM162" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AN162" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AO162" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AP162" s="36" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AQ162" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR162" s="11"/>
+      <c r="AS162" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT162" s="14"/>
+      <c r="AU162" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:47" ht="51">
+      <c r="A163" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Provence-Alpes-Côte d'Azur</v>
+      </c>
+      <c r="B163" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Var</v>
+      </c>
+      <c r="C163" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>83</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E163" s="10">
+        <v>83161</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G163" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v xml:space="preserve"> Lotissement d'activité économique Castel Les Espaluns, Avenue de l'Université
+83161 - La Valette-du-Var</v>
+      </c>
+      <c r="H163" s="15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K163" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L163" s="12"/>
+      <c r="M163" s="36"/>
+      <c r="N163" s="34">
+        <v>470</v>
+      </c>
+      <c r="O163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P163" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T163" s="12"/>
+      <c r="U163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V163" s="12"/>
+      <c r="W163" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X163" s="12"/>
+      <c r="Y163" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z163" s="12"/>
+      <c r="AA163" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC163" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD163" s="12"/>
+      <c r="AE163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG163" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH163" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI163" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ163" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AK163" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AL163" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM163" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AN163" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AO163" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AP163" s="36" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AQ163" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR163" s="11"/>
+      <c r="AS163" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT163" s="14"/>
+      <c r="AU163" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:47" ht="25.5">
+      <c r="A164" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Provence-Alpes-Côte d'Azur</v>
+      </c>
+      <c r="B164" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Vaucluse</v>
+      </c>
+      <c r="C164" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>84</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E164" s="10">
+        <v>84140</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G164" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>330 Avenue Marcou Delanglade
+84140 - Avignon</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J164" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K164" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L164" s="12"/>
+      <c r="M164" s="36"/>
+      <c r="N164" s="34">
+        <v>420</v>
+      </c>
+      <c r="O164" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P164" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q164" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R164" s="12"/>
+      <c r="S164" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T164" s="12"/>
+      <c r="U164" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V164" s="12"/>
+      <c r="W164" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X164" s="12"/>
+      <c r="Y164" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z164" s="12"/>
+      <c r="AA164" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB164" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC164" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD164" s="12"/>
+      <c r="AE164" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF164" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG164" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH164" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI164" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ164" s="10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AK164" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AL164" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM164" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AN164" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AO164" s="11">
+        <v>46</v>
+      </c>
+      <c r="AP164" s="45" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AQ164" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR164" s="11"/>
+      <c r="AS164" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT164" s="14"/>
+      <c r="AU164" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:47" ht="25.5">
+      <c r="A165" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B165" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-de-Marne</v>
+      </c>
+      <c r="C165" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>94</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E165" s="10">
+        <v>94500</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G165" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>12 Rue Serpente
+94500 - Champigny-sur-Marne</v>
+      </c>
+      <c r="H165" s="15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J165" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K165" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L165" s="12"/>
+      <c r="M165" s="36"/>
+      <c r="N165" s="34">
+        <v>875</v>
+      </c>
+      <c r="O165" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P165" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q165" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T165" s="12"/>
+      <c r="U165" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V165" s="12"/>
+      <c r="W165" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X165" s="12"/>
+      <c r="Y165" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z165" s="12"/>
+      <c r="AA165" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB165" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC165" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD165" s="12"/>
+      <c r="AE165" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF165" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG165" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH165" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI165" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ165" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AK165" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AL165" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM165" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AN165" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AO165" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AP165" s="45" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AQ165" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR165" s="11"/>
+      <c r="AS165" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT165" s="14"/>
+      <c r="AU165" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:47" ht="25.5">
+      <c r="A166" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B166" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-de-Marne</v>
+      </c>
+      <c r="C166" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>94</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E166" s="10">
+        <v>94500</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G166" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>13 Rue Serpente
+94500 - Champigny-sur-Marne</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J166" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K166" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L166" s="12"/>
+      <c r="M166" s="36"/>
+      <c r="N166" s="34">
+        <v>387</v>
+      </c>
+      <c r="O166" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P166" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q166" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T166" s="12"/>
+      <c r="U166" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V166" s="12"/>
+      <c r="W166" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X166" s="12"/>
+      <c r="Y166" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z166" s="12"/>
+      <c r="AA166" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB166" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC166" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD166" s="12"/>
+      <c r="AE166" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF166" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG166" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH166" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI166" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ166" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AK166" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AL166" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM166" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AN166" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AO166" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AP166" s="36" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AQ166" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR166" s="11"/>
+      <c r="AS166" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT166" s="14"/>
+      <c r="AU166" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:47" ht="25.5">
+      <c r="A167" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B167" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-de-Marne</v>
+      </c>
+      <c r="C167" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>94</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E167" s="10">
+        <v>94500</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G167" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>14 Rue Serpente
+94500 - Champigny-sur-Marne</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J167" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K167" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L167" s="12"/>
+      <c r="M167" s="36"/>
+      <c r="N167" s="34">
+        <v>723</v>
+      </c>
+      <c r="O167" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P167" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q167" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R167" s="12"/>
+      <c r="S167" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T167" s="12"/>
+      <c r="U167" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V167" s="12"/>
+      <c r="W167" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X167" s="12"/>
+      <c r="Y167" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z167" s="12"/>
+      <c r="AA167" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB167" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC167" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD167" s="12"/>
+      <c r="AE167" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF167" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG167" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH167" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI167" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ167" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AK167" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AL167" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM167" s="11" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AN167" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AO167" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AP167" s="36" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AQ167" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR167" s="11"/>
+      <c r="AS167" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT167" s="14"/>
+      <c r="AU167" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:47" ht="25.5">
+      <c r="A168" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Ile-de-France</v>
+      </c>
+      <c r="B168" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Val-D'Oise</v>
+      </c>
+      <c r="C168" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>95</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E168" s="10">
+        <v>95220</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G168" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>8 Avenue Paul Langevin
+95220 - Herblay-sur-Seine</v>
+      </c>
+      <c r="H168" s="15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J168" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K168" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L168" s="12"/>
+      <c r="M168" s="36"/>
+      <c r="N168" s="34">
+        <v>402</v>
+      </c>
+      <c r="O168" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P168" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q168" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R168" s="12"/>
+      <c r="S168" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T168" s="12"/>
+      <c r="U168" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V168" s="12"/>
+      <c r="W168" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X168" s="12"/>
+      <c r="Y168" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z168" s="12"/>
+      <c r="AA168" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB168" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC168" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD168" s="12"/>
+      <c r="AE168" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF168" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG168" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH168" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI168" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ168" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AK168" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AL168" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM168" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AN168" s="11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AO168" s="11">
+        <v>48</v>
+      </c>
+      <c r="AP168" s="36" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AQ168" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR168" s="11"/>
+      <c r="AS168" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AT168" s="14"/>
+      <c r="AU168" s="44">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:47">
+      <c r="F170" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="154" spans="1:46">
-      <c r="F154" s="1" t="s">
+    <row r="171" spans="1:47">
+      <c r="F171" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -27747,6 +30326,22 @@
     <hyperlink ref="H150" r:id="rId116" xr:uid="{F9E1A7BC-0810-451D-AAC4-F0BE420D1B9F}"/>
     <hyperlink ref="H151" r:id="rId117" xr:uid="{6B38E304-7485-42E7-9EFC-3CDA0B79C692}"/>
     <hyperlink ref="H152" r:id="rId118" xr:uid="{9BAD643D-2774-4811-AF7F-3253EB54E8FC}"/>
+    <hyperlink ref="H153" r:id="rId119" xr:uid="{8C4EE05C-7B50-4EF6-B2F7-FACAB92DA663}"/>
+    <hyperlink ref="H154" r:id="rId120" xr:uid="{0D1E98E9-4BCF-4406-AFDA-600010FB176B}"/>
+    <hyperlink ref="H155" r:id="rId121" xr:uid="{580F9DBE-E800-4F84-BEDC-E8B38FD61F7A}"/>
+    <hyperlink ref="H156" r:id="rId122" xr:uid="{372123E9-8C5B-4111-8443-C1645E86AD4D}"/>
+    <hyperlink ref="H157" r:id="rId123" xr:uid="{CC20D8BA-62C0-4205-8CD5-E236C90A7669}"/>
+    <hyperlink ref="H158" r:id="rId124" xr:uid="{C2AFB330-1F62-4366-8E85-4A36FC54F3CA}"/>
+    <hyperlink ref="H159" r:id="rId125" xr:uid="{D9CEB66C-2A2B-4C50-90E4-25DDB2866B82}"/>
+    <hyperlink ref="H160" r:id="rId126" xr:uid="{77194CDF-321B-4F1D-8892-C65AB2918B74}"/>
+    <hyperlink ref="H161" r:id="rId127" xr:uid="{A510C509-E61B-4228-AC93-D0093532C7D2}"/>
+    <hyperlink ref="H162" r:id="rId128" xr:uid="{13D66F57-470F-41F4-93A6-03D5A2A4CCDB}"/>
+    <hyperlink ref="H163" r:id="rId129" xr:uid="{5B7EA501-9646-45C8-A6A4-6075F4FADE70}"/>
+    <hyperlink ref="H164" r:id="rId130" xr:uid="{6D822EC9-F492-4D93-A1BA-8FA65E1327B7}"/>
+    <hyperlink ref="H166" r:id="rId131" xr:uid="{3C8BCE0A-AAD1-4E3F-915C-B7BFA9B07703}"/>
+    <hyperlink ref="H167" r:id="rId132" xr:uid="{EB1761D0-DA2C-4FCB-8A87-DC3BF56A199A}"/>
+    <hyperlink ref="H165" r:id="rId133" xr:uid="{AC7B9731-155A-409D-B7DE-6A2C81027D18}"/>
+    <hyperlink ref="H168" r:id="rId134" xr:uid="{ED7C6A33-7CA0-4B59-BFC3-713467DF5837}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -27755,7 +30350,7 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId119"/>
+    <tablePart r:id="rId135"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Liste des lots.xlsx
+++ b/Liste des lots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MYCLOUD-0C8EDF\Kettenmeyer\SMBG Conseil\Recherches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81E011-8B5E-44B3-88C4-667DEBCB8A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F252FDA1-D3E8-42C6-A48D-F44F6A354ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{169502BA-60CD-4080-B99D-F957FB39AAC1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5009" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="1242">
   <si>
     <t>Contact</t>
   </si>
@@ -3155,12 +3155,6 @@
     <t>Restaurants, commerce de proximité</t>
   </si>
   <si>
-    <t>En face des Machines de l'Île. A proximité du Palais de Justice, et de l'école des Beaux-Arts. Nouvelle construction dans un quartier d'habitation et de bureaux. Gaine à installer.</t>
-  </si>
-  <si>
-    <t>En face des Machines de l'Île. A proximité du Palais de Justice, et de l'école des Beaux-Arts. Nouvelle construction dans un quartier d'habitation et de bureaux</t>
-  </si>
-  <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.1%20-%20Nantes/1%20Vue%20d'ensemble.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/32.2%20-%20Nantes/2.jpg</t>
   </si>
   <si>
@@ -3590,9 +3584,6 @@
     <t>Tollens, B&amp;M, Peugeot, Cuisinella, Grand Frais</t>
   </si>
   <si>
-    <t>Ancien KFC à proximité du centre Englos</t>
-  </si>
-  <si>
     <t>https://maps.app.goo.gl/478dz86LSbFCSjgs9</t>
   </si>
   <si>
@@ -3605,9 +3596,6 @@
     <t>Orchestra, Stokomani, Animalis, Action, Jardinerie</t>
   </si>
   <si>
-    <t>Ancien Cuisine Plus à proximité du Carrefour Wittenheim</t>
-  </si>
-  <si>
     <t>48.255557</t>
   </si>
   <si>
@@ -3635,9 +3623,6 @@
     <t>Ancien Casa dans une zone commerciale forte à proximité d'Avenue 83 et Toulon Grand Var</t>
   </si>
   <si>
-    <t>Ancienne boulangerie dans une zone commerciale forte à proximité d'avenue 83 et Toulon Grand Var</t>
-  </si>
-  <si>
     <t>43.137481</t>
   </si>
   <si>
@@ -3650,9 +3635,6 @@
     <t xml:space="preserve"> 4.868124</t>
   </si>
   <si>
-    <t>Ancien Point B (burger) dans une zone commercial à proximité du centre Auchan Mistral 7 au sud d'Avignon</t>
-  </si>
-  <si>
     <t>Afflelou, Flunch, Darty, Stokomani, La Halle, Décathlon, King Jouet, LDLC</t>
   </si>
   <si>
@@ -3744,6 +3726,52 @@
   </si>
   <si>
     <t>https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/48%20-%20Herblay-sur-Seine/1.jpg; https://pub-843c46afc4cb41489909bce00c9b143d.r2.dev/48%20-%20Herblay-sur-Seine/2.jpg</t>
+  </si>
+  <si>
+    <t>Ancien KFC à proximité du centre Englos. Local divisible à partir de 150 m².</t>
+  </si>
+  <si>
+    <t>Ancien Cuisine Plus à proximité du Carrefour Wittenheim. Local divisible à partir de 300 m².</t>
+  </si>
+  <si>
+    <t>Ancienne boulangerie dans une zone commerciale forte à proximité d'avenue 83 et Toulon Grand Var. Avec terrasse extérieur</t>
+  </si>
+  <si>
+    <t>Ancien Point B (burger) dans une zone commercial à proximité du centre Auchan Mistral 7 au sud d'Avignon. Avec mezzanine et terrasse</t>
+  </si>
+  <si>
+    <t>En face des Machines de l'Île. A proximité du Palais de Justice, et de l'école des Beaux-Arts. Nouvelle construction dans un quartier d'habitation et de bureaux. Gaine à installer. Les charges incluent la taxe foncière</t>
+  </si>
+  <si>
+    <t>En face des Machines de l'Île. A proximité du Palais de Justice, et de l'école des Beaux-Arts. Nouvelle construction dans un quartier d'habitation et de bureaux. Les charges incluent la taxe foncière</t>
+  </si>
+  <si>
+    <t>Saint-Laurent-du-Var</t>
+  </si>
+  <si>
+    <t>CAP 3000
+217 Av. Eugène Donadeï</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/dzVJ2h9GjsA9hiNV7</t>
+  </si>
+  <si>
+    <t>Me contacter</t>
+  </si>
+  <si>
+    <t>Cession d'un commerce de 80m² + mezzanine en très bon état à Cap 3000.</t>
+  </si>
+  <si>
+    <t>Nespresso, JD Sport</t>
+  </si>
+  <si>
+    <t>43.658465</t>
+  </si>
+  <si>
+    <t>7.196914</t>
+  </si>
+  <si>
+    <t>MIM</t>
   </si>
 </sst>
 </file>
@@ -3868,7 +3896,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3989,6 +4017,7 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -4359,8 +4388,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AU168" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:AU168" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}" name="Tableau1" displayName="Tableau1" ref="A1:AU169" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:AU169" xr:uid="{C496A065-E5CA-44EF-B6AE-AC366F12DAEC}"/>
   <tableColumns count="47">
     <tableColumn id="43" xr3:uid="{DE1D6443-0E1C-43C0-8BC8-BDC69562CB95}" name="Région" dataDxfId="46" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</calculatedColumnFormula>
@@ -4752,13 +4781,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C491A860-D730-4E53-986A-F9417B64BAFA}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:BD171"/>
+  <dimension ref="A1:BD175"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AM153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP168" sqref="AP168"/>
+      <selection pane="bottomRight" activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
@@ -4956,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
@@ -13513,8 +13542,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>62700</v>
       </c>
-      <c r="AD57" s="6" t="s">
-        <v>104</v>
+      <c r="AD57" s="12" t="str">
+        <f t="shared" ref="AD57:AD64" si="0">"3 mois = "&amp;TEXT(ROUND(3/12*R57,0),"### ### ##0 €")</f>
+        <v>3 mois = 15 125 €</v>
       </c>
       <c r="AE57" s="6" t="s">
         <v>104</v>
@@ -13667,8 +13697,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>31020</v>
       </c>
-      <c r="AD58" s="6" t="s">
-        <v>104</v>
+      <c r="AD58" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 7 425 €</v>
       </c>
       <c r="AE58" s="6" t="s">
         <v>104</v>
@@ -13821,8 +13852,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>37130</v>
       </c>
-      <c r="AD59" s="6" t="s">
-        <v>104</v>
+      <c r="AD59" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 8 888 €</v>
       </c>
       <c r="AE59" s="6" t="s">
         <v>104</v>
@@ -13975,8 +14007,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>26790</v>
       </c>
-      <c r="AD60" s="6" t="s">
-        <v>104</v>
+      <c r="AD60" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 6 463 €</v>
       </c>
       <c r="AE60" s="6" t="s">
         <v>104</v>
@@ -14129,8 +14162,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>34200</v>
       </c>
-      <c r="AD61" s="6" t="s">
-        <v>104</v>
+      <c r="AD61" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 8 250 €</v>
       </c>
       <c r="AE61" s="6" t="s">
         <v>104</v>
@@ -14283,8 +14317,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>46170</v>
       </c>
-      <c r="AD62" s="6" t="s">
-        <v>104</v>
+      <c r="AD62" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 11 138 €</v>
       </c>
       <c r="AE62" s="6" t="s">
         <v>104</v>
@@ -14437,8 +14472,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>25650</v>
       </c>
-      <c r="AD63" s="6" t="s">
-        <v>104</v>
+      <c r="AD63" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 6 188 €</v>
       </c>
       <c r="AE63" s="6" t="s">
         <v>104</v>
@@ -14591,8 +14627,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>34310</v>
       </c>
-      <c r="AD64" s="6" t="s">
-        <v>104</v>
+      <c r="AD64" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3 mois = 8 213 €</v>
       </c>
       <c r="AE64" s="6" t="s">
         <v>104</v>
@@ -15053,8 +15090,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>113955</v>
       </c>
-      <c r="AD67" s="6" t="s">
-        <v>104</v>
+      <c r="AD67" s="12" t="str">
+        <f t="shared" ref="AD67:AD89" si="1">"3 mois = "&amp;TEXT(ROUND(3/12*R67,0),"### ### ##0 €")</f>
+        <v>3 mois = 26 081 €</v>
       </c>
       <c r="AE67" s="6" t="s">
         <v>104</v>
@@ -15090,7 +15128,7 @@
         <v>505</v>
       </c>
       <c r="AP67" s="35" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AQ67" s="5" t="s">
         <v>76</v>
@@ -15207,8 +15245,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>56445</v>
       </c>
-      <c r="AD68" s="6" t="s">
-        <v>104</v>
+      <c r="AD68" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 12 919 €</v>
       </c>
       <c r="AE68" s="6" t="s">
         <v>104</v>
@@ -15244,7 +15283,7 @@
         <v>506</v>
       </c>
       <c r="AP68" s="35" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AQ68" s="5" t="s">
         <v>76</v>
@@ -15361,8 +15400,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>99755</v>
       </c>
-      <c r="AD69" s="6" t="s">
-        <v>104</v>
+      <c r="AD69" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 22 831 €</v>
       </c>
       <c r="AE69" s="6" t="s">
         <v>104</v>
@@ -15398,7 +15438,7 @@
         <v>507</v>
       </c>
       <c r="AP69" s="35" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AQ69" s="5" t="s">
         <v>76</v>
@@ -15515,8 +15555,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>59640</v>
       </c>
-      <c r="AD70" s="6" t="s">
-        <v>104</v>
+      <c r="AD70" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 13 650 €</v>
       </c>
       <c r="AE70" s="6" t="s">
         <v>104</v>
@@ -15552,7 +15593,7 @@
         <v>508</v>
       </c>
       <c r="AP70" s="35" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AQ70" s="5" t="s">
         <v>76</v>
@@ -15669,8 +15710,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>80940</v>
       </c>
-      <c r="AD71" s="6" t="s">
-        <v>104</v>
+      <c r="AD71" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 18 525 €</v>
       </c>
       <c r="AE71" s="6" t="s">
         <v>104</v>
@@ -15706,7 +15748,7 @@
         <v>509</v>
       </c>
       <c r="AP71" s="35" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AQ71" s="5" t="s">
         <v>76</v>
@@ -15823,8 +15865,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>47215</v>
       </c>
-      <c r="AD72" s="6" t="s">
-        <v>104</v>
+      <c r="AD72" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 10 806 €</v>
       </c>
       <c r="AE72" s="6" t="s">
         <v>104</v>
@@ -15860,7 +15903,7 @@
         <v>510</v>
       </c>
       <c r="AP72" s="35" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AQ72" s="5" t="s">
         <v>76</v>
@@ -15977,8 +16020,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>129580</v>
       </c>
-      <c r="AD73" s="6" t="s">
-        <v>104</v>
+      <c r="AD73" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 29 838 €</v>
       </c>
       <c r="AE73" s="6" t="s">
         <v>104</v>
@@ -16014,7 +16058,7 @@
         <v>511</v>
       </c>
       <c r="AP73" s="35" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AQ73" s="5" t="s">
         <v>76</v>
@@ -16131,8 +16175,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>168720</v>
       </c>
-      <c r="AD74" s="6" t="s">
-        <v>104</v>
+      <c r="AD74" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 38 850 €</v>
       </c>
       <c r="AE74" s="6" t="s">
         <v>104</v>
@@ -16168,7 +16213,7 @@
         <v>512</v>
       </c>
       <c r="AP74" s="35" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AQ74" s="5" t="s">
         <v>76</v>
@@ -16285,8 +16330,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>78280</v>
       </c>
-      <c r="AD75" s="6" t="s">
-        <v>104</v>
+      <c r="AD75" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 18 025 €</v>
       </c>
       <c r="AE75" s="6" t="s">
         <v>104</v>
@@ -16322,7 +16368,7 @@
         <v>513</v>
       </c>
       <c r="AP75" s="35" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AQ75" s="5" t="s">
         <v>76</v>
@@ -16439,8 +16485,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>99330</v>
       </c>
-      <c r="AD76" s="6" t="s">
-        <v>104</v>
+      <c r="AD76" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 23 100 €</v>
       </c>
       <c r="AE76" s="6" t="s">
         <v>104</v>
@@ -16476,7 +16523,7 @@
         <v>514</v>
       </c>
       <c r="AP76" s="35" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AQ76" s="5" t="s">
         <v>76</v>
@@ -16593,8 +16640,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>89300</v>
       </c>
-      <c r="AD77" s="6" t="s">
-        <v>104</v>
+      <c r="AD77" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 20 563 €</v>
       </c>
       <c r="AE77" s="6" t="s">
         <v>104</v>
@@ -16630,7 +16678,7 @@
         <v>515</v>
       </c>
       <c r="AP77" s="35" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AQ77" s="5" t="s">
         <v>76</v>
@@ -16747,8 +16795,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>118215</v>
       </c>
-      <c r="AD78" s="6" t="s">
-        <v>104</v>
+      <c r="AD78" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 27 056 €</v>
       </c>
       <c r="AE78" s="6" t="s">
         <v>104</v>
@@ -16784,7 +16833,7 @@
         <v>516</v>
       </c>
       <c r="AP78" s="35" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AQ78" s="5" t="s">
         <v>76</v>
@@ -16901,8 +16950,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>67260</v>
       </c>
-      <c r="AD79" s="6" t="s">
-        <v>104</v>
+      <c r="AD79" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 15 488 €</v>
       </c>
       <c r="AE79" s="6" t="s">
         <v>104</v>
@@ -16938,7 +16988,7 @@
         <v>517</v>
       </c>
       <c r="AP79" s="35" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AQ79" s="5" t="s">
         <v>76</v>
@@ -17055,8 +17105,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>37620</v>
       </c>
-      <c r="AD80" s="6" t="s">
-        <v>104</v>
+      <c r="AD80" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 8 663 €</v>
       </c>
       <c r="AE80" s="6" t="s">
         <v>104</v>
@@ -17092,7 +17143,7 @@
         <v>518</v>
       </c>
       <c r="AP80" s="35" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AQ80" s="5" t="s">
         <v>76</v>
@@ -17209,8 +17260,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>59995</v>
       </c>
-      <c r="AD81" s="6" t="s">
-        <v>104</v>
+      <c r="AD81" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 13 731 €</v>
       </c>
       <c r="AE81" s="6" t="s">
         <v>104</v>
@@ -17246,7 +17298,7 @@
         <v>519</v>
       </c>
       <c r="AP81" s="35" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AQ81" s="5" t="s">
         <v>76</v>
@@ -17363,8 +17415,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>74480</v>
       </c>
-      <c r="AD82" s="6" t="s">
-        <v>104</v>
+      <c r="AD82" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 17 150 €</v>
       </c>
       <c r="AE82" s="6" t="s">
         <v>104</v>
@@ -17400,7 +17453,7 @@
         <v>520</v>
       </c>
       <c r="AP82" s="35" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AQ82" s="5" t="s">
         <v>76</v>
@@ -17517,8 +17570,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>74100</v>
       </c>
-      <c r="AD83" s="6" t="s">
-        <v>104</v>
+      <c r="AD83" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 17 063 €</v>
       </c>
       <c r="AE83" s="6" t="s">
         <v>104</v>
@@ -17554,7 +17608,7 @@
         <v>521</v>
       </c>
       <c r="AP83" s="35" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AQ83" s="5" t="s">
         <v>76</v>
@@ -17671,8 +17725,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>68780</v>
       </c>
-      <c r="AD84" s="6" t="s">
-        <v>104</v>
+      <c r="AD84" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 15 838 €</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>104</v>
@@ -17708,7 +17763,7 @@
         <v>522</v>
       </c>
       <c r="AP84" s="35" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AQ84" s="5" t="s">
         <v>76</v>
@@ -17825,8 +17880,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>105260</v>
       </c>
-      <c r="AD85" s="6" t="s">
-        <v>104</v>
+      <c r="AD85" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 24 238 €</v>
       </c>
       <c r="AE85" s="6" t="s">
         <v>104</v>
@@ -17862,7 +17918,7 @@
         <v>523</v>
       </c>
       <c r="AP85" s="35" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AQ85" s="5" t="s">
         <v>76</v>
@@ -17979,8 +18035,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>50410</v>
       </c>
-      <c r="AD86" s="6" t="s">
-        <v>104</v>
+      <c r="AD86" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 11 538 €</v>
       </c>
       <c r="AE86" s="6" t="s">
         <v>104</v>
@@ -18016,7 +18073,7 @@
         <v>524</v>
       </c>
       <c r="AP86" s="35" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AQ86" s="5" t="s">
         <v>76</v>
@@ -18133,8 +18190,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>40470</v>
       </c>
-      <c r="AD87" s="6" t="s">
-        <v>104</v>
+      <c r="AD87" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 9 263 €</v>
       </c>
       <c r="AE87" s="6" t="s">
         <v>104</v>
@@ -18170,7 +18228,7 @@
         <v>525</v>
       </c>
       <c r="AP87" s="35" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AQ87" s="5" t="s">
         <v>76</v>
@@ -18287,8 +18345,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>59285</v>
       </c>
-      <c r="AD88" s="6" t="s">
-        <v>104</v>
+      <c r="AD88" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 13 569 €</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>104</v>
@@ -18324,7 +18383,7 @@
         <v>526</v>
       </c>
       <c r="AP88" s="35" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="AQ88" s="5" t="s">
         <v>76</v>
@@ -18441,8 +18500,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>31240</v>
       </c>
-      <c r="AD89" s="6" t="s">
-        <v>104</v>
+      <c r="AD89" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3 mois = 7 150 €</v>
       </c>
       <c r="AE89" s="6" t="s">
         <v>104</v>
@@ -18478,7 +18538,7 @@
         <v>527</v>
       </c>
       <c r="AP89" s="35" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AQ89" s="5" t="s">
         <v>76</v>
@@ -19827,8 +19887,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>101816</v>
       </c>
-      <c r="AD98" s="6" t="s">
-        <v>104</v>
+      <c r="AD98" s="12" t="str">
+        <f t="shared" ref="AD98:AD102" si="2">"3 mois = "&amp;TEXT(ROUND(3/12*R98,0),"### ### ##0 €")</f>
+        <v>3 mois = 23 238 €</v>
       </c>
       <c r="AE98" s="6" t="s">
         <v>104</v>
@@ -19981,8 +20042,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>31080</v>
       </c>
-      <c r="AD99" s="6" t="s">
-        <v>104</v>
+      <c r="AD99" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3 mois = 7 350 €</v>
       </c>
       <c r="AE99" s="6" t="s">
         <v>104</v>
@@ -20135,8 +20197,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>80240</v>
       </c>
-      <c r="AD100" s="6" t="s">
-        <v>104</v>
+      <c r="AD100" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3 mois = 18 700 €</v>
       </c>
       <c r="AE100" s="6" t="s">
         <v>104</v>
@@ -20289,8 +20352,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>61560</v>
       </c>
-      <c r="AD101" s="6" t="s">
-        <v>104</v>
+      <c r="AD101" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3 mois = 13 163 €</v>
       </c>
       <c r="AE101" s="6" t="s">
         <v>104</v>
@@ -20443,8 +20507,9 @@
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
         <v>93495</v>
       </c>
-      <c r="AD102" s="6" t="s">
-        <v>104</v>
+      <c r="AD102" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3 mois = 22 019 €</v>
       </c>
       <c r="AE102" s="6" t="s">
         <v>104</v>
@@ -23350,7 +23415,7 @@
         <v>78240</v>
       </c>
       <c r="AD121" s="12" t="str">
-        <f t="shared" ref="AD121:AD133" si="0">"3 mois = "&amp;TEXT(ROUND(3/12*R121,0),"### ### ##0 €")</f>
+        <f t="shared" ref="AD121:AD133" si="3">"3 mois = "&amp;TEXT(ROUND(3/12*R121,0),"### ### ##0 €")</f>
         <v>3 mois = 14 263 €</v>
       </c>
       <c r="AE121" s="6" t="s">
@@ -23387,7 +23452,7 @@
         <v>938</v>
       </c>
       <c r="AP121" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ121" s="11" t="s">
         <v>76</v>
@@ -23505,7 +23570,7 @@
         <v>48960</v>
       </c>
       <c r="AD122" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 8 925 €</v>
       </c>
       <c r="AE122" s="6" t="s">
@@ -23542,7 +23607,7 @@
         <v>939</v>
       </c>
       <c r="AP122" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ122" s="11" t="s">
         <v>76</v>
@@ -23660,7 +23725,7 @@
         <v>41760</v>
       </c>
       <c r="AD123" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 7 613 €</v>
       </c>
       <c r="AE123" s="6" t="s">
@@ -23697,7 +23762,7 @@
         <v>940</v>
       </c>
       <c r="AP123" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ123" s="11" t="s">
         <v>76</v>
@@ -23815,7 +23880,7 @@
         <v>210240</v>
       </c>
       <c r="AD124" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 38 325 €</v>
       </c>
       <c r="AE124" s="6" t="s">
@@ -23852,7 +23917,7 @@
         <v>941</v>
       </c>
       <c r="AP124" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ124" s="11" t="s">
         <v>76</v>
@@ -23970,7 +24035,7 @@
         <v>46560</v>
       </c>
       <c r="AD125" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 8 488 €</v>
       </c>
       <c r="AE125" s="6" t="s">
@@ -24007,7 +24072,7 @@
         <v>942</v>
       </c>
       <c r="AP125" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ125" s="11" t="s">
         <v>76</v>
@@ -24125,7 +24190,7 @@
         <v>36000</v>
       </c>
       <c r="AD126" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 6 563 €</v>
       </c>
       <c r="AE126" s="6" t="s">
@@ -24162,7 +24227,7 @@
         <v>943</v>
       </c>
       <c r="AP126" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ126" s="11" t="s">
         <v>76</v>
@@ -24277,7 +24342,7 @@
         <v>60000</v>
       </c>
       <c r="AD127" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 10 938 €</v>
       </c>
       <c r="AE127" s="6" t="s">
@@ -24314,7 +24379,7 @@
         <v>944</v>
       </c>
       <c r="AP127" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ127" s="11" t="s">
         <v>76</v>
@@ -24429,7 +24494,7 @@
         <v>33120</v>
       </c>
       <c r="AD128" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 6 038 €</v>
       </c>
       <c r="AE128" s="6" t="s">
@@ -24466,7 +24531,7 @@
         <v>945</v>
       </c>
       <c r="AP128" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ128" s="11" t="s">
         <v>76</v>
@@ -24581,7 +24646,7 @@
         <v>31200</v>
       </c>
       <c r="AD129" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 5 688 €</v>
       </c>
       <c r="AE129" s="6" t="s">
@@ -24618,7 +24683,7 @@
         <v>946</v>
       </c>
       <c r="AP129" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ129" s="11" t="s">
         <v>76</v>
@@ -24733,7 +24798,7 @@
         <v>35040</v>
       </c>
       <c r="AD130" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 6 388 €</v>
       </c>
       <c r="AE130" s="6" t="s">
@@ -24770,7 +24835,7 @@
         <v>947</v>
       </c>
       <c r="AP130" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ130" s="11" t="s">
         <v>76</v>
@@ -24885,7 +24950,7 @@
         <v>36000</v>
       </c>
       <c r="AD131" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 6 563 €</v>
       </c>
       <c r="AE131" s="6" t="s">
@@ -24922,7 +24987,7 @@
         <v>948</v>
       </c>
       <c r="AP131" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ131" s="11" t="s">
         <v>76</v>
@@ -25037,7 +25102,7 @@
         <v>27360</v>
       </c>
       <c r="AD132" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 4 988 €</v>
       </c>
       <c r="AE132" s="6" t="s">
@@ -25074,7 +25139,7 @@
         <v>949</v>
       </c>
       <c r="AP132" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ132" s="11" t="s">
         <v>76</v>
@@ -25189,7 +25254,7 @@
         <v>27840</v>
       </c>
       <c r="AD133" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3 mois = 5 075 €</v>
       </c>
       <c r="AE133" s="6" t="s">
@@ -25226,7 +25291,7 @@
         <v>950</v>
       </c>
       <c r="AP133" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ133" s="11" t="s">
         <v>76</v>
@@ -25341,7 +25406,7 @@
         <v>30240</v>
       </c>
       <c r="AD134" s="12" t="str">
-        <f t="shared" ref="AD134:AD137" si="1">"3 mois = "&amp;TEXT(ROUND(3/12*R134,0),"### ### ##0 €")</f>
+        <f t="shared" ref="AD134:AD137" si="4">"3 mois = "&amp;TEXT(ROUND(3/12*R134,0),"### ### ##0 €")</f>
         <v>3 mois = 5 513 €</v>
       </c>
       <c r="AE134" s="6" t="s">
@@ -25378,7 +25443,7 @@
         <v>951</v>
       </c>
       <c r="AP134" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ134" s="11" t="s">
         <v>76</v>
@@ -25493,7 +25558,7 @@
         <v>40320</v>
       </c>
       <c r="AD135" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3 mois = 7 350 €</v>
       </c>
       <c r="AE135" s="6" t="s">
@@ -25530,7 +25595,7 @@
         <v>952</v>
       </c>
       <c r="AP135" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ135" s="11" t="s">
         <v>76</v>
@@ -25645,7 +25710,7 @@
         <v>45120</v>
       </c>
       <c r="AD136" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3 mois = 8 225 €</v>
       </c>
       <c r="AE136" s="6" t="s">
@@ -25682,7 +25747,7 @@
         <v>953</v>
       </c>
       <c r="AP136" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ136" s="11" t="s">
         <v>76</v>
@@ -25797,7 +25862,7 @@
         <v>29760</v>
       </c>
       <c r="AD137" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3 mois = 5 425 €</v>
       </c>
       <c r="AE137" s="6" t="s">
@@ -25834,7 +25899,7 @@
         <v>954</v>
       </c>
       <c r="AP137" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AQ137" s="11" t="s">
         <v>76</v>
@@ -26131,7 +26196,7 @@
         <v>1006</v>
       </c>
       <c r="AP139" s="36" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AQ139" s="11" t="s">
         <v>76</v>
@@ -26274,7 +26339,7 @@
         <v>1007</v>
       </c>
       <c r="AP140" s="36" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AQ140" s="11" t="s">
         <v>76</v>
@@ -26417,7 +26482,7 @@
         <v>1008</v>
       </c>
       <c r="AP141" s="36" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AQ141" s="11" t="s">
         <v>76</v>
@@ -26560,7 +26625,7 @@
         <v>1009</v>
       </c>
       <c r="AP142" s="36" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AQ142" s="11" t="s">
         <v>76</v>
@@ -26701,7 +26766,7 @@
         <v>1010</v>
       </c>
       <c r="AP143" s="36" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AQ143" s="11" t="s">
         <v>76</v>
@@ -26713,7 +26778,7 @@
       <c r="AT143" s="14"/>
       <c r="AU143" s="44"/>
     </row>
-    <row r="144" spans="1:47" ht="38.25">
+    <row r="144" spans="1:47" ht="51">
       <c r="A144" s="38" t="str">
         <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
         <v>Pays de la Loire</v>
@@ -26786,13 +26851,15 @@
       </c>
       <c r="V144" s="6">
         <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
-        <v>0</v>
+        <v>8550</v>
       </c>
       <c r="W144" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
-        <v>0</v>
-      </c>
-      <c r="X144" s="12"/>
+        <v>712.5</v>
+      </c>
+      <c r="X144" s="12">
+        <v>30</v>
+      </c>
       <c r="Y144" s="12">
         <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
         <v>0</v>
@@ -26809,9 +26876,12 @@
       </c>
       <c r="AC144" s="12">
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
-        <v>128250</v>
-      </c>
-      <c r="AD144" s="12"/>
+        <v>136800</v>
+      </c>
+      <c r="AD144" s="12" t="str">
+        <f t="shared" ref="AD144:AD145" si="5">"3 mois = "&amp;TEXT(ROUND(3/12*R144,0),"### ### ##0 €")</f>
+        <v>3 mois = 32 063 €</v>
+      </c>
       <c r="AE144" s="6" t="s">
         <v>104</v>
       </c>
@@ -26831,7 +26901,7 @@
         <v>1035</v>
       </c>
       <c r="AK144" s="11" t="s">
-        <v>1036</v>
+        <v>1231</v>
       </c>
       <c r="AL144" s="5" t="s">
         <v>370</v>
@@ -26846,7 +26916,7 @@
         <v>1024</v>
       </c>
       <c r="AP144" s="36" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AQ144" s="11" t="s">
         <v>76</v>
@@ -26933,13 +27003,15 @@
       </c>
       <c r="V145" s="6">
         <f>Tableau1[[#This Row],[Charges €/m²]]*Tableau1[[#This Row],[Surface GLA]]</f>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="W145" s="12">
         <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
-        <v>0</v>
-      </c>
-      <c r="X145" s="12"/>
+        <v>560</v>
+      </c>
+      <c r="X145" s="12">
+        <v>30</v>
+      </c>
       <c r="Y145" s="12">
         <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
         <v>0</v>
@@ -26956,9 +27028,12 @@
       </c>
       <c r="AC145" s="12">
         <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
-        <v>78400</v>
-      </c>
-      <c r="AD145" s="12"/>
+        <v>85120</v>
+      </c>
+      <c r="AD145" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>3 mois = 19 600 €</v>
+      </c>
       <c r="AE145" s="6" t="s">
         <v>104</v>
       </c>
@@ -26978,7 +27053,7 @@
         <v>1035</v>
       </c>
       <c r="AK145" s="11" t="s">
-        <v>1037</v>
+        <v>1232</v>
       </c>
       <c r="AL145" s="5" t="s">
         <v>370</v>
@@ -26993,7 +27068,7 @@
         <v>1025</v>
       </c>
       <c r="AP145" s="36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AQ145" s="11" t="s">
         <v>76</v>
@@ -27021,7 +27096,7 @@
         <v>68</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E146" s="10">
         <v>68330</v>
@@ -27035,7 +27110,7 @@
 68330 - Huningue</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I146" s="12" t="s">
         <v>45</v>
@@ -27050,7 +27125,7 @@
         <v>104</v>
       </c>
       <c r="M146" s="36" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="N146" s="34">
         <v>287</v>
@@ -27115,29 +27190,29 @@
       <c r="AI146" s="10"/>
       <c r="AJ146" s="10"/>
       <c r="AK146" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AL146" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM146" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AN146" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AO146" s="11">
         <v>33</v>
       </c>
       <c r="AP146" s="36" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AQ146" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR146" s="11"/>
       <c r="AS146" s="13" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AT146" s="14"/>
       <c r="AU146" s="44"/>
@@ -27156,7 +27231,7 @@
         <v>37</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E147" s="10">
         <v>37600</v>
@@ -27170,7 +27245,7 @@
 37600 - Loches</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I147" s="12" t="s">
         <v>47</v>
@@ -27260,34 +27335,34 @@
         <v>104</v>
       </c>
       <c r="AJ147" s="10" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AK147" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AL147" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM147" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AN147" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AO147" s="11">
         <v>34</v>
       </c>
       <c r="AP147" s="36" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AQ147" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR147" s="43" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AS147" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AT147" s="14"/>
       <c r="AU147" s="44">
@@ -27308,7 +27383,7 @@
         <v>37</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E148" s="10">
         <v>37600</v>
@@ -27322,7 +27397,7 @@
 37600 - Loches</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I148" s="12" t="s">
         <v>47</v>
@@ -27396,7 +27471,7 @@
         <v>56000</v>
       </c>
       <c r="AD148" s="12" t="str">
-        <f t="shared" ref="AD148:AD152" si="2">"3 mois = "&amp;TEXT(ROUND(3/12*R148,0),"### ### ##0 €")</f>
+        <f t="shared" ref="AD148:AD152" si="6">"3 mois = "&amp;TEXT(ROUND(3/12*R148,0),"### ### ##0 €")</f>
         <v>3 mois = 10 000 €</v>
       </c>
       <c r="AE148" s="6" t="s">
@@ -27415,34 +27490,34 @@
         <v>104</v>
       </c>
       <c r="AJ148" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AK148" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AL148" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM148" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AN148" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AO148" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AP148" s="36" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AQ148" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR148" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AS148" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AT148" s="14"/>
       <c r="AU148" s="44">
@@ -27463,7 +27538,7 @@
         <v>37</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E149" s="10">
         <v>37601</v>
@@ -27477,7 +27552,7 @@
 37601 - Loches</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I149" s="12" t="s">
         <v>47</v>
@@ -27551,7 +27626,7 @@
         <v>140000</v>
       </c>
       <c r="AD149" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3 mois = 25 000 €</v>
       </c>
       <c r="AE149" s="6" t="s">
@@ -27570,34 +27645,34 @@
         <v>104</v>
       </c>
       <c r="AJ149" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AK149" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AL149" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM149" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AN149" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AO149" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AP149" s="36" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AQ149" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR149" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AS149" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AT149" s="14"/>
       <c r="AU149" s="44">
@@ -27618,7 +27693,7 @@
         <v>37</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E150" s="10">
         <v>37602</v>
@@ -27632,7 +27707,7 @@
 37602 - Loches</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I150" s="12" t="s">
         <v>47</v>
@@ -27706,7 +27781,7 @@
         <v>280000</v>
       </c>
       <c r="AD150" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3 mois = 50 000 €</v>
       </c>
       <c r="AE150" s="6" t="s">
@@ -27725,34 +27800,34 @@
         <v>104</v>
       </c>
       <c r="AJ150" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AK150" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AL150" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM150" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AN150" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AO150" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AP150" s="36" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AQ150" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR150" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AS150" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AT150" s="14"/>
       <c r="AU150" s="44">
@@ -27773,7 +27848,7 @@
         <v>37</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E151" s="10">
         <v>37603</v>
@@ -27787,7 +27862,7 @@
 37603 - Loches</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I151" s="12" t="s">
         <v>47</v>
@@ -27861,7 +27936,7 @@
         <v>560000</v>
       </c>
       <c r="AD151" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3 mois = 100 000 €</v>
       </c>
       <c r="AE151" s="6" t="s">
@@ -27880,34 +27955,34 @@
         <v>104</v>
       </c>
       <c r="AJ151" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AK151" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AL151" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM151" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AN151" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AO151" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AP151" s="36" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AQ151" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR151" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AS151" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AT151" s="14"/>
       <c r="AU151" s="44">
@@ -27928,7 +28003,7 @@
         <v>37</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E152" s="10">
         <v>37604</v>
@@ -27942,7 +28017,7 @@
 37604 - Loches</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I152" s="12" t="s">
         <v>47</v>
@@ -28016,7 +28091,7 @@
         <v>1400000</v>
       </c>
       <c r="AD152" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3 mois = 250 000 €</v>
       </c>
       <c r="AE152" s="6" t="s">
@@ -28035,34 +28110,34 @@
         <v>104</v>
       </c>
       <c r="AJ152" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AK152" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AL152" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM152" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AN152" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AO152" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AP152" s="36" t="s">
         <v>1079</v>
-      </c>
-      <c r="AN152" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AO152" s="11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AP152" s="36" t="s">
-        <v>1081</v>
       </c>
       <c r="AQ152" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR152" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AS152" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AT152" s="14"/>
       <c r="AU152" s="44">
@@ -28083,13 +28158,13 @@
         <v>13</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E153" s="10">
         <v>13127</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G153" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -28097,7 +28172,7 @@
 13127 - Vitrolles</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="I153" s="12" t="s">
         <v>47</v>
@@ -28170,32 +28245,32 @@
         <v>372</v>
       </c>
       <c r="AJ153" s="10" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AK153" s="11" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AL153" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM153" s="11" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AN153" s="11" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AO153" s="11">
         <v>36</v>
       </c>
       <c r="AP153" s="36" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="AQ153" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR153" s="11"/>
       <c r="AS153" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT153" s="14"/>
       <c r="AU153" s="44">
@@ -28216,13 +28291,13 @@
         <v>13</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E154" s="10">
         <v>13170</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G154" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -28230,7 +28305,7 @@
 13170 - Les Pennes-Mirabeau</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="I154" s="12" t="s">
         <v>47</v>
@@ -28303,32 +28378,32 @@
         <v>372</v>
       </c>
       <c r="AJ154" s="10" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AK154" s="11" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AL154" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM154" s="11" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AN154" s="11" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AO154" s="11">
         <v>37</v>
       </c>
       <c r="AP154" s="36" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="AQ154" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR154" s="11"/>
       <c r="AS154" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT154" s="14"/>
       <c r="AU154" s="44">
@@ -28349,13 +28424,13 @@
         <v>18</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E155" s="10">
         <v>18390</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G155" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -28363,7 +28438,7 @@
 18390 - Saint-Germain-du-Puy</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="I155" s="12" t="s">
         <v>47</v>
@@ -28436,32 +28511,32 @@
         <v>372</v>
       </c>
       <c r="AJ155" s="10" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AK155" s="11" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AL155" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM155" s="11" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AN155" s="11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AO155" s="11">
         <v>38</v>
       </c>
       <c r="AP155" s="36" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="AQ155" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR155" s="11"/>
       <c r="AS155" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT155" s="14"/>
       <c r="AU155" s="44">
@@ -28482,13 +28557,13 @@
         <v>18</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E156" s="10">
         <v>18230</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G156" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -28496,7 +28571,7 @@
 18230 -  Saint-Doulchard</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I156" s="12" t="s">
         <v>47</v>
@@ -28569,32 +28644,32 @@
         <v>104</v>
       </c>
       <c r="AJ156" s="10" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AK156" s="11" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AL156" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM156" s="11" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AN156" s="11" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AO156" s="11">
         <v>39</v>
       </c>
       <c r="AP156" s="36" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="AQ156" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR156" s="11"/>
       <c r="AS156" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT156" s="14"/>
       <c r="AU156" s="44">
@@ -28615,13 +28690,13 @@
         <v>54</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E157" s="10">
         <v>54000</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G157" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -28629,7 +28704,7 @@
 54000 - Nancy</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="I157" s="12" t="s">
         <v>45</v>
@@ -28702,32 +28777,32 @@
         <v>372</v>
       </c>
       <c r="AJ157" s="10" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AK157" s="11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AL157" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM157" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AN157" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AO157" s="11">
         <v>40</v>
       </c>
       <c r="AP157" s="36" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="AQ157" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR157" s="11"/>
       <c r="AS157" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT157" s="14"/>
       <c r="AU157" s="44">
@@ -28748,13 +28823,13 @@
         <v>59</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E158" s="10">
         <v>59300</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="G158" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -28762,7 +28837,7 @@
 59300 - Aulnoy-lez-Valenciennes</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="I158" s="12" t="s">
         <v>47</v>
@@ -28776,7 +28851,7 @@
       <c r="L158" s="12"/>
       <c r="M158" s="36"/>
       <c r="N158" s="34" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="O158" s="6" t="s">
         <v>104</v>
@@ -28836,29 +28911,29 @@
       </c>
       <c r="AJ158" s="10"/>
       <c r="AK158" s="11" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AL158" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM158" s="11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AN158" s="11" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AO158" s="11">
         <v>41</v>
       </c>
       <c r="AP158" s="36" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="AQ158" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR158" s="11"/>
       <c r="AS158" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT158" s="14"/>
       <c r="AU158" s="44">
@@ -28879,13 +28954,13 @@
         <v>59</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E159" s="10">
         <v>59320</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="G159" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -28893,7 +28968,7 @@
 59320 - Ennetières-en-Weppes</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="I159" s="12" t="s">
         <v>47</v>
@@ -28966,32 +29041,32 @@
         <v>372</v>
       </c>
       <c r="AJ159" s="10" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AK159" s="11" t="s">
-        <v>1181</v>
+        <v>1227</v>
       </c>
       <c r="AL159" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM159" s="11" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AN159" s="11" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AO159" s="11">
         <v>42</v>
       </c>
       <c r="AP159" s="36" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="AQ159" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR159" s="11"/>
       <c r="AS159" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT159" s="14"/>
       <c r="AU159" s="44">
@@ -29012,13 +29087,13 @@
         <v>68</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E160" s="10">
         <v>68270</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G160" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -29026,7 +29101,7 @@
 68270 - Wittenheim</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="I160" s="12" t="s">
         <v>47</v>
@@ -29099,32 +29174,32 @@
         <v>372</v>
       </c>
       <c r="AJ160" s="10" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="AK160" s="11" t="s">
-        <v>1186</v>
+        <v>1228</v>
       </c>
       <c r="AL160" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM160" s="11" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="AN160" s="11" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="AO160" s="11">
         <v>43</v>
       </c>
       <c r="AP160" s="36" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="AQ160" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR160" s="11"/>
       <c r="AS160" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT160" s="14"/>
       <c r="AU160" s="44">
@@ -29145,13 +29220,13 @@
         <v>77</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E161" s="10">
         <v>77140</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G161" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -29159,7 +29234,7 @@
 77140 - Nemours</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="I161" s="12" t="s">
         <v>47</v>
@@ -29232,32 +29307,32 @@
         <v>372</v>
       </c>
       <c r="AJ161" s="10" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="AK161" s="11" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="AL161" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM161" s="11" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="AN161" s="11" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="AO161" s="11">
         <v>44</v>
       </c>
       <c r="AP161" s="36" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="AQ161" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR161" s="11"/>
       <c r="AS161" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT161" s="14"/>
       <c r="AU161" s="44">
@@ -29278,13 +29353,13 @@
         <v>83</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E162" s="10">
         <v>83160</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G162" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -29292,7 +29367,7 @@
 83160 - La Valette-du-Var</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I162" s="12" t="s">
         <v>45</v>
@@ -29365,32 +29440,32 @@
         <v>372</v>
       </c>
       <c r="AJ162" s="10" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="AK162" s="11" t="s">
-        <v>1196</v>
+        <v>1229</v>
       </c>
       <c r="AL162" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM162" s="11" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="AN162" s="11" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="AO162" s="11" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AP162" s="36" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="AQ162" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR162" s="11"/>
       <c r="AS162" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT162" s="14"/>
       <c r="AU162" s="44">
@@ -29411,13 +29486,13 @@
         <v>83</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E163" s="10">
         <v>83161</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G163" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -29425,7 +29500,7 @@
 83161 - La Valette-du-Var</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="I163" s="12" t="s">
         <v>45</v>
@@ -29498,32 +29573,32 @@
         <v>372</v>
       </c>
       <c r="AJ163" s="10" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="AK163" s="11" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="AL163" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM163" s="11" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="AN163" s="11" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="AO163" s="11" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AP163" s="36" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="AQ163" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR163" s="11"/>
       <c r="AS163" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT163" s="14"/>
       <c r="AU163" s="44">
@@ -29544,13 +29619,13 @@
         <v>84</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E164" s="10">
         <v>84140</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G164" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -29558,7 +29633,7 @@
 84140 - Avignon</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="I164" s="12" t="s">
         <v>47</v>
@@ -29631,32 +29706,32 @@
         <v>372</v>
       </c>
       <c r="AJ164" s="10" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="AK164" s="11" t="s">
-        <v>1201</v>
+        <v>1230</v>
       </c>
       <c r="AL164" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM164" s="11" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="AN164" s="11" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="AO164" s="11">
         <v>46</v>
       </c>
       <c r="AP164" s="45" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="AQ164" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR164" s="11"/>
       <c r="AS164" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT164" s="14"/>
       <c r="AU164" s="44">
@@ -29677,13 +29752,13 @@
         <v>94</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E165" s="10">
         <v>94500</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G165" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -29691,7 +29766,7 @@
 94500 - Champigny-sur-Marne</v>
       </c>
       <c r="H165" s="15" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="I165" s="12" t="s">
         <v>45</v>
@@ -29764,32 +29839,32 @@
         <v>372</v>
       </c>
       <c r="AJ165" s="10" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="AK165" s="11" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="AL165" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM165" s="11" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="AN165" s="11" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="AO165" s="11" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AP165" s="45" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="AQ165" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR165" s="11"/>
       <c r="AS165" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT165" s="14"/>
       <c r="AU165" s="44">
@@ -29810,13 +29885,13 @@
         <v>94</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E166" s="10">
         <v>94500</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G166" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -29824,7 +29899,7 @@
 94500 - Champigny-sur-Marne</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="I166" s="12" t="s">
         <v>45</v>
@@ -29897,32 +29972,32 @@
         <v>372</v>
       </c>
       <c r="AJ166" s="10" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="AK166" s="11" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="AL166" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM166" s="11" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="AN166" s="11" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="AO166" s="11" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AP166" s="36" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="AQ166" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR166" s="11"/>
       <c r="AS166" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT166" s="14"/>
       <c r="AU166" s="44">
@@ -29943,13 +30018,13 @@
         <v>94</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E167" s="10">
         <v>94500</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G167" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -29957,7 +30032,7 @@
 94500 - Champigny-sur-Marne</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="I167" s="12" t="s">
         <v>45</v>
@@ -30030,32 +30105,32 @@
         <v>372</v>
       </c>
       <c r="AJ167" s="10" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="AK167" s="11" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="AL167" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM167" s="11" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="AN167" s="11" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="AO167" s="11" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AP167" s="36" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="AQ167" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR167" s="11"/>
       <c r="AS167" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT167" s="14"/>
       <c r="AU167" s="44">
@@ -30076,13 +30151,13 @@
         <v>95</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E168" s="10">
         <v>95220</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G168" s="39" t="str">
         <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
@@ -30090,7 +30165,7 @@
 95220 - Herblay-sur-Seine</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I168" s="12" t="s">
         <v>47</v>
@@ -30163,46 +30238,180 @@
         <v>372</v>
       </c>
       <c r="AJ168" s="10" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="AK168" s="11" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="AL168" s="5" t="s">
         <v>370</v>
       </c>
       <c r="AM168" s="11" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="AN168" s="11" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="AO168" s="11">
         <v>48</v>
       </c>
       <c r="AP168" s="36" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="AQ168" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AR168" s="11"/>
       <c r="AS168" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT168" s="14"/>
       <c r="AU168" s="44">
         <v>46003</v>
       </c>
     </row>
-    <row r="170" spans="1:47">
-      <c r="F170" s="1" t="s">
-        <v>1039</v>
+    <row r="169" spans="1:47" ht="38.25">
+      <c r="A169" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,3)</f>
+        <v>Grand Est</v>
+      </c>
+      <c r="B169" s="38" t="str">
+        <f>VLOOKUP(Tableau1[[#This Row],[N° Département]],Feuil1!$C$6:$E$106,2)</f>
+        <v>Bas-Rhin</v>
+      </c>
+      <c r="C169" s="38">
+        <f>LEFT(Tableau1[[#This Row],[Code Postal]],2)*1</f>
+        <v>67</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E169" s="10">
+        <v>6700</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G169" s="39" t="str">
+        <f>Tableau1[[#This Row],[Rue]]&amp;CHAR(10)&amp;Tableau1[[#This Row],[Code Postal]]&amp;" - "&amp;Tableau1[[#This Row],[Ville]]</f>
+        <v>CAP 3000
+217 Av. Eugène Donadeï
+6700 - Saint-Laurent-du-Var</v>
+      </c>
+      <c r="H169" s="46" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J169" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K169" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L169" s="12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="M169" s="36"/>
+      <c r="N169" s="34">
+        <v>80</v>
+      </c>
+      <c r="O169" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P169" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q169" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R169" s="12"/>
+      <c r="S169" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]/12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T169" s="12"/>
+      <c r="U169" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V169" s="12"/>
+      <c r="W169" s="12">
+        <f>Tableau1[[#This Row],[Charges annuelles]]/12</f>
+        <v>0</v>
+      </c>
+      <c r="X169" s="12"/>
+      <c r="Y169" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Taxe foncière €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="Z169" s="12"/>
+      <c r="AA169" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Marketing €/m²]]*Tableau1[[#This Row],[Surface GLA]],)</f>
+        <v>0</v>
+      </c>
+      <c r="AB169" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC169" s="12">
+        <f>IFERROR(Tableau1[[#This Row],[Loyer annuel]]+Tableau1[[#This Row],[Charges annuelles]]+Tableau1[[#This Row],[Taxe foncière]]+Tableau1[[#This Row],[Marketing]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD169" s="12"/>
+      <c r="AE169" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF169" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG169" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH169" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI169" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ169" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AK169" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AL169" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM169" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AN169" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AO169" s="11">
+        <v>49</v>
+      </c>
+      <c r="AP169" s="36"/>
+      <c r="AQ169" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR169" s="11"/>
+      <c r="AS169" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AT169" s="14"/>
+      <c r="AU169" s="44">
+        <v>46010</v>
       </c>
     </row>
-    <row r="171" spans="1:47">
-      <c r="F171" s="1" t="s">
-        <v>1040</v>
+    <row r="174" spans="1:47">
+      <c r="F174" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="175" spans="1:47">
+      <c r="F175" s="1" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
